--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CAB058-DF4D-4BFA-8DE1-0C5D51A409DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BEBB53-110E-4688-9815-D8E2A140E9E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="170">
   <si>
     <t>sheet名</t>
   </si>
@@ -651,10 +651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>breakThrough.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>突破效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -680,6 +676,38 @@
   </si>
   <si>
     <t>全体施加BUFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvup.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakThrough.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakEffect.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclearPower.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1220,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,7 +1265,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>141</v>
@@ -1258,7 +1286,7 @@
         <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>143</v>
@@ -1273,13 +1301,13 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>146</v>
@@ -1294,13 +1322,13 @@
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>141</v>
@@ -1327,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304:A453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1413,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1454,8 +1482,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
+      <c r="A4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1497,8 +1525,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1</v>
+      <c r="A5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -1540,8 +1568,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
+      <c r="A6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -1584,8 +1612,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>1</v>
+      <c r="A7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -1628,8 +1656,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
+      <c r="A8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
@@ -1672,8 +1700,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
+      <c r="A9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
@@ -1713,8 +1741,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>1</v>
+      <c r="A10" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B10" s="4">
         <v>7</v>
@@ -1754,8 +1782,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>1</v>
+      <c r="A11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B11" s="4">
         <v>8</v>
@@ -1795,8 +1823,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
+      <c r="A12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B12" s="4">
         <v>9</v>
@@ -1836,8 +1864,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
+      <c r="A13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B13" s="4">
         <v>10</v>
@@ -1877,8 +1905,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>1</v>
+      <c r="A14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B14" s="4">
         <v>11</v>
@@ -1918,8 +1946,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
+      <c r="A15" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B15" s="4">
         <v>12</v>
@@ -1959,8 +1987,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>1</v>
+      <c r="A16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B16" s="4">
         <v>13</v>
@@ -2000,8 +2028,8 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>1</v>
+      <c r="A17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B17" s="4">
         <v>14</v>
@@ -2041,8 +2069,8 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>1</v>
+      <c r="A18" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B18" s="4">
         <v>15</v>
@@ -2082,8 +2110,8 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>1</v>
+      <c r="A19" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B19" s="4">
         <v>16</v>
@@ -2123,8 +2151,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>1</v>
+      <c r="A20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B20" s="4">
         <v>17</v>
@@ -2164,8 +2192,8 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>1</v>
+      <c r="A21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B21" s="4">
         <v>18</v>
@@ -2205,8 +2233,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>1</v>
+      <c r="A22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B22" s="4">
         <v>19</v>
@@ -2246,8 +2274,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>1</v>
+      <c r="A23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B23" s="4">
         <v>20</v>
@@ -2287,8 +2315,8 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>1</v>
+      <c r="A24" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B24" s="4">
         <v>21</v>
@@ -2328,8 +2356,8 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>1</v>
+      <c r="A25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B25" s="4">
         <v>22</v>
@@ -2369,8 +2397,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>1</v>
+      <c r="A26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B26" s="4">
         <v>23</v>
@@ -2410,8 +2438,8 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>1</v>
+      <c r="A27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B27" s="4">
         <v>24</v>
@@ -2451,8 +2479,8 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>1</v>
+      <c r="A28" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B28" s="4">
         <v>25</v>
@@ -2504,8 +2532,8 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>1</v>
+      <c r="A29" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B29" s="4">
         <v>26</v>
@@ -2545,8 +2573,8 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>1</v>
+      <c r="A30" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B30" s="4">
         <v>27</v>
@@ -2586,8 +2614,8 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>1</v>
+      <c r="A31" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B31" s="4">
         <v>28</v>
@@ -2627,8 +2655,8 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1</v>
+      <c r="A32" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B32" s="4">
         <v>29</v>
@@ -2668,8 +2696,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1</v>
+      <c r="A33" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B33" s="4">
         <v>30</v>
@@ -2709,8 +2737,8 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1</v>
+      <c r="A34" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B34" s="4">
         <v>31</v>
@@ -2750,8 +2778,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>1</v>
+      <c r="A35" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B35" s="4">
         <v>32</v>
@@ -2791,8 +2819,8 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>1</v>
+      <c r="A36" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B36" s="4">
         <v>33</v>
@@ -2832,8 +2860,8 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
+      <c r="A37" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B37" s="4">
         <v>34</v>
@@ -2873,8 +2901,8 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>1</v>
+      <c r="A38" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B38" s="4">
         <v>35</v>
@@ -2914,8 +2942,8 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>1</v>
+      <c r="A39" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B39" s="4">
         <v>36</v>
@@ -2955,8 +2983,8 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>1</v>
+      <c r="A40" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B40" s="4">
         <v>37</v>
@@ -2996,8 +3024,8 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>1</v>
+      <c r="A41" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B41" s="4">
         <v>38</v>
@@ -3037,8 +3065,8 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>1</v>
+      <c r="A42" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B42" s="4">
         <v>39</v>
@@ -3078,8 +3106,8 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>1</v>
+      <c r="A43" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B43" s="4">
         <v>40</v>
@@ -3131,8 +3159,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>1</v>
+      <c r="A44" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B44" s="4">
         <v>41</v>
@@ -3172,8 +3200,8 @@
       </c>
     </row>
     <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>1</v>
+      <c r="A45" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B45" s="4">
         <v>42</v>
@@ -3213,8 +3241,8 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>1</v>
+      <c r="A46" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B46" s="4">
         <v>43</v>
@@ -3254,8 +3282,8 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>1</v>
+      <c r="A47" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B47" s="4">
         <v>44</v>
@@ -3295,8 +3323,8 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>1</v>
+      <c r="A48" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B48" s="4">
         <v>45</v>
@@ -3336,8 +3364,8 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>1</v>
+      <c r="A49" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B49" s="4">
         <v>46</v>
@@ -3377,8 +3405,8 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>1</v>
+      <c r="A50" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B50" s="4">
         <v>47</v>
@@ -3418,8 +3446,8 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>1</v>
+      <c r="A51" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B51" s="4">
         <v>48</v>
@@ -3459,8 +3487,8 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>1</v>
+      <c r="A52" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B52" s="4">
         <v>49</v>
@@ -3500,8 +3528,8 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>1</v>
+      <c r="A53" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B53" s="4">
         <v>50</v>
@@ -3541,8 +3569,8 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>1</v>
+      <c r="A54" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B54" s="4">
         <v>51</v>
@@ -3582,8 +3610,8 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>1</v>
+      <c r="A55" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B55" s="4">
         <v>52</v>
@@ -3623,8 +3651,8 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>1</v>
+      <c r="A56" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B56" s="4">
         <v>53</v>
@@ -3664,8 +3692,8 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>1</v>
+      <c r="A57" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B57" s="4">
         <v>54</v>
@@ -3705,8 +3733,8 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>1</v>
+      <c r="A58" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B58" s="4">
         <v>55</v>
@@ -3746,8 +3774,8 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>1</v>
+      <c r="A59" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B59" s="4">
         <v>56</v>
@@ -3787,8 +3815,8 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>1</v>
+      <c r="A60" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B60" s="4">
         <v>57</v>
@@ -3828,8 +3856,8 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>1</v>
+      <c r="A61" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B61" s="4">
         <v>58</v>
@@ -3869,8 +3897,8 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>1</v>
+      <c r="A62" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B62" s="4">
         <v>59</v>
@@ -3910,8 +3938,8 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>1</v>
+      <c r="A63" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B63" s="4">
         <v>60</v>
@@ -3963,8 +3991,8 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>1</v>
+      <c r="A64" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B64" s="4">
         <v>61</v>
@@ -4004,8 +4032,8 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>1</v>
+      <c r="A65" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B65" s="4">
         <v>62</v>
@@ -4045,8 +4073,8 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>1</v>
+      <c r="A66" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B66" s="4">
         <v>63</v>
@@ -4086,8 +4114,8 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>1</v>
+      <c r="A67" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B67" s="4">
         <v>64</v>
@@ -4127,8 +4155,8 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>1</v>
+      <c r="A68" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B68" s="4">
         <v>65</v>
@@ -4168,8 +4196,8 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>1</v>
+      <c r="A69" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B69" s="4">
         <v>66</v>
@@ -4209,8 +4237,8 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>1</v>
+      <c r="A70" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B70" s="4">
         <v>67</v>
@@ -4250,8 +4278,8 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>1</v>
+      <c r="A71" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B71" s="4">
         <v>68</v>
@@ -4291,8 +4319,8 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>1</v>
+      <c r="A72" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B72" s="4">
         <v>69</v>
@@ -4332,8 +4360,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>1</v>
+      <c r="A73" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B73" s="4">
         <v>70</v>
@@ -4373,8 +4401,8 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>1</v>
+      <c r="A74" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B74" s="4">
         <v>71</v>
@@ -4414,8 +4442,8 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>1</v>
+      <c r="A75" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B75" s="4">
         <v>72</v>
@@ -4455,8 +4483,8 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>1</v>
+      <c r="A76" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B76" s="4">
         <v>73</v>
@@ -4496,8 +4524,8 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>1</v>
+      <c r="A77" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B77" s="4">
         <v>74</v>
@@ -4537,8 +4565,8 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>1</v>
+      <c r="A78" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B78" s="4">
         <v>75</v>
@@ -4578,8 +4606,8 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>1</v>
+      <c r="A79" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B79" s="4">
         <v>76</v>
@@ -4619,8 +4647,8 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>1</v>
+      <c r="A80" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B80" s="4">
         <v>77</v>
@@ -4660,8 +4688,8 @@
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>1</v>
+      <c r="A81" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B81" s="4">
         <v>78</v>
@@ -4701,8 +4729,8 @@
       </c>
     </row>
     <row r="82" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>1</v>
+      <c r="A82" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B82" s="4">
         <v>79</v>
@@ -4742,8 +4770,8 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>1</v>
+      <c r="A83" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B83" s="4">
         <v>80</v>
@@ -4795,8 +4823,8 @@
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>1</v>
+      <c r="A84" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B84" s="4">
         <v>81</v>
@@ -4836,8 +4864,8 @@
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>1</v>
+      <c r="A85" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B85" s="4">
         <v>82</v>
@@ -4877,8 +4905,8 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>1</v>
+      <c r="A86" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B86" s="4">
         <v>83</v>
@@ -4918,8 +4946,8 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>1</v>
+      <c r="A87" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B87" s="4">
         <v>84</v>
@@ -4959,8 +4987,8 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>1</v>
+      <c r="A88" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B88" s="4">
         <v>85</v>
@@ -5000,8 +5028,8 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>1</v>
+      <c r="A89" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B89" s="4">
         <v>86</v>
@@ -5041,8 +5069,8 @@
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>1</v>
+      <c r="A90" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B90" s="4">
         <v>87</v>
@@ -5082,8 +5110,8 @@
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>1</v>
+      <c r="A91" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B91" s="4">
         <v>88</v>
@@ -5123,8 +5151,8 @@
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>1</v>
+      <c r="A92" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B92" s="4">
         <v>89</v>
@@ -5164,8 +5192,8 @@
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>1</v>
+      <c r="A93" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B93" s="4">
         <v>90</v>
@@ -5205,8 +5233,8 @@
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>1</v>
+      <c r="A94" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B94" s="4">
         <v>91</v>
@@ -5246,8 +5274,8 @@
       </c>
     </row>
     <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>1</v>
+      <c r="A95" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B95" s="4">
         <v>92</v>
@@ -5287,8 +5315,8 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>1</v>
+      <c r="A96" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B96" s="4">
         <v>93</v>
@@ -5328,8 +5356,8 @@
       </c>
     </row>
     <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>1</v>
+      <c r="A97" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B97" s="4">
         <v>94</v>
@@ -5369,8 +5397,8 @@
       </c>
     </row>
     <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>1</v>
+      <c r="A98" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B98" s="4">
         <v>95</v>
@@ -5410,8 +5438,8 @@
       </c>
     </row>
     <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>1</v>
+      <c r="A99" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B99" s="4">
         <v>96</v>
@@ -5451,8 +5479,8 @@
       </c>
     </row>
     <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>1</v>
+      <c r="A100" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B100" s="4">
         <v>97</v>
@@ -5492,8 +5520,8 @@
       </c>
     </row>
     <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>1</v>
+      <c r="A101" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B101" s="4">
         <v>98</v>
@@ -5533,8 +5561,8 @@
       </c>
     </row>
     <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>1</v>
+      <c r="A102" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B102" s="4">
         <v>99</v>
@@ -5574,8 +5602,8 @@
       </c>
     </row>
     <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>1</v>
+      <c r="A103" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B103" s="4">
         <v>100</v>
@@ -5627,8 +5655,8 @@
       </c>
     </row>
     <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>1</v>
+      <c r="A104" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B104" s="4">
         <v>101</v>
@@ -5668,8 +5696,8 @@
       </c>
     </row>
     <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>1</v>
+      <c r="A105" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B105" s="4">
         <v>102</v>
@@ -5709,8 +5737,8 @@
       </c>
     </row>
     <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>1</v>
+      <c r="A106" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B106" s="4">
         <v>103</v>
@@ -5750,8 +5778,8 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>1</v>
+      <c r="A107" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B107" s="4">
         <v>104</v>
@@ -5791,8 +5819,8 @@
       </c>
     </row>
     <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>1</v>
+      <c r="A108" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B108" s="4">
         <v>105</v>
@@ -5832,8 +5860,8 @@
       </c>
     </row>
     <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>1</v>
+      <c r="A109" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B109" s="4">
         <v>106</v>
@@ -5873,8 +5901,8 @@
       </c>
     </row>
     <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>1</v>
+      <c r="A110" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B110" s="4">
         <v>107</v>
@@ -5914,8 +5942,8 @@
       </c>
     </row>
     <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>1</v>
+      <c r="A111" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B111" s="4">
         <v>108</v>
@@ -5955,8 +5983,8 @@
       </c>
     </row>
     <row r="112" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>1</v>
+      <c r="A112" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B112" s="4">
         <v>109</v>
@@ -5996,8 +6024,8 @@
       </c>
     </row>
     <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>1</v>
+      <c r="A113" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B113" s="4">
         <v>110</v>
@@ -6049,8 +6077,8 @@
       </c>
     </row>
     <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>1</v>
+      <c r="A114" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B114" s="4">
         <v>111</v>
@@ -6090,8 +6118,8 @@
       </c>
     </row>
     <row r="115" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>1</v>
+      <c r="A115" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B115" s="4">
         <v>112</v>
@@ -6131,8 +6159,8 @@
       </c>
     </row>
     <row r="116" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <v>1</v>
+      <c r="A116" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B116" s="4">
         <v>113</v>
@@ -6172,8 +6200,8 @@
       </c>
     </row>
     <row r="117" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <v>1</v>
+      <c r="A117" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B117" s="4">
         <v>114</v>
@@ -6213,8 +6241,8 @@
       </c>
     </row>
     <row r="118" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>1</v>
+      <c r="A118" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B118" s="4">
         <v>115</v>
@@ -6254,8 +6282,8 @@
       </c>
     </row>
     <row r="119" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <v>1</v>
+      <c r="A119" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B119" s="4">
         <v>116</v>
@@ -6295,8 +6323,8 @@
       </c>
     </row>
     <row r="120" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>1</v>
+      <c r="A120" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B120" s="4">
         <v>117</v>
@@ -6336,8 +6364,8 @@
       </c>
     </row>
     <row r="121" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <v>1</v>
+      <c r="A121" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B121" s="4">
         <v>118</v>
@@ -6377,8 +6405,8 @@
       </c>
     </row>
     <row r="122" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <v>1</v>
+      <c r="A122" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B122" s="4">
         <v>119</v>
@@ -6418,8 +6446,8 @@
       </c>
     </row>
     <row r="123" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <v>1</v>
+      <c r="A123" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B123" s="4">
         <v>120</v>
@@ -6471,8 +6499,8 @@
       </c>
     </row>
     <row r="124" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>1</v>
+      <c r="A124" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B124" s="4">
         <v>121</v>
@@ -6512,8 +6540,8 @@
       </c>
     </row>
     <row r="125" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <v>1</v>
+      <c r="A125" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B125" s="4">
         <v>122</v>
@@ -6553,8 +6581,8 @@
       </c>
     </row>
     <row r="126" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>1</v>
+      <c r="A126" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B126" s="4">
         <v>123</v>
@@ -6594,8 +6622,8 @@
       </c>
     </row>
     <row r="127" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <v>1</v>
+      <c r="A127" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B127" s="4">
         <v>124</v>
@@ -6635,8 +6663,8 @@
       </c>
     </row>
     <row r="128" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>1</v>
+      <c r="A128" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B128" s="4">
         <v>125</v>
@@ -6676,8 +6704,8 @@
       </c>
     </row>
     <row r="129" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <v>1</v>
+      <c r="A129" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B129" s="4">
         <v>126</v>
@@ -6717,8 +6745,8 @@
       </c>
     </row>
     <row r="130" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>1</v>
+      <c r="A130" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B130" s="4">
         <v>127</v>
@@ -6758,8 +6786,8 @@
       </c>
     </row>
     <row r="131" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>1</v>
+      <c r="A131" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B131" s="4">
         <v>128</v>
@@ -6799,8 +6827,8 @@
       </c>
     </row>
     <row r="132" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>1</v>
+      <c r="A132" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B132" s="4">
         <v>129</v>
@@ -6840,8 +6868,8 @@
       </c>
     </row>
     <row r="133" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>1</v>
+      <c r="A133" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B133" s="4">
         <v>130</v>
@@ -6893,8 +6921,8 @@
       </c>
     </row>
     <row r="134" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>1</v>
+      <c r="A134" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B134" s="4">
         <v>131</v>
@@ -6934,8 +6962,8 @@
       </c>
     </row>
     <row r="135" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <v>1</v>
+      <c r="A135" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B135" s="4">
         <v>132</v>
@@ -6975,8 +7003,8 @@
       </c>
     </row>
     <row r="136" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <v>1</v>
+      <c r="A136" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B136" s="4">
         <v>133</v>
@@ -7016,8 +7044,8 @@
       </c>
     </row>
     <row r="137" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <v>1</v>
+      <c r="A137" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B137" s="4">
         <v>134</v>
@@ -7057,8 +7085,8 @@
       </c>
     </row>
     <row r="138" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>1</v>
+      <c r="A138" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B138" s="4">
         <v>135</v>
@@ -7098,8 +7126,8 @@
       </c>
     </row>
     <row r="139" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
-        <v>1</v>
+      <c r="A139" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B139" s="4">
         <v>136</v>
@@ -7139,8 +7167,8 @@
       </c>
     </row>
     <row r="140" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>1</v>
+      <c r="A140" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B140" s="4">
         <v>137</v>
@@ -7180,8 +7208,8 @@
       </c>
     </row>
     <row r="141" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <v>1</v>
+      <c r="A141" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B141" s="4">
         <v>138</v>
@@ -7221,8 +7249,8 @@
       </c>
     </row>
     <row r="142" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <v>1</v>
+      <c r="A142" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B142" s="4">
         <v>139</v>
@@ -7262,8 +7290,8 @@
       </c>
     </row>
     <row r="143" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <v>1</v>
+      <c r="A143" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B143" s="4">
         <v>140</v>
@@ -7315,8 +7343,8 @@
       </c>
     </row>
     <row r="144" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <v>1</v>
+      <c r="A144" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B144" s="4">
         <v>141</v>
@@ -7356,8 +7384,8 @@
       </c>
     </row>
     <row r="145" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <v>1</v>
+      <c r="A145" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B145" s="4">
         <v>142</v>
@@ -7397,8 +7425,8 @@
       </c>
     </row>
     <row r="146" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>1</v>
+      <c r="A146" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B146" s="4">
         <v>143</v>
@@ -7438,8 +7466,8 @@
       </c>
     </row>
     <row r="147" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <v>1</v>
+      <c r="A147" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B147" s="4">
         <v>144</v>
@@ -7479,8 +7507,8 @@
       </c>
     </row>
     <row r="148" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <v>1</v>
+      <c r="A148" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B148" s="4">
         <v>145</v>
@@ -7520,8 +7548,8 @@
       </c>
     </row>
     <row r="149" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <v>1</v>
+      <c r="A149" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B149" s="4">
         <v>146</v>
@@ -7561,8 +7589,8 @@
       </c>
     </row>
     <row r="150" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <v>1</v>
+      <c r="A150" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B150" s="4">
         <v>147</v>
@@ -7602,8 +7630,8 @@
       </c>
     </row>
     <row r="151" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <v>1</v>
+      <c r="A151" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B151" s="4">
         <v>148</v>
@@ -7643,8 +7671,8 @@
       </c>
     </row>
     <row r="152" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <v>1</v>
+      <c r="A152" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B152" s="4">
         <v>149</v>
@@ -7684,8 +7712,8 @@
       </c>
     </row>
     <row r="153" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <v>1</v>
+      <c r="A153" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B153" s="4">
         <v>150</v>
@@ -7737,8 +7765,8 @@
       </c>
     </row>
     <row r="154" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <v>2</v>
+      <c r="A154" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B154" s="4">
         <v>1</v>
@@ -7778,8 +7806,8 @@
       </c>
     </row>
     <row r="155" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <v>2</v>
+      <c r="A155" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B155" s="4">
         <v>2</v>
@@ -7819,8 +7847,8 @@
       </c>
     </row>
     <row r="156" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <v>2</v>
+      <c r="A156" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B156" s="4">
         <v>3</v>
@@ -7860,8 +7888,8 @@
       </c>
     </row>
     <row r="157" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <v>2</v>
+      <c r="A157" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B157" s="4">
         <v>4</v>
@@ -7901,8 +7929,8 @@
       </c>
     </row>
     <row r="158" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <v>2</v>
+      <c r="A158" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B158" s="4">
         <v>5</v>
@@ -7942,8 +7970,8 @@
       </c>
     </row>
     <row r="159" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <v>2</v>
+      <c r="A159" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B159" s="4">
         <v>6</v>
@@ -7983,8 +8011,8 @@
       </c>
     </row>
     <row r="160" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <v>2</v>
+      <c r="A160" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B160" s="4">
         <v>7</v>
@@ -8024,8 +8052,8 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
-        <v>2</v>
+      <c r="A161" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B161" s="4">
         <v>8</v>
@@ -8065,8 +8093,8 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
-        <v>2</v>
+      <c r="A162" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B162" s="4">
         <v>9</v>
@@ -8106,8 +8134,8 @@
       </c>
     </row>
     <row r="163" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
-        <v>2</v>
+      <c r="A163" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B163" s="4">
         <v>10</v>
@@ -8147,8 +8175,8 @@
       </c>
     </row>
     <row r="164" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
-        <v>2</v>
+      <c r="A164" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="4">
         <v>11</v>
@@ -8188,8 +8216,8 @@
       </c>
     </row>
     <row r="165" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <v>2</v>
+      <c r="A165" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B165" s="4">
         <v>12</v>
@@ -8229,8 +8257,8 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
-        <v>2</v>
+      <c r="A166" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B166" s="4">
         <v>13</v>
@@ -8270,8 +8298,8 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <v>2</v>
+      <c r="A167" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B167" s="4">
         <v>14</v>
@@ -8311,8 +8339,8 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
-        <v>2</v>
+      <c r="A168" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B168" s="4">
         <v>15</v>
@@ -8352,8 +8380,8 @@
       </c>
     </row>
     <row r="169" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <v>2</v>
+      <c r="A169" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B169" s="4">
         <v>16</v>
@@ -8393,8 +8421,8 @@
       </c>
     </row>
     <row r="170" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <v>2</v>
+      <c r="A170" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B170" s="4">
         <v>17</v>
@@ -8434,8 +8462,8 @@
       </c>
     </row>
     <row r="171" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
-        <v>2</v>
+      <c r="A171" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B171" s="4">
         <v>18</v>
@@ -8475,8 +8503,8 @@
       </c>
     </row>
     <row r="172" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
-        <v>2</v>
+      <c r="A172" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B172" s="4">
         <v>19</v>
@@ -8516,8 +8544,8 @@
       </c>
     </row>
     <row r="173" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
-        <v>2</v>
+      <c r="A173" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B173" s="4">
         <v>20</v>
@@ -8557,8 +8585,8 @@
       </c>
     </row>
     <row r="174" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <v>2</v>
+      <c r="A174" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B174" s="4">
         <v>21</v>
@@ -8598,8 +8626,8 @@
       </c>
     </row>
     <row r="175" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
-        <v>2</v>
+      <c r="A175" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B175" s="4">
         <v>22</v>
@@ -8639,8 +8667,8 @@
       </c>
     </row>
     <row r="176" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <v>2</v>
+      <c r="A176" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B176" s="4">
         <v>23</v>
@@ -8680,8 +8708,8 @@
       </c>
     </row>
     <row r="177" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
-        <v>2</v>
+      <c r="A177" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B177" s="4">
         <v>24</v>
@@ -8721,8 +8749,8 @@
       </c>
     </row>
     <row r="178" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <v>2</v>
+      <c r="A178" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B178" s="4">
         <v>25</v>
@@ -8762,8 +8790,8 @@
       </c>
     </row>
     <row r="179" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
-        <v>2</v>
+      <c r="A179" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B179" s="4">
         <v>26</v>
@@ -8803,8 +8831,8 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
-        <v>2</v>
+      <c r="A180" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B180" s="4">
         <v>27</v>
@@ -8844,8 +8872,8 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
-        <v>2</v>
+      <c r="A181" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B181" s="4">
         <v>28</v>
@@ -8885,8 +8913,8 @@
       </c>
     </row>
     <row r="182" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
-        <v>2</v>
+      <c r="A182" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B182" s="4">
         <v>29</v>
@@ -8926,8 +8954,8 @@
       </c>
     </row>
     <row r="183" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
-        <v>2</v>
+      <c r="A183" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B183" s="4">
         <v>30</v>
@@ -8967,8 +8995,8 @@
       </c>
     </row>
     <row r="184" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
-        <v>2</v>
+      <c r="A184" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B184" s="4">
         <v>31</v>
@@ -9008,8 +9036,8 @@
       </c>
     </row>
     <row r="185" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
-        <v>2</v>
+      <c r="A185" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B185" s="4">
         <v>32</v>
@@ -9049,8 +9077,8 @@
       </c>
     </row>
     <row r="186" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
-        <v>2</v>
+      <c r="A186" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B186" s="4">
         <v>33</v>
@@ -9090,8 +9118,8 @@
       </c>
     </row>
     <row r="187" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
-        <v>2</v>
+      <c r="A187" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B187" s="4">
         <v>34</v>
@@ -9131,8 +9159,8 @@
       </c>
     </row>
     <row r="188" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
-        <v>2</v>
+      <c r="A188" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B188" s="4">
         <v>35</v>
@@ -9172,8 +9200,8 @@
       </c>
     </row>
     <row r="189" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
-        <v>2</v>
+      <c r="A189" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B189" s="4">
         <v>36</v>
@@ -9213,8 +9241,8 @@
       </c>
     </row>
     <row r="190" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
-        <v>2</v>
+      <c r="A190" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B190" s="4">
         <v>37</v>
@@ -9254,8 +9282,8 @@
       </c>
     </row>
     <row r="191" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
-        <v>2</v>
+      <c r="A191" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B191" s="4">
         <v>38</v>
@@ -9295,8 +9323,8 @@
       </c>
     </row>
     <row r="192" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
-        <v>2</v>
+      <c r="A192" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B192" s="4">
         <v>39</v>
@@ -9336,8 +9364,8 @@
       </c>
     </row>
     <row r="193" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
-        <v>2</v>
+      <c r="A193" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B193" s="4">
         <v>40</v>
@@ -9377,8 +9405,8 @@
       </c>
     </row>
     <row r="194" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
-        <v>2</v>
+      <c r="A194" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B194" s="4">
         <v>41</v>
@@ -9418,8 +9446,8 @@
       </c>
     </row>
     <row r="195" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
-        <v>2</v>
+      <c r="A195" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B195" s="4">
         <v>42</v>
@@ -9459,8 +9487,8 @@
       </c>
     </row>
     <row r="196" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
-        <v>2</v>
+      <c r="A196" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B196" s="4">
         <v>43</v>
@@ -9500,8 +9528,8 @@
       </c>
     </row>
     <row r="197" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
-        <v>2</v>
+      <c r="A197" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B197" s="4">
         <v>44</v>
@@ -9541,8 +9569,8 @@
       </c>
     </row>
     <row r="198" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
-        <v>2</v>
+      <c r="A198" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B198" s="4">
         <v>45</v>
@@ -9582,8 +9610,8 @@
       </c>
     </row>
     <row r="199" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
-        <v>2</v>
+      <c r="A199" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B199" s="4">
         <v>46</v>
@@ -9623,8 +9651,8 @@
       </c>
     </row>
     <row r="200" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
-        <v>2</v>
+      <c r="A200" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B200" s="4">
         <v>47</v>
@@ -9664,8 +9692,8 @@
       </c>
     </row>
     <row r="201" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
-        <v>2</v>
+      <c r="A201" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B201" s="4">
         <v>48</v>
@@ -9705,8 +9733,8 @@
       </c>
     </row>
     <row r="202" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
-        <v>2</v>
+      <c r="A202" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B202" s="4">
         <v>49</v>
@@ -9746,8 +9774,8 @@
       </c>
     </row>
     <row r="203" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
-        <v>2</v>
+      <c r="A203" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B203" s="4">
         <v>50</v>
@@ -9787,8 +9815,8 @@
       </c>
     </row>
     <row r="204" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
-        <v>2</v>
+      <c r="A204" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B204" s="4">
         <v>51</v>
@@ -9828,8 +9856,8 @@
       </c>
     </row>
     <row r="205" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
-        <v>2</v>
+      <c r="A205" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B205" s="4">
         <v>52</v>
@@ -9869,8 +9897,8 @@
       </c>
     </row>
     <row r="206" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
-        <v>2</v>
+      <c r="A206" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B206" s="4">
         <v>53</v>
@@ -9910,8 +9938,8 @@
       </c>
     </row>
     <row r="207" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
-        <v>2</v>
+      <c r="A207" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B207" s="4">
         <v>54</v>
@@ -9951,8 +9979,8 @@
       </c>
     </row>
     <row r="208" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
-        <v>2</v>
+      <c r="A208" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B208" s="4">
         <v>55</v>
@@ -9992,8 +10020,8 @@
       </c>
     </row>
     <row r="209" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
-        <v>2</v>
+      <c r="A209" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B209" s="4">
         <v>56</v>
@@ -10033,8 +10061,8 @@
       </c>
     </row>
     <row r="210" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
-        <v>2</v>
+      <c r="A210" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B210" s="4">
         <v>57</v>
@@ -10074,8 +10102,8 @@
       </c>
     </row>
     <row r="211" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
-        <v>2</v>
+      <c r="A211" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B211" s="4">
         <v>58</v>
@@ -10115,8 +10143,8 @@
       </c>
     </row>
     <row r="212" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
-        <v>2</v>
+      <c r="A212" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B212" s="4">
         <v>59</v>
@@ -10156,8 +10184,8 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
-        <v>2</v>
+      <c r="A213" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B213" s="4">
         <v>60</v>
@@ -10197,8 +10225,8 @@
       </c>
     </row>
     <row r="214" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
-        <v>2</v>
+      <c r="A214" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B214" s="4">
         <v>61</v>
@@ -10238,8 +10266,8 @@
       </c>
     </row>
     <row r="215" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
-        <v>2</v>
+      <c r="A215" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B215" s="4">
         <v>62</v>
@@ -10279,8 +10307,8 @@
       </c>
     </row>
     <row r="216" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
-        <v>2</v>
+      <c r="A216" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B216" s="4">
         <v>63</v>
@@ -10320,8 +10348,8 @@
       </c>
     </row>
     <row r="217" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>2</v>
+      <c r="A217" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B217" s="4">
         <v>64</v>
@@ -10361,8 +10389,8 @@
       </c>
     </row>
     <row r="218" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>2</v>
+      <c r="A218" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B218" s="4">
         <v>65</v>
@@ -10402,8 +10430,8 @@
       </c>
     </row>
     <row r="219" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
-        <v>2</v>
+      <c r="A219" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B219" s="4">
         <v>66</v>
@@ -10443,8 +10471,8 @@
       </c>
     </row>
     <row r="220" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
-        <v>2</v>
+      <c r="A220" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B220" s="4">
         <v>67</v>
@@ -10484,8 +10512,8 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
-        <v>2</v>
+      <c r="A221" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B221" s="4">
         <v>68</v>
@@ -10525,8 +10553,8 @@
       </c>
     </row>
     <row r="222" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
-        <v>2</v>
+      <c r="A222" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B222" s="4">
         <v>69</v>
@@ -10566,8 +10594,8 @@
       </c>
     </row>
     <row r="223" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
-        <v>2</v>
+      <c r="A223" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B223" s="4">
         <v>70</v>
@@ -10607,8 +10635,8 @@
       </c>
     </row>
     <row r="224" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
-        <v>2</v>
+      <c r="A224" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B224" s="4">
         <v>71</v>
@@ -10648,8 +10676,8 @@
       </c>
     </row>
     <row r="225" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
-        <v>2</v>
+      <c r="A225" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B225" s="4">
         <v>72</v>
@@ -10689,8 +10717,8 @@
       </c>
     </row>
     <row r="226" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
-        <v>2</v>
+      <c r="A226" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B226" s="4">
         <v>73</v>
@@ -10730,8 +10758,8 @@
       </c>
     </row>
     <row r="227" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
-        <v>2</v>
+      <c r="A227" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B227" s="4">
         <v>74</v>
@@ -10771,8 +10799,8 @@
       </c>
     </row>
     <row r="228" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
-        <v>2</v>
+      <c r="A228" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B228" s="4">
         <v>75</v>
@@ -10812,8 +10840,8 @@
       </c>
     </row>
     <row r="229" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
-        <v>2</v>
+      <c r="A229" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B229" s="4">
         <v>76</v>
@@ -10853,8 +10881,8 @@
       </c>
     </row>
     <row r="230" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
-        <v>2</v>
+      <c r="A230" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B230" s="4">
         <v>77</v>
@@ -10894,8 +10922,8 @@
       </c>
     </row>
     <row r="231" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
-        <v>2</v>
+      <c r="A231" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B231" s="4">
         <v>78</v>
@@ -10935,8 +10963,8 @@
       </c>
     </row>
     <row r="232" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
-        <v>2</v>
+      <c r="A232" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B232" s="4">
         <v>79</v>
@@ -10976,8 +11004,8 @@
       </c>
     </row>
     <row r="233" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
-        <v>2</v>
+      <c r="A233" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B233" s="4">
         <v>80</v>
@@ -11017,8 +11045,8 @@
       </c>
     </row>
     <row r="234" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
-        <v>2</v>
+      <c r="A234" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B234" s="4">
         <v>81</v>
@@ -11058,8 +11086,8 @@
       </c>
     </row>
     <row r="235" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
-        <v>2</v>
+      <c r="A235" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B235" s="4">
         <v>82</v>
@@ -11099,8 +11127,8 @@
       </c>
     </row>
     <row r="236" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
-        <v>2</v>
+      <c r="A236" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B236" s="4">
         <v>83</v>
@@ -11140,8 +11168,8 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
-        <v>2</v>
+      <c r="A237" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B237" s="4">
         <v>84</v>
@@ -11181,8 +11209,8 @@
       </c>
     </row>
     <row r="238" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
-        <v>2</v>
+      <c r="A238" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B238" s="4">
         <v>85</v>
@@ -11222,8 +11250,8 @@
       </c>
     </row>
     <row r="239" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
-        <v>2</v>
+      <c r="A239" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B239" s="4">
         <v>86</v>
@@ -11263,8 +11291,8 @@
       </c>
     </row>
     <row r="240" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
-        <v>2</v>
+      <c r="A240" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B240" s="4">
         <v>87</v>
@@ -11304,8 +11332,8 @@
       </c>
     </row>
     <row r="241" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
-        <v>2</v>
+      <c r="A241" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B241" s="4">
         <v>88</v>
@@ -11345,8 +11373,8 @@
       </c>
     </row>
     <row r="242" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>2</v>
+      <c r="A242" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B242" s="4">
         <v>89</v>
@@ -11386,8 +11414,8 @@
       </c>
     </row>
     <row r="243" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>2</v>
+      <c r="A243" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B243" s="4">
         <v>90</v>
@@ -11427,8 +11455,8 @@
       </c>
     </row>
     <row r="244" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
-        <v>2</v>
+      <c r="A244" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B244" s="4">
         <v>91</v>
@@ -11468,8 +11496,8 @@
       </c>
     </row>
     <row r="245" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
-        <v>2</v>
+      <c r="A245" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B245" s="4">
         <v>92</v>
@@ -11509,8 +11537,8 @@
       </c>
     </row>
     <row r="246" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
-        <v>2</v>
+      <c r="A246" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B246" s="4">
         <v>93</v>
@@ -11550,8 +11578,8 @@
       </c>
     </row>
     <row r="247" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
-        <v>2</v>
+      <c r="A247" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B247" s="4">
         <v>94</v>
@@ -11591,8 +11619,8 @@
       </c>
     </row>
     <row r="248" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
-        <v>2</v>
+      <c r="A248" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B248" s="4">
         <v>95</v>
@@ -11632,8 +11660,8 @@
       </c>
     </row>
     <row r="249" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
-        <v>2</v>
+      <c r="A249" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B249" s="4">
         <v>96</v>
@@ -11673,8 +11701,8 @@
       </c>
     </row>
     <row r="250" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <v>2</v>
+      <c r="A250" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B250" s="4">
         <v>97</v>
@@ -11714,8 +11742,8 @@
       </c>
     </row>
     <row r="251" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
-        <v>2</v>
+      <c r="A251" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B251" s="4">
         <v>98</v>
@@ -11755,8 +11783,8 @@
       </c>
     </row>
     <row r="252" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
-        <v>2</v>
+      <c r="A252" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B252" s="4">
         <v>99</v>
@@ -11796,8 +11824,8 @@
       </c>
     </row>
     <row r="253" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
-        <v>2</v>
+      <c r="A253" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B253" s="4">
         <v>100</v>
@@ -11837,8 +11865,8 @@
       </c>
     </row>
     <row r="254" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
-        <v>2</v>
+      <c r="A254" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B254" s="4">
         <v>101</v>
@@ -11878,8 +11906,8 @@
       </c>
     </row>
     <row r="255" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
-        <v>2</v>
+      <c r="A255" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B255" s="4">
         <v>102</v>
@@ -11919,8 +11947,8 @@
       </c>
     </row>
     <row r="256" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
-        <v>2</v>
+      <c r="A256" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B256" s="4">
         <v>103</v>
@@ -11960,8 +11988,8 @@
       </c>
     </row>
     <row r="257" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
-        <v>2</v>
+      <c r="A257" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B257" s="4">
         <v>104</v>
@@ -12001,8 +12029,8 @@
       </c>
     </row>
     <row r="258" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
-        <v>2</v>
+      <c r="A258" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B258" s="4">
         <v>105</v>
@@ -12042,8 +12070,8 @@
       </c>
     </row>
     <row r="259" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
-        <v>2</v>
+      <c r="A259" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B259" s="4">
         <v>106</v>
@@ -12083,8 +12111,8 @@
       </c>
     </row>
     <row r="260" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
-        <v>2</v>
+      <c r="A260" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B260" s="4">
         <v>107</v>
@@ -12124,8 +12152,8 @@
       </c>
     </row>
     <row r="261" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
-        <v>2</v>
+      <c r="A261" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B261" s="4">
         <v>108</v>
@@ -12165,8 +12193,8 @@
       </c>
     </row>
     <row r="262" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
-        <v>2</v>
+      <c r="A262" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B262" s="4">
         <v>109</v>
@@ -12206,8 +12234,8 @@
       </c>
     </row>
     <row r="263" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
-        <v>2</v>
+      <c r="A263" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B263" s="4">
         <v>110</v>
@@ -12247,8 +12275,8 @@
       </c>
     </row>
     <row r="264" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
-        <v>2</v>
+      <c r="A264" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B264" s="4">
         <v>111</v>
@@ -12288,8 +12316,8 @@
       </c>
     </row>
     <row r="265" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
-        <v>2</v>
+      <c r="A265" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B265" s="4">
         <v>112</v>
@@ -12329,8 +12357,8 @@
       </c>
     </row>
     <row r="266" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
-        <v>2</v>
+      <c r="A266" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B266" s="4">
         <v>113</v>
@@ -12370,8 +12398,8 @@
       </c>
     </row>
     <row r="267" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
-        <v>2</v>
+      <c r="A267" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B267" s="4">
         <v>114</v>
@@ -12411,8 +12439,8 @@
       </c>
     </row>
     <row r="268" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
-        <v>2</v>
+      <c r="A268" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B268" s="4">
         <v>115</v>
@@ -12452,8 +12480,8 @@
       </c>
     </row>
     <row r="269" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
-        <v>2</v>
+      <c r="A269" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B269" s="4">
         <v>116</v>
@@ -12493,8 +12521,8 @@
       </c>
     </row>
     <row r="270" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
-        <v>2</v>
+      <c r="A270" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B270" s="4">
         <v>117</v>
@@ -12534,8 +12562,8 @@
       </c>
     </row>
     <row r="271" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
-        <v>2</v>
+      <c r="A271" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B271" s="4">
         <v>118</v>
@@ -12575,8 +12603,8 @@
       </c>
     </row>
     <row r="272" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
-        <v>2</v>
+      <c r="A272" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B272" s="4">
         <v>119</v>
@@ -12616,8 +12644,8 @@
       </c>
     </row>
     <row r="273" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
-        <v>2</v>
+      <c r="A273" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B273" s="4">
         <v>120</v>
@@ -12657,8 +12685,8 @@
       </c>
     </row>
     <row r="274" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
-        <v>2</v>
+      <c r="A274" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B274" s="4">
         <v>121</v>
@@ -12698,8 +12726,8 @@
       </c>
     </row>
     <row r="275" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
-        <v>2</v>
+      <c r="A275" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B275" s="4">
         <v>122</v>
@@ -12739,8 +12767,8 @@
       </c>
     </row>
     <row r="276" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
-        <v>2</v>
+      <c r="A276" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B276" s="4">
         <v>123</v>
@@ -12780,8 +12808,8 @@
       </c>
     </row>
     <row r="277" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
-        <v>2</v>
+      <c r="A277" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B277" s="4">
         <v>124</v>
@@ -12821,8 +12849,8 @@
       </c>
     </row>
     <row r="278" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
-        <v>2</v>
+      <c r="A278" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B278" s="4">
         <v>125</v>
@@ -12862,8 +12890,8 @@
       </c>
     </row>
     <row r="279" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
-        <v>2</v>
+      <c r="A279" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B279" s="4">
         <v>126</v>
@@ -12903,8 +12931,8 @@
       </c>
     </row>
     <row r="280" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
-        <v>2</v>
+      <c r="A280" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B280" s="4">
         <v>127</v>
@@ -12944,8 +12972,8 @@
       </c>
     </row>
     <row r="281" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
-        <v>2</v>
+      <c r="A281" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B281" s="4">
         <v>128</v>
@@ -12985,8 +13013,8 @@
       </c>
     </row>
     <row r="282" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
-        <v>2</v>
+      <c r="A282" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B282" s="4">
         <v>129</v>
@@ -13026,8 +13054,8 @@
       </c>
     </row>
     <row r="283" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
-        <v>2</v>
+      <c r="A283" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B283" s="4">
         <v>130</v>
@@ -13067,8 +13095,8 @@
       </c>
     </row>
     <row r="284" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
-        <v>2</v>
+      <c r="A284" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B284" s="4">
         <v>131</v>
@@ -13108,8 +13136,8 @@
       </c>
     </row>
     <row r="285" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
-        <v>2</v>
+      <c r="A285" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B285" s="4">
         <v>132</v>
@@ -13149,8 +13177,8 @@
       </c>
     </row>
     <row r="286" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
-        <v>2</v>
+      <c r="A286" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B286" s="4">
         <v>133</v>
@@ -13190,8 +13218,8 @@
       </c>
     </row>
     <row r="287" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
-        <v>2</v>
+      <c r="A287" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B287" s="4">
         <v>134</v>
@@ -13231,8 +13259,8 @@
       </c>
     </row>
     <row r="288" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
-        <v>2</v>
+      <c r="A288" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B288" s="4">
         <v>135</v>
@@ -13272,8 +13300,8 @@
       </c>
     </row>
     <row r="289" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
-        <v>2</v>
+      <c r="A289" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B289" s="4">
         <v>136</v>
@@ -13313,8 +13341,8 @@
       </c>
     </row>
     <row r="290" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
-        <v>2</v>
+      <c r="A290" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B290" s="4">
         <v>137</v>
@@ -13354,8 +13382,8 @@
       </c>
     </row>
     <row r="291" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
-        <v>2</v>
+      <c r="A291" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B291" s="4">
         <v>138</v>
@@ -13395,8 +13423,8 @@
       </c>
     </row>
     <row r="292" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A292" s="4">
-        <v>2</v>
+      <c r="A292" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B292" s="4">
         <v>139</v>
@@ -13436,8 +13464,8 @@
       </c>
     </row>
     <row r="293" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A293" s="4">
-        <v>2</v>
+      <c r="A293" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B293" s="4">
         <v>140</v>
@@ -13477,8 +13505,8 @@
       </c>
     </row>
     <row r="294" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A294" s="4">
-        <v>2</v>
+      <c r="A294" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B294" s="4">
         <v>141</v>
@@ -13518,8 +13546,8 @@
       </c>
     </row>
     <row r="295" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A295" s="4">
-        <v>2</v>
+      <c r="A295" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B295" s="4">
         <v>142</v>
@@ -13559,8 +13587,8 @@
       </c>
     </row>
     <row r="296" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A296" s="4">
-        <v>2</v>
+      <c r="A296" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B296" s="4">
         <v>143</v>
@@ -13600,8 +13628,8 @@
       </c>
     </row>
     <row r="297" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="4">
-        <v>2</v>
+      <c r="A297" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B297" s="4">
         <v>144</v>
@@ -13641,8 +13669,8 @@
       </c>
     </row>
     <row r="298" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A298" s="4">
-        <v>2</v>
+      <c r="A298" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B298" s="4">
         <v>145</v>
@@ -13682,8 +13710,8 @@
       </c>
     </row>
     <row r="299" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
-        <v>2</v>
+      <c r="A299" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B299" s="4">
         <v>146</v>
@@ -13723,8 +13751,8 @@
       </c>
     </row>
     <row r="300" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="4">
-        <v>2</v>
+      <c r="A300" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B300" s="4">
         <v>147</v>
@@ -13764,8 +13792,8 @@
       </c>
     </row>
     <row r="301" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A301" s="4">
-        <v>2</v>
+      <c r="A301" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B301" s="4">
         <v>148</v>
@@ -13805,8 +13833,8 @@
       </c>
     </row>
     <row r="302" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A302" s="4">
-        <v>2</v>
+      <c r="A302" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B302" s="4">
         <v>149</v>
@@ -13846,8 +13874,8 @@
       </c>
     </row>
     <row r="303" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A303" s="4">
-        <v>2</v>
+      <c r="A303" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B303" s="4">
         <v>150</v>
@@ -13887,8 +13915,8 @@
       </c>
     </row>
     <row r="304" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A304" s="4">
-        <v>3</v>
+      <c r="A304" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B304" s="4">
         <v>1</v>
@@ -13928,8 +13956,8 @@
       </c>
     </row>
     <row r="305" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A305" s="4">
-        <v>3</v>
+      <c r="A305" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B305" s="4">
         <v>2</v>
@@ -13969,8 +13997,8 @@
       </c>
     </row>
     <row r="306" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A306" s="4">
-        <v>3</v>
+      <c r="A306" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B306" s="4">
         <v>3</v>
@@ -14010,8 +14038,8 @@
       </c>
     </row>
     <row r="307" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A307" s="4">
-        <v>3</v>
+      <c r="A307" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B307" s="4">
         <v>4</v>
@@ -14051,8 +14079,8 @@
       </c>
     </row>
     <row r="308" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A308" s="4">
-        <v>3</v>
+      <c r="A308" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B308" s="4">
         <v>5</v>
@@ -14092,8 +14120,8 @@
       </c>
     </row>
     <row r="309" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A309" s="4">
-        <v>3</v>
+      <c r="A309" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B309" s="4">
         <v>6</v>
@@ -14133,8 +14161,8 @@
       </c>
     </row>
     <row r="310" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A310" s="4">
-        <v>3</v>
+      <c r="A310" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B310" s="4">
         <v>7</v>
@@ -14174,8 +14202,8 @@
       </c>
     </row>
     <row r="311" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A311" s="4">
-        <v>3</v>
+      <c r="A311" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B311" s="4">
         <v>8</v>
@@ -14215,8 +14243,8 @@
       </c>
     </row>
     <row r="312" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A312" s="4">
-        <v>3</v>
+      <c r="A312" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B312" s="4">
         <v>9</v>
@@ -14256,8 +14284,8 @@
       </c>
     </row>
     <row r="313" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A313" s="4">
-        <v>3</v>
+      <c r="A313" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B313" s="4">
         <v>10</v>
@@ -14297,8 +14325,8 @@
       </c>
     </row>
     <row r="314" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A314" s="4">
-        <v>3</v>
+      <c r="A314" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B314" s="4">
         <v>11</v>
@@ -14338,8 +14366,8 @@
       </c>
     </row>
     <row r="315" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A315" s="4">
-        <v>3</v>
+      <c r="A315" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B315" s="4">
         <v>12</v>
@@ -14379,8 +14407,8 @@
       </c>
     </row>
     <row r="316" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A316" s="4">
-        <v>3</v>
+      <c r="A316" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B316" s="4">
         <v>13</v>
@@ -14420,8 +14448,8 @@
       </c>
     </row>
     <row r="317" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A317" s="4">
-        <v>3</v>
+      <c r="A317" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B317" s="4">
         <v>14</v>
@@ -14461,8 +14489,8 @@
       </c>
     </row>
     <row r="318" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A318" s="4">
-        <v>3</v>
+      <c r="A318" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B318" s="4">
         <v>15</v>
@@ -14502,8 +14530,8 @@
       </c>
     </row>
     <row r="319" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A319" s="4">
-        <v>3</v>
+      <c r="A319" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B319" s="4">
         <v>16</v>
@@ -14543,8 +14571,8 @@
       </c>
     </row>
     <row r="320" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A320" s="4">
-        <v>3</v>
+      <c r="A320" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B320" s="4">
         <v>17</v>
@@ -14584,8 +14612,8 @@
       </c>
     </row>
     <row r="321" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A321" s="4">
-        <v>3</v>
+      <c r="A321" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B321" s="4">
         <v>18</v>
@@ -14625,8 +14653,8 @@
       </c>
     </row>
     <row r="322" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A322" s="4">
-        <v>3</v>
+      <c r="A322" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B322" s="4">
         <v>19</v>
@@ -14666,8 +14694,8 @@
       </c>
     </row>
     <row r="323" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A323" s="4">
-        <v>3</v>
+      <c r="A323" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B323" s="4">
         <v>20</v>
@@ -14707,8 +14735,8 @@
       </c>
     </row>
     <row r="324" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A324" s="4">
-        <v>3</v>
+      <c r="A324" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B324" s="4">
         <v>21</v>
@@ -14748,8 +14776,8 @@
       </c>
     </row>
     <row r="325" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A325" s="4">
-        <v>3</v>
+      <c r="A325" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B325" s="4">
         <v>22</v>
@@ -14789,8 +14817,8 @@
       </c>
     </row>
     <row r="326" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A326" s="4">
-        <v>3</v>
+      <c r="A326" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B326" s="4">
         <v>23</v>
@@ -14830,8 +14858,8 @@
       </c>
     </row>
     <row r="327" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A327" s="4">
-        <v>3</v>
+      <c r="A327" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B327" s="4">
         <v>24</v>
@@ -14871,8 +14899,8 @@
       </c>
     </row>
     <row r="328" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A328" s="4">
-        <v>3</v>
+      <c r="A328" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B328" s="4">
         <v>25</v>
@@ -14912,8 +14940,8 @@
       </c>
     </row>
     <row r="329" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A329" s="4">
-        <v>3</v>
+      <c r="A329" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B329" s="4">
         <v>26</v>
@@ -14953,8 +14981,8 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A330" s="4">
-        <v>3</v>
+      <c r="A330" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B330" s="4">
         <v>27</v>
@@ -14994,8 +15022,8 @@
       </c>
     </row>
     <row r="331" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A331" s="4">
-        <v>3</v>
+      <c r="A331" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B331" s="4">
         <v>28</v>
@@ -15035,8 +15063,8 @@
       </c>
     </row>
     <row r="332" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A332" s="4">
-        <v>3</v>
+      <c r="A332" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B332" s="4">
         <v>29</v>
@@ -15076,8 +15104,8 @@
       </c>
     </row>
     <row r="333" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A333" s="4">
-        <v>3</v>
+      <c r="A333" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B333" s="4">
         <v>30</v>
@@ -15117,8 +15145,8 @@
       </c>
     </row>
     <row r="334" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A334" s="4">
-        <v>3</v>
+      <c r="A334" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B334" s="4">
         <v>31</v>
@@ -15158,8 +15186,8 @@
       </c>
     </row>
     <row r="335" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A335" s="4">
-        <v>3</v>
+      <c r="A335" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B335" s="4">
         <v>32</v>
@@ -15199,8 +15227,8 @@
       </c>
     </row>
     <row r="336" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A336" s="4">
-        <v>3</v>
+      <c r="A336" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B336" s="4">
         <v>33</v>
@@ -15240,8 +15268,8 @@
       </c>
     </row>
     <row r="337" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A337" s="4">
-        <v>3</v>
+      <c r="A337" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B337" s="4">
         <v>34</v>
@@ -15281,8 +15309,8 @@
       </c>
     </row>
     <row r="338" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A338" s="4">
-        <v>3</v>
+      <c r="A338" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B338" s="4">
         <v>35</v>
@@ -15322,8 +15350,8 @@
       </c>
     </row>
     <row r="339" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="4">
-        <v>3</v>
+      <c r="A339" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B339" s="4">
         <v>36</v>
@@ -15363,8 +15391,8 @@
       </c>
     </row>
     <row r="340" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A340" s="4">
-        <v>3</v>
+      <c r="A340" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B340" s="4">
         <v>37</v>
@@ -15404,8 +15432,8 @@
       </c>
     </row>
     <row r="341" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A341" s="4">
-        <v>3</v>
+      <c r="A341" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B341" s="4">
         <v>38</v>
@@ -15445,8 +15473,8 @@
       </c>
     </row>
     <row r="342" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A342" s="4">
-        <v>3</v>
+      <c r="A342" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B342" s="4">
         <v>39</v>
@@ -15486,8 +15514,8 @@
       </c>
     </row>
     <row r="343" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="4">
-        <v>3</v>
+      <c r="A343" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B343" s="4">
         <v>40</v>
@@ -15527,8 +15555,8 @@
       </c>
     </row>
     <row r="344" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A344" s="4">
-        <v>3</v>
+      <c r="A344" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B344" s="4">
         <v>41</v>
@@ -15568,8 +15596,8 @@
       </c>
     </row>
     <row r="345" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A345" s="4">
-        <v>3</v>
+      <c r="A345" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B345" s="4">
         <v>42</v>
@@ -15609,8 +15637,8 @@
       </c>
     </row>
     <row r="346" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A346" s="4">
-        <v>3</v>
+      <c r="A346" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B346" s="4">
         <v>43</v>
@@ -15650,8 +15678,8 @@
       </c>
     </row>
     <row r="347" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A347" s="4">
-        <v>3</v>
+      <c r="A347" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B347" s="4">
         <v>44</v>
@@ -15691,8 +15719,8 @@
       </c>
     </row>
     <row r="348" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A348" s="4">
-        <v>3</v>
+      <c r="A348" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B348" s="4">
         <v>45</v>
@@ -15732,8 +15760,8 @@
       </c>
     </row>
     <row r="349" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A349" s="4">
-        <v>3</v>
+      <c r="A349" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B349" s="4">
         <v>46</v>
@@ -15773,8 +15801,8 @@
       </c>
     </row>
     <row r="350" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A350" s="4">
-        <v>3</v>
+      <c r="A350" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B350" s="4">
         <v>47</v>
@@ -15814,8 +15842,8 @@
       </c>
     </row>
     <row r="351" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A351" s="4">
-        <v>3</v>
+      <c r="A351" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B351" s="4">
         <v>48</v>
@@ -15855,8 +15883,8 @@
       </c>
     </row>
     <row r="352" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A352" s="4">
-        <v>3</v>
+      <c r="A352" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B352" s="4">
         <v>49</v>
@@ -15896,8 +15924,8 @@
       </c>
     </row>
     <row r="353" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A353" s="4">
-        <v>3</v>
+      <c r="A353" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B353" s="4">
         <v>50</v>
@@ -15937,8 +15965,8 @@
       </c>
     </row>
     <row r="354" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="4">
-        <v>3</v>
+      <c r="A354" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B354" s="4">
         <v>51</v>
@@ -15978,8 +16006,8 @@
       </c>
     </row>
     <row r="355" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A355" s="4">
-        <v>3</v>
+      <c r="A355" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B355" s="4">
         <v>52</v>
@@ -16019,8 +16047,8 @@
       </c>
     </row>
     <row r="356" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A356" s="4">
-        <v>3</v>
+      <c r="A356" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B356" s="4">
         <v>53</v>
@@ -16060,8 +16088,8 @@
       </c>
     </row>
     <row r="357" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A357" s="4">
-        <v>3</v>
+      <c r="A357" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B357" s="4">
         <v>54</v>
@@ -16101,8 +16129,8 @@
       </c>
     </row>
     <row r="358" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A358" s="4">
-        <v>3</v>
+      <c r="A358" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B358" s="4">
         <v>55</v>
@@ -16142,8 +16170,8 @@
       </c>
     </row>
     <row r="359" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A359" s="4">
-        <v>3</v>
+      <c r="A359" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B359" s="4">
         <v>56</v>
@@ -16183,8 +16211,8 @@
       </c>
     </row>
     <row r="360" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A360" s="4">
-        <v>3</v>
+      <c r="A360" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B360" s="4">
         <v>57</v>
@@ -16224,8 +16252,8 @@
       </c>
     </row>
     <row r="361" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A361" s="4">
-        <v>3</v>
+      <c r="A361" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B361" s="4">
         <v>58</v>
@@ -16265,8 +16293,8 @@
       </c>
     </row>
     <row r="362" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A362" s="4">
-        <v>3</v>
+      <c r="A362" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B362" s="4">
         <v>59</v>
@@ -16306,8 +16334,8 @@
       </c>
     </row>
     <row r="363" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="4">
-        <v>3</v>
+      <c r="A363" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B363" s="4">
         <v>60</v>
@@ -16347,8 +16375,8 @@
       </c>
     </row>
     <row r="364" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A364" s="4">
-        <v>3</v>
+      <c r="A364" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B364" s="4">
         <v>61</v>
@@ -16388,8 +16416,8 @@
       </c>
     </row>
     <row r="365" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A365" s="4">
-        <v>3</v>
+      <c r="A365" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B365" s="4">
         <v>62</v>
@@ -16429,8 +16457,8 @@
       </c>
     </row>
     <row r="366" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A366" s="4">
-        <v>3</v>
+      <c r="A366" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B366" s="4">
         <v>63</v>
@@ -16470,8 +16498,8 @@
       </c>
     </row>
     <row r="367" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A367" s="4">
-        <v>3</v>
+      <c r="A367" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B367" s="4">
         <v>64</v>
@@ -16511,8 +16539,8 @@
       </c>
     </row>
     <row r="368" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A368" s="4">
-        <v>3</v>
+      <c r="A368" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B368" s="4">
         <v>65</v>
@@ -16552,8 +16580,8 @@
       </c>
     </row>
     <row r="369" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A369" s="4">
-        <v>3</v>
+      <c r="A369" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B369" s="4">
         <v>66</v>
@@ -16593,8 +16621,8 @@
       </c>
     </row>
     <row r="370" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A370" s="4">
-        <v>3</v>
+      <c r="A370" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B370" s="4">
         <v>67</v>
@@ -16634,8 +16662,8 @@
       </c>
     </row>
     <row r="371" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A371" s="4">
-        <v>3</v>
+      <c r="A371" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B371" s="4">
         <v>68</v>
@@ -16675,8 +16703,8 @@
       </c>
     </row>
     <row r="372" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A372" s="4">
-        <v>3</v>
+      <c r="A372" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B372" s="4">
         <v>69</v>
@@ -16716,8 +16744,8 @@
       </c>
     </row>
     <row r="373" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A373" s="4">
-        <v>3</v>
+      <c r="A373" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B373" s="4">
         <v>70</v>
@@ -16757,8 +16785,8 @@
       </c>
     </row>
     <row r="374" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A374" s="4">
-        <v>3</v>
+      <c r="A374" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B374" s="4">
         <v>71</v>
@@ -16798,8 +16826,8 @@
       </c>
     </row>
     <row r="375" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A375" s="4">
-        <v>3</v>
+      <c r="A375" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B375" s="4">
         <v>72</v>
@@ -16839,8 +16867,8 @@
       </c>
     </row>
     <row r="376" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A376" s="4">
-        <v>3</v>
+      <c r="A376" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B376" s="4">
         <v>73</v>
@@ -16880,8 +16908,8 @@
       </c>
     </row>
     <row r="377" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A377" s="4">
-        <v>3</v>
+      <c r="A377" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B377" s="4">
         <v>74</v>
@@ -16921,8 +16949,8 @@
       </c>
     </row>
     <row r="378" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A378" s="4">
-        <v>3</v>
+      <c r="A378" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B378" s="4">
         <v>75</v>
@@ -16962,8 +16990,8 @@
       </c>
     </row>
     <row r="379" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A379" s="4">
-        <v>3</v>
+      <c r="A379" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B379" s="4">
         <v>76</v>
@@ -17003,8 +17031,8 @@
       </c>
     </row>
     <row r="380" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A380" s="4">
-        <v>3</v>
+      <c r="A380" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B380" s="4">
         <v>77</v>
@@ -17044,8 +17072,8 @@
       </c>
     </row>
     <row r="381" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A381" s="4">
-        <v>3</v>
+      <c r="A381" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B381" s="4">
         <v>78</v>
@@ -17085,8 +17113,8 @@
       </c>
     </row>
     <row r="382" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A382" s="4">
-        <v>3</v>
+      <c r="A382" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B382" s="4">
         <v>79</v>
@@ -17126,8 +17154,8 @@
       </c>
     </row>
     <row r="383" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A383" s="4">
-        <v>3</v>
+      <c r="A383" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B383" s="4">
         <v>80</v>
@@ -17167,8 +17195,8 @@
       </c>
     </row>
     <row r="384" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A384" s="4">
-        <v>3</v>
+      <c r="A384" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B384" s="4">
         <v>81</v>
@@ -17208,8 +17236,8 @@
       </c>
     </row>
     <row r="385" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A385" s="4">
-        <v>3</v>
+      <c r="A385" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B385" s="4">
         <v>82</v>
@@ -17249,8 +17277,8 @@
       </c>
     </row>
     <row r="386" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A386" s="4">
-        <v>3</v>
+      <c r="A386" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B386" s="4">
         <v>83</v>
@@ -17290,8 +17318,8 @@
       </c>
     </row>
     <row r="387" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A387" s="4">
-        <v>3</v>
+      <c r="A387" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B387" s="4">
         <v>84</v>
@@ -17331,8 +17359,8 @@
       </c>
     </row>
     <row r="388" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A388" s="4">
-        <v>3</v>
+      <c r="A388" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B388" s="4">
         <v>85</v>
@@ -17372,8 +17400,8 @@
       </c>
     </row>
     <row r="389" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A389" s="4">
-        <v>3</v>
+      <c r="A389" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B389" s="4">
         <v>86</v>
@@ -17413,8 +17441,8 @@
       </c>
     </row>
     <row r="390" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A390" s="4">
-        <v>3</v>
+      <c r="A390" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B390" s="4">
         <v>87</v>
@@ -17454,8 +17482,8 @@
       </c>
     </row>
     <row r="391" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A391" s="4">
-        <v>3</v>
+      <c r="A391" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B391" s="4">
         <v>88</v>
@@ -17495,8 +17523,8 @@
       </c>
     </row>
     <row r="392" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A392" s="4">
-        <v>3</v>
+      <c r="A392" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B392" s="4">
         <v>89</v>
@@ -17536,8 +17564,8 @@
       </c>
     </row>
     <row r="393" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A393" s="4">
-        <v>3</v>
+      <c r="A393" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B393" s="4">
         <v>90</v>
@@ -17577,8 +17605,8 @@
       </c>
     </row>
     <row r="394" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A394" s="4">
-        <v>3</v>
+      <c r="A394" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B394" s="4">
         <v>91</v>
@@ -17618,8 +17646,8 @@
       </c>
     </row>
     <row r="395" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A395" s="4">
-        <v>3</v>
+      <c r="A395" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B395" s="4">
         <v>92</v>
@@ -17659,8 +17687,8 @@
       </c>
     </row>
     <row r="396" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A396" s="4">
-        <v>3</v>
+      <c r="A396" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B396" s="4">
         <v>93</v>
@@ -17700,8 +17728,8 @@
       </c>
     </row>
     <row r="397" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A397" s="4">
-        <v>3</v>
+      <c r="A397" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B397" s="4">
         <v>94</v>
@@ -17741,8 +17769,8 @@
       </c>
     </row>
     <row r="398" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="4">
-        <v>3</v>
+      <c r="A398" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B398" s="4">
         <v>95</v>
@@ -17782,8 +17810,8 @@
       </c>
     </row>
     <row r="399" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A399" s="4">
-        <v>3</v>
+      <c r="A399" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B399" s="4">
         <v>96</v>
@@ -17823,8 +17851,8 @@
       </c>
     </row>
     <row r="400" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A400" s="4">
-        <v>3</v>
+      <c r="A400" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B400" s="4">
         <v>97</v>
@@ -17864,8 +17892,8 @@
       </c>
     </row>
     <row r="401" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A401" s="4">
-        <v>3</v>
+      <c r="A401" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B401" s="4">
         <v>98</v>
@@ -17905,8 +17933,8 @@
       </c>
     </row>
     <row r="402" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A402" s="4">
-        <v>3</v>
+      <c r="A402" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B402" s="4">
         <v>99</v>
@@ -17946,8 +17974,8 @@
       </c>
     </row>
     <row r="403" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A403" s="4">
-        <v>3</v>
+      <c r="A403" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B403" s="4">
         <v>100</v>
@@ -17987,8 +18015,8 @@
       </c>
     </row>
     <row r="404" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A404" s="4">
-        <v>3</v>
+      <c r="A404" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B404" s="4">
         <v>101</v>
@@ -18028,8 +18056,8 @@
       </c>
     </row>
     <row r="405" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A405" s="4">
-        <v>3</v>
+      <c r="A405" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B405" s="4">
         <v>102</v>
@@ -18069,8 +18097,8 @@
       </c>
     </row>
     <row r="406" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A406" s="4">
-        <v>3</v>
+      <c r="A406" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B406" s="4">
         <v>103</v>
@@ -18110,8 +18138,8 @@
       </c>
     </row>
     <row r="407" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A407" s="4">
-        <v>3</v>
+      <c r="A407" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B407" s="4">
         <v>104</v>
@@ -18151,8 +18179,8 @@
       </c>
     </row>
     <row r="408" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A408" s="4">
-        <v>3</v>
+      <c r="A408" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B408" s="4">
         <v>105</v>
@@ -18192,8 +18220,8 @@
       </c>
     </row>
     <row r="409" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A409" s="4">
-        <v>3</v>
+      <c r="A409" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B409" s="4">
         <v>106</v>
@@ -18233,8 +18261,8 @@
       </c>
     </row>
     <row r="410" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A410" s="4">
-        <v>3</v>
+      <c r="A410" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B410" s="4">
         <v>107</v>
@@ -18274,8 +18302,8 @@
       </c>
     </row>
     <row r="411" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A411" s="4">
-        <v>3</v>
+      <c r="A411" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B411" s="4">
         <v>108</v>
@@ -18315,8 +18343,8 @@
       </c>
     </row>
     <row r="412" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A412" s="4">
-        <v>3</v>
+      <c r="A412" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B412" s="4">
         <v>109</v>
@@ -18356,8 +18384,8 @@
       </c>
     </row>
     <row r="413" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A413" s="4">
-        <v>3</v>
+      <c r="A413" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B413" s="4">
         <v>110</v>
@@ -18397,8 +18425,8 @@
       </c>
     </row>
     <row r="414" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A414" s="4">
-        <v>3</v>
+      <c r="A414" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B414" s="4">
         <v>111</v>
@@ -18438,8 +18466,8 @@
       </c>
     </row>
     <row r="415" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A415" s="4">
-        <v>3</v>
+      <c r="A415" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B415" s="4">
         <v>112</v>
@@ -18479,8 +18507,8 @@
       </c>
     </row>
     <row r="416" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A416" s="4">
-        <v>3</v>
+      <c r="A416" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B416" s="4">
         <v>113</v>
@@ -18520,8 +18548,8 @@
       </c>
     </row>
     <row r="417" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A417" s="4">
-        <v>3</v>
+      <c r="A417" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B417" s="4">
         <v>114</v>
@@ -18561,8 +18589,8 @@
       </c>
     </row>
     <row r="418" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A418" s="4">
-        <v>3</v>
+      <c r="A418" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B418" s="4">
         <v>115</v>
@@ -18602,8 +18630,8 @@
       </c>
     </row>
     <row r="419" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A419" s="4">
-        <v>3</v>
+      <c r="A419" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B419" s="4">
         <v>116</v>
@@ -18643,8 +18671,8 @@
       </c>
     </row>
     <row r="420" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A420" s="4">
-        <v>3</v>
+      <c r="A420" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B420" s="4">
         <v>117</v>
@@ -18684,8 +18712,8 @@
       </c>
     </row>
     <row r="421" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A421" s="4">
-        <v>3</v>
+      <c r="A421" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B421" s="4">
         <v>118</v>
@@ -18725,8 +18753,8 @@
       </c>
     </row>
     <row r="422" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A422" s="4">
-        <v>3</v>
+      <c r="A422" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B422" s="4">
         <v>119</v>
@@ -18766,8 +18794,8 @@
       </c>
     </row>
     <row r="423" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A423" s="4">
-        <v>3</v>
+      <c r="A423" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B423" s="4">
         <v>120</v>
@@ -18807,8 +18835,8 @@
       </c>
     </row>
     <row r="424" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A424" s="4">
-        <v>3</v>
+      <c r="A424" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B424" s="4">
         <v>121</v>
@@ -18848,8 +18876,8 @@
       </c>
     </row>
     <row r="425" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A425" s="4">
-        <v>3</v>
+      <c r="A425" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B425" s="4">
         <v>122</v>
@@ -18889,8 +18917,8 @@
       </c>
     </row>
     <row r="426" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A426" s="4">
-        <v>3</v>
+      <c r="A426" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B426" s="4">
         <v>123</v>
@@ -18930,8 +18958,8 @@
       </c>
     </row>
     <row r="427" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A427" s="4">
-        <v>3</v>
+      <c r="A427" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B427" s="4">
         <v>124</v>
@@ -18971,8 +18999,8 @@
       </c>
     </row>
     <row r="428" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A428" s="4">
-        <v>3</v>
+      <c r="A428" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B428" s="4">
         <v>125</v>
@@ -19012,8 +19040,8 @@
       </c>
     </row>
     <row r="429" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A429" s="4">
-        <v>3</v>
+      <c r="A429" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B429" s="4">
         <v>126</v>
@@ -19053,8 +19081,8 @@
       </c>
     </row>
     <row r="430" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A430" s="4">
-        <v>3</v>
+      <c r="A430" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B430" s="4">
         <v>127</v>
@@ -19094,8 +19122,8 @@
       </c>
     </row>
     <row r="431" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A431" s="4">
-        <v>3</v>
+      <c r="A431" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B431" s="4">
         <v>128</v>
@@ -19135,8 +19163,8 @@
       </c>
     </row>
     <row r="432" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A432" s="4">
-        <v>3</v>
+      <c r="A432" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B432" s="4">
         <v>129</v>
@@ -19176,8 +19204,8 @@
       </c>
     </row>
     <row r="433" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A433" s="4">
-        <v>3</v>
+      <c r="A433" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B433" s="4">
         <v>130</v>
@@ -19217,8 +19245,8 @@
       </c>
     </row>
     <row r="434" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A434" s="4">
-        <v>3</v>
+      <c r="A434" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B434" s="4">
         <v>131</v>
@@ -19258,8 +19286,8 @@
       </c>
     </row>
     <row r="435" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A435" s="4">
-        <v>3</v>
+      <c r="A435" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B435" s="4">
         <v>132</v>
@@ -19299,8 +19327,8 @@
       </c>
     </row>
     <row r="436" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A436" s="4">
-        <v>3</v>
+      <c r="A436" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B436" s="4">
         <v>133</v>
@@ -19340,8 +19368,8 @@
       </c>
     </row>
     <row r="437" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A437" s="4">
-        <v>3</v>
+      <c r="A437" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B437" s="4">
         <v>134</v>
@@ -19381,8 +19409,8 @@
       </c>
     </row>
     <row r="438" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A438" s="4">
-        <v>3</v>
+      <c r="A438" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B438" s="4">
         <v>135</v>
@@ -19422,8 +19450,8 @@
       </c>
     </row>
     <row r="439" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A439" s="4">
-        <v>3</v>
+      <c r="A439" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B439" s="4">
         <v>136</v>
@@ -19463,8 +19491,8 @@
       </c>
     </row>
     <row r="440" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A440" s="4">
-        <v>3</v>
+      <c r="A440" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B440" s="4">
         <v>137</v>
@@ -19504,8 +19532,8 @@
       </c>
     </row>
     <row r="441" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A441" s="4">
-        <v>3</v>
+      <c r="A441" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B441" s="4">
         <v>138</v>
@@ -19545,8 +19573,8 @@
       </c>
     </row>
     <row r="442" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A442" s="4">
-        <v>3</v>
+      <c r="A442" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B442" s="4">
         <v>139</v>
@@ -19586,8 +19614,8 @@
       </c>
     </row>
     <row r="443" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A443" s="4">
-        <v>3</v>
+      <c r="A443" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B443" s="4">
         <v>140</v>
@@ -19627,8 +19655,8 @@
       </c>
     </row>
     <row r="444" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A444" s="4">
-        <v>3</v>
+      <c r="A444" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B444" s="4">
         <v>141</v>
@@ -19668,8 +19696,8 @@
       </c>
     </row>
     <row r="445" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A445" s="4">
-        <v>3</v>
+      <c r="A445" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B445" s="4">
         <v>142</v>
@@ -19709,8 +19737,8 @@
       </c>
     </row>
     <row r="446" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A446" s="4">
-        <v>3</v>
+      <c r="A446" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B446" s="4">
         <v>143</v>
@@ -19750,8 +19778,8 @@
       </c>
     </row>
     <row r="447" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A447" s="4">
-        <v>3</v>
+      <c r="A447" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B447" s="4">
         <v>144</v>
@@ -19791,8 +19819,8 @@
       </c>
     </row>
     <row r="448" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A448" s="4">
-        <v>3</v>
+      <c r="A448" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B448" s="4">
         <v>145</v>
@@ -19832,8 +19860,8 @@
       </c>
     </row>
     <row r="449" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A449" s="4">
-        <v>3</v>
+      <c r="A449" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B449" s="4">
         <v>146</v>
@@ -19873,8 +19901,8 @@
       </c>
     </row>
     <row r="450" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A450" s="4">
-        <v>3</v>
+      <c r="A450" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B450" s="4">
         <v>147</v>
@@ -19914,8 +19942,8 @@
       </c>
     </row>
     <row r="451" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A451" s="4">
-        <v>3</v>
+      <c r="A451" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B451" s="4">
         <v>148</v>
@@ -19955,8 +19983,8 @@
       </c>
     </row>
     <row r="452" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A452" s="4">
-        <v>3</v>
+      <c r="A452" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B452" s="4">
         <v>149</v>
@@ -19996,8 +20024,8 @@
       </c>
     </row>
     <row r="453" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A453" s="4">
-        <v>3</v>
+      <c r="A453" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B453" s="4">
         <v>150</v>
@@ -21261,7 +21289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -21318,10 +21346,10 @@
         <v>67</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>68</v>
@@ -21365,10 +21393,10 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N2" t="s">
         <v>84</v>
@@ -21412,10 +21440,10 @@
         <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>82</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9FB1C5-CF6B-45E1-A07B-9E113E642A02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162DD99-885F-472C-9847-29E1385BB67E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="172">
   <si>
     <t>sheet名</t>
   </si>
@@ -603,31 +603,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>配置角色升级的属性以及消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置角色突破的升级以及消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置角色突破的效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shield_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>shieldRg_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核子反应系统的配置表，记录升级的效果，消耗，祝福值成长，各祝福值阶段的直升概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -679,10 +659,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shipId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -704,6 +680,42 @@
   </si>
   <si>
     <t>shipId,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置角色升级的属性以及消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置角色升级的属性以及消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置角色突破的升级以及消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置角色突破的升级以及消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置角色突破的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置角色突破的效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置，核子反应系统的配置表，记录升级的效果，消耗，祝福值成长，各祝福值阶段的直升概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置，核子反应系统的配置表，记录升级的效果，消耗，祝福值成长，各祝福值阶段的直升概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1213,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1255,20 +1267,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1276,19 +1288,21 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
       </c>
@@ -1298,11 +1312,9 @@
         <v>142</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>141</v>
       </c>
@@ -1310,58 +1322,119 @@
         <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1397,7 +1470,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1435,10 +1508,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1473,7 +1546,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -21473,7 +21546,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -21511,10 +21584,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -21549,7 +21622,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -22790,7 +22863,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
@@ -22826,10 +22899,10 @@
         <v>67</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>68</v>
@@ -22840,10 +22913,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -22876,10 +22949,10 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O2" t="s">
         <v>84</v>
@@ -22890,7 +22963,7 @@
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>79</v>
@@ -22926,10 +22999,10 @@
         <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>82</v>
@@ -23789,7 +23862,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -23875,10 +23948,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -23961,7 +24034,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>118</v>
@@ -24964,7 +25037,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -24982,7 +25055,7 @@
         <v>0.1</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -25053,7 +25126,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -25071,7 +25144,7 @@
         <v>0.2</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -25144,7 +25217,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -25162,7 +25235,7 @@
         <v>0.3</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -25235,7 +25308,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -25253,7 +25326,7 @@
         <v>0.4</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -25326,7 +25399,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -25344,7 +25417,7 @@
         <v>0.5</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -25417,7 +25490,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -25435,7 +25508,7 @@
         <v>0.6</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -25508,7 +25581,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -25526,7 +25599,7 @@
         <v>0.7</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -25599,7 +25672,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -25617,7 +25690,7 @@
         <v>0.8</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -25690,7 +25763,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -25708,7 +25781,7 @@
         <v>0.9</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -25781,7 +25854,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -25799,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -25872,7 +25945,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -25890,7 +25963,7 @@
         <v>0.1</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -25961,7 +26034,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -25979,7 +26052,7 @@
         <v>0.2</v>
       </c>
       <c r="J25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -26052,7 +26125,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -26070,7 +26143,7 @@
         <v>0.3</v>
       </c>
       <c r="J26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -26143,7 +26216,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -26161,7 +26234,7 @@
         <v>0.4</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -26234,7 +26307,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -26252,7 +26325,7 @@
         <v>0.5</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -26325,7 +26398,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -26343,7 +26416,7 @@
         <v>0.6</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -26416,7 +26489,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -26434,7 +26507,7 @@
         <v>0.7</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -26507,7 +26580,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -26525,7 +26598,7 @@
         <v>0.8</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -26598,7 +26671,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -26616,7 +26689,7 @@
         <v>0.9</v>
       </c>
       <c r="J32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -26689,7 +26762,7 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -26707,7 +26780,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K33">
         <v>0</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162DD99-885F-472C-9847-29E1385BB67E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B614EE3-CB7B-44FC-A269-872C598687C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="176">
   <si>
     <t>sheet名</t>
   </si>
@@ -423,10 +423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主舰护盾受到伤害降低20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>所有战舰伤害提升25%，闪避提升10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -435,35 +431,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>atk_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>critHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deDmg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deShieldDmg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyRg_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>incDmg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dodgeR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -563,18 +531,6 @@
     <t>直升概率4</t>
   </si>
   <si>
-    <t>hp_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总坑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,14 +556,6 @@
   </si>
   <si>
     <t>突破表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldRg_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -717,6 +665,72 @@
   <si>
     <t>服务端配置，核子反应系统的配置表，记录升级的效果，消耗，祝福值成长，各祝福值阶段的直升概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyRg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockRat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgDec</t>
+  </si>
+  <si>
+    <t>主舰护盾提升25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgInc</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1267,20 +1281,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1288,20 +1302,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1309,20 +1323,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
@@ -1330,20 +1344,20 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -1351,20 +1365,20 @@
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
@@ -1372,20 +1386,20 @@
     </row>
     <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1393,20 +1407,20 @@
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -1414,20 +1428,20 @@
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -1448,7 +1462,7 @@
   <dimension ref="A1:R453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1508,34 +1522,34 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -1546,7 +1560,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -21527,7 +21541,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21546,7 +21560,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -21584,10 +21598,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -21602,7 +21616,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -21611,7 +21625,7 @@
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -21622,7 +21636,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -21688,7 +21702,7 @@
         <v>4.8</v>
       </c>
       <c r="J4">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -21727,7 +21741,7 @@
         <v>6.5</v>
       </c>
       <c r="J5">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -21766,7 +21780,7 @@
         <v>98.4</v>
       </c>
       <c r="J6">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -21805,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="J7">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -21844,7 +21858,7 @@
         <v>22.5</v>
       </c>
       <c r="J8">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -21883,7 +21897,7 @@
         <v>2.8</v>
       </c>
       <c r="J9">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -21922,7 +21936,7 @@
         <v>340.1</v>
       </c>
       <c r="J10">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -21961,7 +21975,7 @@
         <v>41.8</v>
       </c>
       <c r="J11">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -22000,7 +22014,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J12">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -22039,7 +22053,7 @@
         <v>632.70000000000005</v>
       </c>
       <c r="J13">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -22078,7 +22092,7 @@
         <v>4.8</v>
       </c>
       <c r="J14">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -22117,7 +22131,7 @@
         <v>6.5</v>
       </c>
       <c r="J15">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -22156,7 +22170,7 @@
         <v>98.4</v>
       </c>
       <c r="J16">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -22195,7 +22209,7 @@
         <v>1.5</v>
       </c>
       <c r="J17">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -22234,7 +22248,7 @@
         <v>22.5</v>
       </c>
       <c r="J18">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -22273,7 +22287,7 @@
         <v>2.8</v>
       </c>
       <c r="J19">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -22312,7 +22326,7 @@
         <v>340.1</v>
       </c>
       <c r="J20">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -22351,7 +22365,7 @@
         <v>41.8</v>
       </c>
       <c r="J21">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -22390,7 +22404,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J22">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -22429,7 +22443,7 @@
         <v>632.70000000000005</v>
       </c>
       <c r="J23">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -22468,7 +22482,7 @@
         <v>4.8</v>
       </c>
       <c r="J24">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -22507,7 +22521,7 @@
         <v>6.5</v>
       </c>
       <c r="J25">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -22546,7 +22560,7 @@
         <v>98.4</v>
       </c>
       <c r="J26">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -22585,7 +22599,7 @@
         <v>1.5</v>
       </c>
       <c r="J27">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -22624,7 +22638,7 @@
         <v>22.5</v>
       </c>
       <c r="J28">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -22663,7 +22677,7 @@
         <v>2.8</v>
       </c>
       <c r="J29">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -22702,7 +22716,7 @@
         <v>340.1</v>
       </c>
       <c r="J30">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -22741,7 +22755,7 @@
         <v>41.8</v>
       </c>
       <c r="J31">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -22780,7 +22794,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J32">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -22819,7 +22833,7 @@
         <v>632.70000000000005</v>
       </c>
       <c r="J33">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -22837,33 +22851,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="70.625" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
@@ -22875,95 +22889,107 @@
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" t="s">
-        <v>148</v>
-      </c>
       <c r="O2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" t="s">
         <v>84</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>79</v>
@@ -22975,43 +23001,49 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="O3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23028,16 +23060,19 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>2000</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>69</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -23054,16 +23089,19 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1000</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -23074,22 +23112,25 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -23100,22 +23141,25 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.25</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>72</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -23126,22 +23170,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.25</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>73</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -23152,22 +23199,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>74</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -23178,22 +23228,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5000</v>
+      </c>
+      <c r="Q10" t="s">
         <v>75</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -23204,22 +23257,25 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
-      </c>
-      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="Q11" t="s">
         <v>76</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23230,22 +23286,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0.2</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23256,31 +23315,37 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0.25</v>
       </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="P13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23297,16 +23362,19 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>2000</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>69</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -23323,16 +23391,19 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>70</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -23343,22 +23414,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>25</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>71</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -23369,22 +23443,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.25</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>72</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -23395,22 +23472,25 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.25</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>73</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -23421,22 +23501,25 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>74</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -23447,22 +23530,25 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>0.5</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>75</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -23473,22 +23559,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0.2</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>76</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -23499,22 +23588,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0.2</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="G22">
+        <v>0.25</v>
+      </c>
+      <c r="Q22" t="s">
         <v>77</v>
       </c>
-      <c r="P22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -23525,31 +23617,37 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>0.25</v>
       </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0.1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1000</v>
+      </c>
+      <c r="Q23" t="s">
         <v>78</v>
       </c>
-      <c r="P23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -23566,16 +23664,19 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>2000</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>69</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -23592,16 +23693,19 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1000</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>70</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -23612,22 +23716,25 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>25</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>71</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -23638,22 +23745,25 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.25</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>72</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -23664,22 +23774,25 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.25</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>73</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -23690,22 +23803,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.2</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>74</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -23716,22 +23832,25 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>0.5</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>75</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -23742,22 +23861,25 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>0.2</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>76</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -23768,22 +23890,25 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>0.2</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="G32">
+        <v>0.25</v>
+      </c>
+      <c r="Q32" t="s">
         <v>77</v>
       </c>
-      <c r="P32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -23794,28 +23919,34 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>0.25</v>
       </c>
-      <c r="G33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>0.1</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1000</v>
+      </c>
+      <c r="Q33" t="s">
         <v>78</v>
       </c>
-      <c r="P33" t="s">
-        <v>96</v>
+      <c r="R33" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -23827,42 +23958,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F315370-7FE8-44E2-8F0F-9ACDD504B0E9}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="14.125" customWidth="1"/>
-    <col min="16" max="16" width="11.375" customWidth="1"/>
-    <col min="17" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
-    <col min="21" max="21" width="13.875" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
-    <col min="23" max="23" width="14.125" customWidth="1"/>
-    <col min="24" max="24" width="15.125" customWidth="1"/>
-    <col min="25" max="25" width="13.5" customWidth="1"/>
-    <col min="26" max="26" width="15.25" customWidth="1"/>
-    <col min="27" max="27" width="13.75" customWidth="1"/>
-    <col min="28" max="28" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="11.375" customWidth="1"/>
+    <col min="20" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="24" max="24" width="13.875" customWidth="1"/>
+    <col min="25" max="25" width="15.625" customWidth="1"/>
+    <col min="26" max="26" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="15.125" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="13.75" customWidth="1"/>
+    <col min="31" max="31" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -23874,117 +24008,126 @@
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
       </c>
       <c r="N2" t="s">
         <v>7</v>
@@ -23993,51 +24136,60 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="U2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="V2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -24046,79 +24198,88 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>125</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24129,85 +24290,94 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.1</v>
       </c>
-      <c r="G4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.1</v>
       </c>
-      <c r="J4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.1</v>
+      <c r="L4" t="s">
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>12</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>50</v>
       </c>
-      <c r="S4">
-        <f>INT(R4/O4)</f>
+      <c r="V4">
+        <f>INT(U4/R4)</f>
         <v>50</v>
       </c>
-      <c r="T4">
-        <f>R4*10</f>
+      <c r="W4">
+        <f>U4*10</f>
         <v>500</v>
       </c>
-      <c r="U4">
-        <f>INT(T4*0.35)</f>
+      <c r="X4">
+        <f>INT(W4*0.35)</f>
         <v>175</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>300</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>1.1150955749293923E-3</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>400</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>3.2049277149712729E-3</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>500</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>8.9704367359209058E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -24218,87 +24388,96 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.2</v>
       </c>
-      <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.2</v>
       </c>
-      <c r="J5" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.2</v>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="P5">
-        <f>P$4*O5</f>
+      <c r="S5">
+        <f>S$4*R5</f>
         <v>16</v>
       </c>
-      <c r="Q5">
-        <f>Q$4*O5</f>
+      <c r="T5">
+        <f>T$4*R5</f>
         <v>24</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>120</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S13" si="0">INT(R5/O5)</f>
+      <c r="V5">
+        <f t="shared" ref="V5:V13" si="0">INT(U5/R5)</f>
         <v>60</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T13" si="1">R5*10</f>
+      <c r="W5">
+        <f t="shared" ref="W5:W13" si="1">U5*10</f>
         <v>1200</v>
       </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U13" si="2">INT(T5*0.35)</f>
+      <c r="X5">
+        <f t="shared" ref="X5:X13" si="2">INT(W5*0.35)</f>
         <v>420</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>720</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>9.2933269978023869E-4</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>960</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>2.6714872892815711E-3</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>1200</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>7.4809716426049722E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -24309,87 +24488,96 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3</v>
       </c>
-      <c r="G6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.3</v>
       </c>
-      <c r="J6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.3</v>
+      <c r="L6" t="s">
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="P6">
-        <f t="shared" ref="P6:P13" si="3">P$4*O6</f>
+      <c r="S6">
+        <f t="shared" ref="S6:S13" si="3">S$4*R6</f>
         <v>24</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q13" si="4">Q$4*O6</f>
+      <c r="T6">
+        <f t="shared" ref="T6:T13" si="4">T$4*R6</f>
         <v>36</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>240</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>1440</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>6.9708052426042943E-4</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>1920</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>2.0042852920040266E-3</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>2400</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>5.6159918683065246E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -24400,87 +24588,96 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4</v>
       </c>
-      <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.4</v>
       </c>
-      <c r="J7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.4</v>
+      <c r="L7" t="s">
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0.4</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>480</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <f t="shared" si="2"/>
         <v>1680</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>2880</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>5.8093419056659545E-4</v>
       </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>3840</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>1.6705169304260803E-3</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>4800</v>
       </c>
-      <c r="AB7">
+      <c r="AE7">
         <v>4.6821882553126359E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -24491,87 +24688,96 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.5</v>
       </c>
-      <c r="J8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
+      <c r="L8" t="s">
+        <v>26</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>9</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>960</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <f t="shared" si="2"/>
         <v>3360</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>5760</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>5.2614349858681742E-4</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>7680</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>1.5130402814039767E-3</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>9600</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>4.2414105276670222E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -24582,87 +24788,96 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.6</v>
       </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.6</v>
+      <c r="L9" t="s">
+        <v>26</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13</v>
+        <v>0.6</v>
       </c>
       <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>1440</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <f t="shared" si="2"/>
         <v>5040</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>8640</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>5.0701585880263966E-4</v>
       </c>
-      <c r="Y9">
+      <c r="AB9">
         <v>11520</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>1.4580607656785594E-3</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>14400</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
         <v>4.0874930694316802E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -24673,87 +24888,96 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.7</v>
       </c>
-      <c r="G10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.7</v>
       </c>
-      <c r="J10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.7</v>
+      <c r="L10" t="s">
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
+        <v>0.7</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>17</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>2400</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <f t="shared" si="2"/>
         <v>8400</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>14400</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>3.9556633752713122E-4</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <v>19200</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>1.1376766438393471E-3</v>
       </c>
-      <c r="AA10">
+      <c r="AD10">
         <v>24000</v>
       </c>
-      <c r="AB10">
+      <c r="AE10">
         <v>3.1902596156079266E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -24764,87 +24988,96 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.8</v>
       </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.8</v>
       </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.8</v>
+      <c r="L11" t="s">
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
+        <v>0.8</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>41</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <f t="shared" si="3"/>
         <v>328</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <f t="shared" si="4"/>
         <v>492</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>19900</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <f t="shared" si="1"/>
         <v>199000</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <f t="shared" si="2"/>
         <v>69650</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>119400</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>1.150158343027341E-4</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>159200</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>3.3088076187726134E-4</v>
       </c>
-      <c r="AA11">
+      <c r="AD11">
         <v>199000</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>9.2852878900429037E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -24855,87 +25088,96 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.9</v>
       </c>
-      <c r="G12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.9</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.9</v>
+      <c r="L12" t="s">
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
+        <v>0.9</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>47</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <f t="shared" si="4"/>
         <v>564</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>24000</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <f t="shared" si="2"/>
         <v>84000</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>144000</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>1.0937811155964372E-4</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>192000</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>3.1466366882826335E-4</v>
       </c>
-      <c r="AA12">
+      <c r="AD12">
         <v>240000</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>8.8303277407808523E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -24946,87 +25188,96 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>53</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <f t="shared" si="3"/>
         <v>424</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <f t="shared" si="4"/>
         <v>636</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>32000</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <f t="shared" si="0"/>
         <v>603</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <f t="shared" si="1"/>
         <v>320000</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <f t="shared" si="2"/>
         <v>112000</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>192000</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>9.2509630883585992E-5</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>256000</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>2.6613990978696656E-4</v>
       </c>
-      <c r="AA13">
+      <c r="AD13">
         <v>320000</v>
       </c>
-      <c r="AB13">
+      <c r="AE13">
         <v>7.4689451304799093E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -25037,85 +25288,94 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.1</v>
       </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.1</v>
       </c>
-      <c r="J14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.1</v>
+      <c r="L14" t="s">
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>8</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>12</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>50</v>
       </c>
-      <c r="S14">
-        <f>INT(R14/O14)</f>
+      <c r="V14">
+        <f>INT(U14/R14)</f>
         <v>50</v>
       </c>
-      <c r="T14">
-        <f>R14*10</f>
+      <c r="W14">
+        <f>U14*10</f>
         <v>500</v>
       </c>
-      <c r="U14">
-        <f>INT(T14*0.35)</f>
+      <c r="X14">
+        <f>INT(W14*0.35)</f>
         <v>175</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="Z14">
         <v>300</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <v>1.1150955749293923E-3</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
         <v>400</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>3.2049277149712729E-3</v>
       </c>
-      <c r="AA14">
+      <c r="AD14">
         <v>500</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>8.9704367359209058E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -25126,87 +25386,96 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.2</v>
       </c>
-      <c r="J15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.2</v>
+      <c r="L15" t="s">
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
+        <v>0.2</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="P15">
-        <f>P$4*O15</f>
+      <c r="S15">
+        <f>S$4*R15</f>
         <v>16</v>
       </c>
-      <c r="Q15">
-        <f>Q$4*O15</f>
+      <c r="T15">
+        <f>T$4*R15</f>
         <v>24</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>120</v>
       </c>
-      <c r="S15">
-        <f t="shared" ref="S15:S23" si="5">INT(R15/O15)</f>
+      <c r="V15">
+        <f t="shared" ref="V15:V23" si="5">INT(U15/R15)</f>
         <v>60</v>
       </c>
-      <c r="T15">
-        <f t="shared" ref="T15:T23" si="6">R15*10</f>
+      <c r="W15">
+        <f t="shared" ref="W15:W23" si="6">U15*10</f>
         <v>1200</v>
       </c>
-      <c r="U15">
-        <f t="shared" ref="U15:U23" si="7">INT(T15*0.35)</f>
+      <c r="X15">
+        <f t="shared" ref="X15:X23" si="7">INT(W15*0.35)</f>
         <v>420</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <v>720</v>
       </c>
-      <c r="X15">
+      <c r="AA15">
         <v>9.2933269978023869E-4</v>
       </c>
-      <c r="Y15">
+      <c r="AB15">
         <v>960</v>
       </c>
-      <c r="Z15">
+      <c r="AC15">
         <v>2.6714872892815711E-3</v>
       </c>
-      <c r="AA15">
+      <c r="AD15">
         <v>1200</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>7.4809716426049722E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -25217,87 +25486,96 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3</v>
       </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.3</v>
       </c>
-      <c r="J16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.3</v>
+      <c r="L16" t="s">
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="P16">
-        <f t="shared" ref="P16:P23" si="8">P$4*O16</f>
+      <c r="S16">
+        <f t="shared" ref="S16:S23" si="8">S$4*R16</f>
         <v>24</v>
       </c>
-      <c r="Q16">
-        <f t="shared" ref="Q16:Q23" si="9">Q$4*O16</f>
+      <c r="T16">
+        <f t="shared" ref="T16:T23" si="9">T$4*R16</f>
         <v>36</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>240</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <f t="shared" si="6"/>
         <v>2400</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <f t="shared" si="7"/>
         <v>840</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="Z16">
         <v>1440</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
         <v>6.9708052426042943E-4</v>
       </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>1920</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>2.0042852920040266E-3</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <v>2400</v>
       </c>
-      <c r="AB16">
+      <c r="AE16">
         <v>5.6159918683065246E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -25308,87 +25586,96 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.4</v>
       </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.4</v>
       </c>
-      <c r="J17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0.4</v>
+      <c r="L17" t="s">
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
+        <v>0.4</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>5</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>480</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <f t="shared" si="6"/>
         <v>4800</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <f t="shared" si="7"/>
         <v>1680</v>
       </c>
-      <c r="V17">
+      <c r="Y17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="Z17">
         <v>2880</v>
       </c>
-      <c r="X17">
+      <c r="AA17">
         <v>5.8093419056659545E-4</v>
       </c>
-      <c r="Y17">
+      <c r="AB17">
         <v>3840</v>
       </c>
-      <c r="Z17">
+      <c r="AC17">
         <v>1.6705169304260803E-3</v>
       </c>
-      <c r="AA17">
+      <c r="AD17">
         <v>4800</v>
       </c>
-      <c r="AB17">
+      <c r="AE17">
         <v>4.6821882553126359E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -25399,87 +25686,96 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="G18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.5</v>
       </c>
-      <c r="J18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
+      <c r="L18" t="s">
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>9</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>960</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <f t="shared" si="6"/>
         <v>9600</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <f t="shared" si="7"/>
         <v>3360</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="Z18">
         <v>5760</v>
       </c>
-      <c r="X18">
+      <c r="AA18">
         <v>5.2614349858681742E-4</v>
       </c>
-      <c r="Y18">
+      <c r="AB18">
         <v>7680</v>
       </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>1.5130402814039767E-3</v>
       </c>
-      <c r="AA18">
+      <c r="AD18">
         <v>9600</v>
       </c>
-      <c r="AB18">
+      <c r="AE18">
         <v>4.2414105276670222E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -25490,87 +25786,96 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.6</v>
       </c>
-      <c r="G19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.6</v>
       </c>
-      <c r="J19" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.6</v>
+      <c r="L19" t="s">
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13</v>
+        <v>0.6</v>
       </c>
       <c r="P19">
+        <v>12</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>13</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>1440</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <f t="shared" si="6"/>
         <v>14400</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <f t="shared" si="7"/>
         <v>5040</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>8640</v>
       </c>
-      <c r="X19">
+      <c r="AA19">
         <v>5.0701585880263966E-4</v>
       </c>
-      <c r="Y19">
+      <c r="AB19">
         <v>11520</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>1.4580607656785594E-3</v>
       </c>
-      <c r="AA19">
+      <c r="AD19">
         <v>14400</v>
       </c>
-      <c r="AB19">
+      <c r="AE19">
         <v>4.0874930694316802E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -25581,87 +25886,96 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.7</v>
       </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.7</v>
       </c>
-      <c r="J20" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.7</v>
+      <c r="L20" t="s">
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
+        <v>0.7</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>17</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <f t="shared" si="9"/>
         <v>204</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>2400</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <f t="shared" si="6"/>
         <v>24000</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <f t="shared" si="7"/>
         <v>8400</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="Z20">
         <v>14400</v>
       </c>
-      <c r="X20">
+      <c r="AA20">
         <v>3.9556633752713122E-4</v>
       </c>
-      <c r="Y20">
+      <c r="AB20">
         <v>19200</v>
       </c>
-      <c r="Z20">
+      <c r="AC20">
         <v>1.1376766438393471E-3</v>
       </c>
-      <c r="AA20">
+      <c r="AD20">
         <v>24000</v>
       </c>
-      <c r="AB20">
+      <c r="AE20">
         <v>3.1902596156079266E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -25672,87 +25986,96 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.8</v>
       </c>
-      <c r="G21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.8</v>
       </c>
-      <c r="J21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.8</v>
+      <c r="L21" t="s">
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
+        <v>0.8</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>41</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <f t="shared" si="8"/>
         <v>328</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <f t="shared" si="9"/>
         <v>492</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>19900</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <f t="shared" si="5"/>
         <v>485</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <f t="shared" si="6"/>
         <v>199000</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <f t="shared" si="7"/>
         <v>69650</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="Z21">
         <v>119400</v>
       </c>
-      <c r="X21">
+      <c r="AA21">
         <v>1.150158343027341E-4</v>
       </c>
-      <c r="Y21">
+      <c r="AB21">
         <v>159200</v>
       </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>3.3088076187726134E-4</v>
       </c>
-      <c r="AA21">
+      <c r="AD21">
         <v>199000</v>
       </c>
-      <c r="AB21">
+      <c r="AE21">
         <v>9.2852878900429037E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -25763,87 +26086,96 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.9</v>
       </c>
-      <c r="G22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22">
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.9</v>
       </c>
-      <c r="J22" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0.9</v>
+      <c r="L22" t="s">
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
+        <v>0.9</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>47</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <f t="shared" si="8"/>
         <v>376</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <f t="shared" si="9"/>
         <v>564</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>24000</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <f t="shared" si="6"/>
         <v>240000</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <f t="shared" si="7"/>
         <v>84000</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="Z22">
         <v>144000</v>
       </c>
-      <c r="X22">
+      <c r="AA22">
         <v>1.0937811155964372E-4</v>
       </c>
-      <c r="Y22">
+      <c r="AB22">
         <v>192000</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>3.1466366882826335E-4</v>
       </c>
-      <c r="AA22">
+      <c r="AD22">
         <v>240000</v>
       </c>
-      <c r="AB22">
+      <c r="AE22">
         <v>8.8303277407808523E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -25854,87 +26186,96 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>144</v>
-      </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>12</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>53</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <f t="shared" si="8"/>
         <v>424</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <f t="shared" si="9"/>
         <v>636</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>32000</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <f t="shared" si="5"/>
         <v>603</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <f t="shared" si="6"/>
         <v>320000</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <f t="shared" si="7"/>
         <v>112000</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <v>192000</v>
       </c>
-      <c r="X23">
+      <c r="AA23">
         <v>9.2509630883585992E-5</v>
       </c>
-      <c r="Y23">
+      <c r="AB23">
         <v>256000</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>2.6613990978696656E-4</v>
       </c>
-      <c r="AA23">
+      <c r="AD23">
         <v>320000</v>
       </c>
-      <c r="AB23">
+      <c r="AE23">
         <v>7.4689451304799093E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -25945,85 +26286,94 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1</v>
       </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.1</v>
       </c>
-      <c r="J24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0.1</v>
+      <c r="L24" t="s">
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="P24">
+        <v>12</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>12</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>50</v>
       </c>
-      <c r="S24">
-        <f>INT(R24/O24)</f>
+      <c r="V24">
+        <f>INT(U24/R24)</f>
         <v>50</v>
       </c>
-      <c r="T24">
-        <f>R24*10</f>
+      <c r="W24">
+        <f>U24*10</f>
         <v>500</v>
       </c>
-      <c r="U24">
-        <f>INT(T24*0.35)</f>
+      <c r="X24">
+        <f>INT(W24*0.35)</f>
         <v>175</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>300</v>
       </c>
-      <c r="X24">
+      <c r="AA24">
         <v>1.1150955749293923E-3</v>
       </c>
-      <c r="Y24">
+      <c r="AB24">
         <v>400</v>
       </c>
-      <c r="Z24">
+      <c r="AC24">
         <v>3.2049277149712729E-3</v>
       </c>
-      <c r="AA24">
+      <c r="AD24">
         <v>500</v>
       </c>
-      <c r="AB24">
+      <c r="AE24">
         <v>8.9704367359209058E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -26034,87 +26384,96 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.2</v>
       </c>
-      <c r="G25" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.2</v>
       </c>
-      <c r="J25" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0.2</v>
+      <c r="L25" t="s">
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.2</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="P25">
-        <f>P$4*O25</f>
+      <c r="S25">
+        <f>S$4*R25</f>
         <v>16</v>
       </c>
-      <c r="Q25">
-        <f>Q$4*O25</f>
+      <c r="T25">
+        <f>T$4*R25</f>
         <v>24</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>120</v>
       </c>
-      <c r="S25">
-        <f t="shared" ref="S25:S33" si="10">INT(R25/O25)</f>
+      <c r="V25">
+        <f t="shared" ref="V25:V33" si="10">INT(U25/R25)</f>
         <v>60</v>
       </c>
-      <c r="T25">
-        <f t="shared" ref="T25:T33" si="11">R25*10</f>
+      <c r="W25">
+        <f t="shared" ref="W25:W33" si="11">U25*10</f>
         <v>1200</v>
       </c>
-      <c r="U25">
-        <f t="shared" ref="U25:U33" si="12">INT(T25*0.35)</f>
+      <c r="X25">
+        <f t="shared" ref="X25:X33" si="12">INT(W25*0.35)</f>
         <v>420</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="Z25">
         <v>720</v>
       </c>
-      <c r="X25">
+      <c r="AA25">
         <v>9.2933269978023869E-4</v>
       </c>
-      <c r="Y25">
+      <c r="AB25">
         <v>960</v>
       </c>
-      <c r="Z25">
+      <c r="AC25">
         <v>2.6714872892815711E-3</v>
       </c>
-      <c r="AA25">
+      <c r="AD25">
         <v>1200</v>
       </c>
-      <c r="AB25">
+      <c r="AE25">
         <v>7.4809716426049722E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -26125,87 +26484,96 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.3</v>
       </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.3</v>
       </c>
-      <c r="J26" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0.3</v>
+      <c r="L26" t="s">
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
+        <v>0.3</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P33" si="13">P$4*O26</f>
+      <c r="S26">
+        <f t="shared" ref="S26:S33" si="13">S$4*R26</f>
         <v>24</v>
       </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q33" si="14">Q$4*O26</f>
+      <c r="T26">
+        <f t="shared" ref="T26:T33" si="14">T$4*R26</f>
         <v>36</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>240</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <f t="shared" si="11"/>
         <v>2400</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <f t="shared" si="12"/>
         <v>840</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="Z26">
         <v>1440</v>
       </c>
-      <c r="X26">
+      <c r="AA26">
         <v>6.9708052426042943E-4</v>
       </c>
-      <c r="Y26">
+      <c r="AB26">
         <v>1920</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>2.0042852920040266E-3</v>
       </c>
-      <c r="AA26">
+      <c r="AD26">
         <v>2400</v>
       </c>
-      <c r="AB26">
+      <c r="AE26">
         <v>5.6159918683065246E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -26216,87 +26584,96 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.4</v>
       </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27">
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.4</v>
       </c>
-      <c r="J27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0.4</v>
+      <c r="L27" t="s">
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0.4</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>5</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>480</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <f t="shared" si="11"/>
         <v>4800</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <f t="shared" si="12"/>
         <v>1680</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
         <v>0</v>
       </c>
-      <c r="W27">
+      <c r="Z27">
         <v>2880</v>
       </c>
-      <c r="X27">
+      <c r="AA27">
         <v>5.8093419056659545E-4</v>
       </c>
-      <c r="Y27">
+      <c r="AB27">
         <v>3840</v>
       </c>
-      <c r="Z27">
+      <c r="AC27">
         <v>1.6705169304260803E-3</v>
       </c>
-      <c r="AA27">
+      <c r="AD27">
         <v>4800</v>
       </c>
-      <c r="AB27">
+      <c r="AE27">
         <v>4.6821882553126359E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -26307,87 +26684,96 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="G28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.5</v>
       </c>
-      <c r="J28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0.5</v>
+      <c r="L28" t="s">
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>9</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <f t="shared" si="13"/>
         <v>72</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <f t="shared" si="14"/>
         <v>108</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>960</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <f t="shared" si="10"/>
         <v>106</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <f t="shared" si="11"/>
         <v>9600</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <f t="shared" si="12"/>
         <v>3360</v>
       </c>
-      <c r="V28">
+      <c r="Y28">
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="Z28">
         <v>5760</v>
       </c>
-      <c r="X28">
+      <c r="AA28">
         <v>5.2614349858681742E-4</v>
       </c>
-      <c r="Y28">
+      <c r="AB28">
         <v>7680</v>
       </c>
-      <c r="Z28">
+      <c r="AC28">
         <v>1.5130402814039767E-3</v>
       </c>
-      <c r="AA28">
+      <c r="AD28">
         <v>9600</v>
       </c>
-      <c r="AB28">
+      <c r="AE28">
         <v>4.2414105276670222E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -26398,87 +26784,96 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.6</v>
       </c>
-      <c r="G29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.6</v>
       </c>
-      <c r="J29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0.6</v>
+      <c r="L29" t="s">
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>0.6</v>
       </c>
       <c r="P29">
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="13"/>
         <v>104</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>1440</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <f t="shared" si="11"/>
         <v>14400</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <f t="shared" si="12"/>
         <v>5040</v>
       </c>
-      <c r="V29">
+      <c r="Y29">
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="Z29">
         <v>8640</v>
       </c>
-      <c r="X29">
+      <c r="AA29">
         <v>5.0701585880263966E-4</v>
       </c>
-      <c r="Y29">
+      <c r="AB29">
         <v>11520</v>
       </c>
-      <c r="Z29">
+      <c r="AC29">
         <v>1.4580607656785594E-3</v>
       </c>
-      <c r="AA29">
+      <c r="AD29">
         <v>14400</v>
       </c>
-      <c r="AB29">
+      <c r="AE29">
         <v>4.0874930694316802E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -26489,87 +26884,96 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.7</v>
       </c>
-      <c r="G30" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30">
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.7</v>
       </c>
-      <c r="J30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0.7</v>
+      <c r="L30" t="s">
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
+        <v>0.7</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>17</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <f t="shared" si="13"/>
         <v>136</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <f t="shared" si="14"/>
         <v>204</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>2400</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <f t="shared" si="10"/>
         <v>141</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <f t="shared" si="11"/>
         <v>24000</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <f t="shared" si="12"/>
         <v>8400</v>
       </c>
-      <c r="V30">
+      <c r="Y30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="Z30">
         <v>14400</v>
       </c>
-      <c r="X30">
+      <c r="AA30">
         <v>3.9556633752713122E-4</v>
       </c>
-      <c r="Y30">
+      <c r="AB30">
         <v>19200</v>
       </c>
-      <c r="Z30">
+      <c r="AC30">
         <v>1.1376766438393471E-3</v>
       </c>
-      <c r="AA30">
+      <c r="AD30">
         <v>24000</v>
       </c>
-      <c r="AB30">
+      <c r="AE30">
         <v>3.1902596156079266E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -26580,87 +26984,96 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.8</v>
       </c>
-      <c r="G31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.8</v>
       </c>
-      <c r="J31" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0.8</v>
+      <c r="L31" t="s">
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <v>0.8</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>41</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <f t="shared" si="13"/>
         <v>328</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <f t="shared" si="14"/>
         <v>492</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>19900</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <f t="shared" si="10"/>
         <v>485</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <f t="shared" si="11"/>
         <v>199000</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <f t="shared" si="12"/>
         <v>69650</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="Z31">
         <v>119400</v>
       </c>
-      <c r="X31">
+      <c r="AA31">
         <v>1.150158343027341E-4</v>
       </c>
-      <c r="Y31">
+      <c r="AB31">
         <v>159200</v>
       </c>
-      <c r="Z31">
+      <c r="AC31">
         <v>3.3088076187726134E-4</v>
       </c>
-      <c r="AA31">
+      <c r="AD31">
         <v>199000</v>
       </c>
-      <c r="AB31">
+      <c r="AE31">
         <v>9.2852878900429037E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -26671,87 +27084,96 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.9</v>
       </c>
-      <c r="G32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.9</v>
       </c>
-      <c r="J32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0.9</v>
+      <c r="L32" t="s">
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
+        <v>0.9</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>47</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <f t="shared" si="14"/>
         <v>564</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>24000</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <f t="shared" si="10"/>
         <v>510</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <f t="shared" si="11"/>
         <v>240000</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <f t="shared" si="12"/>
         <v>84000</v>
       </c>
-      <c r="V32">
+      <c r="Y32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="Z32">
         <v>144000</v>
       </c>
-      <c r="X32">
+      <c r="AA32">
         <v>1.0937811155964372E-4</v>
       </c>
-      <c r="Y32">
+      <c r="AB32">
         <v>192000</v>
       </c>
-      <c r="Z32">
+      <c r="AC32">
         <v>3.1466366882826335E-4</v>
       </c>
-      <c r="AA32">
+      <c r="AD32">
         <v>240000</v>
       </c>
-      <c r="AB32">
+      <c r="AE32">
         <v>8.8303277407808523E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -26762,83 +27184,92 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>144</v>
-      </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>53</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <f t="shared" si="13"/>
         <v>424</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <f t="shared" si="14"/>
         <v>636</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>32000</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <f t="shared" si="10"/>
         <v>603</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <f t="shared" si="11"/>
         <v>320000</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <f t="shared" si="12"/>
         <v>112000</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="Z33">
         <v>192000</v>
       </c>
-      <c r="X33">
+      <c r="AA33">
         <v>9.2509630883585992E-5</v>
       </c>
-      <c r="Y33">
+      <c r="AB33">
         <v>256000</v>
       </c>
-      <c r="Z33">
+      <c r="AC33">
         <v>2.6613990978696656E-4</v>
       </c>
-      <c r="AA33">
+      <c r="AD33">
         <v>320000</v>
       </c>
-      <c r="AB33">
+      <c r="AE33">
         <v>7.4689451304799093E-4</v>
       </c>
     </row>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B614EE3-CB7B-44FC-A269-872C598687C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F0C11-DF4D-4109-B6C7-E59602E7679A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="177">
   <si>
     <t>sheet名</t>
   </si>
@@ -268,50 +268,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cost[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost[2].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attr[3].id</t>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].val.v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].val.w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].val.v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -675,15 +635,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attr[1].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>energyRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -692,22 +644,6 @@
   </si>
   <si>
     <t>属性类型2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -731,6 +667,74 @@
   </si>
   <si>
     <t>dmgInc</t>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性槽位3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性槽位2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性槽位1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1281,20 +1285,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -1302,20 +1306,20 @@
     </row>
     <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -1323,20 +1327,20 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
@@ -1344,20 +1348,20 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
@@ -1365,20 +1369,20 @@
     </row>
     <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
@@ -1386,20 +1390,20 @@
     </row>
     <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
@@ -1407,20 +1411,20 @@
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G8" s="4" t="b">
         <v>1</v>
@@ -1428,20 +1432,20 @@
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G9" s="4" t="b">
         <v>1</v>
@@ -1462,7 +1466,7 @@
   <dimension ref="A1:R453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1484,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1514,42 +1518,42 @@
         <v>34</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -1560,7 +1564,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -21541,7 +21545,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21560,7 +21564,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -21581,27 +21585,27 @@
         <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -21616,7 +21620,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -21625,7 +21629,7 @@
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
@@ -21636,7 +21640,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -22851,10 +22855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22867,17 +22871,18 @@
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
     <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="70.625" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>53</v>
@@ -22889,13 +22894,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -22904,45 +22909,48 @@
         <v>163</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -22954,7 +22962,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -22969,42 +22977,45 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
-        <v>135</v>
-      </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -23013,10 +23024,10 @@
         <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -23025,25 +23036,28 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23065,14 +23079,14 @@
       <c r="G4">
         <v>2000</v>
       </c>
-      <c r="Q4" t="s">
-        <v>69</v>
-      </c>
       <c r="R4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -23094,14 +23108,14 @@
       <c r="G5">
         <v>1000</v>
       </c>
-      <c r="Q5" t="s">
-        <v>70</v>
-      </c>
       <c r="R5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -23112,7 +23126,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -23123,14 +23137,14 @@
       <c r="G6">
         <v>25</v>
       </c>
-      <c r="Q6" t="s">
-        <v>71</v>
-      </c>
       <c r="R6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -23152,14 +23166,14 @@
       <c r="G7">
         <v>0.25</v>
       </c>
-      <c r="Q7" t="s">
-        <v>72</v>
-      </c>
       <c r="R7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="S7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -23181,14 +23195,14 @@
       <c r="G8">
         <v>0.25</v>
       </c>
-      <c r="Q8" t="s">
-        <v>73</v>
-      </c>
       <c r="R8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -23199,7 +23213,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -23210,14 +23224,14 @@
       <c r="G9">
         <v>0.2</v>
       </c>
-      <c r="Q9" t="s">
-        <v>74</v>
-      </c>
       <c r="R9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -23228,7 +23242,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -23239,14 +23253,14 @@
       <c r="G10">
         <v>5000</v>
       </c>
-      <c r="Q10" t="s">
-        <v>75</v>
-      </c>
       <c r="R10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="S10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -23257,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -23268,14 +23282,14 @@
       <c r="G11">
         <v>2000</v>
       </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
       <c r="R11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23297,14 +23311,14 @@
       <c r="G12">
         <v>0.25</v>
       </c>
-      <c r="Q12" t="s">
-        <v>77</v>
-      </c>
       <c r="R12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="S12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23315,7 +23329,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -23327,7 +23341,7 @@
         <v>0.25</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -23338,14 +23352,14 @@
       <c r="K13">
         <v>1000</v>
       </c>
-      <c r="Q13" t="s">
-        <v>78</v>
-      </c>
       <c r="R13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="S13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23367,14 +23381,14 @@
       <c r="G14">
         <v>2000</v>
       </c>
-      <c r="Q14" t="s">
-        <v>69</v>
-      </c>
       <c r="R14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -23396,14 +23410,14 @@
       <c r="G15">
         <v>1000</v>
       </c>
-      <c r="Q15" t="s">
-        <v>70</v>
-      </c>
       <c r="R15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -23414,7 +23428,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -23425,14 +23439,14 @@
       <c r="G16">
         <v>25</v>
       </c>
-      <c r="Q16" t="s">
-        <v>71</v>
-      </c>
       <c r="R16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -23454,14 +23468,14 @@
       <c r="G17">
         <v>0.25</v>
       </c>
-      <c r="Q17" t="s">
-        <v>72</v>
-      </c>
       <c r="R17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -23483,14 +23497,14 @@
       <c r="G18">
         <v>0.25</v>
       </c>
-      <c r="Q18" t="s">
-        <v>73</v>
-      </c>
       <c r="R18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -23501,7 +23515,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -23512,14 +23526,14 @@
       <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="Q19" t="s">
-        <v>74</v>
-      </c>
       <c r="R19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="S19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -23530,7 +23544,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -23541,14 +23555,14 @@
       <c r="G20">
         <v>0.5</v>
       </c>
-      <c r="Q20" t="s">
-        <v>75</v>
-      </c>
       <c r="R20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="S20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -23559,7 +23573,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -23570,14 +23584,14 @@
       <c r="G21">
         <v>0.2</v>
       </c>
-      <c r="Q21" t="s">
-        <v>76</v>
-      </c>
       <c r="R21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -23599,14 +23613,14 @@
       <c r="G22">
         <v>0.25</v>
       </c>
-      <c r="Q22" t="s">
-        <v>77</v>
-      </c>
       <c r="R22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="S22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -23617,7 +23631,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -23629,7 +23643,7 @@
         <v>0.25</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -23640,14 +23654,14 @@
       <c r="K23">
         <v>1000</v>
       </c>
-      <c r="Q23" t="s">
-        <v>78</v>
-      </c>
       <c r="R23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="S23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -23669,14 +23683,14 @@
       <c r="G24">
         <v>2000</v>
       </c>
-      <c r="Q24" t="s">
-        <v>69</v>
-      </c>
       <c r="R24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="S24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -23698,14 +23712,14 @@
       <c r="G25">
         <v>1000</v>
       </c>
-      <c r="Q25" t="s">
-        <v>70</v>
-      </c>
       <c r="R25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -23716,7 +23730,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -23727,14 +23741,14 @@
       <c r="G26">
         <v>25</v>
       </c>
-      <c r="Q26" t="s">
-        <v>71</v>
-      </c>
       <c r="R26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="S26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -23756,14 +23770,14 @@
       <c r="G27">
         <v>0.25</v>
       </c>
-      <c r="Q27" t="s">
-        <v>72</v>
-      </c>
       <c r="R27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="S27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -23785,14 +23799,14 @@
       <c r="G28">
         <v>0.25</v>
       </c>
-      <c r="Q28" t="s">
-        <v>73</v>
-      </c>
       <c r="R28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="S28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -23803,7 +23817,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -23814,14 +23828,14 @@
       <c r="G29">
         <v>0.2</v>
       </c>
-      <c r="Q29" t="s">
-        <v>74</v>
-      </c>
       <c r="R29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="S29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -23832,7 +23846,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -23843,14 +23857,14 @@
       <c r="G30">
         <v>0.5</v>
       </c>
-      <c r="Q30" t="s">
-        <v>75</v>
-      </c>
       <c r="R30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="S30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -23861,7 +23875,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -23872,14 +23886,14 @@
       <c r="G31">
         <v>0.2</v>
       </c>
-      <c r="Q31" t="s">
-        <v>76</v>
-      </c>
       <c r="R31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="S31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -23901,14 +23915,14 @@
       <c r="G32">
         <v>0.25</v>
       </c>
-      <c r="Q32" t="s">
-        <v>77</v>
-      </c>
       <c r="R32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="S32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -23919,7 +23933,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -23931,7 +23945,7 @@
         <v>0.25</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -23942,11 +23956,11 @@
       <c r="K33">
         <v>1000</v>
       </c>
-      <c r="Q33" t="s">
-        <v>78</v>
-      </c>
       <c r="R33" t="s">
-        <v>95</v>
+        <v>68</v>
+      </c>
+      <c r="S33" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -23960,8 +23974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F315370-7FE8-44E2-8F0F-9ACDD504B0E9}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23996,7 +24010,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -24008,13 +24022,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -24023,84 +24037,84 @@
         <v>163</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="X1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -24112,7 +24126,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -24124,7 +24138,7 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
         <v>7</v>
@@ -24136,7 +24150,7 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="Q2" t="s">
         <v>7</v>
@@ -24145,40 +24159,40 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="U2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="X2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="Y2" t="s">
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
         <v>40</v>
       </c>
       <c r="AB2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AC2" t="s">
         <v>40</v>
       </c>
       <c r="AD2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
         <v>40</v>
@@ -24186,10 +24200,10 @@
     </row>
     <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -24198,10 +24212,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>21</v>
@@ -24210,10 +24224,10 @@
         <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -24222,61 +24236,61 @@
         <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7437FC7A-A192-4089-80CC-F97B032D9BB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C4730-544C-41F6-A126-6D127C2F5230}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="升级表" sheetId="31" r:id="rId2"/>
-    <sheet name="突破表" sheetId="33" r:id="rId3"/>
-    <sheet name="突破效果" sheetId="36" r:id="rId4"/>
-    <sheet name="核能反应" sheetId="35" r:id="rId5"/>
+    <sheet name="皮肤" sheetId="37" r:id="rId2"/>
+    <sheet name="升级表" sheetId="31" r:id="rId3"/>
+    <sheet name="突破表" sheetId="33" r:id="rId4"/>
+    <sheet name="突破效果" sheetId="36" r:id="rId5"/>
+    <sheet name="核能反应" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="200">
   <si>
     <t>sheet名</t>
   </si>
@@ -724,6 +725,109 @@
     <t>cost[2].valv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptSkillId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>angrySkillId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻技能ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气技能ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认主舰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认导弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun01</t>
+  </si>
+  <si>
+    <t>默认激光炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201,1202,1203,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301,1302,1303,1304,1305,1306,1307,1308,1309,1310,1311,1312,1313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,type,id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置皮肤的表，同时配置皮肤下的普攻和怒气技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置皮肤的表，同时配置皮肤下的普攻和怒气技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -916,7 +1020,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -938,6 +1042,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1234,7 +1341,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1439,6 +1546,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
@@ -1450,10 +1599,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="63.5" customWidth="1"/>
+    <col min="7" max="7" width="50.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>201</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>301</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -21528,7 +21833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99E23C7-FD51-4D3C-ADE2-809384C62A0E}">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -22841,7 +23146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
   <dimension ref="A1:S33"/>
   <sheetViews>
@@ -23958,7 +24263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F315370-7FE8-44E2-8F0F-9ACDD504B0E9}">
   <dimension ref="A1:AE33"/>
   <sheetViews>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C4730-544C-41F6-A126-6D127C2F5230}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FFB4C9-D827-40D5-9537-6B7F27EA7CF4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="199">
   <si>
     <t>sheet名</t>
   </si>
@@ -809,14 +809,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type,id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,type,id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端配置皮肤的表，同时配置皮肤下的普攻和怒气技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,6 +818,10 @@
   </si>
   <si>
     <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,13 +1551,13 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -1582,7 +1578,7 @@
         <v>194</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -1602,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1655,10 +1651,10 @@
         <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE157C8B-6A5A-4B3E-9D3C-4926148135EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6704566E-1D5E-4D4B-B25A-936FEFA2F3B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,10 +1178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>trigger.type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1275,6 +1271,10 @@
   </si>
   <si>
     <t>string:e&lt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -22301,8 +22301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99E23C7-FD51-4D3C-ADE2-809384C62A0E}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22447,7 +22447,6 @@
         <v>25</v>
       </c>
       <c r="E4" s="4">
-        <f>ROUND(1.2^C4,2)</f>
         <v>1.2</v>
       </c>
       <c r="F4" s="4">
@@ -22457,10 +22456,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="4">
         <v>11</v>
@@ -22486,7 +22485,6 @@
         <v>40</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E15" si="0">ROUND(1.2^C5,2)</f>
         <v>1.44</v>
       </c>
       <c r="F5" s="4">
@@ -22496,10 +22494,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>6.5</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="4">
         <v>11</v>
@@ -22525,7 +22523,6 @@
         <v>60</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
         <v>1.73</v>
       </c>
       <c r="F6" s="4">
@@ -22535,10 +22532,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>98.4</v>
+        <v>3000</v>
       </c>
       <c r="J6" s="4">
         <v>11</v>
@@ -22564,7 +22561,6 @@
         <v>80</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="F7" s="4">
@@ -22574,10 +22570,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>1.5</v>
+        <v>4000</v>
       </c>
       <c r="J7" s="4">
         <v>11</v>
@@ -22603,7 +22599,6 @@
         <v>100</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
         <v>2.4900000000000002</v>
       </c>
       <c r="F8" s="4">
@@ -22613,10 +22608,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>22.5</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="4">
         <v>11</v>
@@ -22642,7 +22637,6 @@
         <v>120</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
       <c r="F9" s="4">
@@ -22652,10 +22646,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>2.8</v>
+        <v>6000</v>
       </c>
       <c r="J9" s="4">
         <v>11</v>
@@ -22681,7 +22675,6 @@
         <v>140</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
         <v>3.58</v>
       </c>
       <c r="F10" s="4">
@@ -22691,10 +22684,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>340.1</v>
+        <v>7000</v>
       </c>
       <c r="J10" s="4">
         <v>11</v>
@@ -22720,7 +22713,6 @@
         <v>160</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
       <c r="F11" s="4">
@@ -22730,10 +22722,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>41.8</v>
+        <v>8000</v>
       </c>
       <c r="J11" s="4">
         <v>11</v>
@@ -22759,7 +22751,6 @@
         <v>180</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
         <v>5.16</v>
       </c>
       <c r="F12" s="4">
@@ -22769,10 +22760,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>5.0999999999999996</v>
+        <v>9000</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -22798,7 +22789,6 @@
         <v>200</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
         <v>6.19</v>
       </c>
       <c r="F13" s="4">
@@ -22808,10 +22798,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>632.70000000000005</v>
+        <v>10000</v>
       </c>
       <c r="J13" s="4">
         <v>11</v>
@@ -22837,7 +22827,6 @@
         <v>220</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
         <v>7.43</v>
       </c>
       <c r="F14" s="4">
@@ -22847,10 +22836,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>5.0999999999999996</v>
+        <v>11000</v>
       </c>
       <c r="J14" s="4">
         <v>11</v>
@@ -22876,7 +22865,6 @@
         <v>250</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="0"/>
         <v>8.92</v>
       </c>
       <c r="F15" s="4">
@@ -22886,10 +22874,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>632.70000000000005</v>
+        <v>12000</v>
       </c>
       <c r="J15" s="4">
         <v>11</v>
@@ -22915,7 +22903,6 @@
         <v>25</v>
       </c>
       <c r="E16" s="4">
-        <f>ROUND(1.2^C16,2)</f>
         <v>1.2</v>
       </c>
       <c r="F16" s="4">
@@ -22925,10 +22912,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="4">
         <v>11</v>
@@ -22954,7 +22941,6 @@
         <v>40</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" ref="E17:E27" si="1">ROUND(1.2^C17,2)</f>
         <v>1.44</v>
       </c>
       <c r="F17" s="4">
@@ -22964,10 +22950,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>6.5</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="4">
         <v>11</v>
@@ -22993,7 +22979,6 @@
         <v>60</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="1"/>
         <v>1.73</v>
       </c>
       <c r="F18" s="4">
@@ -23003,10 +22988,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>98.4</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="4">
         <v>11</v>
@@ -23032,7 +23017,6 @@
         <v>80</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="F19" s="4">
@@ -23042,10 +23026,10 @@
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>1.5</v>
+        <v>4000</v>
       </c>
       <c r="J19" s="4">
         <v>11</v>
@@ -23071,7 +23055,6 @@
         <v>100</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="1"/>
         <v>2.4900000000000002</v>
       </c>
       <c r="F20" s="4">
@@ -23081,10 +23064,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>22.5</v>
+        <v>5000</v>
       </c>
       <c r="J20" s="4">
         <v>11</v>
@@ -23110,7 +23093,6 @@
         <v>120</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="1"/>
         <v>2.99</v>
       </c>
       <c r="F21" s="4">
@@ -23120,10 +23102,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>2.8</v>
+        <v>6000</v>
       </c>
       <c r="J21" s="4">
         <v>11</v>
@@ -23149,7 +23131,6 @@
         <v>140</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="1"/>
         <v>3.58</v>
       </c>
       <c r="F22" s="4">
@@ -23159,10 +23140,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>340.1</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="4">
         <v>11</v>
@@ -23188,7 +23169,6 @@
         <v>160</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
       <c r="F23" s="4">
@@ -23198,10 +23178,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>41.8</v>
+        <v>8000</v>
       </c>
       <c r="J23" s="4">
         <v>11</v>
@@ -23227,7 +23207,6 @@
         <v>180</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="1"/>
         <v>5.16</v>
       </c>
       <c r="F24" s="4">
@@ -23237,10 +23216,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>5.0999999999999996</v>
+        <v>9000</v>
       </c>
       <c r="J24" s="4">
         <v>11</v>
@@ -23266,7 +23245,6 @@
         <v>200</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="1"/>
         <v>6.19</v>
       </c>
       <c r="F25" s="4">
@@ -23276,10 +23254,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>632.70000000000005</v>
+        <v>10000</v>
       </c>
       <c r="J25" s="4">
         <v>11</v>
@@ -23305,7 +23283,6 @@
         <v>220</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="1"/>
         <v>7.43</v>
       </c>
       <c r="F26" s="4">
@@ -23315,10 +23292,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>632.70000000000005</v>
+        <v>11000</v>
       </c>
       <c r="J26" s="4">
         <v>11</v>
@@ -23344,7 +23321,6 @@
         <v>250</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="1"/>
         <v>8.92</v>
       </c>
       <c r="F27" s="4">
@@ -23354,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>632.70000000000005</v>
+        <v>12000</v>
       </c>
       <c r="J27" s="4">
         <v>11</v>
@@ -23383,7 +23359,6 @@
         <v>25</v>
       </c>
       <c r="E28" s="4">
-        <f>ROUND(1.2^C28,2)</f>
         <v>1.2</v>
       </c>
       <c r="F28" s="4">
@@ -23393,10 +23368,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J28" s="4">
         <v>11</v>
@@ -23422,7 +23397,6 @@
         <v>40</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:E39" si="2">ROUND(1.2^C29,2)</f>
         <v>1.44</v>
       </c>
       <c r="F29" s="4">
@@ -23432,10 +23406,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>6.5</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="4">
         <v>11</v>
@@ -23461,7 +23435,6 @@
         <v>60</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="2"/>
         <v>1.73</v>
       </c>
       <c r="F30" s="4">
@@ -23471,10 +23444,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30" s="4">
-        <v>98.4</v>
+        <v>3000</v>
       </c>
       <c r="J30" s="4">
         <v>11</v>
@@ -23500,7 +23473,6 @@
         <v>80</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="2"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="F31" s="4">
@@ -23510,10 +23482,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>1.5</v>
+        <v>4000</v>
       </c>
       <c r="J31" s="4">
         <v>11</v>
@@ -23539,7 +23511,6 @@
         <v>100</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="2"/>
         <v>2.4900000000000002</v>
       </c>
       <c r="F32" s="4">
@@ -23549,10 +23520,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>22.5</v>
+        <v>5000</v>
       </c>
       <c r="J32" s="4">
         <v>11</v>
@@ -23578,7 +23549,6 @@
         <v>120</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="2"/>
         <v>2.99</v>
       </c>
       <c r="F33" s="4">
@@ -23588,10 +23558,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>2.8</v>
+        <v>6000</v>
       </c>
       <c r="J33" s="4">
         <v>11</v>
@@ -23617,7 +23587,6 @@
         <v>140</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="2"/>
         <v>3.58</v>
       </c>
       <c r="F34" s="4">
@@ -23627,10 +23596,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>340.1</v>
+        <v>7000</v>
       </c>
       <c r="J34" s="4">
         <v>11</v>
@@ -23656,7 +23625,6 @@
         <v>160</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
       <c r="F35" s="4">
@@ -23666,10 +23634,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>41.8</v>
+        <v>8000</v>
       </c>
       <c r="J35" s="4">
         <v>11</v>
@@ -23695,7 +23663,6 @@
         <v>180</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="2"/>
         <v>5.16</v>
       </c>
       <c r="F36" s="4">
@@ -23705,10 +23672,10 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>5.0999999999999996</v>
+        <v>9000</v>
       </c>
       <c r="J36" s="4">
         <v>11</v>
@@ -23734,7 +23701,6 @@
         <v>200</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="2"/>
         <v>6.19</v>
       </c>
       <c r="F37" s="4">
@@ -23744,10 +23710,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>632.70000000000005</v>
+        <v>10000</v>
       </c>
       <c r="J37" s="4">
         <v>11</v>
@@ -23773,7 +23739,6 @@
         <v>220</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="2"/>
         <v>7.43</v>
       </c>
       <c r="F38" s="4">
@@ -23783,10 +23748,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>632.70000000000005</v>
+        <v>11000</v>
       </c>
       <c r="J38" s="4">
         <v>11</v>
@@ -23812,7 +23777,6 @@
         <v>250</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="2"/>
         <v>8.92</v>
       </c>
       <c r="F39" s="4">
@@ -23822,10 +23786,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I39" s="4">
-        <v>632.70000000000005</v>
+        <v>12000</v>
       </c>
       <c r="J39" s="4">
         <v>11</v>
@@ -23852,7 +23816,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23886,7 +23850,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>52</v>
@@ -23895,7 +23859,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>123</v>
@@ -23910,7 +23874,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>126</v>
@@ -23922,22 +23886,22 @@
         <v>128</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -23951,7 +23915,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -23960,7 +23924,7 @@
         <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -24016,7 +23980,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>57</v>
@@ -24025,7 +23989,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>135</v>
@@ -24040,7 +24004,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>134</v>
@@ -24052,22 +24016,22 @@
         <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -24082,7 +24046,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>260</v>
@@ -24709,7 +24673,7 @@
         <v>210</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -24938,7 +24902,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -25017,7 +24981,7 @@
         <v>215</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -25134,7 +25098,7 @@
         <v>218</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -25173,7 +25137,7 @@
         <v>219</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -25212,7 +25176,7 @@
         <v>220</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -25396,7 +25360,7 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6704566E-1D5E-4D4B-B25A-936FEFA2F3B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB72046-4703-45D0-AF47-F2C65BB0002C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="303">
   <si>
     <t>sheet名</t>
   </si>
@@ -771,10 +771,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int:ae&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rowId,id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1276,6 +1272,36 @@
   <si>
     <t>atkSpeed</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id:ae&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>names</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameColors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:ae&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气号,勇气号·1代,勇气号·2代,勇气号·3代,勇气号·4代,勇气号·5代,勇气号·6代,勇气号·7代,勇气号·8代,勇气号·9代,勇气号·10代,勇气号·11代,勇气号·12代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5B48D,6BE317,16E222,16E2B6,16D3E2,168EE2,9216E2,CC16E2,E216C5,E28B16,E2B716,ECE916,EC1B16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱国者,爱国者·1代,爱国者·2代,爱国者·3代,爱国者·4代,爱国者·5代,爱国者·6代,爱国者·7代,爱国者·8代,爱国者·9代,爱国者·10代,爱国者·11代,爱国者·12代</t>
+  </si>
+  <si>
+    <t>伊吹型,伊吹型·1代,伊吹型·2代,伊吹型·3代,伊吹型·4代,伊吹型·5代,伊吹型·6代,伊吹型·7代,伊吹型·8代,伊吹型·9代,伊吹型·10代,伊吹型·11代,伊吹型·12代</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2048,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>159</v>
@@ -2064,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2077,9 +2103,11 @@
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="63.5" customWidth="1"/>
     <col min="7" max="7" width="50.25" customWidth="1"/>
+    <col min="8" max="8" width="52.875" customWidth="1"/>
+    <col min="9" max="9" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
@@ -2101,8 +2129,14 @@
       <c r="G1" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2119,13 +2153,19 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="H2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
@@ -2147,8 +2187,10 @@
       <c r="G3" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2168,8 +2210,14 @@
         <v>153</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="H4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2189,8 +2237,14 @@
         <v>154</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="H5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2210,6 +2264,12 @@
         <v>155</v>
       </c>
       <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23812,7 +23872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -23850,7 +23910,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>52</v>
@@ -23859,7 +23919,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>123</v>
@@ -23874,7 +23934,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>126</v>
@@ -23886,22 +23946,22 @@
         <v>128</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -23915,7 +23975,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -23980,7 +24040,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>57</v>
@@ -23989,7 +24049,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>135</v>
@@ -24004,7 +24064,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>134</v>
@@ -24016,22 +24076,22 @@
         <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -24042,14 +24102,14 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G4" s="4">
         <v>7</v>
@@ -24081,14 +24141,14 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -24120,14 +24180,14 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -24159,14 +24219,14 @@
         <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -24198,14 +24258,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -24237,14 +24297,14 @@
         <v>106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
@@ -24276,11 +24336,11 @@
         <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -24315,14 +24375,14 @@
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -24354,14 +24414,14 @@
         <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -24393,14 +24453,14 @@
         <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -24432,14 +24492,14 @@
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -24471,14 +24531,14 @@
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -24510,14 +24570,14 @@
         <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -24549,14 +24609,14 @@
         <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -24588,14 +24648,14 @@
         <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -24627,14 +24687,14 @@
         <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -24666,14 +24726,14 @@
         <v>205</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -24705,14 +24765,14 @@
         <v>206</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -24744,11 +24804,11 @@
         <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -24783,11 +24843,11 @@
         <v>208</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -24820,14 +24880,14 @@
         <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -24859,14 +24919,14 @@
         <v>210</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -24898,11 +24958,11 @@
         <v>211</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -24935,14 +24995,14 @@
         <v>212</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -24974,14 +25034,14 @@
         <v>301</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -25013,14 +25073,14 @@
         <v>302</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
@@ -25052,14 +25112,14 @@
         <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
@@ -25091,14 +25151,14 @@
         <v>304</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -25130,14 +25190,14 @@
         <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -25169,14 +25229,14 @@
         <v>306</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -25208,11 +25268,11 @@
         <v>307</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -25247,11 +25307,11 @@
         <v>308</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -25284,14 +25344,14 @@
         <v>309</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -25323,14 +25383,14 @@
         <v>310</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25356,11 +25416,11 @@
         <v>311</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -25393,14 +25453,14 @@
         <v>312</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -25450,19 +25510,19 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25470,16 +25530,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25487,16 +25547,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25504,16 +25564,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25521,16 +25581,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25538,16 +25598,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25555,16 +25615,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25572,16 +25632,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25589,16 +25649,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25606,16 +25666,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25623,16 +25683,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25640,16 +25700,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25657,16 +25717,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB72046-4703-45D0-AF47-F2C65BB0002C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4445849-E250-42A9-9763-BC9DBFFABA04}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="突破效果" sheetId="36" r:id="rId5"/>
     <sheet name="突破效果设计" sheetId="38" r:id="rId6"/>
     <sheet name="核能反应" sheetId="35" r:id="rId7"/>
+    <sheet name="军阶" sheetId="39" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="434">
   <si>
     <t>sheet名</t>
   </si>
@@ -720,25 +721,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认主舰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MissileLaunch01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认导弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LaserGun01</t>
   </si>
   <si>
-    <t>默认激光炮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1290,18 +1279,497 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勇气号,勇气号·1代,勇气号·2代,勇气号·3代,勇气号·4代,勇气号·5代,勇气号·6代,勇气号·7代,勇气号·8代,勇气号·9代,勇气号·10代,勇气号·11代,勇气号·12代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B5B48D,6BE317,16E222,16E2B6,16D3E2,168EE2,9216E2,CC16E2,E216C5,E28B16,E2B716,ECE916,EC1B16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爱国者,爱国者·1代,爱国者·2代,爱国者·3代,爱国者·4代,爱国者·5代,爱国者·6代,爱国者·7代,爱国者·8代,爱国者·9代,爱国者·10代,爱国者·11代,爱国者·12代</t>
-  </si>
-  <si>
-    <t>伊吹型,伊吹型·1代,伊吹型·2代,伊吹型·3代,伊吹型·4代,伊吹型·5代,伊吹型·6代,伊吹型·7代,伊吹型·8代,伊吹型·9代,伊吹型·10代,伊吹型·11代,伊吹型·12代</t>
+    <t>MainShip02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰·勇气号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮·爱国者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·伊吹型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰·勇气号,主舰·勇气号·1代,主舰·勇气号·2代,主舰·勇气号·3代,主舰·勇气号·4代,主舰·勇气号·5代,主舰·勇气号·6代,主舰·勇气号·7代,主舰·勇气号·8代,主舰·勇气号·9代,主舰·勇气号·10代,主舰·勇气号·11代,主舰·勇气号·12代</t>
+  </si>
+  <si>
+    <t>导弹·爱国者,导弹·爱国者·1代,导弹·爱国者·2代,导弹·爱国者·3代,导弹·爱国者·4代,导弹·爱国者·5代,导弹·爱国者·6代,导弹·爱国者·7代,导弹·爱国者·8代,导弹·爱国者·9代,导弹·爱国者·10代,导弹·爱国者·11代,导弹·爱国者·12代</t>
+  </si>
+  <si>
+    <t>激光炮·伊吹型,激光炮·伊吹型·1代,激光炮·伊吹型·2代,激光炮·伊吹型·3代,激光炮·伊吹型·4代,激光炮·伊吹型·5代,激光炮·伊吹型·6代,激光炮·伊吹型·7代,激光炮·伊吹型·8代,激光炮·伊吹型·9代,激光炮·伊吹型·10代,激光炮·伊吹型·11代,激光炮·伊吹型·12代</t>
+  </si>
+  <si>
+    <t>主舰·希望号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰·大自然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰·希望号,主舰·希望号·1代,主舰·希望号·2代,主舰·希望号·3代,主舰·希望号·4代,主舰·希望号·5代,主舰·希望号·6代,主舰·希望号·7代,主舰·希望号·8代,主舰·希望号·9代,主舰·希望号·10代,主舰·希望号·11代,主舰·希望号·12代</t>
+  </si>
+  <si>
+    <t>导弹炮·萨德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮·红旗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·管夷吾型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·岛风型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·岛风型,激光炮·岛风型·1代,激光炮·岛风型·2代,激光炮·岛风型·3代,激光炮·岛风型·4代,激光炮·岛风型·5代,激光炮·岛风型·6代,激光炮·岛风型·7代,激光炮·岛风型·8代,激光炮·岛风型·9代,激光炮·岛风型·10代,激光炮·岛风型·11代,激光炮·岛风型·12代</t>
+  </si>
+  <si>
+    <t>主舰·大自然,主舰·大自然·1代,主舰·大自然·2代,主舰·大自然·3代,主舰·大自然·4代,主舰·大自然·5代,主舰·大自然·6代,主舰·大自然·7代,主舰·大自然·8代,主舰·大自然·9代,主舰·大自然·10代,主舰·大自然·11代,主舰·大自然·12代</t>
+  </si>
+  <si>
+    <t>导弹炮·萨德,导弹炮·萨德·1代,导弹炮·萨德·2代,导弹炮·萨德·3代,导弹炮·萨德·4代,导弹炮·萨德·5代,导弹炮·萨德·6代,导弹炮·萨德·7代,导弹炮·萨德·8代,导弹炮·萨德·9代,导弹炮·萨德·10代,导弹炮·萨德·11代,导弹炮·萨德·12代</t>
+  </si>
+  <si>
+    <t>激光炮·管夷吾型,激光炮·管夷吾型·1代,激光炮·管夷吾型·2代,激光炮·管夷吾型·3代,激光炮·管夷吾型·4代,激光炮·管夷吾型·5代,激光炮·管夷吾型·6代,激光炮·管夷吾型·7代,激光炮·管夷吾型·8代,激光炮·管夷吾型·9代,激光炮·管夷吾型·10代,激光炮·管夷吾型·11代,激光炮·管夷吾型·12代</t>
+  </si>
+  <si>
+    <t>导弹炮·红旗,导弹炮·红旗·1代,导弹炮·红旗·2代,导弹炮·红旗·3代,导弹炮·红旗·4代,导弹炮·红旗·5代,导弹炮·红旗·6代,导弹炮·红旗·7代,导弹炮·红旗·8代,导弹炮·红旗·9代,导弹炮·红旗·10代,导弹炮·红旗·11代,导弹炮·红旗·12代</t>
+  </si>
+  <si>
+    <t>achieveId[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[1].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].id</t>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+  </si>
+  <si>
+    <t>attr[4].id</t>
+  </si>
+  <si>
+    <t>attr[4].tar</t>
+  </si>
+  <si>
+    <t>attr[4].valw</t>
+  </si>
+  <si>
+    <t>attr[4].valv</t>
+  </si>
+  <si>
+    <t>attr[5].id</t>
+  </si>
+  <si>
+    <t>attr[5].tar</t>
+  </si>
+  <si>
+    <t>attr[5].valw</t>
+  </si>
+  <si>
+    <t>attr[5].valv</t>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+  </si>
+  <si>
+    <t>新兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参谋军士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级准尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级准尉</t>
+  </si>
+  <si>
+    <t>3级准尉</t>
+  </si>
+  <si>
+    <t>4级准尉</t>
+  </si>
+  <si>
+    <t>5级准尉</t>
+  </si>
+  <si>
+    <t>少尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就描述1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID2</t>
+  </si>
+  <si>
+    <t>成就描述2</t>
+  </si>
+  <si>
+    <t>成就ID3</t>
+  </si>
+  <si>
+    <t>成就描述3</t>
+  </si>
+  <si>
+    <t>成就ID4</t>
+  </si>
+  <si>
+    <t>成就描述4</t>
+  </si>
+  <si>
+    <t>属性1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2ID</t>
+  </si>
+  <si>
+    <t>属性2目标</t>
+  </si>
+  <si>
+    <t>属性2权重</t>
+  </si>
+  <si>
+    <t>属性2价值</t>
+  </si>
+  <si>
+    <t>属性3ID</t>
+  </si>
+  <si>
+    <t>属性3目标</t>
+  </si>
+  <si>
+    <t>属性3权重</t>
+  </si>
+  <si>
+    <t>属性3价值</t>
+  </si>
+  <si>
+    <t>属性4ID</t>
+  </si>
+  <si>
+    <t>属性4目标</t>
+  </si>
+  <si>
+    <t>属性4权重</t>
+  </si>
+  <si>
+    <t>属性4价值</t>
+  </si>
+  <si>
+    <t>属性5ID</t>
+  </si>
+  <si>
+    <t>属性5目标</t>
+  </si>
+  <si>
+    <t>属性5权重</t>
+  </si>
+  <si>
+    <t>属性5价值</t>
+  </si>
+  <si>
+    <t>属性6ID</t>
+  </si>
+  <si>
+    <t>属性6目标</t>
+  </si>
+  <si>
+    <t>属性6权重</t>
+  </si>
+  <si>
+    <t>属性6价值</t>
+  </si>
+  <si>
+    <t>通关第1章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第7章</t>
+  </si>
+  <si>
+    <t>通关第3章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第5章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第10章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第15章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第20章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第25章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第30章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第35章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第40章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第45章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第50章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第55章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第60章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第65章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第70章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第75章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第80章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第85章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第90章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第95章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第100章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第110章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第120章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第150章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2038,20 +2506,20 @@
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -2059,20 +2527,20 @@
     </row>
     <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -2090,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2130,10 +2598,10 @@
         <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2153,16 +2621,16 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
         <v>295</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>295</v>
-      </c>
-      <c r="H2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -2201,20 +2669,20 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,20 +2696,20 @@
         <v>201</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,20 +2723,176 @@
         <v>301</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
         <v>302</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>300</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>203</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>303</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -23910,7 +24534,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>52</v>
@@ -23919,7 +24543,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>123</v>
@@ -23934,7 +24558,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>126</v>
@@ -23946,22 +24570,22 @@
         <v>128</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -23975,7 +24599,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -24040,7 +24664,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>57</v>
@@ -24049,7 +24673,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>135</v>
@@ -24064,7 +24688,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>134</v>
@@ -24076,22 +24700,22 @@
         <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="S3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -24102,14 +24726,14 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G4" s="4">
         <v>7</v>
@@ -24141,14 +24765,14 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -24180,14 +24804,14 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -24219,14 +24843,14 @@
         <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -24258,14 +24882,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -24297,14 +24921,14 @@
         <v>106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
@@ -24336,11 +24960,11 @@
         <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -24375,14 +24999,14 @@
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -24414,14 +25038,14 @@
         <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -24453,14 +25077,14 @@
         <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -24492,14 +25116,14 @@
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -24531,14 +25155,14 @@
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -24570,14 +25194,14 @@
         <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -24609,14 +25233,14 @@
         <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -24648,14 +25272,14 @@
         <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -24687,14 +25311,14 @@
         <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -24726,14 +25350,14 @@
         <v>205</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -24765,14 +25389,14 @@
         <v>206</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -24804,11 +25428,11 @@
         <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -24843,11 +25467,11 @@
         <v>208</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -24880,14 +25504,14 @@
         <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -24919,14 +25543,14 @@
         <v>210</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -24958,11 +25582,11 @@
         <v>211</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -24995,14 +25619,14 @@
         <v>212</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -25034,14 +25658,14 @@
         <v>301</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -25073,14 +25697,14 @@
         <v>302</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
@@ -25112,14 +25736,14 @@
         <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
@@ -25151,14 +25775,14 @@
         <v>304</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -25190,14 +25814,14 @@
         <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -25229,14 +25853,14 @@
         <v>306</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -25268,11 +25892,11 @@
         <v>307</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -25307,11 +25931,11 @@
         <v>308</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -25344,14 +25968,14 @@
         <v>309</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -25383,14 +26007,14 @@
         <v>310</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25416,11 +26040,11 @@
         <v>311</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -25453,14 +26077,14 @@
         <v>312</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -25510,19 +26134,19 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25530,16 +26154,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25547,16 +26171,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25564,16 +26188,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25581,16 +26205,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25598,16 +26222,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25615,16 +26239,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25632,16 +26256,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25649,16 +26273,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25666,16 +26290,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25683,16 +26307,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25700,16 +26324,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -25717,16 +26341,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -29057,4 +29681,1511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6679C-903F-42AC-88ED-FDFD5CA01694}">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="34" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>"军阶达到"&amp;B5</f>
+        <v>军阶达到2等兵</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6:D29" si="0">"军阶达到"&amp;B6</f>
+        <v>军阶达到1等兵</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到下士</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到中士</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到参谋军士</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到上士</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到1级士官</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到2级士官</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到3级士官</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到1级准尉</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到2级准尉</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到3级准尉</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到4级准尉</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到5级准尉</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到少尉</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+    </row>
+    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到中尉</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+    </row>
+    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到上尉</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到少校</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到中校</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+    </row>
+    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到上校</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+    </row>
+    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到准将</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+    </row>
+    <row r="26" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到少将</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到中将</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+    </row>
+    <row r="28" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到上将</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>军阶达到元帅</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4445849-E250-42A9-9763-BC9DBFFABA04}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB666F98-38DB-4D86-AA64-239119D510FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="突破效果" sheetId="36" r:id="rId5"/>
     <sheet name="突破效果设计" sheetId="38" r:id="rId6"/>
     <sheet name="核能反应" sheetId="35" r:id="rId7"/>
-    <sheet name="军阶" sheetId="39" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="321">
   <si>
     <t>sheet名</t>
   </si>
@@ -1368,408 +1367,6 @@
   </si>
   <si>
     <t>导弹炮·红旗,导弹炮·红旗·1代,导弹炮·红旗·2代,导弹炮·红旗·3代,导弹炮·红旗·4代,导弹炮·红旗·5代,导弹炮·红旗·6代,导弹炮·红旗·7代,导弹炮·红旗·8代,导弹炮·红旗·9代,导弹炮·红旗·10代,导弹炮·红旗·11代,导弹炮·红旗·12代</t>
-  </si>
-  <si>
-    <t>achieveId[1].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[3].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[4].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[1].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[2].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[3].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[4].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].id</t>
-  </si>
-  <si>
-    <t>attr[2].tar</t>
-  </si>
-  <si>
-    <t>attr[2].valw</t>
-  </si>
-  <si>
-    <t>attr[2].valv</t>
-  </si>
-  <si>
-    <t>attr[3].tar</t>
-  </si>
-  <si>
-    <t>attr[3].valw</t>
-  </si>
-  <si>
-    <t>attr[3].valv</t>
-  </si>
-  <si>
-    <t>attr[4].id</t>
-  </si>
-  <si>
-    <t>attr[4].tar</t>
-  </si>
-  <si>
-    <t>attr[4].valw</t>
-  </si>
-  <si>
-    <t>attr[4].valv</t>
-  </si>
-  <si>
-    <t>attr[5].id</t>
-  </si>
-  <si>
-    <t>attr[5].tar</t>
-  </si>
-  <si>
-    <t>attr[5].valw</t>
-  </si>
-  <si>
-    <t>attr[5].valv</t>
-  </si>
-  <si>
-    <t>attr[6].id</t>
-  </si>
-  <si>
-    <t>attr[6].tar</t>
-  </si>
-  <si>
-    <t>attr[6].valw</t>
-  </si>
-  <si>
-    <t>attr[6].valv</t>
-  </si>
-  <si>
-    <t>新兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参谋军士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级准尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级准尉</t>
-  </si>
-  <si>
-    <t>3级准尉</t>
-  </si>
-  <si>
-    <t>4级准尉</t>
-  </si>
-  <si>
-    <t>5级准尉</t>
-  </si>
-  <si>
-    <t>少尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve_id:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就描述1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID2</t>
-  </si>
-  <si>
-    <t>成就描述2</t>
-  </si>
-  <si>
-    <t>成就ID3</t>
-  </si>
-  <si>
-    <t>成就描述3</t>
-  </si>
-  <si>
-    <t>成就ID4</t>
-  </si>
-  <si>
-    <t>成就描述4</t>
-  </si>
-  <si>
-    <t>属性1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2ID</t>
-  </si>
-  <si>
-    <t>属性2目标</t>
-  </si>
-  <si>
-    <t>属性2权重</t>
-  </si>
-  <si>
-    <t>属性2价值</t>
-  </si>
-  <si>
-    <t>属性3ID</t>
-  </si>
-  <si>
-    <t>属性3目标</t>
-  </si>
-  <si>
-    <t>属性3权重</t>
-  </si>
-  <si>
-    <t>属性3价值</t>
-  </si>
-  <si>
-    <t>属性4ID</t>
-  </si>
-  <si>
-    <t>属性4目标</t>
-  </si>
-  <si>
-    <t>属性4权重</t>
-  </si>
-  <si>
-    <t>属性4价值</t>
-  </si>
-  <si>
-    <t>属性5ID</t>
-  </si>
-  <si>
-    <t>属性5目标</t>
-  </si>
-  <si>
-    <t>属性5权重</t>
-  </si>
-  <si>
-    <t>属性5价值</t>
-  </si>
-  <si>
-    <t>属性6ID</t>
-  </si>
-  <si>
-    <t>属性6目标</t>
-  </si>
-  <si>
-    <t>属性6权重</t>
-  </si>
-  <si>
-    <t>属性6价值</t>
-  </si>
-  <si>
-    <t>通关第1章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第7章</t>
-  </si>
-  <si>
-    <t>通关第3章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第5章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第10章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第15章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第20章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第25章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第30章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第35章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第40章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第45章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第50章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第55章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第60章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第65章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第70章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第75章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第80章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第85章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第90章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第95章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第100章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第110章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第120章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第150章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -26363,8 +25960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F315370-7FE8-44E2-8F0F-9ACDD504B0E9}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29681,1511 +29278,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C6679C-903F-42AC-88ED-FDFD5CA01694}">
-  <dimension ref="A1:AH29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="34" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>"军阶达到"&amp;B5</f>
-        <v>军阶达到2等兵</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-    </row>
-    <row r="6" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" ref="D6:D29" si="0">"军阶达到"&amp;B6</f>
-        <v>军阶达到1等兵</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-    </row>
-    <row r="7" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到下士</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-    </row>
-    <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到中士</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-    </row>
-    <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到参谋军士</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-    </row>
-    <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到上士</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-    </row>
-    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到1级士官</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-    </row>
-    <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到2级士官</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-    </row>
-    <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到3级士官</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-    </row>
-    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到1级准尉</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-    </row>
-    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到2级准尉</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-    </row>
-    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到3级准尉</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到4级准尉</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-    </row>
-    <row r="18" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到5级准尉</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-    </row>
-    <row r="19" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到少尉</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-    </row>
-    <row r="20" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到中尉</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-    </row>
-    <row r="21" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到上尉</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到少校</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到中校</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-    </row>
-    <row r="24" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到上校</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到准将</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到少将</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到中将</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到上将</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>军阶达到元帅</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11ED14-BA87-41DB-9A47-20F006DF93CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0C7AD-4086-4A89-A43D-E15901596A46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2918,8 +2918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="M154" sqref="M154:M453"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G304" sqref="G304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31149,10 +31152,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99E23C7-FD51-4D3C-ADE2-809384C62A0E}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31291,35 +31294,21 @@
         <v>2001</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>25</v>
       </c>
       <c r="E4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>101</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="4">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -31329,16 +31318,16 @@
         <v>2001</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="F5" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -31347,7 +31336,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="4">
         <v>11</v>
@@ -31356,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31367,16 +31356,16 @@
         <v>2001</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="F6" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -31385,7 +31374,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="4">
         <v>11</v>
@@ -31394,7 +31383,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31405,16 +31394,16 @@
         <v>2001</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
-        <v>2.0699999999999998</v>
+        <v>1.73</v>
       </c>
       <c r="F7" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -31423,7 +31412,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J7" s="4">
         <v>11</v>
@@ -31432,7 +31421,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31443,16 +31432,16 @@
         <v>2001</v>
       </c>
       <c r="C8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4">
-        <v>2.4900000000000002</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F8" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -31461,7 +31450,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="4">
         <v>11</v>
@@ -31470,7 +31459,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31481,16 +31470,16 @@
         <v>2001</v>
       </c>
       <c r="C9" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E9" s="4">
-        <v>2.99</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F9" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
@@ -31499,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="J9" s="4">
         <v>11</v>
@@ -31508,7 +31497,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31519,16 +31508,16 @@
         <v>2001</v>
       </c>
       <c r="C10" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="F10" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -31537,7 +31526,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="J10" s="4">
         <v>11</v>
@@ -31546,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>210</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31557,16 +31546,16 @@
         <v>2001</v>
       </c>
       <c r="C11" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4">
-        <v>4.3</v>
+        <v>3.58</v>
       </c>
       <c r="F11" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -31575,7 +31564,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J11" s="4">
         <v>11</v>
@@ -31584,7 +31573,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>340</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31595,16 +31584,16 @@
         <v>2001</v>
       </c>
       <c r="C12" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E12" s="4">
-        <v>5.16</v>
+        <v>4.3</v>
       </c>
       <c r="F12" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -31613,7 +31602,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -31622,7 +31611,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>550</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31633,16 +31622,16 @@
         <v>2001</v>
       </c>
       <c r="C13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E13" s="4">
-        <v>6.19</v>
+        <v>5.16</v>
       </c>
       <c r="F13" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -31651,7 +31640,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="J13" s="4">
         <v>11</v>
@@ -31660,7 +31649,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>890</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31671,16 +31660,16 @@
         <v>2001</v>
       </c>
       <c r="C14" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E14" s="4">
-        <v>7.43</v>
+        <v>6.19</v>
       </c>
       <c r="F14" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -31689,7 +31678,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="J14" s="4">
         <v>11</v>
@@ -31698,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1200</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31709,16 +31698,16 @@
         <v>2001</v>
       </c>
       <c r="C15" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E15" s="4">
-        <v>8.92</v>
+        <v>7.43</v>
       </c>
       <c r="F15" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -31727,7 +31716,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="J15" s="4">
         <v>11</v>
@@ -31736,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31744,19 +31733,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E16" s="4">
-        <v>1.2</v>
+        <v>8.92</v>
       </c>
       <c r="F16" s="4">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -31765,7 +31754,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="J16" s="4">
         <v>11</v>
@@ -31774,7 +31763,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>10</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31785,35 +31774,21 @@
         <v>2002</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4">
-        <v>1.44</v>
-      </c>
-      <c r="F17" s="4">
-        <v>202</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="4">
-        <v>11</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -31823,16 +31798,16 @@
         <v>2002</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E18" s="4">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="F18" s="4">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -31841,7 +31816,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="4">
         <v>11</v>
@@ -31850,7 +31825,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31861,16 +31836,16 @@
         <v>2002</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4">
-        <v>2.0699999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="F19" s="4">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -31879,7 +31854,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="J19" s="4">
         <v>11</v>
@@ -31888,7 +31863,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31899,16 +31874,16 @@
         <v>2002</v>
       </c>
       <c r="C20" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4">
-        <v>2.4900000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="F20" s="4">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -31917,7 +31892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="4">
         <v>11</v>
@@ -31926,7 +31901,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31937,16 +31912,16 @@
         <v>2002</v>
       </c>
       <c r="C21" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4">
-        <v>2.99</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F21" s="4">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -31955,7 +31930,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J21" s="4">
         <v>11</v>
@@ -31964,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -31975,16 +31950,16 @@
         <v>2002</v>
       </c>
       <c r="C22" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
-        <v>3.58</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F22" s="4">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -31993,7 +31968,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="4">
         <v>11</v>
@@ -32002,7 +31977,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32013,16 +31988,16 @@
         <v>2002</v>
       </c>
       <c r="C23" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4">
-        <v>4.3</v>
+        <v>2.99</v>
       </c>
       <c r="F23" s="4">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
@@ -32031,7 +32006,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="4">
         <v>11</v>
@@ -32040,7 +32015,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>340</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32051,16 +32026,16 @@
         <v>2002</v>
       </c>
       <c r="C24" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E24" s="4">
-        <v>5.16</v>
+        <v>3.58</v>
       </c>
       <c r="F24" s="4">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -32069,7 +32044,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="4">
         <v>11</v>
@@ -32078,7 +32053,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>550</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32089,16 +32064,16 @@
         <v>2002</v>
       </c>
       <c r="C25" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E25" s="4">
-        <v>6.19</v>
+        <v>4.3</v>
       </c>
       <c r="F25" s="4">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -32107,7 +32082,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="J25" s="4">
         <v>11</v>
@@ -32116,7 +32091,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>890</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32127,16 +32102,16 @@
         <v>2002</v>
       </c>
       <c r="C26" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E26" s="4">
-        <v>7.43</v>
+        <v>5.16</v>
       </c>
       <c r="F26" s="4">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -32145,7 +32120,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="J26" s="4">
         <v>11</v>
@@ -32154,7 +32129,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>1200</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32165,16 +32140,16 @@
         <v>2002</v>
       </c>
       <c r="C27" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E27" s="4">
-        <v>8.92</v>
+        <v>6.19</v>
       </c>
       <c r="F27" s="4">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -32183,7 +32158,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="J27" s="4">
         <v>11</v>
@@ -32192,7 +32167,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>2000</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32200,19 +32175,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D28" s="4">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="E28" s="4">
-        <v>1.2</v>
+        <v>7.43</v>
       </c>
       <c r="F28" s="4">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -32221,7 +32196,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="4">
-        <v>1000</v>
+        <v>11000</v>
       </c>
       <c r="J28" s="4">
         <v>11</v>
@@ -32230,7 +32205,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>10</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32238,19 +32213,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C29" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E29" s="4">
-        <v>1.44</v>
+        <v>8.92</v>
       </c>
       <c r="F29" s="4">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
@@ -32259,16 +32234,16 @@
         <v>0</v>
       </c>
       <c r="I29" s="4">
+        <v>12000</v>
+      </c>
+      <c r="J29" s="4">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
         <v>2000</v>
-      </c>
-      <c r="J29" s="4">
-        <v>11</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32279,35 +32254,21 @@
         <v>2003</v>
       </c>
       <c r="C30" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E30" s="4">
-        <v>1.73</v>
-      </c>
-      <c r="F30" s="4">
-        <v>303</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>3000</v>
-      </c>
-      <c r="J30" s="4">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -32317,16 +32278,16 @@
         <v>2003</v>
       </c>
       <c r="C31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4">
-        <v>2.0699999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F31" s="4">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -32335,7 +32296,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="4">
         <v>11</v>
@@ -32344,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32355,16 +32316,16 @@
         <v>2003</v>
       </c>
       <c r="C32" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E32" s="4">
-        <v>2.4900000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="F32" s="4">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G32" s="4">
         <v>1</v>
@@ -32373,7 +32334,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J32" s="4">
         <v>11</v>
@@ -32382,7 +32343,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32393,16 +32354,16 @@
         <v>2003</v>
       </c>
       <c r="C33" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4">
-        <v>2.99</v>
+        <v>1.73</v>
       </c>
       <c r="F33" s="4">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -32411,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="4">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="J33" s="4">
         <v>11</v>
@@ -32420,7 +32381,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32431,16 +32392,16 @@
         <v>2003</v>
       </c>
       <c r="C34" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4">
-        <v>3.58</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F34" s="4">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -32449,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="4">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="J34" s="4">
         <v>11</v>
@@ -32458,7 +32419,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>210</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32469,16 +32430,16 @@
         <v>2003</v>
       </c>
       <c r="C35" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" s="4">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4">
-        <v>4.3</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F35" s="4">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -32487,7 +32448,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="4">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="4">
         <v>11</v>
@@ -32496,7 +32457,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>340</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32507,16 +32468,16 @@
         <v>2003</v>
       </c>
       <c r="C36" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4">
-        <v>5.16</v>
+        <v>2.99</v>
       </c>
       <c r="F36" s="4">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -32525,7 +32486,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="4">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J36" s="4">
         <v>11</v>
@@ -32534,7 +32495,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>550</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32545,16 +32506,16 @@
         <v>2003</v>
       </c>
       <c r="C37" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D37" s="4">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4">
-        <v>6.19</v>
+        <v>3.58</v>
       </c>
       <c r="F37" s="4">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -32563,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="4">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J37" s="4">
         <v>11</v>
@@ -32572,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>890</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32583,16 +32544,16 @@
         <v>2003</v>
       </c>
       <c r="C38" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="E38" s="4">
-        <v>7.43</v>
+        <v>4.3</v>
       </c>
       <c r="F38" s="4">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -32601,7 +32562,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="4">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="J38" s="4">
         <v>11</v>
@@ -32610,7 +32571,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>1200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -32621,33 +32582,147 @@
         <v>2003</v>
       </c>
       <c r="C39" s="4">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4">
+        <v>180</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5.16</v>
+      </c>
+      <c r="F39" s="4">
+        <v>309</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>9000</v>
+      </c>
+      <c r="J39" s="4">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>200</v>
+      </c>
+      <c r="E40" s="4">
+        <v>6.19</v>
+      </c>
+      <c r="F40" s="4">
+        <v>310</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J40" s="4">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C41" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4">
+        <v>220</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7.43</v>
+      </c>
+      <c r="F41" s="4">
+        <v>311</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>11000</v>
+      </c>
+      <c r="J41" s="4">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2003</v>
+      </c>
+      <c r="C42" s="4">
         <v>12</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D42" s="4">
         <v>250</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E42" s="4">
         <v>8.92</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F42" s="4">
         <v>312</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
         <v>12000</v>
       </c>
-      <c r="J39" s="4">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="J42" s="4">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
         <v>2000</v>
       </c>
     </row>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E0C7AD-4086-4A89-A43D-E15901596A46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DDFFF-395F-4344-9139-89ED28D30A11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="456">
   <si>
     <t>sheet名</t>
   </si>
@@ -717,17 +717,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MainShip01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissileLaunch01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserGun01</t>
-  </si>
-  <si>
     <t>1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1283,30 +1272,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MainShip02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissileLaunch02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserGun02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainShip03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissileLaunch03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserGun03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主舰·勇气号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1339,448 +1304,548 @@
     <t>主舰·希望号,主舰·希望号·1代,主舰·希望号·2代,主舰·希望号·3代,主舰·希望号·4代,主舰·希望号·5代,主舰·希望号·6代,主舰·希望号·7代,主舰·希望号·8代,主舰·希望号·9代,主舰·希望号·10代,主舰·希望号·11代,主舰·希望号·12代</t>
   </si>
   <si>
+    <t>导弹炮·红旗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·管夷吾型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·岛风型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮·岛风型,激光炮·岛风型·1代,激光炮·岛风型·2代,激光炮·岛风型·3代,激光炮·岛风型·4代,激光炮·岛风型·5代,激光炮·岛风型·6代,激光炮·岛风型·7代,激光炮·岛风型·8代,激光炮·岛风型·9代,激光炮·岛风型·10代,激光炮·岛风型·11代,激光炮·岛风型·12代</t>
+  </si>
+  <si>
+    <t>主舰·大自然,主舰·大自然·1代,主舰·大自然·2代,主舰·大自然·3代,主舰·大自然·4代,主舰·大自然·5代,主舰·大自然·6代,主舰·大自然·7代,主舰·大自然·8代,主舰·大自然·9代,主舰·大自然·10代,主舰·大自然·11代,主舰·大自然·12代</t>
+  </si>
+  <si>
+    <t>导弹炮·萨德,导弹炮·萨德·1代,导弹炮·萨德·2代,导弹炮·萨德·3代,导弹炮·萨德·4代,导弹炮·萨德·5代,导弹炮·萨德·6代,导弹炮·萨德·7代,导弹炮·萨德·8代,导弹炮·萨德·9代,导弹炮·萨德·10代,导弹炮·萨德·11代,导弹炮·萨德·12代</t>
+  </si>
+  <si>
+    <t>激光炮·管夷吾型,激光炮·管夷吾型·1代,激光炮·管夷吾型·2代,激光炮·管夷吾型·3代,激光炮·管夷吾型·4代,激光炮·管夷吾型·5代,激光炮·管夷吾型·6代,激光炮·管夷吾型·7代,激光炮·管夷吾型·8代,激光炮·管夷吾型·9代,激光炮·管夷吾型·10代,激光炮·管夷吾型·11代,激光炮·管夷吾型·12代</t>
+  </si>
+  <si>
+    <t>导弹炮·红旗,导弹炮·红旗·1代,导弹炮·红旗·2代,导弹炮·红旗·3代,导弹炮·红旗·4代,导弹炮·红旗·5代,导弹炮·红旗·6代,导弹炮·红旗·7代,导弹炮·红旗·8代,导弹炮·红旗·9代,导弹炮·红旗·10代,导弹炮·红旗·11代,导弹炮·红旗·12代</t>
+  </si>
+  <si>
+    <t>achieveId[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[1].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[2].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[3].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId[4].desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].id</t>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+  </si>
+  <si>
+    <t>attr[4].id</t>
+  </si>
+  <si>
+    <t>attr[4].tar</t>
+  </si>
+  <si>
+    <t>attr[4].valw</t>
+  </si>
+  <si>
+    <t>attr[4].valv</t>
+  </si>
+  <si>
+    <t>attr[5].id</t>
+  </si>
+  <si>
+    <t>attr[5].tar</t>
+  </si>
+  <si>
+    <t>attr[5].valw</t>
+  </si>
+  <si>
+    <t>attr[5].valv</t>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+  </si>
+  <si>
+    <t>新兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1等兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参谋军士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级士官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级准尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级准尉</t>
+  </si>
+  <si>
+    <t>3级准尉</t>
+  </si>
+  <si>
+    <t>4级准尉</t>
+  </si>
+  <si>
+    <t>5级准尉</t>
+  </si>
+  <si>
+    <t>少尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上尉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上将</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就描述1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID2</t>
+  </si>
+  <si>
+    <t>成就描述2</t>
+  </si>
+  <si>
+    <t>成就ID3</t>
+  </si>
+  <si>
+    <t>成就描述3</t>
+  </si>
+  <si>
+    <t>成就ID4</t>
+  </si>
+  <si>
+    <t>成就描述4</t>
+  </si>
+  <si>
+    <t>属性1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1权重</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2ID</t>
+  </si>
+  <si>
+    <t>属性2目标</t>
+  </si>
+  <si>
+    <t>属性2权重</t>
+  </si>
+  <si>
+    <t>属性2价值</t>
+  </si>
+  <si>
+    <t>属性3ID</t>
+  </si>
+  <si>
+    <t>属性3目标</t>
+  </si>
+  <si>
+    <t>属性3权重</t>
+  </si>
+  <si>
+    <t>属性3价值</t>
+  </si>
+  <si>
+    <t>属性4ID</t>
+  </si>
+  <si>
+    <t>属性4目标</t>
+  </si>
+  <si>
+    <t>属性4权重</t>
+  </si>
+  <si>
+    <t>属性4价值</t>
+  </si>
+  <si>
+    <t>属性5ID</t>
+  </si>
+  <si>
+    <t>属性5目标</t>
+  </si>
+  <si>
+    <t>属性5权重</t>
+  </si>
+  <si>
+    <t>属性5价值</t>
+  </si>
+  <si>
+    <t>属性6ID</t>
+  </si>
+  <si>
+    <t>属性6目标</t>
+  </si>
+  <si>
+    <t>属性6权重</t>
+  </si>
+  <si>
+    <t>属性6价值</t>
+  </si>
+  <si>
+    <t>通关第1章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第7章</t>
+  </si>
+  <si>
+    <t>通关第3章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第5章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第10章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第15章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第20章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第25章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第30章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第35章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第40章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第45章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第50章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第55章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第60章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第65章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第70章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第75章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第80章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第85章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第90章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第95章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第100章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第110章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第120章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第150章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加给谁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加到哪个槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-green</t>
+  </si>
+  <si>
+    <t>MainShip-red</t>
+  </si>
+  <si>
+    <t>LaserGun</t>
+  </si>
+  <si>
+    <t>LaserGun-green</t>
+  </si>
+  <si>
+    <t>LaserGun-red</t>
+  </si>
+  <si>
+    <t>MissileLaunch</t>
+  </si>
+  <si>
+    <t>MissileLaunch-green</t>
+  </si>
+  <si>
+    <t>MissileLaunch-red</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值提升10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹暴击等级提升500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>导弹炮和激光炮攻击力提升10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shieldRg</t>
+  </si>
+  <si>
+    <t>主舰·大自然-皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰·勇气号-皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮·萨德-皮肤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>导弹炮·萨德</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮·红旗</t>
+    <t>导弹炮·红旗-皮肤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>激光炮·管夷吾型</t>
+    <t>激光炮·管夷吾型-皮肤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>激光炮·岛风型</t>
+    <t>激光炮·伊吹型-皮肤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>激光炮·岛风型,激光炮·岛风型·1代,激光炮·岛风型·2代,激光炮·岛风型·3代,激光炮·岛风型·4代,激光炮·岛风型·5代,激光炮·岛风型·6代,激光炮·岛风型·7代,激光炮·岛风型·8代,激光炮·岛风型·9代,激光炮·岛风型·10代,激光炮·岛风型·11代,激光炮·岛风型·12代</t>
-  </si>
-  <si>
-    <t>主舰·大自然,主舰·大自然·1代,主舰·大自然·2代,主舰·大自然·3代,主舰·大自然·4代,主舰·大自然·5代,主舰·大自然·6代,主舰·大自然·7代,主舰·大自然·8代,主舰·大自然·9代,主舰·大自然·10代,主舰·大自然·11代,主舰·大自然·12代</t>
-  </si>
-  <si>
-    <t>导弹炮·萨德,导弹炮·萨德·1代,导弹炮·萨德·2代,导弹炮·萨德·3代,导弹炮·萨德·4代,导弹炮·萨德·5代,导弹炮·萨德·6代,导弹炮·萨德·7代,导弹炮·萨德·8代,导弹炮·萨德·9代,导弹炮·萨德·10代,导弹炮·萨德·11代,导弹炮·萨德·12代</t>
-  </si>
-  <si>
-    <t>激光炮·管夷吾型,激光炮·管夷吾型·1代,激光炮·管夷吾型·2代,激光炮·管夷吾型·3代,激光炮·管夷吾型·4代,激光炮·管夷吾型·5代,激光炮·管夷吾型·6代,激光炮·管夷吾型·7代,激光炮·管夷吾型·8代,激光炮·管夷吾型·9代,激光炮·管夷吾型·10代,激光炮·管夷吾型·11代,激光炮·管夷吾型·12代</t>
-  </si>
-  <si>
-    <t>导弹炮·红旗,导弹炮·红旗·1代,导弹炮·红旗·2代,导弹炮·红旗·3代,导弹炮·红旗·4代,导弹炮·红旗·5代,导弹炮·红旗·6代,导弹炮·红旗·7代,导弹炮·红旗·8代,导弹炮·红旗·9代,导弹炮·红旗·10代,导弹炮·红旗·11代,导弹炮·红旗·12代</t>
-  </si>
-  <si>
-    <t>achieveId[1].id</t>
+    <t>激光暴击等级提升500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>achieveId[2].id</t>
+    <t>护盾提升10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>achieveId[3].id</t>
+    <t>护盾回复提升10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>achieveId[4].id</t>
+    <t>breakEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>achieveId[1].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[2].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[3].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[4].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].id</t>
-  </si>
-  <si>
-    <t>attr[2].tar</t>
-  </si>
-  <si>
-    <t>attr[2].valw</t>
-  </si>
-  <si>
-    <t>attr[2].valv</t>
-  </si>
-  <si>
-    <t>attr[3].tar</t>
-  </si>
-  <si>
-    <t>attr[3].valw</t>
-  </si>
-  <si>
-    <t>attr[3].valv</t>
-  </si>
-  <si>
-    <t>attr[4].id</t>
-  </si>
-  <si>
-    <t>attr[4].tar</t>
-  </si>
-  <si>
-    <t>attr[4].valw</t>
-  </si>
-  <si>
-    <t>attr[4].valv</t>
-  </si>
-  <si>
-    <t>attr[5].id</t>
-  </si>
-  <si>
-    <t>attr[5].tar</t>
-  </si>
-  <si>
-    <t>attr[5].valw</t>
-  </si>
-  <si>
-    <t>attr[5].valv</t>
-  </si>
-  <si>
-    <t>attr[6].id</t>
-  </si>
-  <si>
-    <t>attr[6].tar</t>
-  </si>
-  <si>
-    <t>attr[6].valw</t>
-  </si>
-  <si>
-    <t>attr[6].valv</t>
-  </si>
-  <si>
-    <t>新兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参谋军士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级准尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级准尉</t>
-  </si>
-  <si>
-    <t>3级准尉</t>
-  </si>
-  <si>
-    <t>4级准尉</t>
-  </si>
-  <si>
-    <t>5级准尉</t>
-  </si>
-  <si>
-    <t>少尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>元帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve_id:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就描述1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID2</t>
-  </si>
-  <si>
-    <t>成就描述2</t>
-  </si>
-  <si>
-    <t>成就ID3</t>
-  </si>
-  <si>
-    <t>成就描述3</t>
-  </si>
-  <si>
-    <t>成就ID4</t>
-  </si>
-  <si>
-    <t>成就描述4</t>
-  </si>
-  <si>
-    <t>属性1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2ID</t>
-  </si>
-  <si>
-    <t>属性2目标</t>
-  </si>
-  <si>
-    <t>属性2权重</t>
-  </si>
-  <si>
-    <t>属性2价值</t>
-  </si>
-  <si>
-    <t>属性3ID</t>
-  </si>
-  <si>
-    <t>属性3目标</t>
-  </si>
-  <si>
-    <t>属性3权重</t>
-  </si>
-  <si>
-    <t>属性3价值</t>
-  </si>
-  <si>
-    <t>属性4ID</t>
-  </si>
-  <si>
-    <t>属性4目标</t>
-  </si>
-  <si>
-    <t>属性4权重</t>
-  </si>
-  <si>
-    <t>属性4价值</t>
-  </si>
-  <si>
-    <t>属性5ID</t>
-  </si>
-  <si>
-    <t>属性5目标</t>
-  </si>
-  <si>
-    <t>属性5权重</t>
-  </si>
-  <si>
-    <t>属性5价值</t>
-  </si>
-  <si>
-    <t>属性6ID</t>
-  </si>
-  <si>
-    <t>属性6目标</t>
-  </si>
-  <si>
-    <t>属性6权重</t>
-  </si>
-  <si>
-    <t>属性6价值</t>
-  </si>
-  <si>
-    <t>通关第1章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第7章</t>
-  </si>
-  <si>
-    <t>通关第3章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第5章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第10章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第15章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第20章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第25章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第30章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第35章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第40章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第45章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第50章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第55章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第60章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第65章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第70章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第75章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第80章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第85章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第90章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第95章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第100章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第110章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第120章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第150章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].tar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加给谁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加到哪个槽</t>
+    <t>皮肤解锁效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2518,20 +2583,20 @@
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="4" t="b">
         <v>1</v>
@@ -2539,20 +2604,20 @@
     </row>
     <row r="11" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -2570,24 +2635,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="50.25" customWidth="1"/>
-    <col min="8" max="8" width="52.875" customWidth="1"/>
-    <col min="9" max="9" width="44.75" customWidth="1"/>
+    <col min="5" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="63.5" customWidth="1"/>
+    <col min="8" max="8" width="50.25" customWidth="1"/>
+    <col min="9" max="9" width="52.875" customWidth="1"/>
+    <col min="10" max="10" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
@@ -2604,19 +2669,22 @@
         <v>139</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2633,19 +2701,22 @@
         <v>101</v>
       </c>
       <c r="F2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" t="s">
         <v>292</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>292</v>
       </c>
-      <c r="H2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>104</v>
       </c>
@@ -2662,15 +2733,18 @@
         <v>142</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2681,23 +2755,24 @@
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>311</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2708,23 +2783,24 @@
         <v>201</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2735,23 +2811,24 @@
         <v>301</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2762,22 +2839,25 @@
         <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>317</v>
+        <v>428</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1101</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2788,22 +2868,25 @@
         <v>202</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>312</v>
+        <v>447</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>318</v>
+        <v>434</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1201</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2814,22 +2897,25 @@
         <v>302</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>319</v>
+        <v>431</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1301</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2840,22 +2926,25 @@
         <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>306</v>
+        <v>429</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1102</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2866,22 +2955,25 @@
         <v>203</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>320</v>
+        <v>435</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1202</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2892,19 +2984,22 @@
         <v>303</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>308</v>
+        <v>432</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1302</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X453"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2956,7 +3051,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>123</v>
@@ -2968,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>126</v>
@@ -2980,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>129</v>
@@ -3068,10 +3163,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -3080,10 +3175,10 @@
         <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
@@ -3092,10 +3187,10 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>21</v>
@@ -31154,8 +31249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99E23C7-FD51-4D3C-ADE2-809384C62A0E}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31227,25 +31322,25 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31297,7 +31392,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -31777,7 +31872,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -32257,7 +32352,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
@@ -32735,18 +32830,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9350E1B4-50EE-4CA3-9E80-D947568DA4B7}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="45.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -32775,7 +32871,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>52</v>
@@ -32784,7 +32880,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>123</v>
@@ -32799,7 +32895,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>126</v>
@@ -32811,22 +32907,22 @@
         <v>128</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -32840,7 +32936,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
         <v>58</v>
@@ -32905,7 +33001,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>57</v>
@@ -32914,7 +33010,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>135</v>
@@ -32929,7 +33025,7 @@
         <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>134</v>
@@ -32941,22 +33037,22 @@
         <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="S3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -32967,14 +33063,14 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G4" s="4">
         <v>7</v>
@@ -33006,14 +33102,14 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -33045,14 +33141,14 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -33084,14 +33180,14 @@
         <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
@@ -33123,14 +33219,14 @@
         <v>105</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -33162,14 +33258,14 @@
         <v>106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G9" s="4">
         <v>7</v>
@@ -33201,11 +33297,11 @@
         <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -33240,14 +33336,14 @@
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -33279,14 +33375,14 @@
         <v>109</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -33318,14 +33414,14 @@
         <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -33357,14 +33453,14 @@
         <v>111</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G14" s="4">
         <v>1</v>
@@ -33396,14 +33492,14 @@
         <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -33435,14 +33531,14 @@
         <v>201</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G16" s="4">
         <v>1</v>
@@ -33474,14 +33570,14 @@
         <v>202</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -33513,14 +33609,14 @@
         <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -33552,14 +33648,14 @@
         <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -33591,14 +33687,14 @@
         <v>205</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -33630,14 +33726,14 @@
         <v>206</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -33669,11 +33765,11 @@
         <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -33708,11 +33804,11 @@
         <v>208</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -33745,14 +33841,14 @@
         <v>209</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -33784,14 +33880,14 @@
         <v>210</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -33823,11 +33919,11 @@
         <v>211</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -33860,14 +33956,14 @@
         <v>212</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -33899,14 +33995,14 @@
         <v>301</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G28" s="4">
         <v>1</v>
@@ -33938,14 +34034,14 @@
         <v>302</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G29" s="4">
         <v>3</v>
@@ -33977,14 +34073,14 @@
         <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G30" s="4">
         <v>3</v>
@@ -34016,14 +34112,14 @@
         <v>304</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G31" s="4">
         <v>1</v>
@@ -34055,14 +34151,14 @@
         <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G32" s="4">
         <v>3</v>
@@ -34094,14 +34190,14 @@
         <v>306</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -34133,11 +34229,11 @@
         <v>307</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -34172,11 +34268,11 @@
         <v>308</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -34209,14 +34305,14 @@
         <v>309</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
@@ -34248,14 +34344,14 @@
         <v>310</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -34281,11 +34377,11 @@
         <v>311</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -34318,14 +34414,14 @@
         <v>312</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G39" s="4">
         <v>2</v>
@@ -34348,6 +34444,240 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1101</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>4</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1102</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4">
+        <v>4</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1201</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>4</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
+        <v>500</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1202</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1301</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4</v>
+      </c>
+      <c r="H44" s="4">
+        <v>4</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
+        <v>500</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1302</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34362,7 +34692,7 @@
   <dimension ref="A3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34375,19 +34705,19 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34395,16 +34725,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34412,16 +34742,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34429,16 +34759,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34446,16 +34776,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34463,16 +34793,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34480,16 +34810,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34497,16 +34827,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34514,16 +34844,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34531,16 +34861,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34548,16 +34878,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34565,16 +34895,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -34582,16 +34912,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -37954,34 +38284,34 @@
         <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>124</v>
@@ -37990,64 +38320,64 @@
         <v>125</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -38058,28 +38388,28 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="J2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
@@ -38159,103 +38489,103 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.2">
@@ -38263,10 +38593,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -38305,10 +38635,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D5" s="4" t="str">
         <f>"军阶达到"&amp;B5</f>
@@ -38350,10 +38680,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" ref="D6:D29" si="0">"军阶达到"&amp;B6</f>
@@ -38395,10 +38725,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38440,10 +38770,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38485,10 +38815,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38530,10 +38860,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38575,10 +38905,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38620,10 +38950,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38665,10 +38995,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38710,10 +39040,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38755,10 +39085,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38800,10 +39130,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38845,10 +39175,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38890,10 +39220,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38935,10 +39265,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -38980,10 +39310,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39025,10 +39355,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39070,10 +39400,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39115,10 +39445,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39160,10 +39490,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39205,10 +39535,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39250,10 +39580,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39295,10 +39625,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39340,10 +39670,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -39385,10 +39715,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DDFFF-395F-4344-9139-89ED28D30A11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0FAC0-6B02-4959-8A52-15DC48486DE4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2637,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674DFEE-2D4D-402B-A819-168AFC09ACC9}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3013,11 +3013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G304" sqref="G304"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63568BB-DE37-4F4E-9F4A-1A703D59E4BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86A5BF-6AF0-4C2B-B813-72D1BAE06E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67903,8 +67903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68166,7 +68166,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -68243,7 +68243,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
@@ -68320,7 +68320,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5">
         <v>30</v>
@@ -68397,7 +68397,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5">
         <v>60</v>
@@ -68474,7 +68474,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E8" s="5">
         <v>80</v>
@@ -68551,7 +68551,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E9" s="5">
         <v>120</v>
@@ -68628,7 +68628,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E10" s="5">
         <v>180</v>
@@ -68705,7 +68705,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E11" s="5">
         <v>250</v>
@@ -68782,7 +68782,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E12" s="5">
         <v>300</v>
@@ -68859,7 +68859,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E13" s="5">
         <v>350</v>
@@ -68936,7 +68936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E14" s="5">
         <v>400</v>
@@ -69013,7 +69013,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="5">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E15" s="5">
         <v>450</v>
@@ -69090,7 +69090,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="5">
         <v>500</v>
@@ -69167,7 +69167,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -69244,7 +69244,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5">
         <v>10</v>
@@ -69321,7 +69321,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5">
         <v>30</v>
@@ -69398,7 +69398,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E20" s="5">
         <v>60</v>
@@ -69475,7 +69475,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E21" s="5">
         <v>80</v>
@@ -69552,7 +69552,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E22" s="5">
         <v>120</v>
@@ -69629,7 +69629,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="5">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E23" s="5">
         <v>180</v>
@@ -69706,7 +69706,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E24" s="5">
         <v>250</v>
@@ -69783,7 +69783,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E25" s="5">
         <v>300</v>
@@ -69860,7 +69860,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E26" s="5">
         <v>350</v>
@@ -69937,7 +69937,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E27" s="5">
         <v>400</v>
@@ -70014,7 +70014,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="5">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E28" s="5">
         <v>450</v>
@@ -70091,7 +70091,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="5">
         <v>500</v>
@@ -70168,7 +70168,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -70245,7 +70245,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5">
         <v>10</v>
@@ -70322,7 +70322,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5">
         <v>30</v>
@@ -70399,7 +70399,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E33" s="5">
         <v>60</v>
@@ -70476,7 +70476,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="5">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E34" s="5">
         <v>80</v>
@@ -70553,7 +70553,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E35" s="5">
         <v>120</v>
@@ -70630,7 +70630,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E36" s="5">
         <v>180</v>
@@ -70707,7 +70707,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E37" s="5">
         <v>250</v>
@@ -70784,7 +70784,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="5">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E38" s="5">
         <v>300</v>
@@ -70861,7 +70861,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E39" s="5">
         <v>350</v>
@@ -70938,7 +70938,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="5">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E40" s="5">
         <v>400</v>
@@ -71015,7 +71015,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="5">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E41" s="5">
         <v>450</v>
@@ -71092,7 +71092,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="5">
         <v>500</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86A5BF-6AF0-4C2B-B813-72D1BAE06E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E677D2B-76A6-43D6-B1F3-3A8EF2CA680E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="342">
   <si>
     <t>sheet名</t>
   </si>
@@ -1230,6 +1230,58 @@
     <t>attr[3].val.up</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>attr[1].tar</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].slot</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>槽3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -67901,30 +67953,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="6" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="16.375" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="18" max="18" width="11.375" customWidth="1"/>
-    <col min="19" max="25" width="12.625" customWidth="1"/>
+    <col min="18" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="16.375" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="11.375" customWidth="1"/>
+    <col min="25" max="31" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -67944,64 +67996,82 @@
         <v>285</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>290</v>
       </c>
@@ -68021,28 +68091,28 @@
         <v>292</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>303</v>
@@ -68054,31 +68124,49 @@
         <v>293</v>
       </c>
       <c r="R2" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="W2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>295</v>
       </c>
@@ -68098,28 +68186,28 @@
         <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>87</v>
+        <v>336</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>132</v>
@@ -68131,31 +68219,49 @@
         <v>308</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -68175,64 +68281,82 @@
         <v>94</v>
       </c>
       <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>20</v>
       </c>
-      <c r="I4" s="5">
+      <c r="K4" s="5">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
         <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>10</v>
-      </c>
-      <c r="M4" s="5">
-        <v>5</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
         <v>100</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="W4" s="5">
         <v>80</v>
       </c>
-      <c r="R4" s="5">
+      <c r="X4" s="5">
         <v>0.5</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="Y4" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -68252,64 +68376,82 @@
         <v>94</v>
       </c>
       <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>155</v>
       </c>
-      <c r="I5" s="5">
+      <c r="K5" s="5">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
         <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>82</v>
-      </c>
-      <c r="M5" s="5">
-        <v>8</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>8</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
         <v>1180</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="W5" s="5">
         <v>120</v>
       </c>
-      <c r="R5" s="5">
+      <c r="X5" s="5">
         <v>0.8</v>
       </c>
-      <c r="S5" s="5">
+      <c r="Y5" s="5">
         <v>101</v>
       </c>
-      <c r="T5" s="5">
-        <v>1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
         <v>6.06</v>
       </c>
-      <c r="W5" s="5">
+      <c r="AC5" s="5">
         <v>11</v>
       </c>
-      <c r="X5" s="5">
+      <c r="AD5" s="5">
         <v>0</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="AE5" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -68329,64 +68471,82 @@
         <v>94</v>
       </c>
       <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>735</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="5">
         <v>20</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
         <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>372</v>
-      </c>
-      <c r="M6" s="5">
-        <v>10</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
+        <v>372</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>10</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
         <v>5820</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="W6" s="5">
         <v>160</v>
       </c>
-      <c r="R6" s="5">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="X6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5">
         <v>102</v>
       </c>
-      <c r="T6" s="5">
-        <v>1</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1</v>
-      </c>
-      <c r="V6" s="5">
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5">
         <v>68.42</v>
       </c>
-      <c r="W6" s="5">
+      <c r="AC6" s="5">
         <v>11</v>
       </c>
-      <c r="X6" s="5">
+      <c r="AD6" s="5">
         <v>0</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AE6" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -68406,64 +68566,82 @@
         <v>94</v>
       </c>
       <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>2210</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="5">
         <v>25</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
         <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1139</v>
-      </c>
-      <c r="M7" s="5">
-        <v>13</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
+        <v>1139</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>13</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>17620</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="W7" s="5">
         <v>200</v>
       </c>
-      <c r="R7" s="5">
+      <c r="X7" s="5">
         <v>1.2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="Y7" s="5">
         <v>103</v>
       </c>
-      <c r="T7" s="5">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
         <v>233.04</v>
       </c>
-      <c r="W7" s="5">
+      <c r="AC7" s="5">
         <v>11</v>
       </c>
-      <c r="X7" s="5">
+      <c r="AD7" s="5">
         <v>0</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="AE7" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -68483,64 +68661,82 @@
         <v>94</v>
       </c>
       <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>4738</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>32</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
         <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>2403</v>
-      </c>
-      <c r="M8" s="5">
-        <v>16</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>2403</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>16</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>37844</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="W8" s="5">
         <v>256</v>
       </c>
-      <c r="R8" s="5">
+      <c r="X8" s="5">
         <v>1.5</v>
       </c>
-      <c r="S8" s="5">
+      <c r="Y8" s="5">
         <v>104</v>
       </c>
-      <c r="T8" s="5">
-        <v>1</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8" s="5">
+      <c r="Z8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5">
         <v>654.42999999999995</v>
       </c>
-      <c r="W8" s="5">
+      <c r="AC8" s="5">
         <v>11</v>
       </c>
-      <c r="X8" s="5">
+      <c r="AD8" s="5">
         <v>0</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AE8" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -68560,64 +68756,82 @@
         <v>94</v>
       </c>
       <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>9498</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="5">
         <v>40</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
         <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>4783</v>
-      </c>
-      <c r="M9" s="5">
-        <v>20</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>4783</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>20</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
         <v>75924</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="W9" s="5">
         <v>320</v>
       </c>
-      <c r="R9" s="5">
-        <v>2</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="X9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="5">
         <v>105</v>
       </c>
-      <c r="T9" s="5">
-        <v>1</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2</v>
-      </c>
-      <c r="V9" s="5">
+      <c r="Z9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="5">
         <v>3.01</v>
       </c>
-      <c r="W9" s="5">
+      <c r="AC9" s="5">
         <v>11</v>
       </c>
-      <c r="X9" s="5">
+      <c r="AD9" s="5">
         <v>0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AE9" s="5">
         <v>550</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -68637,64 +68851,82 @@
         <v>94</v>
       </c>
       <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>18448</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>50</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
         <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>9258</v>
-      </c>
-      <c r="M10" s="5">
-        <v>25</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>9258</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>25</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
         <v>147524</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="W10" s="5">
         <v>400</v>
       </c>
-      <c r="R10" s="5">
+      <c r="X10" s="5">
         <v>2.5</v>
       </c>
-      <c r="S10" s="5">
+      <c r="Y10" s="5">
         <v>106</v>
       </c>
-      <c r="T10" s="5">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5">
-        <v>2</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="5">
         <v>12.33</v>
       </c>
-      <c r="W10" s="5">
+      <c r="AC10" s="5">
         <v>11</v>
       </c>
-      <c r="X10" s="5">
+      <c r="AD10" s="5">
         <v>0</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AE10" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -68714,64 +68946,82 @@
         <v>94</v>
       </c>
       <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>33388</v>
       </c>
-      <c r="I11" s="5">
+      <c r="K11" s="5">
         <v>60</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
         <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>16728</v>
-      </c>
-      <c r="M11" s="5">
-        <v>30</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
+        <v>16728</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>30</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
         <v>267044</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="W11" s="5">
         <v>480</v>
       </c>
-      <c r="R11" s="5">
+      <c r="X11" s="5">
         <v>3</v>
       </c>
-      <c r="S11" s="5">
+      <c r="Y11" s="5">
         <v>107</v>
       </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>2</v>
-      </c>
-      <c r="V11" s="5">
+      <c r="Z11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="5">
         <v>49.04</v>
       </c>
-      <c r="W11" s="5">
+      <c r="AC11" s="5">
         <v>11</v>
       </c>
-      <c r="X11" s="5">
+      <c r="AD11" s="5">
         <v>0</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AE11" s="5">
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -68791,64 +69041,82 @@
         <v>94</v>
       </c>
       <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>54318</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>70</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
         <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>27193</v>
-      </c>
-      <c r="M12" s="5">
-        <v>35</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>27193</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>35</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
         <v>434484</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="W12" s="5">
         <v>560</v>
       </c>
-      <c r="R12" s="5">
+      <c r="X12" s="5">
         <v>3.5</v>
       </c>
-      <c r="S12" s="5">
+      <c r="Y12" s="5">
         <v>108</v>
       </c>
-      <c r="T12" s="5">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>2</v>
-      </c>
-      <c r="V12" s="5">
+      <c r="Z12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="5">
         <v>90.45</v>
       </c>
-      <c r="W12" s="5">
+      <c r="AC12" s="5">
         <v>11</v>
       </c>
-      <c r="X12" s="5">
+      <c r="AD12" s="5">
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AE12" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -68868,64 +69136,82 @@
         <v>94</v>
       </c>
       <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>82238</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>80</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
         <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>41153</v>
-      </c>
-      <c r="M13" s="5">
-        <v>40</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
+        <v>41153</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>40</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
         <v>657844</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="W13" s="5">
         <v>640</v>
       </c>
-      <c r="R13" s="5">
+      <c r="X13" s="5">
         <v>4</v>
       </c>
-      <c r="S13" s="5">
+      <c r="Y13" s="5">
         <v>109</v>
       </c>
-      <c r="T13" s="5">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5">
-        <v>2</v>
-      </c>
-      <c r="V13" s="5">
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="5">
         <v>164.34</v>
       </c>
-      <c r="W13" s="5">
+      <c r="AC13" s="5">
         <v>11</v>
       </c>
-      <c r="X13" s="5">
+      <c r="AD13" s="5">
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="AE13" s="5">
         <v>2750</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -68945,64 +69231,82 @@
         <v>94</v>
       </c>
       <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>118148</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>90</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
         <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>59108</v>
-      </c>
-      <c r="M14" s="5">
-        <v>45</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5">
+        <v>59108</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>45</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
         <v>945124</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="W14" s="5">
         <v>720</v>
       </c>
-      <c r="R14" s="5">
+      <c r="X14" s="5">
         <v>4.5</v>
       </c>
-      <c r="S14" s="5">
+      <c r="Y14" s="5">
         <v>110</v>
       </c>
-      <c r="T14" s="5">
-        <v>1</v>
-      </c>
-      <c r="U14" s="5">
-        <v>2</v>
-      </c>
-      <c r="V14" s="5">
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="5">
         <v>223.44</v>
       </c>
-      <c r="W14" s="5">
+      <c r="AC14" s="5">
         <v>11</v>
       </c>
-      <c r="X14" s="5">
+      <c r="AD14" s="5">
         <v>0</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="AE14" s="5">
         <v>3900</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -69022,64 +69326,82 @@
         <v>94</v>
       </c>
       <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>163048</v>
       </c>
-      <c r="I15" s="5">
+      <c r="K15" s="5">
         <v>100</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
         <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>81558</v>
-      </c>
-      <c r="M15" s="5">
-        <v>50</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5">
+        <v>81558</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>50</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
         <v>1304324</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="W15" s="5">
         <v>800</v>
       </c>
-      <c r="R15" s="5">
+      <c r="X15" s="5">
         <v>5</v>
       </c>
-      <c r="S15" s="5">
+      <c r="Y15" s="5">
         <v>111</v>
       </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5">
-        <v>2</v>
-      </c>
-      <c r="V15" s="5">
+      <c r="Z15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="5">
         <v>338.27</v>
       </c>
-      <c r="W15" s="5">
+      <c r="AC15" s="5">
         <v>11</v>
       </c>
-      <c r="X15" s="5">
+      <c r="AD15" s="5">
         <v>0</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="AE15" s="5">
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -69099,64 +69421,82 @@
         <v>94</v>
       </c>
       <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>222928</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>120</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
         <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>111498</v>
-      </c>
-      <c r="M16" s="5">
-        <v>60</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="5">
+        <v>111498</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>60</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
         <v>1783364</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="W16" s="5">
         <v>960</v>
       </c>
-      <c r="R16" s="5">
+      <c r="X16" s="5">
         <v>6</v>
       </c>
-      <c r="S16" s="5">
+      <c r="Y16" s="5">
         <v>112</v>
       </c>
-      <c r="T16" s="5">
-        <v>1</v>
-      </c>
-      <c r="U16" s="5">
-        <v>2</v>
-      </c>
-      <c r="V16" s="5">
+      <c r="Z16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="5">
         <v>419.26</v>
       </c>
-      <c r="W16" s="5">
+      <c r="AC16" s="5">
         <v>11</v>
       </c>
-      <c r="X16" s="5">
+      <c r="AD16" s="5">
         <v>0</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="AE16" s="5">
         <v>8250</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -69176,64 +69516,82 @@
         <v>94</v>
       </c>
       <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>20</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="5">
         <v>10</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K17" s="5">
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
         <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>200</v>
-      </c>
-      <c r="M17" s="5">
-        <v>100</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="5">
-        <v>2</v>
-      </c>
-      <c r="R17" s="5">
+        <v>100</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2</v>
+      </c>
+      <c r="W17" s="5">
+        <v>2</v>
+      </c>
+      <c r="X17" s="5">
         <v>0.5</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -69253,64 +69611,82 @@
         <v>94</v>
       </c>
       <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
         <v>155</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>15</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K18" s="5">
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
         <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1550</v>
-      </c>
-      <c r="M18" s="5">
-        <v>150</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="5">
+        <v>1550</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>150</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
         <v>29</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="W18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="5">
+      <c r="X18" s="5">
         <v>0.8</v>
       </c>
-      <c r="S18" s="5">
+      <c r="Y18" s="5">
         <v>201</v>
       </c>
-      <c r="T18" s="5">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5">
-        <v>1</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
         <v>6.06</v>
       </c>
-      <c r="W18" s="5">
+      <c r="AC18" s="5">
         <v>11</v>
       </c>
-      <c r="X18" s="5">
+      <c r="AD18" s="5">
         <v>0</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="AE18" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -69330,64 +69706,82 @@
         <v>94</v>
       </c>
       <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
         <v>735</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K19" s="5">
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
         <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>7350</v>
-      </c>
-      <c r="M19" s="5">
-        <v>200</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="5">
+        <v>7350</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>200</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
         <v>145</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="W19" s="5">
         <v>4</v>
       </c>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="X19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="5">
         <v>202</v>
       </c>
-      <c r="T19" s="5">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
-      <c r="V19" s="5">
+      <c r="Z19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5">
         <v>68.42</v>
       </c>
-      <c r="W19" s="5">
+      <c r="AC19" s="5">
         <v>11</v>
       </c>
-      <c r="X19" s="5">
+      <c r="AD19" s="5">
         <v>0</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="AE19" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -69407,64 +69801,82 @@
         <v>94</v>
       </c>
       <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>2210</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>25</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K20" s="5">
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
         <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>22100</v>
-      </c>
-      <c r="M20" s="5">
-        <v>250</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O20" s="5">
         <v>0</v>
       </c>
       <c r="P20" s="5">
+        <v>22100</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>250</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
         <v>440</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="W20" s="5">
         <v>5</v>
       </c>
-      <c r="R20" s="5">
+      <c r="X20" s="5">
         <v>1.2</v>
       </c>
-      <c r="S20" s="5">
+      <c r="Y20" s="5">
         <v>203</v>
       </c>
-      <c r="T20" s="5">
-        <v>1</v>
-      </c>
-      <c r="U20" s="5">
-        <v>1</v>
-      </c>
-      <c r="V20" s="5">
+      <c r="Z20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="5">
         <v>233.04</v>
       </c>
-      <c r="W20" s="5">
+      <c r="AC20" s="5">
         <v>11</v>
       </c>
-      <c r="X20" s="5">
+      <c r="AD20" s="5">
         <v>0</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="AE20" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -69484,64 +69896,82 @@
         <v>94</v>
       </c>
       <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
         <v>4738</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="5">
         <v>32</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
         <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>47380</v>
-      </c>
-      <c r="M21" s="5">
-        <v>320</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
       </c>
       <c r="P21" s="5">
+        <v>47380</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>320</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
         <v>914</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="W21" s="5">
         <v>6</v>
       </c>
-      <c r="R21" s="5">
+      <c r="X21" s="5">
         <v>1.5</v>
       </c>
-      <c r="S21" s="5">
+      <c r="Y21" s="5">
         <v>204</v>
       </c>
-      <c r="T21" s="5">
-        <v>1</v>
-      </c>
-      <c r="U21" s="5">
-        <v>1</v>
-      </c>
-      <c r="V21" s="5">
+      <c r="Z21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
         <v>654.42999999999995</v>
       </c>
-      <c r="W21" s="5">
+      <c r="AC21" s="5">
         <v>11</v>
       </c>
-      <c r="X21" s="5">
+      <c r="AD21" s="5">
         <v>0</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="AE21" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -69561,64 +69991,82 @@
         <v>94</v>
       </c>
       <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
         <v>9498</v>
       </c>
-      <c r="I22" s="5">
+      <c r="K22" s="5">
         <v>40</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K22" s="5">
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
         <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>94980</v>
-      </c>
-      <c r="M22" s="5">
-        <v>400</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O22" s="5">
         <v>0</v>
       </c>
       <c r="P22" s="5">
+        <v>94980</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>400</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
         <v>1866</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="W22" s="5">
         <v>8</v>
       </c>
-      <c r="R22" s="5">
-        <v>2</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="X22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="5">
         <v>205</v>
       </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>2</v>
-      </c>
-      <c r="V22" s="5">
+      <c r="Z22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="5">
         <v>3.01</v>
       </c>
-      <c r="W22" s="5">
+      <c r="AC22" s="5">
         <v>11</v>
       </c>
-      <c r="X22" s="5">
+      <c r="AD22" s="5">
         <v>0</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="AE22" s="5">
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -69638,64 +70086,82 @@
         <v>94</v>
       </c>
       <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>18448</v>
       </c>
-      <c r="I23" s="5">
+      <c r="K23" s="5">
         <v>50</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K23" s="5">
+      <c r="M23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
         <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>184480</v>
-      </c>
-      <c r="M23" s="5">
-        <v>500</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O23" s="5">
         <v>0</v>
       </c>
       <c r="P23" s="5">
+        <v>184480</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>500</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S23" s="5">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
         <v>3656</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="W23" s="5">
         <v>10</v>
       </c>
-      <c r="R23" s="5">
+      <c r="X23" s="5">
         <v>2.5</v>
       </c>
-      <c r="S23" s="5">
+      <c r="Y23" s="5">
         <v>206</v>
       </c>
-      <c r="T23" s="5">
-        <v>1</v>
-      </c>
-      <c r="U23" s="5">
-        <v>2</v>
-      </c>
-      <c r="V23" s="5">
+      <c r="Z23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="5">
         <v>12.33</v>
       </c>
-      <c r="W23" s="5">
+      <c r="AC23" s="5">
         <v>11</v>
       </c>
-      <c r="X23" s="5">
+      <c r="AD23" s="5">
         <v>0</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="AE23" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -69715,64 +70181,82 @@
         <v>94</v>
       </c>
       <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <v>33388</v>
       </c>
-      <c r="I24" s="5">
+      <c r="K24" s="5">
         <v>60</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K24" s="5">
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
         <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>333880</v>
-      </c>
-      <c r="M24" s="5">
-        <v>600</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O24" s="5">
         <v>0</v>
       </c>
       <c r="P24" s="5">
+        <v>333880</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>600</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
         <v>6644</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="W24" s="5">
         <v>12</v>
       </c>
-      <c r="R24" s="5">
+      <c r="X24" s="5">
         <v>3</v>
       </c>
-      <c r="S24" s="5">
+      <c r="Y24" s="5">
         <v>207</v>
       </c>
-      <c r="T24" s="5">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5">
-        <v>2</v>
-      </c>
-      <c r="V24" s="5">
+      <c r="Z24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="5">
         <v>49.04</v>
       </c>
-      <c r="W24" s="5">
+      <c r="AC24" s="5">
         <v>11</v>
       </c>
-      <c r="X24" s="5">
+      <c r="AD24" s="5">
         <v>0</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="AE24" s="5">
         <v>1400</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -69792,64 +70276,82 @@
         <v>94</v>
       </c>
       <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <v>54318</v>
       </c>
-      <c r="I25" s="5">
+      <c r="K25" s="5">
         <v>70</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
         <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>543180</v>
-      </c>
-      <c r="M25" s="5">
-        <v>700</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O25" s="5">
         <v>0</v>
       </c>
       <c r="P25" s="5">
+        <v>543180</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>700</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
         <v>10830</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="W25" s="5">
         <v>14</v>
       </c>
-      <c r="R25" s="5">
+      <c r="X25" s="5">
         <v>3.5</v>
       </c>
-      <c r="S25" s="5">
+      <c r="Y25" s="5">
         <v>208</v>
       </c>
-      <c r="T25" s="5">
-        <v>1</v>
-      </c>
-      <c r="U25" s="5">
-        <v>2</v>
-      </c>
-      <c r="V25" s="5">
+      <c r="Z25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="5">
         <v>90.45</v>
       </c>
-      <c r="W25" s="5">
+      <c r="AC25" s="5">
         <v>11</v>
       </c>
-      <c r="X25" s="5">
+      <c r="AD25" s="5">
         <v>0</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="AE25" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -69869,64 +70371,82 @@
         <v>94</v>
       </c>
       <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
         <v>0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <v>82238</v>
       </c>
-      <c r="I26" s="5">
+      <c r="K26" s="5">
         <v>80</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K26" s="5">
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
         <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>822380</v>
-      </c>
-      <c r="M26" s="5">
-        <v>800</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O26" s="5">
         <v>0</v>
       </c>
       <c r="P26" s="5">
+        <v>822380</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>800</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S26" s="5">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
         <v>16414</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="W26" s="5">
         <v>16</v>
       </c>
-      <c r="R26" s="5">
+      <c r="X26" s="5">
         <v>4</v>
       </c>
-      <c r="S26" s="5">
+      <c r="Y26" s="5">
         <v>209</v>
       </c>
-      <c r="T26" s="5">
-        <v>1</v>
-      </c>
-      <c r="U26" s="5">
-        <v>2</v>
-      </c>
-      <c r="V26" s="5">
+      <c r="Z26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="5">
         <v>164.34</v>
       </c>
-      <c r="W26" s="5">
+      <c r="AC26" s="5">
         <v>11</v>
       </c>
-      <c r="X26" s="5">
+      <c r="AD26" s="5">
         <v>0</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="AE26" s="5">
         <v>2750</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -69946,64 +70466,82 @@
         <v>94</v>
       </c>
       <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
         <v>118148</v>
       </c>
-      <c r="I27" s="5">
+      <c r="K27" s="5">
         <v>90</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K27" s="5">
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
         <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1181480</v>
-      </c>
-      <c r="M27" s="5">
-        <v>900</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O27" s="5">
         <v>0</v>
       </c>
       <c r="P27" s="5">
+        <v>1181480</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>900</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
         <v>23596</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="W27" s="5">
         <v>18</v>
       </c>
-      <c r="R27" s="5">
+      <c r="X27" s="5">
         <v>4.5</v>
       </c>
-      <c r="S27" s="5">
+      <c r="Y27" s="5">
         <v>210</v>
       </c>
-      <c r="T27" s="5">
-        <v>1</v>
-      </c>
-      <c r="U27" s="5">
-        <v>2</v>
-      </c>
-      <c r="V27" s="5">
+      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="5">
         <v>223.44</v>
       </c>
-      <c r="W27" s="5">
+      <c r="AC27" s="5">
         <v>11</v>
       </c>
-      <c r="X27" s="5">
+      <c r="AD27" s="5">
         <v>0</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="AE27" s="5">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -70023,64 +70561,82 @@
         <v>94</v>
       </c>
       <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>163048</v>
       </c>
-      <c r="I28" s="5">
+      <c r="K28" s="5">
         <v>100</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K28" s="5">
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5">
         <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1630480</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O28" s="5">
         <v>0</v>
       </c>
       <c r="P28" s="5">
+        <v>1630480</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
         <v>32576</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="W28" s="5">
         <v>20</v>
       </c>
-      <c r="R28" s="5">
+      <c r="X28" s="5">
         <v>5</v>
       </c>
-      <c r="S28" s="5">
+      <c r="Y28" s="5">
         <v>211</v>
       </c>
-      <c r="T28" s="5">
-        <v>1</v>
-      </c>
-      <c r="U28" s="5">
-        <v>2</v>
-      </c>
-      <c r="V28" s="5">
+      <c r="Z28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="5">
         <v>338.27</v>
       </c>
-      <c r="W28" s="5">
+      <c r="AC28" s="5">
         <v>11</v>
       </c>
-      <c r="X28" s="5">
+      <c r="AD28" s="5">
         <v>0</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="AE28" s="5">
         <v>4500</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -70100,64 +70656,82 @@
         <v>94</v>
       </c>
       <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
         <v>222928</v>
       </c>
-      <c r="I29" s="5">
+      <c r="K29" s="5">
         <v>120</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K29" s="5">
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
         <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>2229280</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1200</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O29" s="5">
         <v>0</v>
       </c>
       <c r="P29" s="5">
+        <v>2229280</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1200</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S29" s="5">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
         <v>44552</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="W29" s="5">
         <v>24</v>
       </c>
-      <c r="R29" s="5">
+      <c r="X29" s="5">
         <v>6</v>
       </c>
-      <c r="S29" s="5">
+      <c r="Y29" s="5">
         <v>212</v>
       </c>
-      <c r="T29" s="5">
-        <v>1</v>
-      </c>
-      <c r="U29" s="5">
-        <v>2</v>
-      </c>
-      <c r="V29" s="5">
+      <c r="Z29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="5">
         <v>419.26</v>
       </c>
-      <c r="W29" s="5">
+      <c r="AC29" s="5">
         <v>11</v>
       </c>
-      <c r="X29" s="5">
+      <c r="AD29" s="5">
         <v>0</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="AE29" s="5">
         <v>8250</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -70177,64 +70751,82 @@
         <v>94</v>
       </c>
       <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="H30" s="5">
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
         <v>20</v>
       </c>
-      <c r="I30" s="5">
+      <c r="K30" s="5">
         <v>10</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5">
         <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>200</v>
-      </c>
-      <c r="M30" s="5">
-        <v>50</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O30" s="5">
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="5">
+        <v>50</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>2</v>
+      </c>
+      <c r="W30" s="5">
         <v>3</v>
       </c>
-      <c r="R30" s="5">
+      <c r="X30" s="5">
         <v>0.5</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="Y30" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -70254,64 +70846,82 @@
         <v>94</v>
       </c>
       <c r="G31" s="5">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
         <v>155</v>
       </c>
-      <c r="I31" s="5">
+      <c r="K31" s="5">
         <v>15</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
         <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>875</v>
-      </c>
-      <c r="M31" s="5">
-        <v>75</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O31" s="5">
         <v>0</v>
       </c>
       <c r="P31" s="5">
+        <v>875</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>75</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
         <v>47</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="W31" s="5">
         <v>5</v>
       </c>
-      <c r="R31" s="5">
+      <c r="X31" s="5">
         <v>0.8</v>
       </c>
-      <c r="S31" s="5">
+      <c r="Y31" s="5">
         <v>301</v>
       </c>
-      <c r="T31" s="5">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5">
-        <v>1</v>
-      </c>
-      <c r="V31" s="5">
+      <c r="Z31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
         <v>6.06</v>
       </c>
-      <c r="W31" s="5">
+      <c r="AC31" s="5">
         <v>11</v>
       </c>
-      <c r="X31" s="5">
+      <c r="AD31" s="5">
         <v>0</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="AE31" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -70331,64 +70941,82 @@
         <v>94</v>
       </c>
       <c r="G32" s="5">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5">
         <v>0</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <v>735</v>
       </c>
-      <c r="I32" s="5">
+      <c r="K32" s="5">
         <v>20</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5">
         <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>3775</v>
-      </c>
-      <c r="M32" s="5">
-        <v>100</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O32" s="5">
         <v>0</v>
       </c>
       <c r="P32" s="5">
+        <v>3775</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>100</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
         <v>221</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="W32" s="5">
         <v>6</v>
       </c>
-      <c r="R32" s="5">
-        <v>1</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="X32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="5">
         <v>302</v>
       </c>
-      <c r="T32" s="5">
-        <v>1</v>
-      </c>
-      <c r="U32" s="5">
-        <v>1</v>
-      </c>
-      <c r="V32" s="5">
+      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
         <v>68.42</v>
       </c>
-      <c r="W32" s="5">
+      <c r="AC32" s="5">
         <v>11</v>
       </c>
-      <c r="X32" s="5">
+      <c r="AD32" s="5">
         <v>0</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="AE32" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -70408,64 +71036,82 @@
         <v>94</v>
       </c>
       <c r="G33" s="5">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5">
         <v>0</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <v>2210</v>
       </c>
-      <c r="I33" s="5">
+      <c r="K33" s="5">
         <v>25</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="L33" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
         <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>11150</v>
-      </c>
-      <c r="M33" s="5">
-        <v>125</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O33" s="5">
         <v>0</v>
       </c>
       <c r="P33" s="5">
+        <v>11150</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>125</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
         <v>693</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="W33" s="5">
         <v>8</v>
       </c>
-      <c r="R33" s="5">
+      <c r="X33" s="5">
         <v>1.2</v>
       </c>
-      <c r="S33" s="5">
+      <c r="Y33" s="5">
         <v>303</v>
       </c>
-      <c r="T33" s="5">
-        <v>1</v>
-      </c>
-      <c r="U33" s="5">
-        <v>1</v>
-      </c>
-      <c r="V33" s="5">
+      <c r="Z33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5">
         <v>233.04</v>
       </c>
-      <c r="W33" s="5">
+      <c r="AC33" s="5">
         <v>11</v>
       </c>
-      <c r="X33" s="5">
+      <c r="AD33" s="5">
         <v>0</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="AE33" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -70485,64 +71131,82 @@
         <v>94</v>
       </c>
       <c r="G34" s="5">
+        <v>4</v>
+      </c>
+      <c r="H34" s="5">
         <v>0</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
         <v>4738</v>
       </c>
-      <c r="I34" s="5">
+      <c r="K34" s="5">
         <v>32</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5">
         <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>23790</v>
-      </c>
-      <c r="M34" s="5">
-        <v>160</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
       </c>
       <c r="P34" s="5">
+        <v>23790</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>160</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5">
         <v>1483</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="W34" s="5">
         <v>10</v>
       </c>
-      <c r="R34" s="5">
+      <c r="X34" s="5">
         <v>1.5</v>
       </c>
-      <c r="S34" s="5">
+      <c r="Y34" s="5">
         <v>304</v>
       </c>
-      <c r="T34" s="5">
-        <v>1</v>
-      </c>
-      <c r="U34" s="5">
-        <v>1</v>
-      </c>
-      <c r="V34" s="5">
+      <c r="Z34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="5">
         <v>654.42999999999995</v>
       </c>
-      <c r="W34" s="5">
+      <c r="AC34" s="5">
         <v>11</v>
       </c>
-      <c r="X34" s="5">
+      <c r="AD34" s="5">
         <v>0</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="AE34" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -70562,64 +71226,82 @@
         <v>94</v>
       </c>
       <c r="G35" s="5">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5">
         <v>0</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
         <v>9498</v>
       </c>
-      <c r="I35" s="5">
+      <c r="K35" s="5">
         <v>40</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K35" s="5">
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
         <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>47590</v>
-      </c>
-      <c r="M35" s="5">
-        <v>200</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
       </c>
       <c r="P35" s="5">
+        <v>47590</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>200</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
         <v>2911</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="W35" s="5">
         <v>12</v>
       </c>
-      <c r="R35" s="5">
-        <v>2</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="X35" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="5">
         <v>305</v>
       </c>
-      <c r="T35" s="5">
-        <v>1</v>
-      </c>
-      <c r="U35" s="5">
-        <v>2</v>
-      </c>
-      <c r="V35" s="5">
+      <c r="Z35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="5">
         <v>3.01</v>
       </c>
-      <c r="W35" s="5">
+      <c r="AC35" s="5">
         <v>11</v>
       </c>
-      <c r="X35" s="5">
+      <c r="AD35" s="5">
         <v>0</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="AE35" s="5">
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -70639,64 +71321,82 @@
         <v>94</v>
       </c>
       <c r="G36" s="5">
+        <v>4</v>
+      </c>
+      <c r="H36" s="5">
         <v>0</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
         <v>18448</v>
       </c>
-      <c r="I36" s="5">
+      <c r="K36" s="5">
         <v>50</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="L36" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K36" s="5">
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5">
         <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>92340</v>
-      </c>
-      <c r="M36" s="5">
-        <v>250</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
       </c>
       <c r="P36" s="5">
+        <v>92340</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>250</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S36" s="5">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
         <v>5596</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="W36" s="5">
         <v>15</v>
       </c>
-      <c r="R36" s="5">
+      <c r="X36" s="5">
         <v>2.5</v>
       </c>
-      <c r="S36" s="5">
+      <c r="Y36" s="5">
         <v>306</v>
       </c>
-      <c r="T36" s="5">
-        <v>1</v>
-      </c>
-      <c r="U36" s="5">
-        <v>2</v>
-      </c>
-      <c r="V36" s="5">
+      <c r="Z36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="5">
         <v>12.33</v>
       </c>
-      <c r="W36" s="5">
+      <c r="AC36" s="5">
         <v>11</v>
       </c>
-      <c r="X36" s="5">
+      <c r="AD36" s="5">
         <v>0</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="AE36" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -70716,64 +71416,82 @@
         <v>94</v>
       </c>
       <c r="G37" s="5">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5">
         <v>0</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
         <v>33388</v>
       </c>
-      <c r="I37" s="5">
+      <c r="K37" s="5">
         <v>60</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="L37" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K37" s="5">
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5">
         <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>167040</v>
-      </c>
-      <c r="M37" s="5">
-        <v>300</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O37" s="5">
         <v>0</v>
       </c>
       <c r="P37" s="5">
+        <v>167040</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>300</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
         <v>10078</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="W37" s="5">
         <v>18</v>
       </c>
-      <c r="R37" s="5">
+      <c r="X37" s="5">
         <v>3</v>
       </c>
-      <c r="S37" s="5">
+      <c r="Y37" s="5">
         <v>307</v>
       </c>
-      <c r="T37" s="5">
-        <v>1</v>
-      </c>
-      <c r="U37" s="5">
-        <v>2</v>
-      </c>
-      <c r="V37" s="5">
+      <c r="Z37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="5">
         <v>49.04</v>
       </c>
-      <c r="W37" s="5">
+      <c r="AC37" s="5">
         <v>11</v>
       </c>
-      <c r="X37" s="5">
+      <c r="AD37" s="5">
         <v>0</v>
       </c>
-      <c r="Y37" s="5">
+      <c r="AE37" s="5">
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -70793,64 +71511,82 @@
         <v>94</v>
       </c>
       <c r="G38" s="5">
+        <v>4</v>
+      </c>
+      <c r="H38" s="5">
         <v>0</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
         <v>54318</v>
       </c>
-      <c r="I38" s="5">
+      <c r="K38" s="5">
         <v>70</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K38" s="5">
+      <c r="M38" s="5">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5">
         <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>271690</v>
-      </c>
-      <c r="M38" s="5">
-        <v>350</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O38" s="5">
         <v>0</v>
       </c>
       <c r="P38" s="5">
+        <v>271690</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>350</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S38" s="5">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5">
+        <v>0</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
         <v>16357</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="W38" s="5">
         <v>21</v>
       </c>
-      <c r="R38" s="5">
+      <c r="X38" s="5">
         <v>3.5</v>
       </c>
-      <c r="S38" s="5">
+      <c r="Y38" s="5">
         <v>308</v>
       </c>
-      <c r="T38" s="5">
-        <v>1</v>
-      </c>
-      <c r="U38" s="5">
-        <v>2</v>
-      </c>
-      <c r="V38" s="5">
+      <c r="Z38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="5">
         <v>90.45</v>
       </c>
-      <c r="W38" s="5">
+      <c r="AC38" s="5">
         <v>11</v>
       </c>
-      <c r="X38" s="5">
+      <c r="AD38" s="5">
         <v>0</v>
       </c>
-      <c r="Y38" s="5">
+      <c r="AE38" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -70870,64 +71606,82 @@
         <v>94</v>
       </c>
       <c r="G39" s="5">
+        <v>4</v>
+      </c>
+      <c r="H39" s="5">
         <v>0</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
         <v>82238</v>
       </c>
-      <c r="I39" s="5">
+      <c r="K39" s="5">
         <v>80</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="L39" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K39" s="5">
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5">
         <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>411290</v>
-      </c>
-      <c r="M39" s="5">
-        <v>400</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O39" s="5">
         <v>0</v>
       </c>
       <c r="P39" s="5">
+        <v>411290</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>400</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S39" s="5">
+        <v>1</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
         <v>24733</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="W39" s="5">
         <v>24</v>
       </c>
-      <c r="R39" s="5">
+      <c r="X39" s="5">
         <v>4</v>
       </c>
-      <c r="S39" s="5">
+      <c r="Y39" s="5">
         <v>309</v>
       </c>
-      <c r="T39" s="5">
-        <v>1</v>
-      </c>
-      <c r="U39" s="5">
-        <v>2</v>
-      </c>
-      <c r="V39" s="5">
+      <c r="Z39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="5">
         <v>164.34</v>
       </c>
-      <c r="W39" s="5">
+      <c r="AC39" s="5">
         <v>11</v>
       </c>
-      <c r="X39" s="5">
+      <c r="AD39" s="5">
         <v>0</v>
       </c>
-      <c r="Y39" s="5">
+      <c r="AE39" s="5">
         <v>2750</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -70947,64 +71701,82 @@
         <v>94</v>
       </c>
       <c r="G40" s="5">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
         <v>118148</v>
       </c>
-      <c r="I40" s="5">
+      <c r="K40" s="5">
         <v>90</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K40" s="5">
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
         <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>590840</v>
-      </c>
-      <c r="M40" s="5">
-        <v>450</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O40" s="5">
         <v>0</v>
       </c>
       <c r="P40" s="5">
+        <v>590840</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>450</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1</v>
+      </c>
+      <c r="T40" s="5">
+        <v>0</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
         <v>35506</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="W40" s="5">
         <v>27</v>
       </c>
-      <c r="R40" s="5">
+      <c r="X40" s="5">
         <v>4.5</v>
       </c>
-      <c r="S40" s="5">
+      <c r="Y40" s="5">
         <v>310</v>
       </c>
-      <c r="T40" s="5">
-        <v>1</v>
-      </c>
-      <c r="U40" s="5">
-        <v>2</v>
-      </c>
-      <c r="V40" s="5">
+      <c r="Z40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="5">
         <v>223.44</v>
       </c>
-      <c r="W40" s="5">
+      <c r="AC40" s="5">
         <v>11</v>
       </c>
-      <c r="X40" s="5">
+      <c r="AD40" s="5">
         <v>0</v>
       </c>
-      <c r="Y40" s="5">
+      <c r="AE40" s="5">
         <v>3900</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -71024,64 +71796,82 @@
         <v>94</v>
       </c>
       <c r="G41" s="5">
+        <v>4</v>
+      </c>
+      <c r="H41" s="5">
         <v>0</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
         <v>163048</v>
       </c>
-      <c r="I41" s="5">
+      <c r="K41" s="5">
         <v>100</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="L41" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K41" s="5">
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
         <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>815340</v>
-      </c>
-      <c r="M41" s="5">
-        <v>500</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O41" s="5">
         <v>0</v>
       </c>
       <c r="P41" s="5">
+        <v>815340</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>500</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1</v>
+      </c>
+      <c r="T41" s="5">
+        <v>0</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
         <v>48976</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="W41" s="5">
         <v>30</v>
       </c>
-      <c r="R41" s="5">
+      <c r="X41" s="5">
         <v>5</v>
       </c>
-      <c r="S41" s="5">
+      <c r="Y41" s="5">
         <v>311</v>
       </c>
-      <c r="T41" s="5">
-        <v>1</v>
-      </c>
-      <c r="U41" s="5">
-        <v>2</v>
-      </c>
-      <c r="V41" s="5">
+      <c r="Z41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="5">
         <v>338.27</v>
       </c>
-      <c r="W41" s="5">
+      <c r="AC41" s="5">
         <v>11</v>
       </c>
-      <c r="X41" s="5">
+      <c r="AD41" s="5">
         <v>0</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="AE41" s="5">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -71101,60 +71891,78 @@
         <v>94</v>
       </c>
       <c r="G42" s="5">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5">
         <v>0</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
         <v>222928</v>
       </c>
-      <c r="I42" s="5">
+      <c r="K42" s="5">
         <v>120</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="L42" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K42" s="5">
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5">
         <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1114740</v>
-      </c>
-      <c r="M42" s="5">
-        <v>600</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="O42" s="5">
         <v>0</v>
       </c>
       <c r="P42" s="5">
+        <v>1114740</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>600</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="S42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5">
+        <v>0</v>
+      </c>
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
         <v>66940</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="W42" s="5">
         <v>36</v>
       </c>
-      <c r="R42" s="5">
+      <c r="X42" s="5">
         <v>6</v>
       </c>
-      <c r="S42" s="5">
+      <c r="Y42" s="5">
         <v>312</v>
       </c>
-      <c r="T42" s="5">
-        <v>1</v>
-      </c>
-      <c r="U42" s="5">
-        <v>2</v>
-      </c>
-      <c r="V42" s="5">
+      <c r="Z42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="5">
         <v>419.26</v>
       </c>
-      <c r="W42" s="5">
+      <c r="AC42" s="5">
         <v>11</v>
       </c>
-      <c r="X42" s="5">
+      <c r="AD42" s="5">
         <v>0</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="AE42" s="5">
         <v>8250</v>
       </c>
     </row>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E677D2B-76A6-43D6-B1F3-3A8EF2CA680E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF71264-8DC7-48A1-A41A-2C4E7D06581B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,10 +1125,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>attr[2].w</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1219,10 +1215,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>attr[3].w</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>attr[3].val.base</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1280,6 +1272,14 @@
   </si>
   <si>
     <t>槽3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].val.w</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].val.w</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1870,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1909,17 +1909,17 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -67956,7 +67956,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67987,19 +67987,19 @@
         <v>289</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>285</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>294</v>
@@ -68014,13 +68014,13 @@
         <v>299</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>300</v>
@@ -68029,22 +68029,22 @@
         <v>301</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>288</v>
@@ -68097,7 +68097,7 @@
         <v>290</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>293</v>
@@ -68115,7 +68115,7 @@
         <v>290</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>293</v>
@@ -68127,13 +68127,13 @@
         <v>292</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>293</v>
@@ -68145,25 +68145,25 @@
         <v>293</v>
       </c>
       <c r="Y2" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB2" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="AB2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.2">
@@ -68177,67 +68177,67 @@
         <v>297</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>298</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="R3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>105</v>
@@ -68272,7 +68272,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -68335,25 +68335,25 @@
         <v>0.5</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -69531,7 +69531,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M17" s="5">
         <v>1</v>
@@ -69549,7 +69549,7 @@
         <v>100</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S17" s="5">
         <v>1</v>
@@ -69570,25 +69570,25 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -69626,7 +69626,7 @@
         <v>15</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M18" s="5">
         <v>1</v>
@@ -69644,7 +69644,7 @@
         <v>150</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S18" s="5">
         <v>1</v>
@@ -69721,7 +69721,7 @@
         <v>20</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M19" s="5">
         <v>1</v>
@@ -69739,7 +69739,7 @@
         <v>200</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S19" s="5">
         <v>1</v>
@@ -69816,7 +69816,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M20" s="5">
         <v>1</v>
@@ -69834,7 +69834,7 @@
         <v>250</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S20" s="5">
         <v>1</v>
@@ -69911,7 +69911,7 @@
         <v>32</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M21" s="5">
         <v>1</v>
@@ -69929,7 +69929,7 @@
         <v>320</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S21" s="5">
         <v>1</v>
@@ -70006,7 +70006,7 @@
         <v>40</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M22" s="5">
         <v>1</v>
@@ -70024,7 +70024,7 @@
         <v>400</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S22" s="5">
         <v>1</v>
@@ -70101,7 +70101,7 @@
         <v>50</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M23" s="5">
         <v>1</v>
@@ -70119,7 +70119,7 @@
         <v>500</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S23" s="5">
         <v>1</v>
@@ -70196,7 +70196,7 @@
         <v>60</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M24" s="5">
         <v>1</v>
@@ -70214,7 +70214,7 @@
         <v>600</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S24" s="5">
         <v>1</v>
@@ -70291,7 +70291,7 @@
         <v>70</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M25" s="5">
         <v>1</v>
@@ -70309,7 +70309,7 @@
         <v>700</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S25" s="5">
         <v>1</v>
@@ -70386,7 +70386,7 @@
         <v>80</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M26" s="5">
         <v>1</v>
@@ -70404,7 +70404,7 @@
         <v>800</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S26" s="5">
         <v>1</v>
@@ -70481,7 +70481,7 @@
         <v>90</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M27" s="5">
         <v>1</v>
@@ -70499,7 +70499,7 @@
         <v>900</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S27" s="5">
         <v>1</v>
@@ -70576,7 +70576,7 @@
         <v>100</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M28" s="5">
         <v>1</v>
@@ -70594,7 +70594,7 @@
         <v>1000</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S28" s="5">
         <v>1</v>
@@ -70671,7 +70671,7 @@
         <v>120</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M29" s="5">
         <v>1</v>
@@ -70689,7 +70689,7 @@
         <v>1200</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S29" s="5">
         <v>1</v>
@@ -70766,7 +70766,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M30" s="5">
         <v>1</v>
@@ -70784,7 +70784,7 @@
         <v>50</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S30" s="5">
         <v>1</v>
@@ -70805,25 +70805,25 @@
         <v>0.5</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -70861,7 +70861,7 @@
         <v>15</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M31" s="5">
         <v>1</v>
@@ -70879,7 +70879,7 @@
         <v>75</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S31" s="5">
         <v>1</v>
@@ -70956,7 +70956,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M32" s="5">
         <v>1</v>
@@ -70974,7 +70974,7 @@
         <v>100</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S32" s="5">
         <v>1</v>
@@ -71051,7 +71051,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M33" s="5">
         <v>1</v>
@@ -71069,7 +71069,7 @@
         <v>125</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S33" s="5">
         <v>1</v>
@@ -71146,7 +71146,7 @@
         <v>32</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M34" s="5">
         <v>1</v>
@@ -71164,7 +71164,7 @@
         <v>160</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S34" s="5">
         <v>1</v>
@@ -71241,7 +71241,7 @@
         <v>40</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M35" s="5">
         <v>1</v>
@@ -71259,7 +71259,7 @@
         <v>200</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S35" s="5">
         <v>1</v>
@@ -71336,7 +71336,7 @@
         <v>50</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M36" s="5">
         <v>1</v>
@@ -71354,7 +71354,7 @@
         <v>250</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S36" s="5">
         <v>1</v>
@@ -71431,7 +71431,7 @@
         <v>60</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M37" s="5">
         <v>1</v>
@@ -71449,7 +71449,7 @@
         <v>300</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S37" s="5">
         <v>1</v>
@@ -71526,7 +71526,7 @@
         <v>70</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M38" s="5">
         <v>1</v>
@@ -71544,7 +71544,7 @@
         <v>350</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S38" s="5">
         <v>1</v>
@@ -71621,7 +71621,7 @@
         <v>80</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M39" s="5">
         <v>1</v>
@@ -71639,7 +71639,7 @@
         <v>400</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S39" s="5">
         <v>1</v>
@@ -71716,7 +71716,7 @@
         <v>90</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M40" s="5">
         <v>1</v>
@@ -71734,7 +71734,7 @@
         <v>450</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S40" s="5">
         <v>1</v>
@@ -71811,7 +71811,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M41" s="5">
         <v>1</v>
@@ -71829,7 +71829,7 @@
         <v>500</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S41" s="5">
         <v>1</v>
@@ -71906,7 +71906,7 @@
         <v>120</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M42" s="5">
         <v>1</v>
@@ -71924,7 +71924,7 @@
         <v>600</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S42" s="5">
         <v>1</v>
@@ -72006,7 +72006,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>97</v>
@@ -73561,7 +73561,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF71264-8DC7-48A1-A41A-2C4E7D06581B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8C3A0-9204-4000-ADB1-19031514717C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67956,7 +67956,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68272,7 +68272,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A8C3A0-9204-4000-ADB1-19031514717C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84782A10-BCC0-4D85-B164-C47371467B95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67955,8 +67955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F74F1C-6221-4021-9037-5FEAC6239BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAAD53-E660-490E-AF58-C9AB5B80DCB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="366">
   <si>
     <t>sheet名</t>
   </si>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t>upProb[1].zfMax</t>
-  </si>
-  <si>
-    <t>upProb[1].prob</t>
   </si>
   <si>
     <t>upProb[2].zfMin</t>
@@ -1317,6 +1314,88 @@
   <si>
     <t>LaserGun-Normal-bk3</t>
   </si>
+  <si>
+    <t>upProb[1].prob</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[1].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前直升概率微乎其微</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[2].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率描述1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有极低概率直接升级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[3].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率描述3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率描述2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有一定概率直接升级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[4].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有较高概率直接升级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1534,7 +1613,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
@@ -1559,6 +1638,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1892,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -1914,7 +1994,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1931,17 +2011,17 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -1952,7 +2032,7 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -2232,7 +2312,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
@@ -2260,7 +2340,7 @@
         <v>56</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="8" t="s">
@@ -2288,7 +2368,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="8" t="s">
@@ -2313,10 +2393,10 @@
         <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="5">
         <v>1101</v>
@@ -2325,7 +2405,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>55</v>
@@ -2342,10 +2422,10 @@
         <v>202</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F8" s="5">
         <v>1201</v>
@@ -2354,7 +2434,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>55</v>
@@ -2371,10 +2451,10 @@
         <v>302</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="5">
         <v>1301</v>
@@ -2383,7 +2463,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>55</v>
@@ -2400,10 +2480,10 @@
         <v>103</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="5">
         <v>1102</v>
@@ -2412,7 +2492,7 @@
         <v>53</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>55</v>
@@ -2432,7 +2512,7 @@
         <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="5">
         <v>1202</v>
@@ -2441,7 +2521,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>55</v>
@@ -2458,10 +2538,10 @@
         <v>303</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F12" s="5">
         <v>1302</v>
@@ -2470,7 +2550,7 @@
         <v>60</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>55</v>
@@ -67977,7 +68057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -68007,73 +68087,73 @@
         <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>97</v>
@@ -68099,177 +68179,177 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="R2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>290</v>
-      </c>
       <c r="X2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AC2" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="S3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>102</v>
@@ -68310,7 +68390,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>94</v>
@@ -68370,25 +68450,25 @@
         <v>0.5</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -68408,7 +68488,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>94</v>
@@ -68506,7 +68586,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>94</v>
@@ -68604,7 +68684,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>94</v>
@@ -68702,7 +68782,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>94</v>
@@ -68800,7 +68880,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>94</v>
@@ -68898,7 +68978,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>94</v>
@@ -68996,7 +69076,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>94</v>
@@ -69094,7 +69174,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>94</v>
@@ -69192,7 +69272,7 @@
         <v>350</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>94</v>
@@ -69290,7 +69370,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -69388,7 +69468,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -69486,7 +69566,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -69584,7 +69664,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>94</v>
@@ -69605,7 +69685,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
@@ -69623,7 +69703,7 @@
         <v>100</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T17" s="5">
         <v>1</v>
@@ -69644,25 +69724,25 @@
         <v>0.5</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -69682,7 +69762,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>94</v>
@@ -69703,7 +69783,7 @@
         <v>15</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N18" s="5">
         <v>1</v>
@@ -69721,7 +69801,7 @@
         <v>150</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T18" s="5">
         <v>1</v>
@@ -69780,7 +69860,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>94</v>
@@ -69801,7 +69881,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N19" s="5">
         <v>1</v>
@@ -69819,7 +69899,7 @@
         <v>200</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T19" s="5">
         <v>1</v>
@@ -69878,7 +69958,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>94</v>
@@ -69899,7 +69979,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N20" s="5">
         <v>1</v>
@@ -69917,7 +69997,7 @@
         <v>250</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T20" s="5">
         <v>1</v>
@@ -69976,7 +70056,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>94</v>
@@ -69997,7 +70077,7 @@
         <v>32</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N21" s="5">
         <v>1</v>
@@ -70015,7 +70095,7 @@
         <v>320</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T21" s="5">
         <v>1</v>
@@ -70074,7 +70154,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>94</v>
@@ -70095,7 +70175,7 @@
         <v>40</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -70113,7 +70193,7 @@
         <v>400</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
@@ -70172,7 +70252,7 @@
         <v>180</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>94</v>
@@ -70193,7 +70273,7 @@
         <v>50</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -70211,7 +70291,7 @@
         <v>500</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T23" s="5">
         <v>1</v>
@@ -70270,7 +70350,7 @@
         <v>250</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>94</v>
@@ -70291,7 +70371,7 @@
         <v>60</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N24" s="5">
         <v>1</v>
@@ -70309,7 +70389,7 @@
         <v>600</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T24" s="5">
         <v>1</v>
@@ -70368,7 +70448,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>94</v>
@@ -70389,7 +70469,7 @@
         <v>70</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N25" s="5">
         <v>1</v>
@@ -70407,7 +70487,7 @@
         <v>700</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
@@ -70466,7 +70546,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>94</v>
@@ -70487,7 +70567,7 @@
         <v>80</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N26" s="5">
         <v>1</v>
@@ -70505,7 +70585,7 @@
         <v>800</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T26" s="5">
         <v>1</v>
@@ -70564,7 +70644,7 @@
         <v>400</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>94</v>
@@ -70585,7 +70665,7 @@
         <v>90</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N27" s="5">
         <v>1</v>
@@ -70603,7 +70683,7 @@
         <v>900</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T27" s="5">
         <v>1</v>
@@ -70662,7 +70742,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>94</v>
@@ -70683,7 +70763,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -70701,7 +70781,7 @@
         <v>1000</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
@@ -70760,7 +70840,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>94</v>
@@ -70781,7 +70861,7 @@
         <v>120</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -70799,7 +70879,7 @@
         <v>1200</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T29" s="5">
         <v>1</v>
@@ -70858,7 +70938,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>94</v>
@@ -70879,7 +70959,7 @@
         <v>10</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N30" s="5">
         <v>1</v>
@@ -70897,7 +70977,7 @@
         <v>50</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T30" s="5">
         <v>1</v>
@@ -70918,25 +70998,25 @@
         <v>0.5</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70956,7 +71036,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>94</v>
@@ -70977,7 +71057,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N31" s="5">
         <v>1</v>
@@ -70995,7 +71075,7 @@
         <v>75</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
@@ -71054,7 +71134,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>94</v>
@@ -71075,7 +71155,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N32" s="5">
         <v>1</v>
@@ -71093,7 +71173,7 @@
         <v>100</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T32" s="5">
         <v>1</v>
@@ -71152,7 +71232,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>94</v>
@@ -71173,7 +71253,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N33" s="5">
         <v>1</v>
@@ -71191,7 +71271,7 @@
         <v>125</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T33" s="5">
         <v>1</v>
@@ -71250,7 +71330,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>94</v>
@@ -71271,7 +71351,7 @@
         <v>32</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N34" s="5">
         <v>1</v>
@@ -71289,7 +71369,7 @@
         <v>160</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
@@ -71348,7 +71428,7 @@
         <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>94</v>
@@ -71369,7 +71449,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N35" s="5">
         <v>1</v>
@@ -71387,7 +71467,7 @@
         <v>200</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T35" s="5">
         <v>1</v>
@@ -71446,7 +71526,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>94</v>
@@ -71467,7 +71547,7 @@
         <v>50</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
@@ -71485,7 +71565,7 @@
         <v>250</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T36" s="5">
         <v>1</v>
@@ -71544,7 +71624,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>94</v>
@@ -71565,7 +71645,7 @@
         <v>60</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N37" s="5">
         <v>1</v>
@@ -71583,7 +71663,7 @@
         <v>300</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T37" s="5">
         <v>1</v>
@@ -71642,7 +71722,7 @@
         <v>300</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>94</v>
@@ -71663,7 +71743,7 @@
         <v>70</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
@@ -71681,7 +71761,7 @@
         <v>350</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T38" s="5">
         <v>1</v>
@@ -71740,7 +71820,7 @@
         <v>350</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>94</v>
@@ -71761,7 +71841,7 @@
         <v>80</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N39" s="5">
         <v>1</v>
@@ -71779,7 +71859,7 @@
         <v>400</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T39" s="5">
         <v>1</v>
@@ -71838,7 +71918,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>94</v>
@@ -71859,7 +71939,7 @@
         <v>90</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N40" s="5">
         <v>1</v>
@@ -71877,7 +71957,7 @@
         <v>450</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T40" s="5">
         <v>1</v>
@@ -71936,7 +72016,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>94</v>
@@ -71957,7 +72037,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -71975,7 +72055,7 @@
         <v>500</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T41" s="5">
         <v>1</v>
@@ -72034,7 +72114,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>
@@ -72055,7 +72135,7 @@
         <v>120</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N42" s="5">
         <v>1</v>
@@ -72073,7 +72153,7 @@
         <v>600</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T42" s="5">
         <v>1</v>
@@ -72357,11 +72437,11 @@
         <v>101</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>94</v>
@@ -72396,11 +72476,11 @@
         <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>137</v>
@@ -72435,14 +72515,14 @@
         <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -72474,7 +72554,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -72513,11 +72593,11 @@
         <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>140</v>
@@ -72552,11 +72632,11 @@
         <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>140</v>
@@ -72591,11 +72671,11 @@
         <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>143</v>
@@ -72636,7 +72716,7 @@
         <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
@@ -72675,11 +72755,11 @@
         <v>109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>145</v>
@@ -72714,14 +72794,14 @@
         <v>110</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G13" s="5">
         <v>1</v>
@@ -72753,11 +72833,11 @@
         <v>111</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>143</v>
@@ -72792,11 +72872,11 @@
         <v>112</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>145</v>
@@ -72831,14 +72911,14 @@
         <v>201</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -72870,11 +72950,11 @@
         <v>202</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>137</v>
@@ -72909,14 +72989,14 @@
         <v>203</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" s="5">
         <v>2</v>
@@ -72948,11 +73028,11 @@
         <v>204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>140</v>
@@ -72987,14 +73067,14 @@
         <v>205</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -73026,14 +73106,14 @@
         <v>206</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -73065,11 +73145,11 @@
         <v>207</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>143</v>
@@ -73112,11 +73192,11 @@
         <v>208</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>140</v>
@@ -73157,11 +73237,11 @@
         <v>209</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>143</v>
@@ -73196,14 +73276,14 @@
         <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -73235,14 +73315,14 @@
         <v>211</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -73280,11 +73360,11 @@
         <v>212</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>145</v>
@@ -73319,14 +73399,14 @@
         <v>301</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -73358,11 +73438,11 @@
         <v>302</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>137</v>
@@ -73397,14 +73477,14 @@
         <v>303</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G30" s="5">
         <v>4</v>
@@ -73436,11 +73516,11 @@
         <v>304</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>140</v>
@@ -73475,14 +73555,14 @@
         <v>305</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32" s="5">
         <v>4</v>
@@ -73514,14 +73594,14 @@
         <v>306</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -73553,11 +73633,11 @@
         <v>307</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>143</v>
@@ -73600,11 +73680,11 @@
         <v>308</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>140</v>
@@ -73645,7 +73725,7 @@
         <v>309</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -73684,14 +73764,14 @@
         <v>310</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -73723,11 +73803,11 @@
         <v>311</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>145</v>
@@ -73768,11 +73848,11 @@
         <v>312</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>140</v>
@@ -73807,11 +73887,11 @@
         <v>1101</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>142</v>
@@ -73846,11 +73926,11 @@
         <v>1102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>94</v>
@@ -73885,11 +73965,11 @@
         <v>1201</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>146</v>
@@ -73924,11 +74004,11 @@
         <v>1202</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>96</v>
@@ -73963,11 +74043,11 @@
         <v>1301</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>146</v>
@@ -74002,11 +74082,11 @@
         <v>1302</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>95</v>
@@ -74043,10 +74123,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74073,18 +74153,23 @@
     <col min="25" max="25" width="19.75" style="1" customWidth="1"/>
     <col min="26" max="26" width="18.625" style="1" customWidth="1"/>
     <col min="27" max="27" width="15.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="1" customWidth="1"/>
-    <col min="30" max="31" width="18.375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="18.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.25" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15.125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="1"/>
+    <col min="28" max="28" width="19.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18.375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="18.375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.25" style="1" customWidth="1"/>
+    <col min="36" max="36" width="22.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17" style="1" customWidth="1"/>
+    <col min="38" max="38" width="18" style="1" customWidth="1"/>
+    <col min="39" max="39" width="17.875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="25.25" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -74101,7 +74186,7 @@
         <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>65</v>
@@ -74164,37 +74249,49 @@
         <v>154</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AN1" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -74208,7 +74305,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>80</v>
@@ -74274,60 +74371,72 @@
         <v>39</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>39</v>
+        <v>165</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AI2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="15" x14ac:dyDescent="0.2">
+      <c r="AL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>126</v>
@@ -74339,7 +74448,7 @@
         <v>87</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>129</v>
@@ -74351,70 +74460,82 @@
         <v>89</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK3" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN3" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -74470,61 +74591,73 @@
         <v>0</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -74604,37 +74737,49 @@
         <v>30</v>
       </c>
       <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="5">
         <v>6.9994235039750885E-3</v>
       </c>
-      <c r="AB5" s="5">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="5">
+      <c r="AF5" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG5" s="5">
         <v>60</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>1.962024243833882E-2</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>60</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>96</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>1.962024243833882E-2</v>
       </c>
       <c r="AH5" s="5">
         <v>96</v>
       </c>
       <c r="AI5" s="5">
+        <v>1.962024243833882E-2</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>96</v>
+      </c>
+      <c r="AL5" s="5">
         <v>120</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AM5" s="5">
         <v>7.3515127520930812E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN5" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -74714,37 +74859,49 @@
         <v>60</v>
       </c>
       <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>120</v>
+      </c>
+      <c r="AE6" s="5">
         <v>5.254174069468931E-3</v>
       </c>
-      <c r="AB6" s="5">
-        <v>60</v>
-      </c>
-      <c r="AC6" s="5">
+      <c r="AF6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG6" s="5">
         <v>120</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>1.4751569591089253E-2</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>120</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>192</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AH6" s="5">
         <v>192</v>
       </c>
       <c r="AI6" s="5">
+        <v>1.4751569591089253E-2</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>192</v>
+      </c>
+      <c r="AL6" s="5">
         <v>240</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AM6" s="5">
         <v>5.5659209163611112E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN6" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -74824,37 +74981,49 @@
         <v>120</v>
       </c>
       <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>240</v>
+      </c>
+      <c r="AE7" s="5">
         <v>4.3803994269180357E-3</v>
       </c>
-      <c r="AB7" s="5">
-        <v>120</v>
-      </c>
-      <c r="AC7" s="5">
+      <c r="AF7" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG7" s="5">
         <v>240</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>1.230817377282567E-2</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>240</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>384</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>1.230817377282567E-2</v>
       </c>
       <c r="AH7" s="5">
         <v>384</v>
       </c>
       <c r="AI7" s="5">
+        <v>1.230817377282567E-2</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>384</v>
+      </c>
+      <c r="AL7" s="5">
         <v>480</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AM7" s="5">
         <v>4.6602611747088685E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN7" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -74934,37 +75103,49 @@
         <v>240</v>
       </c>
       <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>240</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>480</v>
+      </c>
+      <c r="AE8" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB8" s="5">
-        <v>240</v>
-      </c>
-      <c r="AC8" s="5">
+      <c r="AF8" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG8" s="5">
         <v>480</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>480</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>768</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH8" s="5">
         <v>768</v>
       </c>
       <c r="AI8" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>768</v>
+      </c>
+      <c r="AL8" s="5">
         <v>960</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AM8" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN8" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -75044,37 +75225,49 @@
         <v>360</v>
       </c>
       <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>360</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>720</v>
+      </c>
+      <c r="AE9" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB9" s="5">
-        <v>360</v>
-      </c>
-      <c r="AC9" s="5">
+      <c r="AF9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG9" s="5">
         <v>720</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>720</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>1152</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH9" s="5">
         <v>1152</v>
       </c>
       <c r="AI9" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>1152</v>
+      </c>
+      <c r="AL9" s="5">
         <v>1440</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AM9" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN9" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -75154,37 +75347,49 @@
         <v>600</v>
       </c>
       <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>600</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AE10" s="5">
         <v>2.8056704800479837E-3</v>
       </c>
-      <c r="AB10" s="5">
-        <v>600</v>
-      </c>
-      <c r="AC10" s="5">
+      <c r="AF10" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG10" s="5">
         <v>1200</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>7.894781082939617E-3</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>1920</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>7.894781082939617E-3</v>
       </c>
       <c r="AH10" s="5">
         <v>1920</v>
       </c>
       <c r="AI10" s="5">
+        <v>7.894781082939617E-3</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>1920</v>
+      </c>
+      <c r="AL10" s="5">
         <v>2400</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AM10" s="5">
         <v>3.0081298996600725E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN10" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -75264,37 +75469,49 @@
         <v>900</v>
       </c>
       <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>900</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AE11" s="5">
         <v>2.3386059825940553E-3</v>
       </c>
-      <c r="AB11" s="5">
-        <v>900</v>
-      </c>
-      <c r="AC11" s="5">
+      <c r="AF11" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG11" s="5">
         <v>1800</v>
-      </c>
-      <c r="AD11" s="5">
-        <v>6.5833258849784526E-3</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>2880</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>6.5833258849784526E-3</v>
       </c>
       <c r="AH11" s="5">
         <v>2880</v>
       </c>
       <c r="AI11" s="5">
+        <v>6.5833258849784526E-3</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>2880</v>
+      </c>
+      <c r="AL11" s="5">
         <v>3600</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AM11" s="5">
         <v>2.5131335690441015E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN11" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -75374,37 +75591,49 @@
         <v>1200</v>
       </c>
       <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AE12" s="5">
         <v>2.1926034684439655E-3</v>
       </c>
-      <c r="AB12" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AC12" s="5">
+      <c r="AF12" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG12" s="5">
         <v>2400</v>
-      </c>
-      <c r="AD12" s="5">
-        <v>6.1731407195847465E-3</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>2400</v>
-      </c>
-      <c r="AF12" s="5">
-        <v>3840</v>
-      </c>
-      <c r="AG12" s="5">
-        <v>6.1731407195847465E-3</v>
       </c>
       <c r="AH12" s="5">
         <v>3840</v>
       </c>
       <c r="AI12" s="5">
+        <v>6.1731407195847465E-3</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>3840</v>
+      </c>
+      <c r="AL12" s="5">
         <v>4800</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AM12" s="5">
         <v>2.3579297509054631E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN12" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -75484,37 +75713,49 @@
         <v>1800</v>
       </c>
       <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AE13" s="5">
         <v>1.7544677132709241E-3</v>
       </c>
-      <c r="AB13" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AC13" s="5">
+      <c r="AF13" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG13" s="5">
         <v>3600</v>
-      </c>
-      <c r="AD13" s="5">
-        <v>4.9415687424428922E-3</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AF13" s="5">
-        <v>5760</v>
-      </c>
-      <c r="AG13" s="5">
-        <v>4.9415687424428922E-3</v>
       </c>
       <c r="AH13" s="5">
         <v>5760</v>
       </c>
       <c r="AI13" s="5">
+        <v>4.9415687424428922E-3</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>5760</v>
+      </c>
+      <c r="AL13" s="5">
         <v>7200</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AM13" s="5">
         <v>1.8908341703110176E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN13" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -75594,37 +75835,49 @@
         <v>2406</v>
       </c>
       <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>2406</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>4812</v>
+      </c>
+      <c r="AE14" s="5">
         <v>1.5313428874852431E-3</v>
       </c>
-      <c r="AB14" s="5">
-        <v>2406</v>
-      </c>
-      <c r="AC14" s="5">
+      <c r="AF14" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG14" s="5">
         <v>4812</v>
-      </c>
-      <c r="AD14" s="5">
-        <v>4.3140005046906627E-3</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>4812</v>
-      </c>
-      <c r="AF14" s="5">
-        <v>7700</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>4.3140005046906627E-3</v>
       </c>
       <c r="AH14" s="5">
         <v>7700</v>
       </c>
       <c r="AI14" s="5">
+        <v>4.3140005046906627E-3</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>7700</v>
+      </c>
+      <c r="AL14" s="5">
         <v>9625</v>
       </c>
-      <c r="AJ14" s="5">
+      <c r="AM14" s="5">
         <v>1.6521823952919013E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN14" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -75704,37 +75957,49 @@
         <v>3000</v>
       </c>
       <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AE15" s="5">
         <v>1.4038205961570682E-3</v>
       </c>
-      <c r="AB15" s="5">
-        <v>3000</v>
-      </c>
-      <c r="AC15" s="5">
+      <c r="AF15" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG15" s="5">
         <v>6000</v>
-      </c>
-      <c r="AD15" s="5">
-        <v>3.9552123940107542E-3</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>6000</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>9600</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>3.9552123940107542E-3</v>
       </c>
       <c r="AH15" s="5">
         <v>9600</v>
       </c>
       <c r="AI15" s="5">
+        <v>3.9552123940107542E-3</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>9600</v>
+      </c>
+      <c r="AL15" s="5">
         <v>12000</v>
       </c>
-      <c r="AJ15" s="5">
+      <c r="AM15" s="5">
         <v>1.5155493997453751E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN15" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -75814,37 +76079,49 @@
         <v>3600</v>
       </c>
       <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AE16" s="5">
         <v>1.3161395733344294E-3</v>
       </c>
-      <c r="AB16" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AC16" s="5">
+      <c r="AF16" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG16" s="5">
         <v>7200</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>3.7084705743748447E-3</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>7200</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>11520</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>3.7084705743748447E-3</v>
       </c>
       <c r="AH16" s="5">
         <v>11520</v>
       </c>
       <c r="AI16" s="5">
+        <v>3.7084705743748447E-3</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>11520</v>
+      </c>
+      <c r="AL16" s="5">
         <v>14400</v>
       </c>
-      <c r="AJ16" s="5">
+      <c r="AM16" s="5">
         <v>1.4215041196684264E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN16" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -75900,61 +76177,73 @@
         <v>0</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -76034,37 +76323,49 @@
         <v>30</v>
       </c>
       <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>60</v>
+      </c>
+      <c r="AE18" s="5">
         <v>6.9994235039750885E-3</v>
       </c>
-      <c r="AB18" s="5">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="5">
+      <c r="AF18" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG18" s="5">
         <v>60</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>1.962024243833882E-2</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>60</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>96</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>1.962024243833882E-2</v>
       </c>
       <c r="AH18" s="5">
         <v>96</v>
       </c>
       <c r="AI18" s="5">
+        <v>1.962024243833882E-2</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>96</v>
+      </c>
+      <c r="AL18" s="5">
         <v>120</v>
       </c>
-      <c r="AJ18" s="5">
+      <c r="AM18" s="5">
         <v>7.3515127520930812E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN18" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -76144,37 +76445,49 @@
         <v>60</v>
       </c>
       <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>120</v>
+      </c>
+      <c r="AE19" s="5">
         <v>5.254174069468931E-3</v>
       </c>
-      <c r="AB19" s="5">
-        <v>60</v>
-      </c>
-      <c r="AC19" s="5">
+      <c r="AF19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG19" s="5">
         <v>120</v>
-      </c>
-      <c r="AD19" s="5">
-        <v>1.4751569591089253E-2</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>120</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>192</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AH19" s="5">
         <v>192</v>
       </c>
       <c r="AI19" s="5">
+        <v>1.4751569591089253E-2</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>192</v>
+      </c>
+      <c r="AL19" s="5">
         <v>240</v>
       </c>
-      <c r="AJ19" s="5">
+      <c r="AM19" s="5">
         <v>5.5659209163611112E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN19" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -76254,37 +76567,49 @@
         <v>120</v>
       </c>
       <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>240</v>
+      </c>
+      <c r="AE20" s="5">
         <v>4.3803994269180357E-3</v>
       </c>
-      <c r="AB20" s="5">
-        <v>120</v>
-      </c>
-      <c r="AC20" s="5">
+      <c r="AF20" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG20" s="5">
         <v>240</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>1.230817377282567E-2</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>240</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>384</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>1.230817377282567E-2</v>
       </c>
       <c r="AH20" s="5">
         <v>384</v>
       </c>
       <c r="AI20" s="5">
+        <v>1.230817377282567E-2</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>384</v>
+      </c>
+      <c r="AL20" s="5">
         <v>480</v>
       </c>
-      <c r="AJ20" s="5">
+      <c r="AM20" s="5">
         <v>4.6602611747088685E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN20" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -76364,37 +76689,49 @@
         <v>240</v>
       </c>
       <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>240</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>480</v>
+      </c>
+      <c r="AE21" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB21" s="5">
-        <v>240</v>
-      </c>
-      <c r="AC21" s="5">
+      <c r="AF21" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG21" s="5">
         <v>480</v>
-      </c>
-      <c r="AD21" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>480</v>
-      </c>
-      <c r="AF21" s="5">
-        <v>768</v>
-      </c>
-      <c r="AG21" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH21" s="5">
         <v>768</v>
       </c>
       <c r="AI21" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>768</v>
+      </c>
+      <c r="AL21" s="5">
         <v>960</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AM21" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN21" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -76474,37 +76811,49 @@
         <v>360</v>
       </c>
       <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>360</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>720</v>
+      </c>
+      <c r="AE22" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB22" s="5">
-        <v>360</v>
-      </c>
-      <c r="AC22" s="5">
+      <c r="AF22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG22" s="5">
         <v>720</v>
-      </c>
-      <c r="AD22" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>720</v>
-      </c>
-      <c r="AF22" s="5">
-        <v>1152</v>
-      </c>
-      <c r="AG22" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH22" s="5">
         <v>1152</v>
       </c>
       <c r="AI22" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>1152</v>
+      </c>
+      <c r="AL22" s="5">
         <v>1440</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AM22" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN22" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -76584,37 +76933,49 @@
         <v>600</v>
       </c>
       <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>600</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AE23" s="5">
         <v>2.8056704800479837E-3</v>
       </c>
-      <c r="AB23" s="5">
-        <v>600</v>
-      </c>
-      <c r="AC23" s="5">
+      <c r="AF23" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG23" s="5">
         <v>1200</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>7.894781082939617E-3</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AF23" s="5">
-        <v>1920</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>7.894781082939617E-3</v>
       </c>
       <c r="AH23" s="5">
         <v>1920</v>
       </c>
       <c r="AI23" s="5">
+        <v>7.894781082939617E-3</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>1920</v>
+      </c>
+      <c r="AL23" s="5">
         <v>2400</v>
       </c>
-      <c r="AJ23" s="5">
+      <c r="AM23" s="5">
         <v>3.0081298996600725E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN23" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -76694,37 +77055,49 @@
         <v>900</v>
       </c>
       <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>900</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AE24" s="5">
         <v>2.3386059825940553E-3</v>
       </c>
-      <c r="AB24" s="5">
-        <v>900</v>
-      </c>
-      <c r="AC24" s="5">
+      <c r="AF24" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG24" s="5">
         <v>1800</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>6.5833258849784526E-3</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AF24" s="5">
-        <v>2880</v>
-      </c>
-      <c r="AG24" s="5">
-        <v>6.5833258849784526E-3</v>
       </c>
       <c r="AH24" s="5">
         <v>2880</v>
       </c>
       <c r="AI24" s="5">
+        <v>6.5833258849784526E-3</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>2880</v>
+      </c>
+      <c r="AL24" s="5">
         <v>3600</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="AM24" s="5">
         <v>2.5131335690441015E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN24" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -76804,37 +77177,49 @@
         <v>1200</v>
       </c>
       <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AE25" s="5">
         <v>2.1926034684439655E-3</v>
       </c>
-      <c r="AB25" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AC25" s="5">
+      <c r="AF25" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG25" s="5">
         <v>2400</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>6.1731407195847465E-3</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>2400</v>
-      </c>
-      <c r="AF25" s="5">
-        <v>3840</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>6.1731407195847465E-3</v>
       </c>
       <c r="AH25" s="5">
         <v>3840</v>
       </c>
       <c r="AI25" s="5">
+        <v>6.1731407195847465E-3</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>3840</v>
+      </c>
+      <c r="AL25" s="5">
         <v>4800</v>
       </c>
-      <c r="AJ25" s="5">
+      <c r="AM25" s="5">
         <v>2.3579297509054631E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN25" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -76914,37 +77299,49 @@
         <v>1800</v>
       </c>
       <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AE26" s="5">
         <v>1.7544677132709241E-3</v>
       </c>
-      <c r="AB26" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AC26" s="5">
+      <c r="AF26" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG26" s="5">
         <v>3600</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>4.9415687424428922E-3</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>5760</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>4.9415687424428922E-3</v>
       </c>
       <c r="AH26" s="5">
         <v>5760</v>
       </c>
       <c r="AI26" s="5">
+        <v>4.9415687424428922E-3</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>5760</v>
+      </c>
+      <c r="AL26" s="5">
         <v>7200</v>
       </c>
-      <c r="AJ26" s="5">
+      <c r="AM26" s="5">
         <v>1.8908341703110176E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN26" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -77024,37 +77421,49 @@
         <v>2406</v>
       </c>
       <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>2406</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>4812</v>
+      </c>
+      <c r="AE27" s="5">
         <v>1.5313428874852431E-3</v>
       </c>
-      <c r="AB27" s="5">
-        <v>2406</v>
-      </c>
-      <c r="AC27" s="5">
+      <c r="AF27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG27" s="5">
         <v>4812</v>
-      </c>
-      <c r="AD27" s="5">
-        <v>4.3140005046906627E-3</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>4812</v>
-      </c>
-      <c r="AF27" s="5">
-        <v>7700</v>
-      </c>
-      <c r="AG27" s="5">
-        <v>4.3140005046906627E-3</v>
       </c>
       <c r="AH27" s="5">
         <v>7700</v>
       </c>
       <c r="AI27" s="5">
+        <v>4.3140005046906627E-3</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>7700</v>
+      </c>
+      <c r="AL27" s="5">
         <v>9625</v>
       </c>
-      <c r="AJ27" s="5">
+      <c r="AM27" s="5">
         <v>1.6521823952919013E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN27" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -77134,37 +77543,49 @@
         <v>3000</v>
       </c>
       <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AE28" s="5">
         <v>1.4038205961570682E-3</v>
       </c>
-      <c r="AB28" s="5">
-        <v>3000</v>
-      </c>
-      <c r="AC28" s="5">
+      <c r="AF28" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG28" s="5">
         <v>6000</v>
-      </c>
-      <c r="AD28" s="5">
-        <v>3.9552123940107542E-3</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>6000</v>
-      </c>
-      <c r="AF28" s="5">
-        <v>9600</v>
-      </c>
-      <c r="AG28" s="5">
-        <v>3.9552123940107542E-3</v>
       </c>
       <c r="AH28" s="5">
         <v>9600</v>
       </c>
       <c r="AI28" s="5">
+        <v>3.9552123940107542E-3</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>9600</v>
+      </c>
+      <c r="AL28" s="5">
         <v>12000</v>
       </c>
-      <c r="AJ28" s="5">
+      <c r="AM28" s="5">
         <v>1.5155493997453751E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN28" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -77244,37 +77665,49 @@
         <v>3600</v>
       </c>
       <c r="AA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AE29" s="5">
         <v>1.3161395733344294E-3</v>
       </c>
-      <c r="AB29" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AC29" s="5">
+      <c r="AF29" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG29" s="5">
         <v>7200</v>
-      </c>
-      <c r="AD29" s="5">
-        <v>3.7084705743748447E-3</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>7200</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>11520</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>3.7084705743748447E-3</v>
       </c>
       <c r="AH29" s="5">
         <v>11520</v>
       </c>
       <c r="AI29" s="5">
+        <v>3.7084705743748447E-3</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK29" s="5">
+        <v>11520</v>
+      </c>
+      <c r="AL29" s="5">
         <v>14400</v>
       </c>
-      <c r="AJ29" s="5">
+      <c r="AM29" s="5">
         <v>1.4215041196684264E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN29" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -77330,61 +77763,73 @@
         <v>0</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN30" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -77464,37 +77909,49 @@
         <v>30</v>
       </c>
       <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>30</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>60</v>
+      </c>
+      <c r="AE31" s="5">
         <v>6.9994235039750885E-3</v>
       </c>
-      <c r="AB31" s="5">
-        <v>30</v>
-      </c>
-      <c r="AC31" s="5">
+      <c r="AF31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG31" s="5">
         <v>60</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>1.962024243833882E-2</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>60</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>96</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>1.962024243833882E-2</v>
       </c>
       <c r="AH31" s="5">
         <v>96</v>
       </c>
       <c r="AI31" s="5">
+        <v>1.962024243833882E-2</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK31" s="5">
+        <v>96</v>
+      </c>
+      <c r="AL31" s="5">
         <v>120</v>
       </c>
-      <c r="AJ31" s="5">
+      <c r="AM31" s="5">
         <v>7.3515127520930812E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN31" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -77574,37 +78031,49 @@
         <v>60</v>
       </c>
       <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>120</v>
+      </c>
+      <c r="AE32" s="5">
         <v>5.254174069468931E-3</v>
       </c>
-      <c r="AB32" s="5">
-        <v>60</v>
-      </c>
-      <c r="AC32" s="5">
+      <c r="AF32" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG32" s="5">
         <v>120</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>1.4751569591089253E-2</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>120</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>192</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AH32" s="5">
         <v>192</v>
       </c>
       <c r="AI32" s="5">
+        <v>1.4751569591089253E-2</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK32" s="5">
+        <v>192</v>
+      </c>
+      <c r="AL32" s="5">
         <v>240</v>
       </c>
-      <c r="AJ32" s="5">
+      <c r="AM32" s="5">
         <v>5.5659209163611112E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN32" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -77684,37 +78153,49 @@
         <v>120</v>
       </c>
       <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>240</v>
+      </c>
+      <c r="AE33" s="5">
         <v>4.3803994269180357E-3</v>
       </c>
-      <c r="AB33" s="5">
-        <v>120</v>
-      </c>
-      <c r="AC33" s="5">
+      <c r="AF33" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG33" s="5">
         <v>240</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>1.230817377282567E-2</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>240</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>384</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>1.230817377282567E-2</v>
       </c>
       <c r="AH33" s="5">
         <v>384</v>
       </c>
       <c r="AI33" s="5">
+        <v>1.230817377282567E-2</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK33" s="5">
+        <v>384</v>
+      </c>
+      <c r="AL33" s="5">
         <v>480</v>
       </c>
-      <c r="AJ33" s="5">
+      <c r="AM33" s="5">
         <v>4.6602611747088685E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN33" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -77794,37 +78275,49 @@
         <v>240</v>
       </c>
       <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>240</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>480</v>
+      </c>
+      <c r="AE34" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB34" s="5">
-        <v>240</v>
-      </c>
-      <c r="AC34" s="5">
+      <c r="AF34" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG34" s="5">
         <v>480</v>
-      </c>
-      <c r="AD34" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE34" s="5">
-        <v>480</v>
-      </c>
-      <c r="AF34" s="5">
-        <v>768</v>
-      </c>
-      <c r="AG34" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH34" s="5">
         <v>768</v>
       </c>
       <c r="AI34" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK34" s="5">
+        <v>768</v>
+      </c>
+      <c r="AL34" s="5">
         <v>960</v>
       </c>
-      <c r="AJ34" s="5">
+      <c r="AM34" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN34" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -77904,37 +78397,49 @@
         <v>360</v>
       </c>
       <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC35" s="5">
+        <v>360</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>720</v>
+      </c>
+      <c r="AE35" s="5">
         <v>3.5058572695848556E-3</v>
       </c>
-      <c r="AB35" s="5">
-        <v>360</v>
-      </c>
-      <c r="AC35" s="5">
+      <c r="AF35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG35" s="5">
         <v>720</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>9.8587183832494762E-3</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>720</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>1152</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>9.8587183832494762E-3</v>
       </c>
       <c r="AH35" s="5">
         <v>1152</v>
       </c>
       <c r="AI35" s="5">
+        <v>9.8587183832494762E-3</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK35" s="5">
+        <v>1152</v>
+      </c>
+      <c r="AL35" s="5">
         <v>1440</v>
       </c>
-      <c r="AJ35" s="5">
+      <c r="AM35" s="5">
         <v>3.7459158020258787E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN35" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -78014,37 +78519,49 @@
         <v>600</v>
       </c>
       <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC36" s="5">
+        <v>600</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AE36" s="5">
         <v>2.8056704800479837E-3</v>
       </c>
-      <c r="AB36" s="5">
-        <v>600</v>
-      </c>
-      <c r="AC36" s="5">
+      <c r="AF36" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG36" s="5">
         <v>1200</v>
-      </c>
-      <c r="AD36" s="5">
-        <v>7.894781082939617E-3</v>
-      </c>
-      <c r="AE36" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AF36" s="5">
-        <v>1920</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>7.894781082939617E-3</v>
       </c>
       <c r="AH36" s="5">
         <v>1920</v>
       </c>
       <c r="AI36" s="5">
+        <v>7.894781082939617E-3</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK36" s="5">
+        <v>1920</v>
+      </c>
+      <c r="AL36" s="5">
         <v>2400</v>
       </c>
-      <c r="AJ36" s="5">
+      <c r="AM36" s="5">
         <v>3.0081298996600725E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN36" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -78124,37 +78641,49 @@
         <v>900</v>
       </c>
       <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>900</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AE37" s="5">
         <v>2.3386059825940553E-3</v>
       </c>
-      <c r="AB37" s="5">
-        <v>900</v>
-      </c>
-      <c r="AC37" s="5">
+      <c r="AF37" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG37" s="5">
         <v>1800</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>6.5833258849784526E-3</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>2880</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>6.5833258849784526E-3</v>
       </c>
       <c r="AH37" s="5">
         <v>2880</v>
       </c>
       <c r="AI37" s="5">
+        <v>6.5833258849784526E-3</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>2880</v>
+      </c>
+      <c r="AL37" s="5">
         <v>3600</v>
       </c>
-      <c r="AJ37" s="5">
+      <c r="AM37" s="5">
         <v>2.5131335690441015E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN37" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -78234,37 +78763,49 @@
         <v>1200</v>
       </c>
       <c r="AA38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>1200</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AE38" s="5">
         <v>2.1926034684439655E-3</v>
       </c>
-      <c r="AB38" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AC38" s="5">
+      <c r="AF38" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG38" s="5">
         <v>2400</v>
-      </c>
-      <c r="AD38" s="5">
-        <v>6.1731407195847465E-3</v>
-      </c>
-      <c r="AE38" s="5">
-        <v>2400</v>
-      </c>
-      <c r="AF38" s="5">
-        <v>3840</v>
-      </c>
-      <c r="AG38" s="5">
-        <v>6.1731407195847465E-3</v>
       </c>
       <c r="AH38" s="5">
         <v>3840</v>
       </c>
       <c r="AI38" s="5">
+        <v>6.1731407195847465E-3</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK38" s="5">
+        <v>3840</v>
+      </c>
+      <c r="AL38" s="5">
         <v>4800</v>
       </c>
-      <c r="AJ38" s="5">
+      <c r="AM38" s="5">
         <v>2.3579297509054631E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN38" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -78344,37 +78885,49 @@
         <v>1800</v>
       </c>
       <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>1800</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AE39" s="5">
         <v>1.7544677132709241E-3</v>
       </c>
-      <c r="AB39" s="5">
-        <v>1800</v>
-      </c>
-      <c r="AC39" s="5">
+      <c r="AF39" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG39" s="5">
         <v>3600</v>
-      </c>
-      <c r="AD39" s="5">
-        <v>4.9415687424428922E-3</v>
-      </c>
-      <c r="AE39" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AF39" s="5">
-        <v>5760</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>4.9415687424428922E-3</v>
       </c>
       <c r="AH39" s="5">
         <v>5760</v>
       </c>
       <c r="AI39" s="5">
+        <v>4.9415687424428922E-3</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>5760</v>
+      </c>
+      <c r="AL39" s="5">
         <v>7200</v>
       </c>
-      <c r="AJ39" s="5">
+      <c r="AM39" s="5">
         <v>1.8908341703110176E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN39" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -78454,37 +79007,49 @@
         <v>2406</v>
       </c>
       <c r="AA40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC40" s="5">
+        <v>2406</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>4812</v>
+      </c>
+      <c r="AE40" s="5">
         <v>1.5313428874852431E-3</v>
       </c>
-      <c r="AB40" s="5">
-        <v>2406</v>
-      </c>
-      <c r="AC40" s="5">
+      <c r="AF40" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG40" s="5">
         <v>4812</v>
-      </c>
-      <c r="AD40" s="5">
-        <v>4.3140005046906627E-3</v>
-      </c>
-      <c r="AE40" s="5">
-        <v>4812</v>
-      </c>
-      <c r="AF40" s="5">
-        <v>7700</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>4.3140005046906627E-3</v>
       </c>
       <c r="AH40" s="5">
         <v>7700</v>
       </c>
       <c r="AI40" s="5">
+        <v>4.3140005046906627E-3</v>
+      </c>
+      <c r="AJ40" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK40" s="5">
+        <v>7700</v>
+      </c>
+      <c r="AL40" s="5">
         <v>9625</v>
       </c>
-      <c r="AJ40" s="5">
+      <c r="AM40" s="5">
         <v>1.6521823952919013E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN40" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -78564,37 +79129,49 @@
         <v>3000</v>
       </c>
       <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AE41" s="5">
         <v>1.4038205961570682E-3</v>
       </c>
-      <c r="AB41" s="5">
-        <v>3000</v>
-      </c>
-      <c r="AC41" s="5">
+      <c r="AF41" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG41" s="5">
         <v>6000</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>3.9552123940107542E-3</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>6000</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>9600</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>3.9552123940107542E-3</v>
       </c>
       <c r="AH41" s="5">
         <v>9600</v>
       </c>
       <c r="AI41" s="5">
+        <v>3.9552123940107542E-3</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>9600</v>
+      </c>
+      <c r="AL41" s="5">
         <v>12000</v>
       </c>
-      <c r="AJ41" s="5">
+      <c r="AM41" s="5">
         <v>1.5155493997453751E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AN41" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -78674,34 +79251,46 @@
         <v>3600</v>
       </c>
       <c r="AA42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC42" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AE42" s="5">
         <v>1.3161395733344294E-3</v>
       </c>
-      <c r="AB42" s="5">
-        <v>3600</v>
-      </c>
-      <c r="AC42" s="5">
+      <c r="AF42" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG42" s="5">
         <v>7200</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>3.7084705743748447E-3</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>7200</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>11520</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>3.7084705743748447E-3</v>
       </c>
       <c r="AH42" s="5">
         <v>11520</v>
       </c>
       <c r="AI42" s="5">
+        <v>3.7084705743748447E-3</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>11520</v>
+      </c>
+      <c r="AL42" s="5">
         <v>14400</v>
       </c>
-      <c r="AJ42" s="5">
+      <c r="AM42" s="5">
         <v>1.4215041196684264E-2</v>
+      </c>
+      <c r="AN42" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFAAD53-E660-490E-AF58-C9AB5B80DCB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7634ECE-62ED-4B8A-8442-E984902BF925}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74125,8 +74125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" topLeftCell="AC7" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30:AN42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74761,7 +74761,7 @@
         <v>96</v>
       </c>
       <c r="AI5" s="5">
-        <v>1.962024243833882E-2</v>
+        <v>1.232033939182664E-2</v>
       </c>
       <c r="AJ5" s="5" t="s">
         <v>363</v>
@@ -74773,7 +74773,7 @@
         <v>120</v>
       </c>
       <c r="AM5" s="5">
-        <v>7.3515127520930812E-2</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="AN5" s="5" t="s">
         <v>365</v>
@@ -74883,7 +74883,7 @@
         <v>192</v>
       </c>
       <c r="AI6" s="5">
-        <v>1.4751569591089253E-2</v>
+        <v>9.2545584895423749E-3</v>
       </c>
       <c r="AJ6" s="5" t="s">
         <v>363</v>
@@ -74895,7 +74895,7 @@
         <v>240</v>
       </c>
       <c r="AM6" s="5">
-        <v>5.5659209163611112E-2</v>
+        <v>7.2486844033208486E-2</v>
       </c>
       <c r="AN6" s="5" t="s">
         <v>365</v>
@@ -75005,7 +75005,7 @@
         <v>384</v>
       </c>
       <c r="AI7" s="5">
-        <v>1.230817377282567E-2</v>
+        <v>7.7181012864053766E-3</v>
       </c>
       <c r="AJ7" s="5" t="s">
         <v>363</v>
@@ -75017,7 +75017,7 @@
         <v>480</v>
       </c>
       <c r="AM7" s="5">
-        <v>4.6602611747088685E-2</v>
+        <v>6.078129750885275E-2</v>
       </c>
       <c r="AN7" s="5" t="s">
         <v>365</v>
@@ -75127,7 +75127,7 @@
         <v>768</v>
       </c>
       <c r="AI8" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ8" s="5" t="s">
         <v>363</v>
@@ -75139,7 +75139,7 @@
         <v>960</v>
       </c>
       <c r="AM8" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381644E-2</v>
       </c>
       <c r="AN8" s="5" t="s">
         <v>365</v>
@@ -75249,7 +75249,7 @@
         <v>1152</v>
       </c>
       <c r="AI9" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ9" s="5" t="s">
         <v>363</v>
@@ -75261,7 +75261,7 @@
         <v>1440</v>
       </c>
       <c r="AM9" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN9" s="5" t="s">
         <v>365</v>
@@ -75371,7 +75371,7 @@
         <v>1920</v>
       </c>
       <c r="AI10" s="5">
-        <v>7.894781082939617E-3</v>
+        <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>363</v>
@@ -75383,7 +75383,7 @@
         <v>2400</v>
       </c>
       <c r="AM10" s="5">
-        <v>3.0081298996600725E-2</v>
+        <v>3.9337786704772837E-2</v>
       </c>
       <c r="AN10" s="5" t="s">
         <v>365</v>
@@ -75493,7 +75493,7 @@
         <v>2880</v>
       </c>
       <c r="AI11" s="5">
-        <v>6.5833258849784526E-3</v>
+        <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ11" s="5" t="s">
         <v>363</v>
@@ -75505,7 +75505,7 @@
         <v>3600</v>
       </c>
       <c r="AM11" s="5">
-        <v>2.5131335690441015E-2</v>
+        <v>3.2890631414986826E-2</v>
       </c>
       <c r="AN11" s="5" t="s">
         <v>365</v>
@@ -75615,7 +75615,7 @@
         <v>3840</v>
       </c>
       <c r="AI12" s="5">
-        <v>6.1731407195847465E-3</v>
+        <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ12" s="5" t="s">
         <v>363</v>
@@ -75627,7 +75627,7 @@
         <v>4800</v>
       </c>
       <c r="AM12" s="5">
-        <v>2.3579297509054631E-2</v>
+        <v>3.0867035700906875E-2</v>
       </c>
       <c r="AN12" s="5" t="s">
         <v>365</v>
@@ -75737,7 +75737,7 @@
         <v>5760</v>
       </c>
       <c r="AI13" s="5">
-        <v>4.9415687424428922E-3</v>
+        <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ13" s="5" t="s">
         <v>363</v>
@@ -75749,7 +75749,7 @@
         <v>7200</v>
       </c>
       <c r="AM13" s="5">
-        <v>1.8908341703110176E-2</v>
+        <v>2.477080786944319E-2</v>
       </c>
       <c r="AN13" s="5" t="s">
         <v>365</v>
@@ -75859,7 +75859,7 @@
         <v>7700</v>
       </c>
       <c r="AI14" s="5">
-        <v>4.3140005046906627E-3</v>
+        <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ14" s="5" t="s">
         <v>363</v>
@@ -75871,7 +75871,7 @@
         <v>9625</v>
       </c>
       <c r="AM14" s="5">
-        <v>1.6521823952919013E-2</v>
+        <v>2.1652558250883303E-2</v>
       </c>
       <c r="AN14" s="5" t="s">
         <v>365</v>
@@ -75981,7 +75981,7 @@
         <v>9600</v>
       </c>
       <c r="AI15" s="5">
-        <v>3.9552123940107542E-3</v>
+        <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ15" s="5" t="s">
         <v>363</v>
@@ -75993,7 +75993,7 @@
         <v>12000</v>
       </c>
       <c r="AM15" s="5">
-        <v>1.5155493997453751E-2</v>
+        <v>1.98662268367511E-2</v>
       </c>
       <c r="AN15" s="5" t="s">
         <v>365</v>
@@ -76103,7 +76103,7 @@
         <v>11520</v>
       </c>
       <c r="AI16" s="5">
-        <v>3.7084705743748447E-3</v>
+        <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ16" s="5" t="s">
         <v>363</v>
@@ -76115,7 +76115,7 @@
         <v>14400</v>
       </c>
       <c r="AM16" s="5">
-        <v>1.4215041196684264E-2</v>
+        <v>1.8636232365222383E-2</v>
       </c>
       <c r="AN16" s="5" t="s">
         <v>365</v>
@@ -76347,7 +76347,7 @@
         <v>96</v>
       </c>
       <c r="AI18" s="5">
-        <v>1.962024243833882E-2</v>
+        <v>1.232033939182664E-2</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>363</v>
@@ -76359,7 +76359,7 @@
         <v>120</v>
       </c>
       <c r="AM18" s="5">
-        <v>7.3515127520930812E-2</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="AN18" s="5" t="s">
         <v>365</v>
@@ -76469,7 +76469,7 @@
         <v>192</v>
       </c>
       <c r="AI19" s="5">
-        <v>1.4751569591089253E-2</v>
+        <v>9.2545584895423749E-3</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>363</v>
@@ -76481,7 +76481,7 @@
         <v>240</v>
       </c>
       <c r="AM19" s="5">
-        <v>5.5659209163611112E-2</v>
+        <v>7.2486844033208486E-2</v>
       </c>
       <c r="AN19" s="5" t="s">
         <v>365</v>
@@ -76591,7 +76591,7 @@
         <v>384</v>
       </c>
       <c r="AI20" s="5">
-        <v>1.230817377282567E-2</v>
+        <v>7.7181012864053766E-3</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>363</v>
@@ -76603,7 +76603,7 @@
         <v>480</v>
       </c>
       <c r="AM20" s="5">
-        <v>4.6602611747088685E-2</v>
+        <v>6.078129750885275E-2</v>
       </c>
       <c r="AN20" s="5" t="s">
         <v>365</v>
@@ -76713,7 +76713,7 @@
         <v>768</v>
       </c>
       <c r="AI21" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>363</v>
@@ -76725,7 +76725,7 @@
         <v>960</v>
       </c>
       <c r="AM21" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381644E-2</v>
       </c>
       <c r="AN21" s="5" t="s">
         <v>365</v>
@@ -76835,7 +76835,7 @@
         <v>1152</v>
       </c>
       <c r="AI22" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>363</v>
@@ -76847,7 +76847,7 @@
         <v>1440</v>
       </c>
       <c r="AM22" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN22" s="5" t="s">
         <v>365</v>
@@ -76957,7 +76957,7 @@
         <v>1920</v>
       </c>
       <c r="AI23" s="5">
-        <v>7.894781082939617E-3</v>
+        <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ23" s="5" t="s">
         <v>363</v>
@@ -76969,7 +76969,7 @@
         <v>2400</v>
       </c>
       <c r="AM23" s="5">
-        <v>3.0081298996600725E-2</v>
+        <v>3.9337786704772837E-2</v>
       </c>
       <c r="AN23" s="5" t="s">
         <v>365</v>
@@ -77079,7 +77079,7 @@
         <v>2880</v>
       </c>
       <c r="AI24" s="5">
-        <v>6.5833258849784526E-3</v>
+        <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>363</v>
@@ -77091,7 +77091,7 @@
         <v>3600</v>
       </c>
       <c r="AM24" s="5">
-        <v>2.5131335690441015E-2</v>
+        <v>3.2890631414986826E-2</v>
       </c>
       <c r="AN24" s="5" t="s">
         <v>365</v>
@@ -77201,7 +77201,7 @@
         <v>3840</v>
       </c>
       <c r="AI25" s="5">
-        <v>6.1731407195847465E-3</v>
+        <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ25" s="5" t="s">
         <v>363</v>
@@ -77213,7 +77213,7 @@
         <v>4800</v>
       </c>
       <c r="AM25" s="5">
-        <v>2.3579297509054631E-2</v>
+        <v>3.0867035700906875E-2</v>
       </c>
       <c r="AN25" s="5" t="s">
         <v>365</v>
@@ -77323,7 +77323,7 @@
         <v>5760</v>
       </c>
       <c r="AI26" s="5">
-        <v>4.9415687424428922E-3</v>
+        <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ26" s="5" t="s">
         <v>363</v>
@@ -77335,7 +77335,7 @@
         <v>7200</v>
       </c>
       <c r="AM26" s="5">
-        <v>1.8908341703110176E-2</v>
+        <v>2.477080786944319E-2</v>
       </c>
       <c r="AN26" s="5" t="s">
         <v>365</v>
@@ -77445,7 +77445,7 @@
         <v>7700</v>
       </c>
       <c r="AI27" s="5">
-        <v>4.3140005046906627E-3</v>
+        <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>363</v>
@@ -77457,7 +77457,7 @@
         <v>9625</v>
       </c>
       <c r="AM27" s="5">
-        <v>1.6521823952919013E-2</v>
+        <v>2.1652558250883303E-2</v>
       </c>
       <c r="AN27" s="5" t="s">
         <v>365</v>
@@ -77567,7 +77567,7 @@
         <v>9600</v>
       </c>
       <c r="AI28" s="5">
-        <v>3.9552123940107542E-3</v>
+        <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>363</v>
@@ -77579,7 +77579,7 @@
         <v>12000</v>
       </c>
       <c r="AM28" s="5">
-        <v>1.5155493997453751E-2</v>
+        <v>1.98662268367511E-2</v>
       </c>
       <c r="AN28" s="5" t="s">
         <v>365</v>
@@ -77689,7 +77689,7 @@
         <v>11520</v>
       </c>
       <c r="AI29" s="5">
-        <v>3.7084705743748447E-3</v>
+        <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ29" s="5" t="s">
         <v>363</v>
@@ -77701,7 +77701,7 @@
         <v>14400</v>
       </c>
       <c r="AM29" s="5">
-        <v>1.4215041196684264E-2</v>
+        <v>1.8636232365222383E-2</v>
       </c>
       <c r="AN29" s="5" t="s">
         <v>365</v>
@@ -77933,7 +77933,7 @@
         <v>96</v>
       </c>
       <c r="AI31" s="5">
-        <v>1.962024243833882E-2</v>
+        <v>1.232033939182664E-2</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>363</v>
@@ -77945,7 +77945,7 @@
         <v>120</v>
       </c>
       <c r="AM31" s="5">
-        <v>7.3515127520930812E-2</v>
+        <v>9.5462094216042792E-2</v>
       </c>
       <c r="AN31" s="5" t="s">
         <v>365</v>
@@ -78055,7 +78055,7 @@
         <v>192</v>
       </c>
       <c r="AI32" s="5">
-        <v>1.4751569591089253E-2</v>
+        <v>9.2545584895423749E-3</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>363</v>
@@ -78067,7 +78067,7 @@
         <v>240</v>
       </c>
       <c r="AM32" s="5">
-        <v>5.5659209163611112E-2</v>
+        <v>7.2486844033208486E-2</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>365</v>
@@ -78177,7 +78177,7 @@
         <v>384</v>
       </c>
       <c r="AI33" s="5">
-        <v>1.230817377282567E-2</v>
+        <v>7.7181012864053766E-3</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>363</v>
@@ -78189,7 +78189,7 @@
         <v>480</v>
       </c>
       <c r="AM33" s="5">
-        <v>4.6602611747088685E-2</v>
+        <v>6.078129750885275E-2</v>
       </c>
       <c r="AN33" s="5" t="s">
         <v>365</v>
@@ -78299,7 +78299,7 @@
         <v>768</v>
       </c>
       <c r="AI34" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>363</v>
@@ -78311,7 +78311,7 @@
         <v>960</v>
       </c>
       <c r="AM34" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381644E-2</v>
       </c>
       <c r="AN34" s="5" t="s">
         <v>365</v>
@@ -78421,7 +78421,7 @@
         <v>1152</v>
       </c>
       <c r="AI35" s="5">
-        <v>9.8587183832494762E-3</v>
+        <v>6.1792613312130484E-3</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>363</v>
@@ -78433,7 +78433,7 @@
         <v>1440</v>
       </c>
       <c r="AM35" s="5">
-        <v>3.7459158020258787E-2</v>
+        <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN35" s="5" t="s">
         <v>365</v>
@@ -78543,7 +78543,7 @@
         <v>1920</v>
       </c>
       <c r="AI36" s="5">
-        <v>7.894781082939617E-3</v>
+        <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ36" s="5" t="s">
         <v>363</v>
@@ -78555,7 +78555,7 @@
         <v>2400</v>
       </c>
       <c r="AM36" s="5">
-        <v>3.0081298996600725E-2</v>
+        <v>3.9337786704772837E-2</v>
       </c>
       <c r="AN36" s="5" t="s">
         <v>365</v>
@@ -78665,7 +78665,7 @@
         <v>2880</v>
       </c>
       <c r="AI37" s="5">
-        <v>6.5833258849784526E-3</v>
+        <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ37" s="5" t="s">
         <v>363</v>
@@ -78677,7 +78677,7 @@
         <v>3600</v>
       </c>
       <c r="AM37" s="5">
-        <v>2.5131335690441015E-2</v>
+        <v>3.2890631414986826E-2</v>
       </c>
       <c r="AN37" s="5" t="s">
         <v>365</v>
@@ -78787,7 +78787,7 @@
         <v>3840</v>
       </c>
       <c r="AI38" s="5">
-        <v>6.1731407195847465E-3</v>
+        <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ38" s="5" t="s">
         <v>363</v>
@@ -78799,7 +78799,7 @@
         <v>4800</v>
       </c>
       <c r="AM38" s="5">
-        <v>2.3579297509054631E-2</v>
+        <v>3.0867035700906875E-2</v>
       </c>
       <c r="AN38" s="5" t="s">
         <v>365</v>
@@ -78909,7 +78909,7 @@
         <v>5760</v>
       </c>
       <c r="AI39" s="5">
-        <v>4.9415687424428922E-3</v>
+        <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ39" s="5" t="s">
         <v>363</v>
@@ -78921,7 +78921,7 @@
         <v>7200</v>
       </c>
       <c r="AM39" s="5">
-        <v>1.8908341703110176E-2</v>
+        <v>2.477080786944319E-2</v>
       </c>
       <c r="AN39" s="5" t="s">
         <v>365</v>
@@ -79031,7 +79031,7 @@
         <v>7700</v>
       </c>
       <c r="AI40" s="5">
-        <v>4.3140005046906627E-3</v>
+        <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ40" s="5" t="s">
         <v>363</v>
@@ -79043,7 +79043,7 @@
         <v>9625</v>
       </c>
       <c r="AM40" s="5">
-        <v>1.6521823952919013E-2</v>
+        <v>2.1652558250883303E-2</v>
       </c>
       <c r="AN40" s="5" t="s">
         <v>365</v>
@@ -79153,7 +79153,7 @@
         <v>9600</v>
       </c>
       <c r="AI41" s="5">
-        <v>3.9552123940107542E-3</v>
+        <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ41" s="5" t="s">
         <v>363</v>
@@ -79165,7 +79165,7 @@
         <v>12000</v>
       </c>
       <c r="AM41" s="5">
-        <v>1.5155493997453751E-2</v>
+        <v>1.98662268367511E-2</v>
       </c>
       <c r="AN41" s="5" t="s">
         <v>365</v>
@@ -79275,7 +79275,7 @@
         <v>11520</v>
       </c>
       <c r="AI42" s="5">
-        <v>3.7084705743748447E-3</v>
+        <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ42" s="5" t="s">
         <v>363</v>
@@ -79287,7 +79287,7 @@
         <v>14400</v>
       </c>
       <c r="AM42" s="5">
-        <v>1.4215041196684264E-2</v>
+        <v>1.8636232365222383E-2</v>
       </c>
       <c r="AN42" s="5" t="s">
         <v>365</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7634ECE-62ED-4B8A-8442-E984902BF925}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F1A3F-216A-434F-8C12-F77C49EC3217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68057,8 +68057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72207,10 +72207,10 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74125,8 +74125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC7" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30:AN42"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74761,7 +74761,7 @@
         <v>96</v>
       </c>
       <c r="AI5" s="5">
-        <v>1.232033939182664E-2</v>
+        <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ5" s="5" t="s">
         <v>363</v>
@@ -74773,7 +74773,7 @@
         <v>120</v>
       </c>
       <c r="AM5" s="5">
-        <v>9.5462094216042792E-2</v>
+        <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN5" s="5" t="s">
         <v>365</v>
@@ -74883,7 +74883,7 @@
         <v>192</v>
       </c>
       <c r="AI6" s="5">
-        <v>9.2545584895423749E-3</v>
+        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ6" s="5" t="s">
         <v>363</v>
@@ -74895,7 +74895,7 @@
         <v>240</v>
       </c>
       <c r="AM6" s="5">
-        <v>7.2486844033208486E-2</v>
+        <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN6" s="5" t="s">
         <v>365</v>
@@ -75005,7 +75005,7 @@
         <v>384</v>
       </c>
       <c r="AI7" s="5">
-        <v>7.7181012864053766E-3</v>
+        <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ7" s="5" t="s">
         <v>363</v>
@@ -75017,7 +75017,7 @@
         <v>480</v>
       </c>
       <c r="AM7" s="5">
-        <v>6.078129750885275E-2</v>
+        <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN7" s="5" t="s">
         <v>365</v>
@@ -75115,7 +75115,7 @@
         <v>480</v>
       </c>
       <c r="AE8" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>357</v>
@@ -75127,7 +75127,7 @@
         <v>768</v>
       </c>
       <c r="AI8" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ8" s="5" t="s">
         <v>363</v>
@@ -75139,7 +75139,7 @@
         <v>960</v>
       </c>
       <c r="AM8" s="5">
-        <v>4.8928022816381644E-2</v>
+        <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN8" s="5" t="s">
         <v>365</v>
@@ -75237,7 +75237,7 @@
         <v>720</v>
       </c>
       <c r="AE9" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF9" s="5" t="s">
         <v>357</v>
@@ -75249,7 +75249,7 @@
         <v>1152</v>
       </c>
       <c r="AI9" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ9" s="5" t="s">
         <v>363</v>
@@ -75359,7 +75359,7 @@
         <v>1200</v>
       </c>
       <c r="AE10" s="5">
-        <v>2.8056704800479837E-3</v>
+        <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF10" s="5" t="s">
         <v>357</v>
@@ -75383,7 +75383,7 @@
         <v>2400</v>
       </c>
       <c r="AM10" s="5">
-        <v>3.9337786704772837E-2</v>
+        <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN10" s="5" t="s">
         <v>365</v>
@@ -75481,7 +75481,7 @@
         <v>1800</v>
       </c>
       <c r="AE11" s="5">
-        <v>2.3386059825940553E-3</v>
+        <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF11" s="5" t="s">
         <v>357</v>
@@ -75505,7 +75505,7 @@
         <v>3600</v>
       </c>
       <c r="AM11" s="5">
-        <v>3.2890631414986826E-2</v>
+        <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN11" s="5" t="s">
         <v>365</v>
@@ -75603,7 +75603,7 @@
         <v>2400</v>
       </c>
       <c r="AE12" s="5">
-        <v>2.1926034684439655E-3</v>
+        <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>357</v>
@@ -75627,7 +75627,7 @@
         <v>4800</v>
       </c>
       <c r="AM12" s="5">
-        <v>3.0867035700906875E-2</v>
+        <v>3.545753118271322E-2</v>
       </c>
       <c r="AN12" s="5" t="s">
         <v>365</v>
@@ -75725,7 +75725,7 @@
         <v>3600</v>
       </c>
       <c r="AE13" s="5">
-        <v>1.7544677132709241E-3</v>
+        <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF13" s="5" t="s">
         <v>357</v>
@@ -75749,7 +75749,7 @@
         <v>7200</v>
       </c>
       <c r="AM13" s="5">
-        <v>2.477080786944319E-2</v>
+        <v>2.846805884639414E-2</v>
       </c>
       <c r="AN13" s="5" t="s">
         <v>365</v>
@@ -75847,7 +75847,7 @@
         <v>4812</v>
       </c>
       <c r="AE14" s="5">
-        <v>1.5313428874852431E-3</v>
+        <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF14" s="5" t="s">
         <v>357</v>
@@ -75871,7 +75871,7 @@
         <v>9625</v>
       </c>
       <c r="AM14" s="5">
-        <v>2.1652558250883303E-2</v>
+        <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN14" s="5" t="s">
         <v>365</v>
@@ -75969,7 +75969,7 @@
         <v>6000</v>
       </c>
       <c r="AE15" s="5">
-        <v>1.4038205961570682E-3</v>
+        <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF15" s="5" t="s">
         <v>357</v>
@@ -75993,7 +75993,7 @@
         <v>12000</v>
       </c>
       <c r="AM15" s="5">
-        <v>1.98662268367511E-2</v>
+        <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN15" s="5" t="s">
         <v>365</v>
@@ -76091,7 +76091,7 @@
         <v>7200</v>
       </c>
       <c r="AE16" s="5">
-        <v>1.3161395733344294E-3</v>
+        <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF16" s="5" t="s">
         <v>357</v>
@@ -76115,7 +76115,7 @@
         <v>14400</v>
       </c>
       <c r="AM16" s="5">
-        <v>1.8636232365222383E-2</v>
+        <v>2.142793791229991E-2</v>
       </c>
       <c r="AN16" s="5" t="s">
         <v>365</v>
@@ -76347,7 +76347,7 @@
         <v>96</v>
       </c>
       <c r="AI18" s="5">
-        <v>1.232033939182664E-2</v>
+        <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ18" s="5" t="s">
         <v>363</v>
@@ -76359,7 +76359,7 @@
         <v>120</v>
       </c>
       <c r="AM18" s="5">
-        <v>9.5462094216042792E-2</v>
+        <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN18" s="5" t="s">
         <v>365</v>
@@ -76469,7 +76469,7 @@
         <v>192</v>
       </c>
       <c r="AI19" s="5">
-        <v>9.2545584895423749E-3</v>
+        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>363</v>
@@ -76481,7 +76481,7 @@
         <v>240</v>
       </c>
       <c r="AM19" s="5">
-        <v>7.2486844033208486E-2</v>
+        <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN19" s="5" t="s">
         <v>365</v>
@@ -76591,7 +76591,7 @@
         <v>384</v>
       </c>
       <c r="AI20" s="5">
-        <v>7.7181012864053766E-3</v>
+        <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>363</v>
@@ -76603,7 +76603,7 @@
         <v>480</v>
       </c>
       <c r="AM20" s="5">
-        <v>6.078129750885275E-2</v>
+        <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN20" s="5" t="s">
         <v>365</v>
@@ -76701,7 +76701,7 @@
         <v>480</v>
       </c>
       <c r="AE21" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF21" s="5" t="s">
         <v>357</v>
@@ -76713,7 +76713,7 @@
         <v>768</v>
       </c>
       <c r="AI21" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ21" s="5" t="s">
         <v>363</v>
@@ -76725,7 +76725,7 @@
         <v>960</v>
       </c>
       <c r="AM21" s="5">
-        <v>4.8928022816381644E-2</v>
+        <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN21" s="5" t="s">
         <v>365</v>
@@ -76823,7 +76823,7 @@
         <v>720</v>
       </c>
       <c r="AE22" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF22" s="5" t="s">
         <v>357</v>
@@ -76835,7 +76835,7 @@
         <v>1152</v>
       </c>
       <c r="AI22" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ22" s="5" t="s">
         <v>363</v>
@@ -76945,7 +76945,7 @@
         <v>1200</v>
       </c>
       <c r="AE23" s="5">
-        <v>2.8056704800479837E-3</v>
+        <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF23" s="5" t="s">
         <v>357</v>
@@ -76969,7 +76969,7 @@
         <v>2400</v>
       </c>
       <c r="AM23" s="5">
-        <v>3.9337786704772837E-2</v>
+        <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN23" s="5" t="s">
         <v>365</v>
@@ -77067,7 +77067,7 @@
         <v>1800</v>
       </c>
       <c r="AE24" s="5">
-        <v>2.3386059825940553E-3</v>
+        <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF24" s="5" t="s">
         <v>357</v>
@@ -77091,7 +77091,7 @@
         <v>3600</v>
       </c>
       <c r="AM24" s="5">
-        <v>3.2890631414986826E-2</v>
+        <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN24" s="5" t="s">
         <v>365</v>
@@ -77189,7 +77189,7 @@
         <v>2400</v>
       </c>
       <c r="AE25" s="5">
-        <v>2.1926034684439655E-3</v>
+        <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>357</v>
@@ -77213,7 +77213,7 @@
         <v>4800</v>
       </c>
       <c r="AM25" s="5">
-        <v>3.0867035700906875E-2</v>
+        <v>3.545753118271322E-2</v>
       </c>
       <c r="AN25" s="5" t="s">
         <v>365</v>
@@ -77311,7 +77311,7 @@
         <v>3600</v>
       </c>
       <c r="AE26" s="5">
-        <v>1.7544677132709241E-3</v>
+        <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF26" s="5" t="s">
         <v>357</v>
@@ -77335,7 +77335,7 @@
         <v>7200</v>
       </c>
       <c r="AM26" s="5">
-        <v>2.477080786944319E-2</v>
+        <v>2.846805884639414E-2</v>
       </c>
       <c r="AN26" s="5" t="s">
         <v>365</v>
@@ -77433,7 +77433,7 @@
         <v>4812</v>
       </c>
       <c r="AE27" s="5">
-        <v>1.5313428874852431E-3</v>
+        <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF27" s="5" t="s">
         <v>357</v>
@@ -77457,7 +77457,7 @@
         <v>9625</v>
       </c>
       <c r="AM27" s="5">
-        <v>2.1652558250883303E-2</v>
+        <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN27" s="5" t="s">
         <v>365</v>
@@ -77555,7 +77555,7 @@
         <v>6000</v>
       </c>
       <c r="AE28" s="5">
-        <v>1.4038205961570682E-3</v>
+        <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>357</v>
@@ -77579,7 +77579,7 @@
         <v>12000</v>
       </c>
       <c r="AM28" s="5">
-        <v>1.98662268367511E-2</v>
+        <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN28" s="5" t="s">
         <v>365</v>
@@ -77677,7 +77677,7 @@
         <v>7200</v>
       </c>
       <c r="AE29" s="5">
-        <v>1.3161395733344294E-3</v>
+        <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF29" s="5" t="s">
         <v>357</v>
@@ -77701,7 +77701,7 @@
         <v>14400</v>
       </c>
       <c r="AM29" s="5">
-        <v>1.8636232365222383E-2</v>
+        <v>2.142793791229991E-2</v>
       </c>
       <c r="AN29" s="5" t="s">
         <v>365</v>
@@ -77933,7 +77933,7 @@
         <v>96</v>
       </c>
       <c r="AI31" s="5">
-        <v>1.232033939182664E-2</v>
+        <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ31" s="5" t="s">
         <v>363</v>
@@ -77945,7 +77945,7 @@
         <v>120</v>
       </c>
       <c r="AM31" s="5">
-        <v>9.5462094216042792E-2</v>
+        <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN31" s="5" t="s">
         <v>365</v>
@@ -78055,7 +78055,7 @@
         <v>192</v>
       </c>
       <c r="AI32" s="5">
-        <v>9.2545584895423749E-3</v>
+        <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ32" s="5" t="s">
         <v>363</v>
@@ -78067,7 +78067,7 @@
         <v>240</v>
       </c>
       <c r="AM32" s="5">
-        <v>7.2486844033208486E-2</v>
+        <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN32" s="5" t="s">
         <v>365</v>
@@ -78177,7 +78177,7 @@
         <v>384</v>
       </c>
       <c r="AI33" s="5">
-        <v>7.7181012864053766E-3</v>
+        <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>363</v>
@@ -78189,7 +78189,7 @@
         <v>480</v>
       </c>
       <c r="AM33" s="5">
-        <v>6.078129750885275E-2</v>
+        <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN33" s="5" t="s">
         <v>365</v>
@@ -78287,7 +78287,7 @@
         <v>480</v>
       </c>
       <c r="AE34" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF34" s="5" t="s">
         <v>357</v>
@@ -78299,7 +78299,7 @@
         <v>768</v>
       </c>
       <c r="AI34" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>363</v>
@@ -78311,7 +78311,7 @@
         <v>960</v>
       </c>
       <c r="AM34" s="5">
-        <v>4.8928022816381644E-2</v>
+        <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN34" s="5" t="s">
         <v>365</v>
@@ -78409,7 +78409,7 @@
         <v>720</v>
       </c>
       <c r="AE35" s="5">
-        <v>3.5058572695848556E-3</v>
+        <v>2.416099615924483E-3</v>
       </c>
       <c r="AF35" s="5" t="s">
         <v>357</v>
@@ -78421,7 +78421,7 @@
         <v>1152</v>
       </c>
       <c r="AI35" s="5">
-        <v>6.1792613312130484E-3</v>
+        <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>363</v>
@@ -78531,7 +78531,7 @@
         <v>1200</v>
       </c>
       <c r="AE36" s="5">
-        <v>2.8056704800479837E-3</v>
+        <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF36" s="5" t="s">
         <v>357</v>
@@ -78555,7 +78555,7 @@
         <v>2400</v>
       </c>
       <c r="AM36" s="5">
-        <v>3.9337786704772837E-2</v>
+        <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN36" s="5" t="s">
         <v>365</v>
@@ -78653,7 +78653,7 @@
         <v>1800</v>
       </c>
       <c r="AE37" s="5">
-        <v>2.3386059825940553E-3</v>
+        <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF37" s="5" t="s">
         <v>357</v>
@@ -78677,7 +78677,7 @@
         <v>3600</v>
       </c>
       <c r="AM37" s="5">
-        <v>3.2890631414986826E-2</v>
+        <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN37" s="5" t="s">
         <v>365</v>
@@ -78775,7 +78775,7 @@
         <v>2400</v>
       </c>
       <c r="AE38" s="5">
-        <v>2.1926034684439655E-3</v>
+        <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF38" s="5" t="s">
         <v>357</v>
@@ -78799,7 +78799,7 @@
         <v>4800</v>
       </c>
       <c r="AM38" s="5">
-        <v>3.0867035700906875E-2</v>
+        <v>3.545753118271322E-2</v>
       </c>
       <c r="AN38" s="5" t="s">
         <v>365</v>
@@ -78897,7 +78897,7 @@
         <v>3600</v>
       </c>
       <c r="AE39" s="5">
-        <v>1.7544677132709241E-3</v>
+        <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF39" s="5" t="s">
         <v>357</v>
@@ -78921,7 +78921,7 @@
         <v>7200</v>
       </c>
       <c r="AM39" s="5">
-        <v>2.477080786944319E-2</v>
+        <v>2.846805884639414E-2</v>
       </c>
       <c r="AN39" s="5" t="s">
         <v>365</v>
@@ -79019,7 +79019,7 @@
         <v>4812</v>
       </c>
       <c r="AE40" s="5">
-        <v>1.5313428874852431E-3</v>
+        <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF40" s="5" t="s">
         <v>357</v>
@@ -79043,7 +79043,7 @@
         <v>9625</v>
       </c>
       <c r="AM40" s="5">
-        <v>2.1652558250883303E-2</v>
+        <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN40" s="5" t="s">
         <v>365</v>
@@ -79141,7 +79141,7 @@
         <v>6000</v>
       </c>
       <c r="AE41" s="5">
-        <v>1.4038205961570682E-3</v>
+        <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF41" s="5" t="s">
         <v>357</v>
@@ -79165,7 +79165,7 @@
         <v>12000</v>
       </c>
       <c r="AM41" s="5">
-        <v>1.98662268367511E-2</v>
+        <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN41" s="5" t="s">
         <v>365</v>
@@ -79263,7 +79263,7 @@
         <v>7200</v>
       </c>
       <c r="AE42" s="5">
-        <v>1.3161395733344294E-3</v>
+        <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF42" s="5" t="s">
         <v>357</v>
@@ -79287,7 +79287,7 @@
         <v>14400</v>
       </c>
       <c r="AM42" s="5">
-        <v>1.8636232365222383E-2</v>
+        <v>2.142793791229991E-2</v>
       </c>
       <c r="AN42" s="5" t="s">
         <v>365</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351F1A3F-216A-434F-8C12-F77C49EC3217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0EBC6-EAE9-4FC4-B510-C493894FE143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="367">
   <si>
     <t>sheet名</t>
   </si>
@@ -945,9 +945,6 @@
     <t>暴击伤害提升100%</t>
   </si>
   <si>
-    <t>攻速提升35%</t>
-  </si>
-  <si>
     <t>全体攻击力提升25%</t>
   </si>
   <si>
@@ -1394,6 +1391,14 @@
   </si>
   <si>
     <t>当前有较高概率直接升级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升25%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升35%</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
@@ -1994,7 +1999,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -2011,17 +2016,17 @@
     </row>
     <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -2032,7 +2037,7 @@
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -68087,73 +68092,73 @@
         <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>97</v>
@@ -68179,177 +68184,177 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="R2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="X2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="AC2" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF2" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="J3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="S3" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>102</v>
@@ -68390,7 +68395,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>94</v>
@@ -68450,25 +68455,25 @@
         <v>0.5</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -68488,7 +68493,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>94</v>
@@ -68586,7 +68591,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>94</v>
@@ -68684,7 +68689,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>94</v>
@@ -68782,7 +68787,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>94</v>
@@ -68880,7 +68885,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>94</v>
@@ -68978,7 +68983,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>94</v>
@@ -69076,7 +69081,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>94</v>
@@ -69174,7 +69179,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>94</v>
@@ -69272,7 +69277,7 @@
         <v>350</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>94</v>
@@ -69370,7 +69375,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -69468,7 +69473,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -69566,7 +69571,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -69664,7 +69669,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>94</v>
@@ -69685,7 +69690,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
@@ -69703,7 +69708,7 @@
         <v>100</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T17" s="5">
         <v>1</v>
@@ -69724,25 +69729,25 @@
         <v>0.5</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -69762,7 +69767,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>94</v>
@@ -69783,7 +69788,7 @@
         <v>15</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N18" s="5">
         <v>1</v>
@@ -69801,7 +69806,7 @@
         <v>150</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T18" s="5">
         <v>1</v>
@@ -69860,7 +69865,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>94</v>
@@ -69881,7 +69886,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N19" s="5">
         <v>1</v>
@@ -69899,7 +69904,7 @@
         <v>200</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T19" s="5">
         <v>1</v>
@@ -69958,7 +69963,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>94</v>
@@ -69979,7 +69984,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N20" s="5">
         <v>1</v>
@@ -69997,7 +70002,7 @@
         <v>250</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T20" s="5">
         <v>1</v>
@@ -70056,7 +70061,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>94</v>
@@ -70077,7 +70082,7 @@
         <v>32</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N21" s="5">
         <v>1</v>
@@ -70095,7 +70100,7 @@
         <v>320</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T21" s="5">
         <v>1</v>
@@ -70154,7 +70159,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>94</v>
@@ -70175,7 +70180,7 @@
         <v>40</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -70193,7 +70198,7 @@
         <v>400</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T22" s="5">
         <v>1</v>
@@ -70252,7 +70257,7 @@
         <v>180</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>94</v>
@@ -70273,7 +70278,7 @@
         <v>50</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -70291,7 +70296,7 @@
         <v>500</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T23" s="5">
         <v>1</v>
@@ -70350,7 +70355,7 @@
         <v>250</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>94</v>
@@ -70371,7 +70376,7 @@
         <v>60</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N24" s="5">
         <v>1</v>
@@ -70389,7 +70394,7 @@
         <v>600</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T24" s="5">
         <v>1</v>
@@ -70448,7 +70453,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>94</v>
@@ -70469,7 +70474,7 @@
         <v>70</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N25" s="5">
         <v>1</v>
@@ -70487,7 +70492,7 @@
         <v>700</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
@@ -70546,7 +70551,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>94</v>
@@ -70567,7 +70572,7 @@
         <v>80</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N26" s="5">
         <v>1</v>
@@ -70585,7 +70590,7 @@
         <v>800</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T26" s="5">
         <v>1</v>
@@ -70644,7 +70649,7 @@
         <v>400</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>94</v>
@@ -70665,7 +70670,7 @@
         <v>90</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N27" s="5">
         <v>1</v>
@@ -70683,7 +70688,7 @@
         <v>900</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T27" s="5">
         <v>1</v>
@@ -70742,7 +70747,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>94</v>
@@ -70763,7 +70768,7 @@
         <v>100</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -70781,7 +70786,7 @@
         <v>1000</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
@@ -70840,7 +70845,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>94</v>
@@ -70861,7 +70866,7 @@
         <v>120</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -70879,7 +70884,7 @@
         <v>1200</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T29" s="5">
         <v>1</v>
@@ -70938,7 +70943,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>94</v>
@@ -70959,7 +70964,7 @@
         <v>10</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N30" s="5">
         <v>1</v>
@@ -70977,7 +70982,7 @@
         <v>50</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T30" s="5">
         <v>1</v>
@@ -70998,25 +71003,25 @@
         <v>0.5</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -71036,7 +71041,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>94</v>
@@ -71057,7 +71062,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N31" s="5">
         <v>1</v>
@@ -71075,7 +71080,7 @@
         <v>75</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T31" s="5">
         <v>1</v>
@@ -71134,7 +71139,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>94</v>
@@ -71155,7 +71160,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N32" s="5">
         <v>1</v>
@@ -71173,7 +71178,7 @@
         <v>100</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T32" s="5">
         <v>1</v>
@@ -71232,7 +71237,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>94</v>
@@ -71253,7 +71258,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N33" s="5">
         <v>1</v>
@@ -71271,7 +71276,7 @@
         <v>125</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T33" s="5">
         <v>1</v>
@@ -71330,7 +71335,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>94</v>
@@ -71351,7 +71356,7 @@
         <v>32</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N34" s="5">
         <v>1</v>
@@ -71369,7 +71374,7 @@
         <v>160</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
@@ -71428,7 +71433,7 @@
         <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>94</v>
@@ -71449,7 +71454,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N35" s="5">
         <v>1</v>
@@ -71467,7 +71472,7 @@
         <v>200</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T35" s="5">
         <v>1</v>
@@ -71526,7 +71531,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>94</v>
@@ -71547,7 +71552,7 @@
         <v>50</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N36" s="5">
         <v>1</v>
@@ -71565,7 +71570,7 @@
         <v>250</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T36" s="5">
         <v>1</v>
@@ -71624,7 +71629,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>94</v>
@@ -71645,7 +71650,7 @@
         <v>60</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N37" s="5">
         <v>1</v>
@@ -71663,7 +71668,7 @@
         <v>300</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T37" s="5">
         <v>1</v>
@@ -71722,7 +71727,7 @@
         <v>300</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>94</v>
@@ -71743,7 +71748,7 @@
         <v>70</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N38" s="5">
         <v>1</v>
@@ -71761,7 +71766,7 @@
         <v>350</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T38" s="5">
         <v>1</v>
@@ -71820,7 +71825,7 @@
         <v>350</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>94</v>
@@ -71841,7 +71846,7 @@
         <v>80</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N39" s="5">
         <v>1</v>
@@ -71859,7 +71864,7 @@
         <v>400</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T39" s="5">
         <v>1</v>
@@ -71918,7 +71923,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>94</v>
@@ -71939,7 +71944,7 @@
         <v>90</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N40" s="5">
         <v>1</v>
@@ -71957,7 +71962,7 @@
         <v>450</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T40" s="5">
         <v>1</v>
@@ -72016,7 +72021,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>94</v>
@@ -72037,7 +72042,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -72055,7 +72060,7 @@
         <v>500</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T41" s="5">
         <v>1</v>
@@ -72114,7 +72119,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>
@@ -72135,7 +72140,7 @@
         <v>120</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N42" s="5">
         <v>1</v>
@@ -72153,7 +72158,7 @@
         <v>600</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T42" s="5">
         <v>1</v>
@@ -72206,11 +72211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72519,10 +72524,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -72759,10 +72764,10 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -72798,7 +72803,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>220</v>
@@ -72876,7 +72881,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>145</v>
@@ -72915,10 +72920,10 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
@@ -72996,7 +73001,7 @@
         <v>256</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="5">
         <v>2</v>
@@ -73071,10 +73076,10 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -73110,10 +73115,10 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -73196,7 +73201,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>140</v>
@@ -73276,11 +73281,11 @@
         <v>210</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>221</v>
@@ -73319,10 +73324,10 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -73364,7 +73369,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>145</v>
@@ -73399,14 +73404,14 @@
         <v>301</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -73484,7 +73489,7 @@
         <v>256</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G30" s="5">
         <v>4</v>
@@ -73559,10 +73564,10 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G32" s="5">
         <v>4</v>
@@ -73598,10 +73603,10 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -73684,7 +73689,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>140</v>
@@ -73768,10 +73773,10 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -73807,7 +73812,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>145</v>
@@ -73852,7 +73857,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>140</v>
@@ -74125,8 +74130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74249,10 +74254,10 @@
         <v>154</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>155</v>
@@ -74264,7 +74269,7 @@
         <v>157</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>158</v>
@@ -74276,7 +74281,7 @@
         <v>160</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>161</v>
@@ -74288,7 +74293,7 @@
         <v>163</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
@@ -74374,7 +74379,7 @@
         <v>165</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>39</v>
@@ -74386,7 +74391,7 @@
         <v>165</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>39</v>
@@ -74398,7 +74403,7 @@
         <v>165</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>39</v>
@@ -74410,7 +74415,7 @@
         <v>165</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.2">
@@ -74496,7 +74501,7 @@
         <v>181</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>182</v>
@@ -74508,7 +74513,7 @@
         <v>184</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG3" s="4" t="s">
         <v>185</v>
@@ -74520,7 +74525,7 @@
         <v>187</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AK3" s="4" t="s">
         <v>188</v>
@@ -74532,7 +74537,7 @@
         <v>190</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -74740,7 +74745,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC5" s="5">
         <v>30</v>
@@ -74752,7 +74757,7 @@
         <v>6.9994235039750885E-3</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG5" s="5">
         <v>60</v>
@@ -74764,7 +74769,7 @@
         <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK5" s="5">
         <v>96</v>
@@ -74776,7 +74781,7 @@
         <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -74862,7 +74867,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC6" s="5">
         <v>60</v>
@@ -74874,7 +74879,7 @@
         <v>5.254174069468931E-3</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG6" s="5">
         <v>120</v>
@@ -74886,7 +74891,7 @@
         <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK6" s="5">
         <v>192</v>
@@ -74898,7 +74903,7 @@
         <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -74984,7 +74989,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC7" s="5">
         <v>120</v>
@@ -74996,7 +75001,7 @@
         <v>4.3803994269180357E-3</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG7" s="5">
         <v>240</v>
@@ -75008,7 +75013,7 @@
         <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK7" s="5">
         <v>384</v>
@@ -75020,7 +75025,7 @@
         <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75106,7 +75111,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC8" s="5">
         <v>240</v>
@@ -75118,7 +75123,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG8" s="5">
         <v>480</v>
@@ -75130,7 +75135,7 @@
         <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK8" s="5">
         <v>768</v>
@@ -75142,7 +75147,7 @@
         <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75228,7 +75233,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC9" s="5">
         <v>360</v>
@@ -75240,7 +75245,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG9" s="5">
         <v>720</v>
@@ -75252,7 +75257,7 @@
         <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK9" s="5">
         <v>1152</v>
@@ -75264,7 +75269,7 @@
         <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75350,7 +75355,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC10" s="5">
         <v>600</v>
@@ -75362,7 +75367,7 @@
         <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG10" s="5">
         <v>1200</v>
@@ -75374,7 +75379,7 @@
         <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK10" s="5">
         <v>1920</v>
@@ -75386,7 +75391,7 @@
         <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75472,7 +75477,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC11" s="5">
         <v>900</v>
@@ -75484,7 +75489,7 @@
         <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG11" s="5">
         <v>1800</v>
@@ -75496,7 +75501,7 @@
         <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK11" s="5">
         <v>2880</v>
@@ -75508,7 +75513,7 @@
         <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75594,7 +75599,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC12" s="5">
         <v>1200</v>
@@ -75606,7 +75611,7 @@
         <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG12" s="5">
         <v>2400</v>
@@ -75618,7 +75623,7 @@
         <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK12" s="5">
         <v>3840</v>
@@ -75630,7 +75635,7 @@
         <v>3.545753118271322E-2</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75716,7 +75721,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC13" s="5">
         <v>1800</v>
@@ -75728,7 +75733,7 @@
         <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG13" s="5">
         <v>3600</v>
@@ -75740,7 +75745,7 @@
         <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK13" s="5">
         <v>5760</v>
@@ -75752,7 +75757,7 @@
         <v>2.846805884639414E-2</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75838,7 +75843,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC14" s="5">
         <v>2406</v>
@@ -75850,7 +75855,7 @@
         <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG14" s="5">
         <v>4812</v>
@@ -75862,7 +75867,7 @@
         <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK14" s="5">
         <v>7700</v>
@@ -75874,7 +75879,7 @@
         <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -75960,7 +75965,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC15" s="5">
         <v>3000</v>
@@ -75972,7 +75977,7 @@
         <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG15" s="5">
         <v>6000</v>
@@ -75984,7 +75989,7 @@
         <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK15" s="5">
         <v>9600</v>
@@ -75996,7 +76001,7 @@
         <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76082,7 +76087,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC16" s="5">
         <v>3600</v>
@@ -76094,7 +76099,7 @@
         <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG16" s="5">
         <v>7200</v>
@@ -76106,7 +76111,7 @@
         <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK16" s="5">
         <v>11520</v>
@@ -76118,7 +76123,7 @@
         <v>2.142793791229991E-2</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76326,7 +76331,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC18" s="5">
         <v>30</v>
@@ -76338,7 +76343,7 @@
         <v>6.9994235039750885E-3</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG18" s="5">
         <v>60</v>
@@ -76350,7 +76355,7 @@
         <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK18" s="5">
         <v>96</v>
@@ -76362,7 +76367,7 @@
         <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76448,7 +76453,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC19" s="5">
         <v>60</v>
@@ -76460,7 +76465,7 @@
         <v>5.254174069468931E-3</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG19" s="5">
         <v>120</v>
@@ -76472,7 +76477,7 @@
         <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK19" s="5">
         <v>192</v>
@@ -76484,7 +76489,7 @@
         <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76570,7 +76575,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC20" s="5">
         <v>120</v>
@@ -76582,7 +76587,7 @@
         <v>4.3803994269180357E-3</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG20" s="5">
         <v>240</v>
@@ -76594,7 +76599,7 @@
         <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK20" s="5">
         <v>384</v>
@@ -76606,7 +76611,7 @@
         <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76692,7 +76697,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC21" s="5">
         <v>240</v>
@@ -76704,7 +76709,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG21" s="5">
         <v>480</v>
@@ -76716,7 +76721,7 @@
         <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK21" s="5">
         <v>768</v>
@@ -76728,7 +76733,7 @@
         <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76814,7 +76819,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC22" s="5">
         <v>360</v>
@@ -76826,7 +76831,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG22" s="5">
         <v>720</v>
@@ -76838,7 +76843,7 @@
         <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK22" s="5">
         <v>1152</v>
@@ -76850,7 +76855,7 @@
         <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN22" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -76936,7 +76941,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC23" s="5">
         <v>600</v>
@@ -76948,7 +76953,7 @@
         <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG23" s="5">
         <v>1200</v>
@@ -76960,7 +76965,7 @@
         <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK23" s="5">
         <v>1920</v>
@@ -76972,7 +76977,7 @@
         <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN23" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77058,7 +77063,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC24" s="5">
         <v>900</v>
@@ -77070,7 +77075,7 @@
         <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG24" s="5">
         <v>1800</v>
@@ -77082,7 +77087,7 @@
         <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK24" s="5">
         <v>2880</v>
@@ -77094,7 +77099,7 @@
         <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN24" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77180,7 +77185,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC25" s="5">
         <v>1200</v>
@@ -77192,7 +77197,7 @@
         <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG25" s="5">
         <v>2400</v>
@@ -77204,7 +77209,7 @@
         <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK25" s="5">
         <v>3840</v>
@@ -77216,7 +77221,7 @@
         <v>3.545753118271322E-2</v>
       </c>
       <c r="AN25" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77302,7 +77307,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC26" s="5">
         <v>1800</v>
@@ -77314,7 +77319,7 @@
         <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG26" s="5">
         <v>3600</v>
@@ -77326,7 +77331,7 @@
         <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK26" s="5">
         <v>5760</v>
@@ -77338,7 +77343,7 @@
         <v>2.846805884639414E-2</v>
       </c>
       <c r="AN26" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77424,7 +77429,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC27" s="5">
         <v>2406</v>
@@ -77436,7 +77441,7 @@
         <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG27" s="5">
         <v>4812</v>
@@ -77448,7 +77453,7 @@
         <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK27" s="5">
         <v>7700</v>
@@ -77460,7 +77465,7 @@
         <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN27" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77546,7 +77551,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC28" s="5">
         <v>3000</v>
@@ -77558,7 +77563,7 @@
         <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG28" s="5">
         <v>6000</v>
@@ -77570,7 +77575,7 @@
         <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK28" s="5">
         <v>9600</v>
@@ -77582,7 +77587,7 @@
         <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77668,7 +77673,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC29" s="5">
         <v>3600</v>
@@ -77680,7 +77685,7 @@
         <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG29" s="5">
         <v>7200</v>
@@ -77692,7 +77697,7 @@
         <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK29" s="5">
         <v>11520</v>
@@ -77704,7 +77709,7 @@
         <v>2.142793791229991E-2</v>
       </c>
       <c r="AN29" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -77912,7 +77917,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC31" s="5">
         <v>30</v>
@@ -77924,7 +77929,7 @@
         <v>6.9994235039750885E-3</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG31" s="5">
         <v>60</v>
@@ -77936,7 +77941,7 @@
         <v>2.798029424852444E-2</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK31" s="5">
         <v>96</v>
@@ -77948,7 +77953,7 @@
         <v>5.6125687318306472E-2</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78034,7 +78039,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC32" s="5">
         <v>60</v>
@@ -78046,7 +78051,7 @@
         <v>5.254174069468931E-3</v>
       </c>
       <c r="AF32" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG32" s="5">
         <v>120</v>
@@ -78058,7 +78063,7 @@
         <v>1.4751569591089253E-2</v>
       </c>
       <c r="AJ32" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK32" s="5">
         <v>192</v>
@@ -78070,7 +78075,7 @@
         <v>5.5659209163611112E-2</v>
       </c>
       <c r="AN32" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78156,7 +78161,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC33" s="5">
         <v>120</v>
@@ -78168,7 +78173,7 @@
         <v>4.3803994269180357E-3</v>
       </c>
       <c r="AF33" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG33" s="5">
         <v>240</v>
@@ -78180,7 +78185,7 @@
         <v>9.9392368809142484E-3</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK33" s="5">
         <v>384</v>
@@ -78192,7 +78197,7 @@
         <v>5.3210257867875144E-2</v>
       </c>
       <c r="AN33" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78278,7 +78283,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC34" s="5">
         <v>240</v>
@@ -78290,7 +78295,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF34" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG34" s="5">
         <v>480</v>
@@ -78302,7 +78307,7 @@
         <v>7.9593241721861441E-3</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK34" s="5">
         <v>768</v>
@@ -78314,7 +78319,7 @@
         <v>4.6367048540933653E-2</v>
       </c>
       <c r="AN34" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78400,7 +78405,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC35" s="5">
         <v>360</v>
@@ -78412,7 +78417,7 @@
         <v>2.416099615924483E-3</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG35" s="5">
         <v>720</v>
@@ -78424,7 +78429,7 @@
         <v>7.2338412403802899E-3</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK35" s="5">
         <v>1152</v>
@@ -78436,7 +78441,7 @@
         <v>4.8928022816381533E-2</v>
       </c>
       <c r="AN35" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78522,7 +78527,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC36" s="5">
         <v>600</v>
@@ -78534,7 +78539,7 @@
         <v>1.3668861426443524E-3</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG36" s="5">
         <v>1200</v>
@@ -78546,7 +78551,7 @@
         <v>4.9464713026015072E-3</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK36" s="5">
         <v>1920</v>
@@ -78558,7 +78563,7 @@
         <v>4.5158396089583497E-2</v>
       </c>
       <c r="AN36" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78644,7 +78649,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC37" s="5">
         <v>900</v>
@@ -78656,7 +78661,7 @@
         <v>1.1392016030112861E-3</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG37" s="5">
         <v>1800</v>
@@ -78668,7 +78673,7 @@
         <v>4.1237618335125958E-3</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK37" s="5">
         <v>2880</v>
@@ -78680,7 +78685,7 @@
         <v>3.7776163105854854E-2</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78766,7 +78771,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC38" s="5">
         <v>1200</v>
@@ -78778,7 +78783,7 @@
         <v>1.0680395390793018E-3</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG38" s="5">
         <v>2400</v>
@@ -78790,7 +78795,7 @@
         <v>3.8665256535173054E-3</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK38" s="5">
         <v>3840</v>
@@ -78802,7 +78807,7 @@
         <v>3.545753118271322E-2</v>
       </c>
       <c r="AN38" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -78888,7 +78893,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC39" s="5">
         <v>1800</v>
@@ -78900,7 +78905,7 @@
         <v>8.5452292694920828E-4</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG39" s="5">
         <v>3600</v>
@@ -78912,7 +78917,7 @@
         <v>3.0944183781560497E-3</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK39" s="5">
         <v>5760</v>
@@ -78924,7 +78929,7 @@
         <v>2.846805884639414E-2</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -79010,7 +79015,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC40" s="5">
         <v>2406</v>
@@ -79022,7 +79027,7 @@
         <v>7.4580603032681214E-4</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG40" s="5">
         <v>4812</v>
@@ -79034,7 +79039,7 @@
         <v>2.7011157234106964E-3</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK40" s="5">
         <v>7700</v>
@@ -79046,7 +79051,7 @@
         <v>2.4890349269846235E-2</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -79132,7 +79137,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC41" s="5">
         <v>3000</v>
@@ -79144,7 +79149,7 @@
         <v>6.8367677829073159E-4</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG41" s="5">
         <v>6000</v>
@@ -79156,7 +79161,7 @@
         <v>2.4763016863216247E-3</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK41" s="5">
         <v>9600</v>
@@ -79168,7 +79173,7 @@
         <v>2.2840031565754093E-2</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
@@ -79254,7 +79259,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC42" s="5">
         <v>3600</v>
@@ -79266,7 +79271,7 @@
         <v>6.4096067673213852E-4</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG42" s="5">
         <v>7200</v>
@@ -79278,7 +79283,7 @@
         <v>2.321712639175133E-3</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK42" s="5">
         <v>11520</v>
@@ -79290,7 +79295,7 @@
         <v>2.142793791229991E-2</v>
       </c>
       <c r="AN42" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0EBC6-EAE9-4FC4-B510-C493894FE143}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E594A47-89D0-4355-A4EC-91B4D9FAA66E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2572,11 +2572,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72211,11 +72211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E594A47-89D0-4355-A4EC-91B4D9FAA66E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23719A75-5FFB-49BB-8423-EB2D9A892E5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="376">
   <si>
     <t>sheet名</t>
   </si>
@@ -1401,6 +1401,42 @@
     <t>伤害提升35%</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>MainShip-bk4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2197,7 +2233,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2572,11 +2608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68062,8 +68098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68787,7 +68823,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>94</v>
@@ -68885,7 +68921,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>94</v>
@@ -68983,7 +69019,7 @@
         <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>94</v>
@@ -69081,7 +69117,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>94</v>
@@ -69179,7 +69215,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>94</v>
@@ -69277,7 +69313,7 @@
         <v>350</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>94</v>
@@ -69375,7 +69411,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -69473,7 +69509,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -69571,7 +69607,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -70061,7 +70097,7 @@
         <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>94</v>
@@ -70159,7 +70195,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>94</v>
@@ -70257,7 +70293,7 @@
         <v>180</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>94</v>
@@ -70355,7 +70391,7 @@
         <v>250</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>94</v>
@@ -70453,7 +70489,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>94</v>
@@ -70551,7 +70587,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>94</v>
@@ -70649,7 +70685,7 @@
         <v>400</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>94</v>
@@ -70747,7 +70783,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>94</v>
@@ -70845,7 +70881,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>94</v>
@@ -71335,7 +71371,7 @@
         <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>94</v>
@@ -71433,7 +71469,7 @@
         <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>94</v>
@@ -71531,7 +71567,7 @@
         <v>180</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>94</v>
@@ -71629,7 +71665,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>94</v>
@@ -71727,7 +71763,7 @@
         <v>300</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>94</v>
@@ -71825,7 +71861,7 @@
         <v>350</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>94</v>
@@ -71923,7 +71959,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>94</v>
@@ -72021,7 +72057,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>94</v>
@@ -72119,7 +72155,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23719A75-5FFB-49BB-8423-EB2D9A892E5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD86E0-51E2-46B2-8135-E066128A5084}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="385">
   <si>
     <t>sheet名</t>
   </si>
@@ -1437,6 +1437,36 @@
     <t>LaserGun-Normal-bk6</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>MainShip-bk7</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk8</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk9</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk7</t>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk8</t>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk9</t>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk7</t>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk8</t>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk9</t>
+  </si>
 </sst>
 </file>
 
@@ -68099,7 +68129,7 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F40" sqref="F40:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69117,7 +69147,7 @@
         <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>94</v>
@@ -69215,7 +69245,7 @@
         <v>300</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>94</v>
@@ -69313,7 +69343,7 @@
         <v>350</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>94</v>
@@ -69411,7 +69441,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -69509,7 +69539,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -69607,7 +69637,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -70391,7 +70421,7 @@
         <v>250</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>94</v>
@@ -70489,7 +70519,7 @@
         <v>300</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>94</v>
@@ -70587,7 +70617,7 @@
         <v>350</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>94</v>
@@ -70685,7 +70715,7 @@
         <v>400</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>94</v>
@@ -70783,7 +70813,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>94</v>
@@ -70881,7 +70911,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>94</v>
@@ -71665,7 +71695,7 @@
         <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>94</v>
@@ -71763,7 +71793,7 @@
         <v>300</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>94</v>
@@ -71861,7 +71891,7 @@
         <v>350</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>94</v>
@@ -71959,7 +71989,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>94</v>
@@ -72057,7 +72087,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>94</v>
@@ -72155,7 +72185,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD86E0-51E2-46B2-8135-E066128A5084}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734D8A35-8E31-409A-BFC2-DBC9CB106450}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68128,8 +68128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69750,7 +69750,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="L17" s="5">
         <v>10</v>
@@ -69848,7 +69848,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>155</v>
+        <v>1550</v>
       </c>
       <c r="L18" s="5">
         <v>15</v>
@@ -69946,7 +69946,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>735</v>
+        <v>7350</v>
       </c>
       <c r="L19" s="5">
         <v>20</v>
@@ -70044,7 +70044,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>2210</v>
+        <v>22100</v>
       </c>
       <c r="L20" s="5">
         <v>25</v>
@@ -70142,7 +70142,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>4738</v>
+        <v>47380</v>
       </c>
       <c r="L21" s="5">
         <v>32</v>
@@ -70240,7 +70240,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>9498</v>
+        <v>94980</v>
       </c>
       <c r="L22" s="5">
         <v>40</v>
@@ -70338,7 +70338,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>18448</v>
+        <v>184480</v>
       </c>
       <c r="L23" s="5">
         <v>50</v>
@@ -70436,7 +70436,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>33388</v>
+        <v>333880</v>
       </c>
       <c r="L24" s="5">
         <v>60</v>
@@ -70534,7 +70534,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>54318</v>
+        <v>543180</v>
       </c>
       <c r="L25" s="5">
         <v>70</v>
@@ -70632,7 +70632,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>82238</v>
+        <v>822380</v>
       </c>
       <c r="L26" s="5">
         <v>80</v>
@@ -70730,7 +70730,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>118148</v>
+        <v>1181480</v>
       </c>
       <c r="L27" s="5">
         <v>90</v>
@@ -70828,7 +70828,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>163048</v>
+        <v>1630480</v>
       </c>
       <c r="L28" s="5">
         <v>100</v>
@@ -70926,7 +70926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>222928</v>
+        <v>2229280</v>
       </c>
       <c r="L29" s="5">
         <v>120</v>
@@ -71024,7 +71024,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="L30" s="5">
         <v>10</v>
@@ -71122,7 +71122,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="5">
-        <v>155</v>
+        <v>735</v>
       </c>
       <c r="L31" s="5">
         <v>15</v>
@@ -71220,7 +71220,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>735</v>
+        <v>1315</v>
       </c>
       <c r="L32" s="5">
         <v>20</v>
@@ -71318,7 +71318,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="5">
-        <v>2210</v>
+        <v>2790</v>
       </c>
       <c r="L33" s="5">
         <v>25</v>
@@ -71416,7 +71416,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>4738</v>
+        <v>5318</v>
       </c>
       <c r="L34" s="5">
         <v>32</v>
@@ -71514,7 +71514,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="5">
-        <v>9498</v>
+        <v>10078</v>
       </c>
       <c r="L35" s="5">
         <v>40</v>
@@ -71612,7 +71612,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>18448</v>
+        <v>19028</v>
       </c>
       <c r="L36" s="5">
         <v>50</v>
@@ -71710,7 +71710,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>33388</v>
+        <v>33968</v>
       </c>
       <c r="L37" s="5">
         <v>60</v>
@@ -71808,7 +71808,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>54318</v>
+        <v>54898</v>
       </c>
       <c r="L38" s="5">
         <v>70</v>
@@ -71906,7 +71906,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5">
-        <v>82238</v>
+        <v>82818</v>
       </c>
       <c r="L39" s="5">
         <v>80</v>
@@ -72004,7 +72004,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>118148</v>
+        <v>118728</v>
       </c>
       <c r="L40" s="5">
         <v>90</v>
@@ -72102,7 +72102,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5">
-        <v>163048</v>
+        <v>163628</v>
       </c>
       <c r="L41" s="5">
         <v>100</v>
@@ -72200,7 +72200,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>222928</v>
+        <v>223508</v>
       </c>
       <c r="L42" s="5">
         <v>120</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734D8A35-8E31-409A-BFC2-DBC9CB106450}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5E288C-6935-4803-AF9D-74C2DBFFEA41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68128,8 +68128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69750,7 +69750,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L17" s="5">
         <v>10</v>
@@ -69848,7 +69848,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>1550</v>
+        <v>435</v>
       </c>
       <c r="L18" s="5">
         <v>15</v>
@@ -69946,7 +69946,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>7350</v>
+        <v>1015</v>
       </c>
       <c r="L19" s="5">
         <v>20</v>
@@ -70044,7 +70044,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>22100</v>
+        <v>2490</v>
       </c>
       <c r="L20" s="5">
         <v>25</v>
@@ -70142,7 +70142,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>47380</v>
+        <v>5018</v>
       </c>
       <c r="L21" s="5">
         <v>32</v>
@@ -70240,7 +70240,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>94980</v>
+        <v>9778</v>
       </c>
       <c r="L22" s="5">
         <v>40</v>
@@ -70338,7 +70338,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>184480</v>
+        <v>18728</v>
       </c>
       <c r="L23" s="5">
         <v>50</v>
@@ -70436,7 +70436,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>333880</v>
+        <v>33668</v>
       </c>
       <c r="L24" s="5">
         <v>60</v>
@@ -70534,7 +70534,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>543180</v>
+        <v>54598</v>
       </c>
       <c r="L25" s="5">
         <v>70</v>
@@ -70632,7 +70632,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>822380</v>
+        <v>82518</v>
       </c>
       <c r="L26" s="5">
         <v>80</v>
@@ -70730,7 +70730,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>1181480</v>
+        <v>118428</v>
       </c>
       <c r="L27" s="5">
         <v>90</v>
@@ -70828,7 +70828,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>1630480</v>
+        <v>163328</v>
       </c>
       <c r="L28" s="5">
         <v>100</v>
@@ -70926,7 +70926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>2229280</v>
+        <v>223208</v>
       </c>
       <c r="L29" s="5">
         <v>120</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5E288C-6935-4803-AF9D-74C2DBFFEA41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8892A5-0A7D-4CCC-B283-0D5185C87197}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68128,7 +68128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8892A5-0A7D-4CCC-B283-0D5185C87197}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DB3EC9-B6E6-436F-A5BF-BD2E29243DF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="394">
   <si>
     <t>sheet名</t>
   </si>
@@ -1467,6 +1467,42 @@
   <si>
     <t>LaserGun-Normal-bk9</t>
   </si>
+  <si>
+    <t>MissileLaunch-Normal-bk10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileLaunch-Normal-bk12</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainShip-bk12</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun-Normal-bk12</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -68129,7 +68165,7 @@
   <dimension ref="A1:AF42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69441,7 +69477,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>94</v>
@@ -69539,7 +69575,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>94</v>
@@ -69637,7 +69673,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>94</v>
@@ -70715,7 +70751,7 @@
         <v>400</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>94</v>
@@ -70813,7 +70849,7 @@
         <v>450</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>94</v>
@@ -70911,7 +70947,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>94</v>
@@ -71989,7 +72025,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>94</v>
@@ -72087,7 +72123,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>94</v>
@@ -72185,7 +72221,7 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>94</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D3886-4D08-4AF9-9FC5-94E24340A6AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19738BEB-1F11-40CD-83E4-A654368494C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="400">
   <si>
     <t>sheet名</t>
   </si>
@@ -1503,6 +1503,29 @@
     <t>LaserGun-Normal-bk12</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>upProb[5].zfMin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[5].zfMax</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[5].prob</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>upProb[5].desc</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄die，再不直升真的要洗脸了！！！</t>
+  </si>
+  <si>
+    <t>兄die，再不直升真的要洗脸了！！！</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2674,11 +2697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D1997" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2004" sqref="E2004:F3003"/>
+      <selection pane="bottomRight" activeCell="I2011" sqref="I2011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74230,10 +74253,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR33" sqref="AR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74273,10 +74296,14 @@
     <col min="38" max="38" width="18" style="1" customWidth="1"/>
     <col min="39" max="39" width="17.875" style="1" customWidth="1"/>
     <col min="40" max="40" width="25.25" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="1"/>
+    <col min="41" max="41" width="17" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="35.625" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -74397,8 +74424,20 @@
       <c r="AN1" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -74519,8 +74558,20 @@
       <c r="AN2" s="10" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+      <c r="AO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -74641,8 +74692,20 @@
       <c r="AN3" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -74763,8 +74826,20 @@
       <c r="AN4" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -74835,7 +74910,7 @@
         <v>3</v>
       </c>
       <c r="X5" s="5">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Y5" s="5">
         <v>0</v>
@@ -74885,8 +74960,20 @@
       <c r="AN5" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO5" s="5">
+        <v>120</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>138</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -74957,7 +75044,7 @@
         <v>4</v>
       </c>
       <c r="X6" s="5">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
@@ -75007,8 +75094,20 @@
       <c r="AN6" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO6" s="5">
+        <v>240</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>276</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -75079,7 +75178,7 @@
         <v>7</v>
       </c>
       <c r="X7" s="5">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="Y7" s="5">
         <v>0</v>
@@ -75129,8 +75228,20 @@
       <c r="AN7" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO7" s="5">
+        <v>480</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>552</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -75201,7 +75312,7 @@
         <v>11</v>
       </c>
       <c r="X8" s="5">
-        <v>960</v>
+        <v>1104</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -75251,8 +75362,20 @@
       <c r="AN8" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO8" s="5">
+        <v>960</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>1104</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -75323,7 +75446,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="5">
-        <v>1440</v>
+        <v>1656</v>
       </c>
       <c r="Y9" s="5">
         <v>0</v>
@@ -75373,8 +75496,20 @@
       <c r="AN9" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO9" s="5">
+        <v>1440</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>1656</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -75445,7 +75580,7 @@
         <v>20</v>
       </c>
       <c r="X10" s="5">
-        <v>2400</v>
+        <v>2760</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
@@ -75495,8 +75630,20 @@
       <c r="AN10" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO10" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>2760</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -75567,7 +75714,7 @@
         <v>24</v>
       </c>
       <c r="X11" s="5">
-        <v>3600</v>
+        <v>4140</v>
       </c>
       <c r="Y11" s="5">
         <v>0</v>
@@ -75617,8 +75764,20 @@
       <c r="AN11" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO11" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>4140</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -75689,7 +75848,7 @@
         <v>30</v>
       </c>
       <c r="X12" s="5">
-        <v>4800</v>
+        <v>5520</v>
       </c>
       <c r="Y12" s="5">
         <v>0</v>
@@ -75739,8 +75898,20 @@
       <c r="AN12" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO12" s="5">
+        <v>4800</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>5520</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -75811,7 +75982,7 @@
         <v>35</v>
       </c>
       <c r="X13" s="5">
-        <v>7200</v>
+        <v>8280</v>
       </c>
       <c r="Y13" s="5">
         <v>0</v>
@@ -75861,8 +76032,20 @@
       <c r="AN13" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO13" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>8280</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -75933,7 +76116,7 @@
         <v>40</v>
       </c>
       <c r="X14" s="5">
-        <v>9625</v>
+        <v>11068</v>
       </c>
       <c r="Y14" s="5">
         <v>0</v>
@@ -75983,8 +76166,20 @@
       <c r="AN14" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO14" s="5">
+        <v>9625</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>11068</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -76055,7 +76250,7 @@
         <v>45</v>
       </c>
       <c r="X15" s="5">
-        <v>12000</v>
+        <v>13800</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
@@ -76105,8 +76300,20 @@
       <c r="AN15" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO15" s="5">
+        <v>12000</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>13800</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -76177,7 +76384,7 @@
         <v>50</v>
       </c>
       <c r="X16" s="5">
-        <v>14400</v>
+        <v>16560</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
@@ -76227,8 +76434,20 @@
       <c r="AN16" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO16" s="5">
+        <v>14400</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>16560</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -76349,8 +76568,20 @@
       <c r="AN17" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -76421,7 +76652,7 @@
         <v>3</v>
       </c>
       <c r="X18" s="5">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -76471,8 +76702,20 @@
       <c r="AN18" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO18" s="5">
+        <v>120</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>138</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -76543,7 +76786,7 @@
         <v>4</v>
       </c>
       <c r="X19" s="5">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
@@ -76593,8 +76836,20 @@
       <c r="AN19" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO19" s="5">
+        <v>240</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>276</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -76665,7 +76920,7 @@
         <v>7</v>
       </c>
       <c r="X20" s="5">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
@@ -76715,8 +76970,20 @@
       <c r="AN20" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO20" s="5">
+        <v>480</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>552</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -76787,7 +77054,7 @@
         <v>11</v>
       </c>
       <c r="X21" s="5">
-        <v>960</v>
+        <v>1104</v>
       </c>
       <c r="Y21" s="5">
         <v>0</v>
@@ -76837,8 +77104,20 @@
       <c r="AN21" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO21" s="5">
+        <v>960</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>1104</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -76909,7 +77188,7 @@
         <v>15</v>
       </c>
       <c r="X22" s="5">
-        <v>1440</v>
+        <v>1656</v>
       </c>
       <c r="Y22" s="5">
         <v>0</v>
@@ -76959,8 +77238,20 @@
       <c r="AN22" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO22" s="5">
+        <v>1440</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>1656</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -77031,7 +77322,7 @@
         <v>20</v>
       </c>
       <c r="X23" s="5">
-        <v>2400</v>
+        <v>2760</v>
       </c>
       <c r="Y23" s="5">
         <v>0</v>
@@ -77081,8 +77372,20 @@
       <c r="AN23" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO23" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>2760</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -77153,7 +77456,7 @@
         <v>24</v>
       </c>
       <c r="X24" s="5">
-        <v>3600</v>
+        <v>4140</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
@@ -77203,8 +77506,20 @@
       <c r="AN24" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO24" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>4140</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -77275,7 +77590,7 @@
         <v>30</v>
       </c>
       <c r="X25" s="5">
-        <v>4800</v>
+        <v>5520</v>
       </c>
       <c r="Y25" s="5">
         <v>0</v>
@@ -77325,8 +77640,20 @@
       <c r="AN25" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO25" s="5">
+        <v>4800</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>5520</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -77397,7 +77724,7 @@
         <v>35</v>
       </c>
       <c r="X26" s="5">
-        <v>7200</v>
+        <v>8280</v>
       </c>
       <c r="Y26" s="5">
         <v>0</v>
@@ -77447,8 +77774,20 @@
       <c r="AN26" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO26" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>8280</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -77519,7 +77858,7 @@
         <v>40</v>
       </c>
       <c r="X27" s="5">
-        <v>9625</v>
+        <v>11068</v>
       </c>
       <c r="Y27" s="5">
         <v>0</v>
@@ -77569,8 +77908,20 @@
       <c r="AN27" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO27" s="5">
+        <v>9625</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>11068</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -77641,7 +77992,7 @@
         <v>45</v>
       </c>
       <c r="X28" s="5">
-        <v>12000</v>
+        <v>13800</v>
       </c>
       <c r="Y28" s="5">
         <v>0</v>
@@ -77691,8 +78042,20 @@
       <c r="AN28" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO28" s="5">
+        <v>12000</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>13800</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -77763,7 +78126,7 @@
         <v>50</v>
       </c>
       <c r="X29" s="5">
-        <v>14400</v>
+        <v>16560</v>
       </c>
       <c r="Y29" s="5">
         <v>0</v>
@@ -77813,8 +78176,20 @@
       <c r="AN29" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO29" s="5">
+        <v>14400</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>16560</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -77935,8 +78310,20 @@
       <c r="AN30" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -78007,7 +78394,7 @@
         <v>3</v>
       </c>
       <c r="X31" s="5">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -78057,8 +78444,20 @@
       <c r="AN31" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO31" s="5">
+        <v>120</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>138</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -78129,7 +78528,7 @@
         <v>4</v>
       </c>
       <c r="X32" s="5">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="Y32" s="5">
         <v>0</v>
@@ -78179,8 +78578,20 @@
       <c r="AN32" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO32" s="5">
+        <v>240</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>276</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -78251,7 +78662,7 @@
         <v>7</v>
       </c>
       <c r="X33" s="5">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="Y33" s="5">
         <v>0</v>
@@ -78301,8 +78712,20 @@
       <c r="AN33" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO33" s="5">
+        <v>480</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>552</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -78373,7 +78796,7 @@
         <v>11</v>
       </c>
       <c r="X34" s="5">
-        <v>960</v>
+        <v>1104</v>
       </c>
       <c r="Y34" s="5">
         <v>0</v>
@@ -78423,8 +78846,20 @@
       <c r="AN34" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO34" s="5">
+        <v>960</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>1104</v>
+      </c>
+      <c r="AQ34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -78495,7 +78930,7 @@
         <v>15</v>
       </c>
       <c r="X35" s="5">
-        <v>1440</v>
+        <v>1656</v>
       </c>
       <c r="Y35" s="5">
         <v>0</v>
@@ -78545,8 +78980,20 @@
       <c r="AN35" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="36" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO35" s="5">
+        <v>1440</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>1656</v>
+      </c>
+      <c r="AQ35" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -78617,7 +79064,7 @@
         <v>20</v>
       </c>
       <c r="X36" s="5">
-        <v>2400</v>
+        <v>2760</v>
       </c>
       <c r="Y36" s="5">
         <v>0</v>
@@ -78667,8 +79114,20 @@
       <c r="AN36" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="37" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO36" s="5">
+        <v>2400</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>2760</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -78739,7 +79198,7 @@
         <v>24</v>
       </c>
       <c r="X37" s="5">
-        <v>3600</v>
+        <v>4140</v>
       </c>
       <c r="Y37" s="5">
         <v>0</v>
@@ -78789,8 +79248,20 @@
       <c r="AN37" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO37" s="5">
+        <v>3600</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>4140</v>
+      </c>
+      <c r="AQ37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -78861,7 +79332,7 @@
         <v>30</v>
       </c>
       <c r="X38" s="5">
-        <v>4800</v>
+        <v>5520</v>
       </c>
       <c r="Y38" s="5">
         <v>0</v>
@@ -78911,8 +79382,20 @@
       <c r="AN38" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO38" s="5">
+        <v>4800</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>5520</v>
+      </c>
+      <c r="AQ38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -78983,7 +79466,7 @@
         <v>35</v>
       </c>
       <c r="X39" s="5">
-        <v>7200</v>
+        <v>8280</v>
       </c>
       <c r="Y39" s="5">
         <v>0</v>
@@ -79033,8 +79516,20 @@
       <c r="AN39" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO39" s="5">
+        <v>7200</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>8280</v>
+      </c>
+      <c r="AQ39" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -79105,7 +79600,7 @@
         <v>40</v>
       </c>
       <c r="X40" s="5">
-        <v>9625</v>
+        <v>11068</v>
       </c>
       <c r="Y40" s="5">
         <v>0</v>
@@ -79155,8 +79650,20 @@
       <c r="AN40" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO40" s="5">
+        <v>9625</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>11068</v>
+      </c>
+      <c r="AQ40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -79227,7 +79734,7 @@
         <v>45</v>
       </c>
       <c r="X41" s="5">
-        <v>12000</v>
+        <v>13800</v>
       </c>
       <c r="Y41" s="5">
         <v>0</v>
@@ -79277,8 +79784,20 @@
       <c r="AN41" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AO41" s="5">
+        <v>12000</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>13800</v>
+      </c>
+      <c r="AQ41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -79349,7 +79868,7 @@
         <v>50</v>
       </c>
       <c r="X42" s="5">
-        <v>14400</v>
+        <v>16560</v>
       </c>
       <c r="Y42" s="5">
         <v>0</v>
@@ -79398,11 +79917,23 @@
       </c>
       <c r="AN42" s="5" t="s">
         <v>364</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>14400</v>
+      </c>
+      <c r="AP42" s="5">
+        <v>16560</v>
+      </c>
+      <c r="AQ42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19738BEB-1F11-40CD-83E4-A654368494C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03816E4A-5858-44F0-9A7F-26884DBF1BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:M3003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D1997" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I2011" sqref="I2011"/>
@@ -68187,8 +68187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68526,7 +68526,7 @@
         <v>94</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -68624,7 +68624,7 @@
         <v>94</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -68722,7 +68722,7 @@
         <v>94</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -68820,7 +68820,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -68918,7 +68918,7 @@
         <v>94</v>
       </c>
       <c r="H8" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -69016,7 +69016,7 @@
         <v>94</v>
       </c>
       <c r="H9" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -69114,7 +69114,7 @@
         <v>94</v>
       </c>
       <c r="H10" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -69212,7 +69212,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -69310,7 +69310,7 @@
         <v>94</v>
       </c>
       <c r="H12" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -69408,7 +69408,7 @@
         <v>94</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -69506,7 +69506,7 @@
         <v>94</v>
       </c>
       <c r="H14" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -69604,7 +69604,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -69702,7 +69702,7 @@
         <v>94</v>
       </c>
       <c r="H16" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -74255,8 +74255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR33" sqref="AR33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3F61D-493B-40AA-B0FE-92E9867F114F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CA613-D672-45E5-9AEA-7608983B14E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -68157,8 +68157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74225,8 +74225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CA613-D672-45E5-9AEA-7608983B14E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759D15C-6C3A-4E09-A8B3-48F4ADA48E16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="409">
   <si>
     <t>sheet名</t>
   </si>
@@ -1496,6 +1496,97 @@
     <t>兄die，再不直升真的要洗脸了！！！</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>attr[1].id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[3].id</t>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+  </si>
+  <si>
+    <t>attr_id:&lt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性ID1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性槽1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性权重1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性槽2</t>
+  </si>
+  <si>
+    <t>属性ID3</t>
+  </si>
+  <si>
+    <t>属性槽3</t>
+  </si>
+  <si>
+    <t>属性权重3</t>
+  </si>
+  <si>
+    <t>属性值3</t>
+  </si>
 </sst>
 </file>
 
@@ -2671,7 +2762,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2011" sqref="I2011"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68157,8 +68248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74223,10 +74314,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30:AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74258,10 +74349,22 @@
     <col min="30" max="30" width="18" style="1" customWidth="1"/>
     <col min="31" max="31" width="17.875" style="1" customWidth="1"/>
     <col min="32" max="32" width="35.625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="1"/>
+    <col min="33" max="33" width="10.625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.25" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="14.75" style="1" customWidth="1"/>
+    <col min="42" max="42" width="14.375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.375" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -74358,8 +74461,44 @@
       <c r="AF1" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -74456,8 +74595,44 @@
       <c r="AF2" s="10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="AG2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -74554,8 +74729,44 @@
       <c r="AF3" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG3" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -74652,8 +74863,44 @@
       <c r="AF4" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -74750,8 +74997,44 @@
       <c r="AF5" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -74848,8 +75131,44 @@
       <c r="AF6" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -74946,8 +75265,44 @@
       <c r="AF7" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -75044,8 +75399,44 @@
       <c r="AF8" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -75142,8 +75533,44 @@
       <c r="AF9" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -75240,8 +75667,44 @@
       <c r="AF10" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -75338,8 +75801,44 @@
       <c r="AF11" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -75436,8 +75935,44 @@
       <c r="AF12" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -75534,8 +76069,44 @@
       <c r="AF13" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AO13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -75632,8 +76203,44 @@
       <c r="AF14" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AO14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -75730,8 +76337,44 @@
       <c r="AF15" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AO15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -75828,8 +76471,44 @@
       <c r="AF16" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -75926,8 +76605,44 @@
       <c r="AF17" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR17" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -76024,8 +76739,44 @@
       <c r="AF18" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AO18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -76122,8 +76873,44 @@
       <c r="AF19" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AO19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -76220,8 +77007,44 @@
       <c r="AF20" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AO20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -76318,8 +77141,44 @@
       <c r="AF21" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AO21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -76416,8 +77275,44 @@
       <c r="AF22" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AO22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -76514,8 +77409,44 @@
       <c r="AF23" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AO23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -76612,8 +77543,44 @@
       <c r="AF24" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AO24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -76710,8 +77677,44 @@
       <c r="AF25" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -76808,8 +77811,44 @@
       <c r="AF26" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AO26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -76906,8 +77945,44 @@
       <c r="AF27" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -77004,8 +78079,44 @@
       <c r="AF28" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AO28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -77102,8 +78213,44 @@
       <c r="AF29" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP29" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -77200,8 +78347,44 @@
       <c r="AF30" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -77298,8 +78481,44 @@
       <c r="AF31" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AO31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -77396,8 +78615,44 @@
       <c r="AF32" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AO32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -77494,8 +78749,44 @@
       <c r="AF33" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG33" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AO33" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP33" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -77592,8 +78883,44 @@
       <c r="AF34" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="AO34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP34" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -77690,8 +79017,44 @@
       <c r="AF35" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AO35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP35" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -77788,8 +79151,44 @@
       <c r="AF36" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AO36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP36" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -77886,8 +79285,44 @@
       <c r="AF37" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AO37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -77984,8 +79419,44 @@
       <c r="AF38" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL38" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP38" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -78082,8 +79553,44 @@
       <c r="AF39" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="AO39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -78180,8 +79687,44 @@
       <c r="AF40" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AK40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL40" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AO40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP40" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -78278,8 +79821,44 @@
       <c r="AF41" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AG41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AK41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AO41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -78375,6 +79954,42 @@
       </c>
       <c r="AF42" s="5" t="s">
         <v>388</v>
+      </c>
+      <c r="AG42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759D15C-6C3A-4E09-A8B3-48F4ADA48E16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900549A9-448F-4D70-9A83-7D01A94D76EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2762,7 +2762,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68248,8 +68248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68748,7 +68748,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="5">
-        <v>27.18</v>
+        <v>25</v>
       </c>
       <c r="AD5" s="5">
         <v>11</v>
@@ -68846,7 +68846,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="5">
-        <v>167.57</v>
+        <v>83.79</v>
       </c>
       <c r="AD6" s="5">
         <v>11</v>
@@ -68941,10 +68941,10 @@
         <v>1</v>
       </c>
       <c r="AB7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="5">
-        <v>1.1499999999999999</v>
+        <v>1118.5999999999999</v>
       </c>
       <c r="AD7" s="5">
         <v>11</v>
@@ -69039,10 +69039,10 @@
         <v>1</v>
       </c>
       <c r="AB8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="5">
-        <v>4.7</v>
+        <v>4534.26</v>
       </c>
       <c r="AD8" s="5">
         <v>11</v>
@@ -69140,7 +69140,7 @@
         <v>2</v>
       </c>
       <c r="AC9" s="5">
-        <v>25.03</v>
+        <v>24.13</v>
       </c>
       <c r="AD9" s="5">
         <v>11</v>
@@ -69238,7 +69238,7 @@
         <v>2</v>
       </c>
       <c r="AC10" s="5">
-        <v>144.19</v>
+        <v>140.49</v>
       </c>
       <c r="AD10" s="5">
         <v>11</v>
@@ -69336,7 +69336,7 @@
         <v>2</v>
       </c>
       <c r="AC11" s="5">
-        <v>329.51</v>
+        <v>324.44</v>
       </c>
       <c r="AD11" s="5">
         <v>11</v>
@@ -69431,10 +69431,10 @@
         <v>1</v>
       </c>
       <c r="AB12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="5">
-        <v>1.87</v>
+        <v>1812.22</v>
       </c>
       <c r="AD12" s="5">
         <v>11</v>
@@ -69529,10 +69529,10 @@
         <v>1</v>
       </c>
       <c r="AB13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="5">
-        <v>4.1100000000000003</v>
+        <v>4024.01</v>
       </c>
       <c r="AD13" s="5">
         <v>11</v>
@@ -69627,10 +69627,10 @@
         <v>1</v>
       </c>
       <c r="AB14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="5">
-        <v>6.33</v>
+        <v>6175.57</v>
       </c>
       <c r="AD14" s="5">
         <v>11</v>
@@ -69728,7 +69728,7 @@
         <v>3</v>
       </c>
       <c r="AC15" s="5">
-        <v>10.41</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AD15" s="5">
         <v>11</v>
@@ -69826,7 +69826,7 @@
         <v>3</v>
       </c>
       <c r="AC16" s="5">
-        <v>36.11</v>
+        <v>35.03</v>
       </c>
       <c r="AD16" s="5">
         <v>11</v>
@@ -70022,7 +70022,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="5">
-        <v>36.229999999999997</v>
+        <v>33.33</v>
       </c>
       <c r="AD18" s="5">
         <v>11</v>
@@ -70120,7 +70120,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="5">
-        <v>223.43</v>
+        <v>111.71</v>
       </c>
       <c r="AD19" s="5">
         <v>11</v>
@@ -70215,10 +70215,10 @@
         <v>1</v>
       </c>
       <c r="AB20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="5">
-        <v>1.53</v>
+        <v>1491.47</v>
       </c>
       <c r="AD20" s="5">
         <v>11</v>
@@ -70313,10 +70313,10 @@
         <v>1</v>
       </c>
       <c r="AB21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="5">
-        <v>6.27</v>
+        <v>6045.68</v>
       </c>
       <c r="AD21" s="5">
         <v>11</v>
@@ -70414,7 +70414,7 @@
         <v>2</v>
       </c>
       <c r="AC22" s="5">
-        <v>33.369999999999997</v>
+        <v>32.18</v>
       </c>
       <c r="AD22" s="5">
         <v>11</v>
@@ -70512,7 +70512,7 @@
         <v>2</v>
       </c>
       <c r="AC23" s="5">
-        <v>192.25</v>
+        <v>187.32</v>
       </c>
       <c r="AD23" s="5">
         <v>11</v>
@@ -70610,7 +70610,7 @@
         <v>2</v>
       </c>
       <c r="AC24" s="5">
-        <v>439.34</v>
+        <v>432.59</v>
       </c>
       <c r="AD24" s="5">
         <v>11</v>
@@ -70705,10 +70705,10 @@
         <v>1</v>
       </c>
       <c r="AB25" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC25" s="5">
-        <v>2.4900000000000002</v>
+        <v>2416.3000000000002</v>
       </c>
       <c r="AD25" s="5">
         <v>11</v>
@@ -70803,10 +70803,10 @@
         <v>1</v>
       </c>
       <c r="AB26" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="5">
-        <v>5.48</v>
+        <v>5365.34</v>
       </c>
       <c r="AD26" s="5">
         <v>11</v>
@@ -70901,10 +70901,10 @@
         <v>1</v>
       </c>
       <c r="AB27" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC27" s="5">
-        <v>8.44</v>
+        <v>8234.1</v>
       </c>
       <c r="AD27" s="5">
         <v>11</v>
@@ -71002,7 +71002,7 @@
         <v>3</v>
       </c>
       <c r="AC28" s="5">
-        <v>13.89</v>
+        <v>13.39</v>
       </c>
       <c r="AD28" s="5">
         <v>11</v>
@@ -71100,7 +71100,7 @@
         <v>3</v>
       </c>
       <c r="AC29" s="5">
-        <v>48.14</v>
+        <v>46.7</v>
       </c>
       <c r="AD29" s="5">
         <v>11</v>
@@ -71296,7 +71296,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="5">
-        <v>36.229999999999997</v>
+        <v>33.33</v>
       </c>
       <c r="AD31" s="5">
         <v>11</v>
@@ -71394,7 +71394,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="5">
-        <v>223.43</v>
+        <v>111.71</v>
       </c>
       <c r="AD32" s="5">
         <v>11</v>
@@ -71489,10 +71489,10 @@
         <v>1</v>
       </c>
       <c r="AB33" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="5">
-        <v>1.53</v>
+        <v>1491.47</v>
       </c>
       <c r="AD33" s="5">
         <v>11</v>
@@ -71587,10 +71587,10 @@
         <v>1</v>
       </c>
       <c r="AB34" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="5">
-        <v>6.27</v>
+        <v>6045.68</v>
       </c>
       <c r="AD34" s="5">
         <v>11</v>
@@ -71688,7 +71688,7 @@
         <v>2</v>
       </c>
       <c r="AC35" s="5">
-        <v>33.369999999999997</v>
+        <v>32.18</v>
       </c>
       <c r="AD35" s="5">
         <v>11</v>
@@ -71786,7 +71786,7 @@
         <v>2</v>
       </c>
       <c r="AC36" s="5">
-        <v>192.25</v>
+        <v>187.32</v>
       </c>
       <c r="AD36" s="5">
         <v>11</v>
@@ -71884,7 +71884,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="5">
-        <v>439.34</v>
+        <v>432.59</v>
       </c>
       <c r="AD37" s="5">
         <v>11</v>
@@ -71979,10 +71979,10 @@
         <v>1</v>
       </c>
       <c r="AB38" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="5">
-        <v>2.4900000000000002</v>
+        <v>2416.3000000000002</v>
       </c>
       <c r="AD38" s="5">
         <v>11</v>
@@ -72077,10 +72077,10 @@
         <v>1</v>
       </c>
       <c r="AB39" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="5">
-        <v>5.48</v>
+        <v>5365.34</v>
       </c>
       <c r="AD39" s="5">
         <v>11</v>
@@ -72175,10 +72175,10 @@
         <v>1</v>
       </c>
       <c r="AB40" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC40" s="5">
-        <v>8.44</v>
+        <v>8234.1</v>
       </c>
       <c r="AD40" s="5">
         <v>11</v>
@@ -72276,7 +72276,7 @@
         <v>3</v>
       </c>
       <c r="AC41" s="5">
-        <v>13.89</v>
+        <v>13.39</v>
       </c>
       <c r="AD41" s="5">
         <v>11</v>
@@ -72374,7 +72374,7 @@
         <v>3</v>
       </c>
       <c r="AC42" s="5">
-        <v>48.14</v>
+        <v>46.7</v>
       </c>
       <c r="AD42" s="5">
         <v>11</v>
@@ -74316,7 +74316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG30" sqref="AG30:AR30"/>
     </sheetView>
   </sheetViews>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900549A9-448F-4D70-9A83-7D01A94D76EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80AC6F-DC2C-4751-8E0D-FA993819062F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="414">
   <si>
     <t>sheet名</t>
   </si>
@@ -1587,6 +1587,26 @@
   <si>
     <t>属性值3</t>
   </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldRg</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -68248,7 +68268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
@@ -74316,8 +74336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30:AR30"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -74864,40 +74884,40 @@
         <v>181</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>181</v>
+        <v>409</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>181</v>
+        <v>410</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>181</v>
+        <v>139</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
@@ -74998,7 +75018,7 @@
         <v>389</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH5" s="5">
         <v>2</v>
@@ -75010,7 +75030,7 @@
         <v>0.1</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL5" s="5">
         <v>2</v>
@@ -75132,7 +75152,7 @@
         <v>388</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH6" s="5">
         <v>2</v>
@@ -75144,7 +75164,7 @@
         <v>0.2</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL6" s="5">
         <v>2</v>
@@ -75266,7 +75286,7 @@
         <v>388</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH7" s="5">
         <v>2</v>
@@ -75278,7 +75298,7 @@
         <v>0.3</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL7" s="5">
         <v>2</v>
@@ -75400,7 +75420,7 @@
         <v>388</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH8" s="5">
         <v>2</v>
@@ -75412,7 +75432,7 @@
         <v>0.45</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL8" s="5">
         <v>2</v>
@@ -75534,7 +75554,7 @@
         <v>388</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH9" s="5">
         <v>2</v>
@@ -75546,7 +75566,7 @@
         <v>0.6</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL9" s="5">
         <v>2</v>
@@ -75668,7 +75688,7 @@
         <v>388</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH10" s="5">
         <v>2</v>
@@ -75680,7 +75700,7 @@
         <v>0.75</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL10" s="5">
         <v>2</v>
@@ -75802,7 +75822,7 @@
         <v>388</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH11" s="5">
         <v>2</v>
@@ -75814,7 +75834,7 @@
         <v>0.9</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL11" s="5">
         <v>2</v>
@@ -75936,7 +75956,7 @@
         <v>388</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH12" s="5">
         <v>2</v>
@@ -75948,7 +75968,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL12" s="5">
         <v>2</v>
@@ -76070,7 +76090,7 @@
         <v>388</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH13" s="5">
         <v>2</v>
@@ -76082,7 +76102,7 @@
         <v>1.3</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL13" s="5">
         <v>2</v>
@@ -76204,7 +76224,7 @@
         <v>388</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH14" s="5">
         <v>2</v>
@@ -76216,7 +76236,7 @@
         <v>1.5</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL14" s="5">
         <v>2</v>
@@ -76338,7 +76358,7 @@
         <v>388</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH15" s="5">
         <v>2</v>
@@ -76350,7 +76370,7 @@
         <v>1.75</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL15" s="5">
         <v>2</v>
@@ -76472,7 +76492,7 @@
         <v>388</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="AH16" s="5">
         <v>2</v>
@@ -76484,7 +76504,7 @@
         <v>2</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="AL16" s="5">
         <v>2</v>
@@ -76606,40 +76626,40 @@
         <v>181</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>181</v>
+        <v>411</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN17" s="5" t="s">
-        <v>181</v>
+        <v>412</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ17" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR17" s="5" t="s">
-        <v>181</v>
+        <v>413</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
@@ -76740,7 +76760,7 @@
         <v>388</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH18" s="5">
         <v>2</v>
@@ -76752,7 +76772,7 @@
         <v>0.1</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL18" s="5">
         <v>2</v>
@@ -76764,7 +76784,7 @@
         <v>0.1</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP18" s="5">
         <v>2</v>
@@ -76874,7 +76894,7 @@
         <v>388</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH19" s="5">
         <v>2</v>
@@ -76886,7 +76906,7 @@
         <v>0.2</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL19" s="5">
         <v>2</v>
@@ -76898,7 +76918,7 @@
         <v>0.2</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP19" s="5">
         <v>2</v>
@@ -77008,7 +77028,7 @@
         <v>388</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH20" s="5">
         <v>2</v>
@@ -77020,7 +77040,7 @@
         <v>0.3</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL20" s="5">
         <v>2</v>
@@ -77032,7 +77052,7 @@
         <v>0.3</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP20" s="5">
         <v>2</v>
@@ -77142,7 +77162,7 @@
         <v>388</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH21" s="5">
         <v>2</v>
@@ -77154,7 +77174,7 @@
         <v>0.45</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL21" s="5">
         <v>2</v>
@@ -77166,7 +77186,7 @@
         <v>0.45</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP21" s="5">
         <v>2</v>
@@ -77276,7 +77296,7 @@
         <v>388</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH22" s="5">
         <v>2</v>
@@ -77288,7 +77308,7 @@
         <v>0.6</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL22" s="5">
         <v>2</v>
@@ -77300,7 +77320,7 @@
         <v>0.6</v>
       </c>
       <c r="AO22" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP22" s="5">
         <v>2</v>
@@ -77410,7 +77430,7 @@
         <v>388</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH23" s="5">
         <v>2</v>
@@ -77422,7 +77442,7 @@
         <v>0.75</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL23" s="5">
         <v>2</v>
@@ -77434,7 +77454,7 @@
         <v>0.75</v>
       </c>
       <c r="AO23" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP23" s="5">
         <v>2</v>
@@ -77544,7 +77564,7 @@
         <v>388</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH24" s="5">
         <v>2</v>
@@ -77556,7 +77576,7 @@
         <v>0.9</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL24" s="5">
         <v>2</v>
@@ -77568,7 +77588,7 @@
         <v>0.9</v>
       </c>
       <c r="AO24" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP24" s="5">
         <v>2</v>
@@ -77678,7 +77698,7 @@
         <v>388</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH25" s="5">
         <v>2</v>
@@ -77690,7 +77710,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL25" s="5">
         <v>2</v>
@@ -77702,7 +77722,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AO25" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP25" s="5">
         <v>2</v>
@@ -77812,7 +77832,7 @@
         <v>388</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH26" s="5">
         <v>2</v>
@@ -77824,7 +77844,7 @@
         <v>1.3</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL26" s="5">
         <v>2</v>
@@ -77836,7 +77856,7 @@
         <v>1.3</v>
       </c>
       <c r="AO26" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP26" s="5">
         <v>2</v>
@@ -77946,7 +77966,7 @@
         <v>388</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH27" s="5">
         <v>2</v>
@@ -77958,7 +77978,7 @@
         <v>1.5</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL27" s="5">
         <v>2</v>
@@ -77970,7 +77990,7 @@
         <v>1.5</v>
       </c>
       <c r="AO27" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP27" s="5">
         <v>2</v>
@@ -78080,7 +78100,7 @@
         <v>388</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH28" s="5">
         <v>2</v>
@@ -78092,7 +78112,7 @@
         <v>1.75</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL28" s="5">
         <v>2</v>
@@ -78104,7 +78124,7 @@
         <v>1.75</v>
       </c>
       <c r="AO28" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP28" s="5">
         <v>2</v>
@@ -78214,7 +78234,7 @@
         <v>388</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH29" s="5">
         <v>2</v>
@@ -78226,7 +78246,7 @@
         <v>2</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL29" s="5">
         <v>2</v>
@@ -78238,7 +78258,7 @@
         <v>2</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP29" s="5">
         <v>2</v>
@@ -78348,40 +78368,40 @@
         <v>181</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>181</v>
+        <v>411</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="5">
+        <v>0</v>
       </c>
       <c r="AK30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN30" s="5" t="s">
-        <v>181</v>
+        <v>412</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="5">
+        <v>0</v>
       </c>
       <c r="AO30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR30" s="5" t="s">
-        <v>181</v>
+        <v>413</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:44" ht="16.5" x14ac:dyDescent="0.2">
@@ -78482,7 +78502,7 @@
         <v>388</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH31" s="5">
         <v>2</v>
@@ -78494,7 +78514,7 @@
         <v>0.1</v>
       </c>
       <c r="AK31" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL31" s="5">
         <v>2</v>
@@ -78506,7 +78526,7 @@
         <v>0.1</v>
       </c>
       <c r="AO31" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP31" s="5">
         <v>2</v>
@@ -78616,7 +78636,7 @@
         <v>388</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH32" s="5">
         <v>2</v>
@@ -78628,7 +78648,7 @@
         <v>0.2</v>
       </c>
       <c r="AK32" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL32" s="5">
         <v>2</v>
@@ -78640,7 +78660,7 @@
         <v>0.2</v>
       </c>
       <c r="AO32" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP32" s="5">
         <v>2</v>
@@ -78750,7 +78770,7 @@
         <v>388</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH33" s="5">
         <v>2</v>
@@ -78762,7 +78782,7 @@
         <v>0.3</v>
       </c>
       <c r="AK33" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL33" s="5">
         <v>2</v>
@@ -78774,7 +78794,7 @@
         <v>0.3</v>
       </c>
       <c r="AO33" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP33" s="5">
         <v>2</v>
@@ -78884,7 +78904,7 @@
         <v>388</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH34" s="5">
         <v>2</v>
@@ -78896,7 +78916,7 @@
         <v>0.45</v>
       </c>
       <c r="AK34" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL34" s="5">
         <v>2</v>
@@ -78908,7 +78928,7 @@
         <v>0.45</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP34" s="5">
         <v>2</v>
@@ -79018,7 +79038,7 @@
         <v>388</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH35" s="5">
         <v>2</v>
@@ -79030,7 +79050,7 @@
         <v>0.6</v>
       </c>
       <c r="AK35" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL35" s="5">
         <v>2</v>
@@ -79042,7 +79062,7 @@
         <v>0.6</v>
       </c>
       <c r="AO35" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP35" s="5">
         <v>2</v>
@@ -79152,7 +79172,7 @@
         <v>388</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH36" s="5">
         <v>2</v>
@@ -79164,7 +79184,7 @@
         <v>0.75</v>
       </c>
       <c r="AK36" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL36" s="5">
         <v>2</v>
@@ -79176,7 +79196,7 @@
         <v>0.75</v>
       </c>
       <c r="AO36" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP36" s="5">
         <v>2</v>
@@ -79286,7 +79306,7 @@
         <v>388</v>
       </c>
       <c r="AG37" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH37" s="5">
         <v>2</v>
@@ -79298,7 +79318,7 @@
         <v>0.9</v>
       </c>
       <c r="AK37" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL37" s="5">
         <v>2</v>
@@ -79310,7 +79330,7 @@
         <v>0.9</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP37" s="5">
         <v>2</v>
@@ -79420,7 +79440,7 @@
         <v>388</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH38" s="5">
         <v>2</v>
@@ -79432,7 +79452,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK38" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL38" s="5">
         <v>2</v>
@@ -79444,7 +79464,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AO38" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP38" s="5">
         <v>2</v>
@@ -79554,7 +79574,7 @@
         <v>388</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH39" s="5">
         <v>2</v>
@@ -79566,7 +79586,7 @@
         <v>1.3</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL39" s="5">
         <v>2</v>
@@ -79578,7 +79598,7 @@
         <v>1.3</v>
       </c>
       <c r="AO39" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP39" s="5">
         <v>2</v>
@@ -79688,7 +79708,7 @@
         <v>388</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH40" s="5">
         <v>2</v>
@@ -79700,7 +79720,7 @@
         <v>1.5</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL40" s="5">
         <v>2</v>
@@ -79712,7 +79732,7 @@
         <v>1.5</v>
       </c>
       <c r="AO40" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP40" s="5">
         <v>2</v>
@@ -79822,7 +79842,7 @@
         <v>388</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH41" s="5">
         <v>2</v>
@@ -79834,7 +79854,7 @@
         <v>1.75</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL41" s="5">
         <v>2</v>
@@ -79846,7 +79866,7 @@
         <v>1.75</v>
       </c>
       <c r="AO41" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP41" s="5">
         <v>2</v>
@@ -79956,7 +79976,7 @@
         <v>388</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="AH42" s="5">
         <v>2</v>
@@ -79968,7 +79988,7 @@
         <v>2</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>89</v>
+        <v>412</v>
       </c>
       <c r="AL42" s="5">
         <v>2</v>
@@ -79980,7 +80000,7 @@
         <v>2</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>139</v>
+        <v>413</v>
       </c>
       <c r="AP42" s="5">
         <v>2</v>

--- a/Excel/lvup.战机养成.xlsx
+++ b/Excel/lvup.战机养成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC80AC6F-DC2C-4751-8E0D-FA993819062F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F78772-4801-46E0-9DE9-6F8479C6627A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="417">
   <si>
     <t>sheet名</t>
   </si>
@@ -1607,6 +1607,18 @@
     <t>shieldRg</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>inte:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级上限提升</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知效果</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2778,11 +2790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -68266,16 +68278,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C26CD48-6C44-4AB1-B1C6-72C053458E9F}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
     <col min="7" max="9" width="11.625" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
@@ -68465,7 +68477,7 @@
         <v>278</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>301</v>
@@ -68714,7 +68726,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="L5" s="5">
         <v>15</v>
@@ -68732,7 +68744,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="R5" s="5">
         <v>8</v>
@@ -68750,7 +68762,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="5">
-        <v>1180</v>
+        <v>820</v>
       </c>
       <c r="X5" s="5">
         <v>120</v>
@@ -68812,7 +68824,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="L6" s="5">
         <v>20</v>
@@ -68830,7 +68842,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="R6" s="5">
         <v>10</v>
@@ -68848,7 +68860,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="5">
-        <v>5820</v>
+        <v>5500</v>
       </c>
       <c r="X6" s="5">
         <v>160</v>
@@ -68910,7 +68922,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>2210</v>
+        <v>2275</v>
       </c>
       <c r="L7" s="5">
         <v>25</v>
@@ -68928,7 +68940,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="R7" s="5">
         <v>13</v>
@@ -68946,7 +68958,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="5">
-        <v>17620</v>
+        <v>18140</v>
       </c>
       <c r="X7" s="5">
         <v>200</v>
@@ -69008,7 +69020,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>4738</v>
+        <v>5250</v>
       </c>
       <c r="L8" s="5">
         <v>32</v>
@@ -69026,7 +69038,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>2403</v>
+        <v>2704</v>
       </c>
       <c r="R8" s="5">
         <v>16</v>
@@ -69044,7 +69056,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="5">
-        <v>37844</v>
+        <v>41940</v>
       </c>
       <c r="X8" s="5">
         <v>256</v>
@@ -69106,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>9498</v>
+        <v>10978</v>
       </c>
       <c r="L9" s="5">
         <v>40</v>
@@ -69124,7 +69136,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>4783</v>
+        <v>5568</v>
       </c>
       <c r="R9" s="5">
         <v>20</v>
@@ -69142,7 +69154,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="5">
-        <v>75924</v>
+        <v>87764</v>
       </c>
       <c r="X9" s="5">
         <v>320</v>
@@ -69204,7 +69216,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>18448</v>
+        <v>20938</v>
       </c>
       <c r="L10" s="5">
         <v>50</v>
@@ -69222,7 +69234,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>9258</v>
+        <v>10548</v>
       </c>
       <c r="R10" s="5">
         <v>25</v>
@@ -69240,7 +69252,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="5">
-        <v>147524</v>
+        <v>167444</v>
       </c>
       <c r="X10" s="5">
         <v>400</v>
@@ -69281,7 +69293,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E11" s="5">
         <v>250</v>
@@ -69302,7 +69314,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>33388</v>
+        <v>35888</v>
       </c>
       <c r="L11" s="5">
         <v>60</v>
@@ -69320,7 +69332,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5">
-        <v>16728</v>
+        <v>18023</v>
       </c>
       <c r="R11" s="5">
         <v>30</v>
@@ -69338,7 +69350,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <v>267044</v>
+        <v>287044</v>
       </c>
       <c r="X11" s="5">
         <v>480</v>
@@ -69379,10 +69391,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E12" s="5">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>367</v>
@@ -69400,7 +69412,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>54318</v>
+        <v>56828</v>
       </c>
       <c r="L12" s="5">
         <v>70</v>
@@ -69418,7 +69430,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <v>27193</v>
+        <v>28493</v>
       </c>
       <c r="R12" s="5">
         <v>35</v>
@@ -69436,7 +69448,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>434484</v>
+        <v>454564</v>
       </c>
       <c r="X12" s="5">
         <v>560</v>
@@ -69477,10 +69489,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="5">
+        <v>500</v>
+      </c>
+      <c r="E13" s="5">
         <v>400</v>
-      </c>
-      <c r="E13" s="5">
-        <v>350</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>368</v>
@@ -69498,7 +69510,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>82238</v>
+        <v>84758</v>
       </c>
       <c r="L13" s="5">
         <v>80</v>
@@ -69516,7 +69528,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <v>41153</v>
+        <v>42458</v>
       </c>
       <c r="R13" s="5">
         <v>40</v>
@@ -69534,7 +69546,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>657844</v>
+        <v>678004</v>
       </c>
       <c r="X13" s="5">
         <v>640</v>
@@ -69575,10 +69587,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E14" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>378</v>
@@ -69596,7 +69608,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>118148</v>
+        <v>124678</v>
       </c>
       <c r="L14" s="5">
         <v>90</v>
@@ -69614,7 +69626,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <v>59108</v>
+        <v>62418</v>
       </c>
       <c r="R14" s="5">
         <v>45</v>
@@ -69632,7 +69644,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>945124</v>
+        <v>997364</v>
       </c>
       <c r="X14" s="5">
         <v>720</v>
@@ -69673,10 +69685,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="5">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E15" s="5">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>379</v>
@@ -69694,7 +69706,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>163048</v>
+        <v>178588</v>
       </c>
       <c r="L15" s="5">
         <v>100</v>
@@ -69712,7 +69724,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="5">
-        <v>81558</v>
+        <v>89373</v>
       </c>
       <c r="R15" s="5">
         <v>50</v>
@@ -69730,7 +69742,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>1304324</v>
+        <v>1428644</v>
       </c>
       <c r="X15" s="5">
         <v>800</v>
@@ -69771,10 +69783,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="5">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E16" s="5">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>380</v>
@@ -69792,7 +69804,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>222928</v>
+        <v>248488</v>
       </c>
       <c r="L16" s="5">
         <v>120</v>
@@ -69810,7 +69822,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>111498</v>
+        <v>124323</v>
       </c>
       <c r="R16" s="5">
         <v>60</v>
@@ -69828,7 +69840,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>1783364</v>
+        <v>1987844</v>
       </c>
       <c r="X16" s="5">
         <v>960</v>
@@ -69858,30 +69870,30 @@
         <v>8250</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H17" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -69890,13 +69902,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>300</v>
+        <v>344368</v>
       </c>
       <c r="L17" s="5">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
@@ -69908,13 +69920,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="5">
-        <v>200</v>
+        <v>172263</v>
       </c>
       <c r="R17" s="5">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T17" s="5">
         <v>1</v>
@@ -69926,34 +69938,34 @@
         <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>2</v>
+        <v>2754884</v>
       </c>
       <c r="X17" s="5">
-        <v>2</v>
+        <v>1040</v>
       </c>
       <c r="Y17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>303</v>
+        <v>6.5</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>9000</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -69961,25 +69973,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="5">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -69988,13 +70000,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>435</v>
+        <v>461238</v>
       </c>
       <c r="L18" s="5">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N18" s="5">
         <v>1</v>
@@ -70006,13 +70018,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>1550</v>
+        <v>230698</v>
       </c>
       <c r="R18" s="5">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T18" s="5">
         <v>1</v>
@@ -70024,25 +70036,25 @@
         <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>29</v>
+        <v>3689844</v>
       </c>
       <c r="X18" s="5">
+        <v>1120</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
         <v>3</v>
       </c>
-      <c r="Y18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>201</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="5">
-        <v>1</v>
-      </c>
       <c r="AC18" s="5">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="AD18" s="5">
         <v>11</v>
@@ -70051,7 +70063,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="5">
-        <v>30</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70059,25 +70071,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C19" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5">
-        <v>60</v>
+        <v>1100</v>
       </c>
       <c r="E19" s="5">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H19" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -70086,13 +70098,13 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>1015</v>
+        <v>601098</v>
       </c>
       <c r="L19" s="5">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N19" s="5">
         <v>1</v>
@@ -70104,13 +70116,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="5">
-        <v>7350</v>
+        <v>300628</v>
       </c>
       <c r="R19" s="5">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T19" s="5">
         <v>1</v>
@@ -70122,25 +70134,25 @@
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>145</v>
+        <v>4808724</v>
       </c>
       <c r="X19" s="5">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="Y19" s="5">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" s="5">
-        <v>202</v>
+        <v>400</v>
       </c>
       <c r="AA19" s="5">
         <v>1</v>
       </c>
       <c r="AB19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="5">
-        <v>111.71</v>
+        <v>60</v>
       </c>
       <c r="AD19" s="5">
         <v>11</v>
@@ -70149,7 +70161,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="5">
-        <v>100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70157,25 +70169,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C20" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="5">
-        <v>60</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H20" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -70184,13 +70196,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>2490</v>
+        <v>765948</v>
       </c>
       <c r="L20" s="5">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N20" s="5">
         <v>1</v>
@@ -70202,13 +70214,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="5">
-        <v>22100</v>
+        <v>383053</v>
       </c>
       <c r="R20" s="5">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T20" s="5">
         <v>1</v>
@@ -70220,25 +70232,25 @@
         <v>0</v>
       </c>
       <c r="W20" s="5">
-        <v>440</v>
+        <v>6127524</v>
       </c>
       <c r="X20" s="5">
-        <v>5</v>
+        <v>1280</v>
       </c>
       <c r="Y20" s="5">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="Z20" s="5">
-        <v>203</v>
+        <v>400</v>
       </c>
       <c r="AA20" s="5">
         <v>1</v>
       </c>
       <c r="AB20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="5">
-        <v>1491.47</v>
+        <v>70</v>
       </c>
       <c r="AD20" s="5">
         <v>11</v>
@@ -70247,7 +70259,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="5">
-        <v>250</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70255,25 +70267,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="5">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H21" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -70282,13 +70294,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>5018</v>
+        <v>957788</v>
       </c>
       <c r="L21" s="5">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N21" s="5">
         <v>1</v>
@@ -70300,13 +70312,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="5">
-        <v>47380</v>
+        <v>478973</v>
       </c>
       <c r="R21" s="5">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T21" s="5">
         <v>1</v>
@@ -70318,25 +70330,25 @@
         <v>0</v>
       </c>
       <c r="W21" s="5">
-        <v>914</v>
+        <v>7662244</v>
       </c>
       <c r="X21" s="5">
-        <v>6</v>
+        <v>1360</v>
       </c>
       <c r="Y21" s="5">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" s="5">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="AA21" s="5">
         <v>1</v>
       </c>
       <c r="AB21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="5">
-        <v>6045.68</v>
+        <v>80</v>
       </c>
       <c r="AD21" s="5">
         <v>11</v>
@@ -70345,7 +70357,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="5">
-        <v>400</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70353,25 +70365,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C22" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5">
-        <v>180</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="5">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H22" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
@@ -70380,13 +70392,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>9778</v>
+        <v>1178618</v>
       </c>
       <c r="L22" s="5">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N22" s="5">
         <v>1</v>
@@ -70398,43 +70410,43 @@
         <v>0</v>
       </c>
       <c r="Q22" s="5">
-        <v>94980</v>
+        <v>589388</v>
       </c>
       <c r="R22" s="5">
+        <v>90</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>9428884</v>
+      </c>
+      <c r="X22" s="5">
+        <v>1440</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="5">
         <v>400</v>
       </c>
-      <c r="S22" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>1866</v>
-      </c>
-      <c r="X22" s="5">
-        <v>8</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>205</v>
-      </c>
       <c r="AA22" s="5">
         <v>1</v>
       </c>
       <c r="AB22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="5">
-        <v>32.18</v>
+        <v>90</v>
       </c>
       <c r="AD22" s="5">
         <v>11</v>
@@ -70443,7 +70455,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="5">
-        <v>550</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70451,25 +70463,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C23" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="5">
-        <v>180</v>
+        <v>1400</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
@@ -70478,13 +70490,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <v>18728</v>
+        <v>1430438</v>
       </c>
       <c r="L23" s="5">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N23" s="5">
         <v>1</v>
@@ -70496,13 +70508,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="5">
-        <v>184480</v>
+        <v>715298</v>
       </c>
       <c r="R23" s="5">
-        <v>500</v>
+        <v>95</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T23" s="5">
         <v>1</v>
@@ -70514,25 +70526,25 @@
         <v>0</v>
       </c>
       <c r="W23" s="5">
-        <v>3656</v>
+        <v>11443444</v>
       </c>
       <c r="X23" s="5">
-        <v>10</v>
+        <v>1520</v>
       </c>
       <c r="Y23" s="5">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" s="5">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="AA23" s="5">
         <v>1</v>
       </c>
       <c r="AB23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="5">
-        <v>187.32</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="5">
         <v>11</v>
@@ -70541,7 +70553,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="5">
-        <v>900</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70549,25 +70561,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C24" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="E24" s="5">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H24" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
@@ -70576,13 +70588,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>33668</v>
+        <v>1715248</v>
       </c>
       <c r="L24" s="5">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N24" s="5">
         <v>1</v>
@@ -70594,13 +70606,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="5">
-        <v>333880</v>
+        <v>857703</v>
       </c>
       <c r="R24" s="5">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T24" s="5">
         <v>1</v>
@@ -70612,25 +70624,25 @@
         <v>0</v>
       </c>
       <c r="W24" s="5">
-        <v>6644</v>
+        <v>13721924</v>
       </c>
       <c r="X24" s="5">
-        <v>12</v>
+        <v>1600</v>
       </c>
       <c r="Y24" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5">
         <v>3</v>
       </c>
-      <c r="Z24" s="5">
-        <v>207</v>
-      </c>
-      <c r="AA24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>2</v>
-      </c>
       <c r="AC24" s="5">
-        <v>432.59</v>
+        <v>110</v>
       </c>
       <c r="AD24" s="5">
         <v>11</v>
@@ -70639,7 +70651,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="5">
-        <v>1400</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70647,25 +70659,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C25" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5">
-        <v>350</v>
+        <v>1700</v>
       </c>
       <c r="E25" s="5">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H25" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
@@ -70674,13 +70686,13 @@
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>54598</v>
+        <v>2035048</v>
       </c>
       <c r="L25" s="5">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N25" s="5">
         <v>1</v>
@@ -70692,13 +70704,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="5">
-        <v>543180</v>
+        <v>1017603</v>
       </c>
       <c r="R25" s="5">
-        <v>700</v>
+        <v>105</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T25" s="5">
         <v>1</v>
@@ -70710,25 +70722,25 @@
         <v>0</v>
       </c>
       <c r="W25" s="5">
-        <v>10830</v>
+        <v>16280324</v>
       </c>
       <c r="X25" s="5">
-        <v>14</v>
+        <v>1680</v>
       </c>
       <c r="Y25" s="5">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="5">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="AA25" s="5">
         <v>1</v>
       </c>
       <c r="AB25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC25" s="5">
-        <v>2416.3000000000002</v>
+        <v>120</v>
       </c>
       <c r="AD25" s="5">
         <v>11</v>
@@ -70737,7 +70749,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70745,25 +70757,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C26" s="5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="5">
-        <v>350</v>
+        <v>1700</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H26" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
@@ -70772,13 +70784,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>82518</v>
+        <v>2391838</v>
       </c>
       <c r="L26" s="5">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N26" s="5">
         <v>1</v>
@@ -70790,13 +70802,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="5">
-        <v>822380</v>
+        <v>1195998</v>
       </c>
       <c r="R26" s="5">
-        <v>800</v>
+        <v>110</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T26" s="5">
         <v>1</v>
@@ -70808,25 +70820,25 @@
         <v>0</v>
       </c>
       <c r="W26" s="5">
-        <v>16414</v>
+        <v>19134644</v>
       </c>
       <c r="X26" s="5">
-        <v>16</v>
+        <v>1760</v>
       </c>
       <c r="Y26" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Z26" s="5">
-        <v>209</v>
+        <v>400</v>
       </c>
       <c r="AA26" s="5">
         <v>1</v>
       </c>
       <c r="AB26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="5">
-        <v>5365.34</v>
+        <v>130</v>
       </c>
       <c r="AD26" s="5">
         <v>11</v>
@@ -70835,7 +70847,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="5">
-        <v>2750</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70843,25 +70855,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C27" s="5">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5">
-        <v>450</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="5">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H27" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I27" s="5">
         <v>0</v>
@@ -70870,13 +70882,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>118428</v>
+        <v>2787618</v>
       </c>
       <c r="L27" s="5">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N27" s="5">
         <v>1</v>
@@ -70888,13 +70900,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5">
-        <v>1181480</v>
+        <v>1393888</v>
       </c>
       <c r="R27" s="5">
-        <v>900</v>
+        <v>115</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T27" s="5">
         <v>1</v>
@@ -70906,25 +70918,25 @@
         <v>0</v>
       </c>
       <c r="W27" s="5">
-        <v>23596</v>
+        <v>22300884</v>
       </c>
       <c r="X27" s="5">
-        <v>18</v>
+        <v>1840</v>
       </c>
       <c r="Y27" s="5">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="Z27" s="5">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="AA27" s="5">
         <v>1</v>
       </c>
       <c r="AB27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC27" s="5">
-        <v>8234.1</v>
+        <v>140</v>
       </c>
       <c r="AD27" s="5">
         <v>11</v>
@@ -70933,7 +70945,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="5">
-        <v>3900</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -70941,25 +70953,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C28" s="5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D28" s="5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E28" s="5">
-        <v>450</v>
+        <v>1900</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H28" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -70968,13 +70980,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <v>163328</v>
+        <v>3224388</v>
       </c>
       <c r="L28" s="5">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N28" s="5">
         <v>1</v>
@@ -70986,13 +70998,13 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5">
-        <v>1630480</v>
+        <v>1612273</v>
       </c>
       <c r="R28" s="5">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T28" s="5">
         <v>1</v>
@@ -71004,16 +71016,16 @@
         <v>0</v>
       </c>
       <c r="W28" s="5">
-        <v>32576</v>
+        <v>25795044</v>
       </c>
       <c r="X28" s="5">
-        <v>20</v>
+        <v>1920</v>
       </c>
       <c r="Y28" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Z28" s="5">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="AA28" s="5">
         <v>1</v>
@@ -71022,7 +71034,7 @@
         <v>3</v>
       </c>
       <c r="AC28" s="5">
-        <v>13.39</v>
+        <v>150</v>
       </c>
       <c r="AD28" s="5">
         <v>11</v>
@@ -71031,7 +71043,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="5">
-        <v>4500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
@@ -71039,25 +71051,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="5">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C29" s="5">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="E29" s="5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H29" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I29" s="5">
         <v>0</v>
@@ -71066,13 +71078,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>223208</v>
+        <v>3704148</v>
       </c>
       <c r="L29" s="5">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="N29" s="5">
         <v>1</v>
@@ -71084,13 +71096,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5">
-        <v>2229280</v>
+        <v>1852153</v>
       </c>
       <c r="R29" s="5">
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="T29" s="5">
         <v>1</v>
@@ -71102,16 +71114,16 @@
         <v>0</v>
       </c>
       <c r="W29" s="5">
-        <v>44552</v>
+        <v>29633124</v>
       </c>
       <c r="X29" s="5">
-        <v>24</v>
+        <v>2000</v>
       </c>
       <c r="Y29" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Z29" s="5">
-        <v>212</v>
+        <v>400</v>
       </c>
       <c r="AA29" s="5">
         <v>1</v>
@@ -71120,7 +71132,7 @@
         <v>3</v>
       </c>
       <c r="AC29" s="5">
-        <v>46.7</v>
+        <v>200</v>
       </c>
       <c r="AD29" s="5">
         <v>11</v>
@@ -71129,15 +71141,15 @@
         <v>0</v>
       </c>
       <c r="AF29" s="5">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -71149,13 +71161,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H30" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" s="5">
         <v>0</v>
@@ -71164,7 +71176,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L30" s="5">
         <v>10</v>
@@ -71185,7 +71197,7 @@
         <v>200</v>
       </c>
       <c r="R30" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>299</v>
@@ -71203,7 +71215,7 @@
         <v>2</v>
       </c>
       <c r="X30" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="5">
         <v>0.5</v>
@@ -71235,7 +71247,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -71247,13 +71259,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H31" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31" s="5">
         <v>0</v>
@@ -71262,7 +71274,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="5">
-        <v>735</v>
+        <v>390</v>
       </c>
       <c r="L31" s="5">
         <v>15</v>
@@ -71280,10 +71292,10 @@
         <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <v>875</v>
+        <v>1100</v>
       </c>
       <c r="R31" s="5">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>299</v>
@@ -71298,16 +71310,16 @@
         <v>0</v>
       </c>
       <c r="W31" s="5">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="X31" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y31" s="5">
         <v>0.8</v>
       </c>
       <c r="Z31" s="5">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AA31" s="5">
         <v>1</v>
@@ -71333,7 +71345,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -71345,13 +71357,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H32" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -71360,7 +71372,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>1315</v>
+        <v>975</v>
       </c>
       <c r="L32" s="5">
         <v>20</v>
@@ -71378,10 +71390,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="5">
-        <v>3775</v>
+        <v>6950</v>
       </c>
       <c r="R32" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>299</v>
@@ -71396,16 +71408,16 @@
         <v>0</v>
       </c>
       <c r="W32" s="5">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="X32" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y32" s="5">
         <v>1</v>
       </c>
       <c r="Z32" s="5">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="AA32" s="5">
         <v>1</v>
@@ -71431,7 +71443,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
@@ -71443,13 +71455,13 @@
         <v>60</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H33" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" s="5">
         <v>0</v>
@@ -71458,7 +71470,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="5">
-        <v>2790</v>
+        <v>2555</v>
       </c>
       <c r="L33" s="5">
         <v>25</v>
@@ -71476,10 +71488,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <v>11150</v>
+        <v>22750</v>
       </c>
       <c r="R33" s="5">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>299</v>
@@ -71494,16 +71506,16 @@
         <v>0</v>
       </c>
       <c r="W33" s="5">
-        <v>693</v>
+        <v>453</v>
       </c>
       <c r="X33" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y33" s="5">
         <v>1.2</v>
       </c>
       <c r="Z33" s="5">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="AA33" s="5">
         <v>1</v>
@@ -71529,7 +71541,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C34" s="5">
         <v>4</v>
@@ -71541,13 +71553,13 @@
         <v>80</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H34" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
@@ -71556,7 +71568,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>5318</v>
+        <v>5530</v>
       </c>
       <c r="L34" s="5">
         <v>32</v>
@@ -71574,10 +71586,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="5">
-        <v>23790</v>
+        <v>52500</v>
       </c>
       <c r="R34" s="5">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>299</v>
@@ -71592,16 +71604,16 @@
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <v>1483</v>
+        <v>1048</v>
       </c>
       <c r="X34" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y34" s="5">
         <v>1.5</v>
       </c>
       <c r="Z34" s="5">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="AA34" s="5">
         <v>1</v>
@@ -71627,7 +71639,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C35" s="5">
         <v>5</v>
@@ -71639,13 +71651,13 @@
         <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H35" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" s="5">
         <v>0</v>
@@ -71654,7 +71666,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="5">
-        <v>10078</v>
+        <v>11258</v>
       </c>
       <c r="L35" s="5">
         <v>40</v>
@@ -71672,10 +71684,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <v>47590</v>
+        <v>109780</v>
       </c>
       <c r="R35" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>299</v>
@@ -71690,16 +71702,16 @@
         <v>0</v>
       </c>
       <c r="W35" s="5">
-        <v>2911</v>
+        <v>2122</v>
       </c>
       <c r="X35" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y35" s="5">
         <v>2</v>
       </c>
       <c r="Z35" s="5">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="AA35" s="5">
         <v>1</v>
@@ -71725,7 +71737,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C36" s="5">
         <v>6</v>
@@ -71737,13 +71749,13 @@
         <v>180</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H36" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" s="5">
         <v>0</v>
@@ -71752,7 +71764,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>19028</v>
+        <v>21218</v>
       </c>
       <c r="L36" s="5">
         <v>50</v>
@@ -71770,10 +71782,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="5">
-        <v>92340</v>
+        <v>209380</v>
       </c>
       <c r="R36" s="5">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>299</v>
@@ -71788,16 +71800,16 @@
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <v>5596</v>
+        <v>4114</v>
       </c>
       <c r="X36" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="5">
         <v>2.5</v>
       </c>
       <c r="Z36" s="5">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="AA36" s="5">
         <v>1</v>
@@ -71823,7 +71835,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C37" s="5">
         <v>7</v>
@@ -71835,13 +71847,13 @@
         <v>250</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H37" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="5">
         <v>0</v>
@@ -71850,7 +71862,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>33968</v>
+        <v>36168</v>
       </c>
       <c r="L37" s="5">
         <v>60</v>
@@ -71868,10 +71880,10 @@
         <v>0</v>
       </c>
       <c r="Q37" s="5">
-        <v>167040</v>
+        <v>358880</v>
       </c>
       <c r="R37" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>299</v>
@@ -71886,16 +71898,16 @@
         <v>0</v>
       </c>
       <c r="W37" s="5">
-        <v>10078</v>
+        <v>7104</v>
       </c>
       <c r="X37" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y37" s="5">
         <v>3</v>
       </c>
       <c r="Z37" s="5">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="AA37" s="5">
         <v>1</v>
@@ -71921,7 +71933,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C38" s="5">
         <v>8</v>
@@ -71933,13 +71945,13 @@
         <v>300</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H38" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" s="5">
         <v>0</v>
@@ -71948,7 +71960,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <v>54898</v>
+        <v>57108</v>
       </c>
       <c r="L38" s="5">
         <v>70</v>
@@ -71966,10 +71978,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="5">
-        <v>271690</v>
+        <v>568280</v>
       </c>
       <c r="R38" s="5">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>299</v>
@@ -71984,16 +71996,16 @@
         <v>0</v>
       </c>
       <c r="W38" s="5">
-        <v>16357</v>
+        <v>11292</v>
       </c>
       <c r="X38" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y38" s="5">
         <v>3.5</v>
       </c>
       <c r="Z38" s="5">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="AA38" s="5">
         <v>1</v>
@@ -72019,7 +72031,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C39" s="5">
         <v>9</v>
@@ -72031,13 +72043,13 @@
         <v>350</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H39" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" s="5">
         <v>0</v>
@@ -72046,7 +72058,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5">
-        <v>82818</v>
+        <v>85038</v>
       </c>
       <c r="L39" s="5">
         <v>80</v>
@@ -72064,10 +72076,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="5">
-        <v>411290</v>
+        <v>847580</v>
       </c>
       <c r="R39" s="5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>299</v>
@@ -72082,16 +72094,16 @@
         <v>0</v>
       </c>
       <c r="W39" s="5">
-        <v>24733</v>
+        <v>16878</v>
       </c>
       <c r="X39" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Y39" s="5">
         <v>4</v>
       </c>
       <c r="Z39" s="5">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="AA39" s="5">
         <v>1</v>
@@ -72117,7 +72129,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C40" s="5">
         <v>10</v>
@@ -72129,13 +72141,13 @@
         <v>400</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H40" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" s="5">
         <v>0</v>
@@ -72144,7 +72156,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>118728</v>
+        <v>124958</v>
       </c>
       <c r="L40" s="5">
         <v>90</v>
@@ -72162,10 +72174,10 @@
         <v>0</v>
       </c>
       <c r="Q40" s="5">
-        <v>590840</v>
+        <v>1246780</v>
       </c>
       <c r="R40" s="5">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>299</v>
@@ -72180,16 +72192,16 @@
         <v>0</v>
       </c>
       <c r="W40" s="5">
-        <v>35506</v>
+        <v>24862</v>
       </c>
       <c r="X40" s="5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y40" s="5">
         <v>4.5</v>
       </c>
       <c r="Z40" s="5">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="AA40" s="5">
         <v>1</v>
@@ -72215,7 +72227,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C41" s="5">
         <v>11</v>
@@ -72227,13 +72239,13 @@
         <v>450</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H41" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41" s="5">
         <v>0</v>
@@ -72242,7 +72254,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5">
-        <v>163628</v>
+        <v>178868</v>
       </c>
       <c r="L41" s="5">
         <v>100</v>
@@ -72260,10 +72272,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="5">
-        <v>815340</v>
+        <v>1785880</v>
       </c>
       <c r="R41" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>299</v>
@@ -72278,16 +72290,16 @@
         <v>0</v>
       </c>
       <c r="W41" s="5">
-        <v>48976</v>
+        <v>35644</v>
       </c>
       <c r="X41" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y41" s="5">
         <v>5</v>
       </c>
       <c r="Z41" s="5">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="AA41" s="5">
         <v>1</v>
@@ -72313,7 +72325,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C42" s="5">
         <v>12</v>
@@ -72325,13 +72337,13 @@
         <v>500</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" s="5">
         <v>0</v>
@@ -72340,7 +72352,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>223508</v>
+        <v>248768</v>
       </c>
       <c r="L42" s="5">
         <v>120</v>
@@ -72358,10 +72370,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="5">
-        <v>1114740</v>
+        <v>2484880</v>
       </c>
       <c r="R42" s="5">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>299</v>
@@ -72376,16 +72388,16 @@
         <v>0</v>
       </c>
       <c r="W42" s="5">
-        <v>66940</v>
+        <v>49624</v>
       </c>
       <c r="X42" s="5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Y42" s="5">
         <v>6</v>
       </c>
       <c r="Z42" s="5">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AA42" s="5">
         <v>1</v>
@@ -72404,6 +72416,3828 @@
       </c>
       <c r="AF42" s="5">
         <v>8250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5">
+        <v>900</v>
+      </c>
+      <c r="E43" s="5">
+        <v>800</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>344648</v>
+      </c>
+      <c r="L43" s="5">
+        <v>130</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>3443680</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1300</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T43" s="5">
+        <v>1</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
+        <v>68800</v>
+      </c>
+      <c r="X43" s="5">
+        <v>26</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C44" s="5">
+        <v>14</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="5">
+        <v>900</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>461518</v>
+      </c>
+      <c r="L44" s="5">
+        <v>140</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>4612380</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1400</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T44" s="5">
+        <v>1</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>92174</v>
+      </c>
+      <c r="X44" s="5">
+        <v>28</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C45" s="5">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>601378</v>
+      </c>
+      <c r="L45" s="5">
+        <v>150</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>6010980</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1500</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T45" s="5">
+        <v>1</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <v>120146</v>
+      </c>
+      <c r="X45" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>70</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C46" s="5">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>766228</v>
+      </c>
+      <c r="L46" s="5">
+        <v>160</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>7659480</v>
+      </c>
+      <c r="R46" s="5">
+        <v>1600</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T46" s="5">
+        <v>1</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="5">
+        <v>153116</v>
+      </c>
+      <c r="X46" s="5">
+        <v>32</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="5">
+        <v>80</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C47" s="5">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>958068</v>
+      </c>
+      <c r="L47" s="5">
+        <v>170</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>9577880</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1700</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T47" s="5">
+        <v>1</v>
+      </c>
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="5">
+        <v>191484</v>
+      </c>
+      <c r="X47" s="5">
+        <v>34</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="5">
+        <v>90</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C48" s="5">
+        <v>18</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1178898</v>
+      </c>
+      <c r="L48" s="5">
+        <v>180</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>11786180</v>
+      </c>
+      <c r="R48" s="5">
+        <v>1800</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T48" s="5">
+        <v>1</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="5">
+        <v>235650</v>
+      </c>
+      <c r="X48" s="5">
+        <v>36</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C49" s="5">
+        <v>19</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>1430718</v>
+      </c>
+      <c r="L49" s="5">
+        <v>190</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>14304380</v>
+      </c>
+      <c r="R49" s="5">
+        <v>1900</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T49" s="5">
+        <v>1</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="5">
+        <v>286014</v>
+      </c>
+      <c r="X49" s="5">
+        <v>38</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>110</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C50" s="5">
+        <v>20</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>1715528</v>
+      </c>
+      <c r="L50" s="5">
+        <v>200</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N50" s="5">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>17152480</v>
+      </c>
+      <c r="R50" s="5">
+        <v>2000</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T50" s="5">
+        <v>1</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <v>342976</v>
+      </c>
+      <c r="X50" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C51" s="5">
+        <v>21</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1700</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1600</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>2035328</v>
+      </c>
+      <c r="L51" s="5">
+        <v>210</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>20350480</v>
+      </c>
+      <c r="R51" s="5">
+        <v>2100</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T51" s="5">
+        <v>1</v>
+      </c>
+      <c r="U51" s="5">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5">
+        <v>406936</v>
+      </c>
+      <c r="X51" s="5">
+        <v>42</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC51" s="5">
+        <v>130</v>
+      </c>
+      <c r="AD51" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C52" s="5">
+        <v>22</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>2392118</v>
+      </c>
+      <c r="L52" s="5">
+        <v>220</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>23918380</v>
+      </c>
+      <c r="R52" s="5">
+        <v>2200</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T52" s="5">
+        <v>1</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52" s="5">
+        <v>478294</v>
+      </c>
+      <c r="X52" s="5">
+        <v>44</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="5">
+        <v>140</v>
+      </c>
+      <c r="AD52" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C53" s="5">
+        <v>23</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1800</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <v>2787898</v>
+      </c>
+      <c r="L53" s="5">
+        <v>230</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>27876180</v>
+      </c>
+      <c r="R53" s="5">
+        <v>2300</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T53" s="5">
+        <v>1</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+      <c r="W53" s="5">
+        <v>557450</v>
+      </c>
+      <c r="X53" s="5">
+        <v>46</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>150</v>
+      </c>
+      <c r="AD53" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C54" s="5">
+        <v>24</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1900</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5">
+        <v>3224668</v>
+      </c>
+      <c r="L54" s="5">
+        <v>240</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N54" s="5">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>32243880</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2400</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T54" s="5">
+        <v>1</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5">
+        <v>644804</v>
+      </c>
+      <c r="X54" s="5">
+        <v>48</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>170</v>
+      </c>
+      <c r="AD54" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C55" s="5">
+        <v>25</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5">
+        <v>3704428</v>
+      </c>
+      <c r="L55" s="5">
+        <v>250</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N55" s="5">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>37041480</v>
+      </c>
+      <c r="R55" s="5">
+        <v>2500</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T55" s="5">
+        <v>1</v>
+      </c>
+      <c r="U55" s="5">
+        <v>0</v>
+      </c>
+      <c r="V55" s="5">
+        <v>0</v>
+      </c>
+      <c r="W55" s="5">
+        <v>740756</v>
+      </c>
+      <c r="X55" s="5">
+        <v>50</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="5">
+        <v>200</v>
+      </c>
+      <c r="AD55" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>10</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="5">
+        <v>4</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5">
+        <v>600</v>
+      </c>
+      <c r="L56" s="5">
+        <v>10</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>200</v>
+      </c>
+      <c r="R56" s="5">
+        <v>50</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T56" s="5">
+        <v>1</v>
+      </c>
+      <c r="U56" s="5">
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+      <c r="W56" s="5">
+        <v>2</v>
+      </c>
+      <c r="X56" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF56" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>30</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="5">
+        <v>4</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5">
+        <v>690</v>
+      </c>
+      <c r="L57" s="5">
+        <v>15</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N57" s="5">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>650</v>
+      </c>
+      <c r="R57" s="5">
+        <v>75</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T57" s="5">
+        <v>1</v>
+      </c>
+      <c r="U57" s="5">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
+        <v>0</v>
+      </c>
+      <c r="W57" s="5">
+        <v>29</v>
+      </c>
+      <c r="X57" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>301</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>33.33</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>60</v>
+      </c>
+      <c r="E58" s="5">
+        <v>30</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H58" s="5">
+        <v>4</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>1275</v>
+      </c>
+      <c r="L58" s="5">
+        <v>20</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>3575</v>
+      </c>
+      <c r="R58" s="5">
+        <v>100</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T58" s="5">
+        <v>1</v>
+      </c>
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
+        <v>0</v>
+      </c>
+      <c r="W58" s="5">
+        <v>224</v>
+      </c>
+      <c r="X58" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>302</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>111.71</v>
+      </c>
+      <c r="AD58" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5">
+        <v>80</v>
+      </c>
+      <c r="E59" s="5">
+        <v>60</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5">
+        <v>2855</v>
+      </c>
+      <c r="L59" s="5">
+        <v>25</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>11475</v>
+      </c>
+      <c r="R59" s="5">
+        <v>125</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T59" s="5">
+        <v>1</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <v>0</v>
+      </c>
+      <c r="W59" s="5">
+        <v>698</v>
+      </c>
+      <c r="X59" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>303</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>1491.47</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>57</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5">
+        <v>120</v>
+      </c>
+      <c r="E60" s="5">
+        <v>80</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="5">
+        <v>4</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>5830</v>
+      </c>
+      <c r="L60" s="5">
+        <v>32</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N60" s="5">
+        <v>1</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>26350</v>
+      </c>
+      <c r="R60" s="5">
+        <v>160</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T60" s="5">
+        <v>1</v>
+      </c>
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
+        <v>0</v>
+      </c>
+      <c r="W60" s="5">
+        <v>1650</v>
+      </c>
+      <c r="X60" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>304</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>6045.68</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5">
+        <v>180</v>
+      </c>
+      <c r="E61" s="5">
+        <v>120</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="5">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>11558</v>
+      </c>
+      <c r="L61" s="5">
+        <v>40</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>54990</v>
+      </c>
+      <c r="R61" s="5">
+        <v>200</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T61" s="5">
+        <v>1</v>
+      </c>
+      <c r="U61" s="5">
+        <v>0</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61" s="5">
+        <v>3440</v>
+      </c>
+      <c r="X61" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>305</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>32.18</v>
+      </c>
+      <c r="AD61" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5">
+        <v>250</v>
+      </c>
+      <c r="E62" s="5">
+        <v>180</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="5">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>21518</v>
+      </c>
+      <c r="L62" s="5">
+        <v>50</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>104790</v>
+      </c>
+      <c r="R62" s="5">
+        <v>250</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T62" s="5">
+        <v>1</v>
+      </c>
+      <c r="U62" s="5">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5">
+        <v>6428</v>
+      </c>
+      <c r="X62" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>306</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>187.32</v>
+      </c>
+      <c r="AD62" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C63" s="5">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>300</v>
+      </c>
+      <c r="E63" s="5">
+        <v>250</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="5">
+        <v>4</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>36468</v>
+      </c>
+      <c r="L63" s="5">
+        <v>60</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>179540</v>
+      </c>
+      <c r="R63" s="5">
+        <v>300</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T63" s="5">
+        <v>1</v>
+      </c>
+      <c r="U63" s="5">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5">
+        <v>10913</v>
+      </c>
+      <c r="X63" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>307</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>432.59</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C64" s="5">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5">
+        <v>350</v>
+      </c>
+      <c r="E64" s="5">
+        <v>300</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="5">
+        <v>4</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>57408</v>
+      </c>
+      <c r="L64" s="5">
+        <v>70</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N64" s="5">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>284240</v>
+      </c>
+      <c r="R64" s="5">
+        <v>350</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T64" s="5">
+        <v>1</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64" s="5">
+        <v>17195</v>
+      </c>
+      <c r="X64" s="5">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>308</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>2416.3000000000002</v>
+      </c>
+      <c r="AD64" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C65" s="5">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5">
+        <v>400</v>
+      </c>
+      <c r="E65" s="5">
+        <v>350</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="5">
+        <v>4</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>85338</v>
+      </c>
+      <c r="L65" s="5">
+        <v>80</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>423890</v>
+      </c>
+      <c r="R65" s="5">
+        <v>400</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T65" s="5">
+        <v>1</v>
+      </c>
+      <c r="U65" s="5">
+        <v>0</v>
+      </c>
+      <c r="V65" s="5">
+        <v>0</v>
+      </c>
+      <c r="W65" s="5">
+        <v>25574</v>
+      </c>
+      <c r="X65" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>309</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>5365.34</v>
+      </c>
+      <c r="AD65" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="5">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C66" s="5">
+        <v>10</v>
+      </c>
+      <c r="D66" s="5">
+        <v>450</v>
+      </c>
+      <c r="E66" s="5">
+        <v>400</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="5">
+        <v>4</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="5">
+        <v>125258</v>
+      </c>
+      <c r="L66" s="5">
+        <v>90</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N66" s="5">
+        <v>1</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>623490</v>
+      </c>
+      <c r="R66" s="5">
+        <v>450</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T66" s="5">
+        <v>1</v>
+      </c>
+      <c r="U66" s="5">
+        <v>0</v>
+      </c>
+      <c r="V66" s="5">
+        <v>0</v>
+      </c>
+      <c r="W66" s="5">
+        <v>37550</v>
+      </c>
+      <c r="X66" s="5">
+        <v>27</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>310</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>8234.1</v>
+      </c>
+      <c r="AD66" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="5">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C67" s="5">
+        <v>11</v>
+      </c>
+      <c r="D67" s="5">
+        <v>500</v>
+      </c>
+      <c r="E67" s="5">
+        <v>450</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="5">
+        <v>4</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>179168</v>
+      </c>
+      <c r="L67" s="5">
+        <v>100</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N67" s="5">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>893040</v>
+      </c>
+      <c r="R67" s="5">
+        <v>500</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T67" s="5">
+        <v>1</v>
+      </c>
+      <c r="U67" s="5">
+        <v>0</v>
+      </c>
+      <c r="V67" s="5">
+        <v>0</v>
+      </c>
+      <c r="W67" s="5">
+        <v>53723</v>
+      </c>
+      <c r="X67" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>311</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC67" s="5">
+        <v>13.39</v>
+      </c>
+      <c r="AD67" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="5">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C68" s="5">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="5">
+        <v>500</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="5">
+        <v>4</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>249068</v>
+      </c>
+      <c r="L68" s="5">
+        <v>120</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>1242540</v>
+      </c>
+      <c r="R68" s="5">
+        <v>600</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T68" s="5">
+        <v>1</v>
+      </c>
+      <c r="U68" s="5">
+        <v>0</v>
+      </c>
+      <c r="V68" s="5">
+        <v>0</v>
+      </c>
+      <c r="W68" s="5">
+        <v>74693</v>
+      </c>
+      <c r="X68" s="5">
+        <v>36</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z68" s="5">
+        <v>312</v>
+      </c>
+      <c r="AA68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC68" s="5">
+        <v>46.7</v>
+      </c>
+      <c r="AD68" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE68" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="5">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C69" s="5">
+        <v>13</v>
+      </c>
+      <c r="D69" s="5">
+        <v>900</v>
+      </c>
+      <c r="E69" s="5">
+        <v>800</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="5">
+        <v>4</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <v>344948</v>
+      </c>
+      <c r="L69" s="5">
+        <v>130</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N69" s="5">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>1721940</v>
+      </c>
+      <c r="R69" s="5">
+        <v>650</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T69" s="5">
+        <v>1</v>
+      </c>
+      <c r="U69" s="5">
+        <v>0</v>
+      </c>
+      <c r="V69" s="5">
+        <v>0</v>
+      </c>
+      <c r="W69" s="5">
+        <v>103457</v>
+      </c>
+      <c r="X69" s="5">
+        <v>39</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC69" s="5">
+        <v>50</v>
+      </c>
+      <c r="AD69" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C70" s="5">
+        <v>14</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E70" s="5">
+        <v>900</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="5">
+        <v>4</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <v>461818</v>
+      </c>
+      <c r="L70" s="5">
+        <v>140</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N70" s="5">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>2306290</v>
+      </c>
+      <c r="R70" s="5">
+        <v>700</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T70" s="5">
+        <v>1</v>
+      </c>
+      <c r="U70" s="5">
+        <v>0</v>
+      </c>
+      <c r="V70" s="5">
+        <v>0</v>
+      </c>
+      <c r="W70" s="5">
+        <v>138518</v>
+      </c>
+      <c r="X70" s="5">
+        <v>42</v>
+      </c>
+      <c r="Y70" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC70" s="5">
+        <v>60</v>
+      </c>
+      <c r="AD70" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE70" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C71" s="5">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="5">
+        <v>4</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="5">
+        <v>601678</v>
+      </c>
+      <c r="L71" s="5">
+        <v>150</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N71" s="5">
+        <v>1</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>3005590</v>
+      </c>
+      <c r="R71" s="5">
+        <v>750</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T71" s="5">
+        <v>1</v>
+      </c>
+      <c r="U71" s="5">
+        <v>0</v>
+      </c>
+      <c r="V71" s="5">
+        <v>0</v>
+      </c>
+      <c r="W71" s="5">
+        <v>180476</v>
+      </c>
+      <c r="X71" s="5">
+        <v>45</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC71" s="5">
+        <v>70</v>
+      </c>
+      <c r="AD71" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="5">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C72" s="5">
+        <v>16</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="5">
+        <v>4</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="5">
+        <v>766528</v>
+      </c>
+      <c r="L72" s="5">
+        <v>160</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N72" s="5">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>3829840</v>
+      </c>
+      <c r="R72" s="5">
+        <v>800</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T72" s="5">
+        <v>1</v>
+      </c>
+      <c r="U72" s="5">
+        <v>0</v>
+      </c>
+      <c r="V72" s="5">
+        <v>0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>229931</v>
+      </c>
+      <c r="X72" s="5">
+        <v>48</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="5">
+        <v>80</v>
+      </c>
+      <c r="AD72" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C73" s="5">
+        <v>17</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="5">
+        <v>4</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="5">
+        <v>958368</v>
+      </c>
+      <c r="L73" s="5">
+        <v>170</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N73" s="5">
+        <v>1</v>
+      </c>
+      <c r="O73" s="5">
+        <v>0</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>4789040</v>
+      </c>
+      <c r="R73" s="5">
+        <v>850</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T73" s="5">
+        <v>1</v>
+      </c>
+      <c r="U73" s="5">
+        <v>0</v>
+      </c>
+      <c r="V73" s="5">
+        <v>0</v>
+      </c>
+      <c r="W73" s="5">
+        <v>287483</v>
+      </c>
+      <c r="X73" s="5">
+        <v>51</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC73" s="5">
+        <v>90</v>
+      </c>
+      <c r="AD73" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="5">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C74" s="5">
+        <v>18</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="5">
+        <v>4</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
+        <v>1179198</v>
+      </c>
+      <c r="L74" s="5">
+        <v>180</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N74" s="5">
+        <v>1</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>5893190</v>
+      </c>
+      <c r="R74" s="5">
+        <v>900</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T74" s="5">
+        <v>1</v>
+      </c>
+      <c r="U74" s="5">
+        <v>0</v>
+      </c>
+      <c r="V74" s="5">
+        <v>0</v>
+      </c>
+      <c r="W74" s="5">
+        <v>353732</v>
+      </c>
+      <c r="X74" s="5">
+        <v>54</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC74" s="5">
+        <v>100</v>
+      </c>
+      <c r="AD74" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C75" s="5">
+        <v>19</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="5">
+        <v>4</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
+        <v>1431018</v>
+      </c>
+      <c r="L75" s="5">
+        <v>190</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N75" s="5">
+        <v>1</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>7152290</v>
+      </c>
+      <c r="R75" s="5">
+        <v>950</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T75" s="5">
+        <v>1</v>
+      </c>
+      <c r="U75" s="5">
+        <v>0</v>
+      </c>
+      <c r="V75" s="5">
+        <v>0</v>
+      </c>
+      <c r="W75" s="5">
+        <v>429278</v>
+      </c>
+      <c r="X75" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC75" s="5">
+        <v>110</v>
+      </c>
+      <c r="AD75" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C76" s="5">
+        <v>20</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="5">
+        <v>4</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <v>1715828</v>
+      </c>
+      <c r="L76" s="5">
+        <v>200</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N76" s="5">
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <v>0</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>8576340</v>
+      </c>
+      <c r="R76" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T76" s="5">
+        <v>1</v>
+      </c>
+      <c r="U76" s="5">
+        <v>0</v>
+      </c>
+      <c r="V76" s="5">
+        <v>0</v>
+      </c>
+      <c r="W76" s="5">
+        <v>514721</v>
+      </c>
+      <c r="X76" s="5">
+        <v>60</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="5">
+        <v>120</v>
+      </c>
+      <c r="AD76" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C77" s="5">
+        <v>21</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1700</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1600</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="5">
+        <v>4</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="5">
+        <v>2035628</v>
+      </c>
+      <c r="L77" s="5">
+        <v>210</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N77" s="5">
+        <v>1</v>
+      </c>
+      <c r="O77" s="5">
+        <v>0</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>10175340</v>
+      </c>
+      <c r="R77" s="5">
+        <v>1050</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T77" s="5">
+        <v>1</v>
+      </c>
+      <c r="U77" s="5">
+        <v>0</v>
+      </c>
+      <c r="V77" s="5">
+        <v>0</v>
+      </c>
+      <c r="W77" s="5">
+        <v>610661</v>
+      </c>
+      <c r="X77" s="5">
+        <v>63</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>11</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="5">
+        <v>130</v>
+      </c>
+      <c r="AD77" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE77" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C78" s="5">
+        <v>22</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H78" s="5">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="5">
+        <v>2392418</v>
+      </c>
+      <c r="L78" s="5">
+        <v>220</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N78" s="5">
+        <v>1</v>
+      </c>
+      <c r="O78" s="5">
+        <v>0</v>
+      </c>
+      <c r="P78" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>11959290</v>
+      </c>
+      <c r="R78" s="5">
+        <v>1100</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T78" s="5">
+        <v>1</v>
+      </c>
+      <c r="U78" s="5">
+        <v>0</v>
+      </c>
+      <c r="V78" s="5">
+        <v>0</v>
+      </c>
+      <c r="W78" s="5">
+        <v>717698</v>
+      </c>
+      <c r="X78" s="5">
+        <v>66</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC78" s="5">
+        <v>140</v>
+      </c>
+      <c r="AD78" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C79" s="5">
+        <v>23</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1800</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H79" s="5">
+        <v>4</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="5">
+        <v>2788198</v>
+      </c>
+      <c r="L79" s="5">
+        <v>230</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N79" s="5">
+        <v>1</v>
+      </c>
+      <c r="O79" s="5">
+        <v>0</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>13938190</v>
+      </c>
+      <c r="R79" s="5">
+        <v>1150</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T79" s="5">
+        <v>1</v>
+      </c>
+      <c r="U79" s="5">
+        <v>0</v>
+      </c>
+      <c r="V79" s="5">
+        <v>0</v>
+      </c>
+      <c r="W79" s="5">
+        <v>836432</v>
+      </c>
+      <c r="X79" s="5">
+        <v>69</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>13</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC79" s="5">
+        <v>150</v>
+      </c>
+      <c r="AD79" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE79" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C80" s="5">
+        <v>24</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1900</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" s="5">
+        <v>4</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <v>3224968</v>
+      </c>
+      <c r="L80" s="5">
+        <v>240</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N80" s="5">
+        <v>1</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>16122040</v>
+      </c>
+      <c r="R80" s="5">
+        <v>1200</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T80" s="5">
+        <v>1</v>
+      </c>
+      <c r="U80" s="5">
+        <v>0</v>
+      </c>
+      <c r="V80" s="5">
+        <v>0</v>
+      </c>
+      <c r="W80" s="5">
+        <v>967463</v>
+      </c>
+      <c r="X80" s="5">
+        <v>72</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC80" s="5">
+        <v>170</v>
+      </c>
+      <c r="AD80" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE80" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C81" s="5">
+        <v>25</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="5">
+        <v>4</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <v>3704728</v>
+      </c>
+      <c r="L81" s="5">
+        <v>250</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N81" s="5">
+        <v>1</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>18520840</v>
+      </c>
+      <c r="R81" s="5">
+        <v>1250</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T81" s="5">
+        <v>1</v>
+      </c>
+      <c r="U81" s="5">
+        <v>0</v>
+      </c>
+      <c r="V81" s="5">
+        <v>0</v>
+      </c>
+      <c r="W81" s="5">
+        <v>1111391</v>
+      </c>
+      <c r="X81" s="5">
+        <v>75</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>400</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC81" s="5">
+        <v>200</v>
+      </c>
+      <c r="AD81" s="5">
+        <v>11</v>
+      </c>
+      <c r="AE81" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="5">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -72415,13 +76249,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72658,7 +76492,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -72853,7 +76687,7 @@
         <v>135</v>
       </c>
       <c r="G9" s="5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -74323,6 +78157,45 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5">
+        <v>400</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="5">
+        <v>31</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -74336,7 +78209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
